--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/puppteer/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25451477-708D-214F-8298-35C115BCCD0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAE0195-04F1-9D40-92A7-55696664B1D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10480" yWindow="760" windowWidth="11500" windowHeight="19760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="价格" sheetId="1" r:id="rId1"/>
@@ -4455,7 +4455,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4493,7 +4493,7 @@
       </c>
       <c r="E2" s="6">
         <f>D2/(D15)</f>
-        <v>1.2033694344163659E-3</v>
+        <v>1.2422360248447205E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4501,18 +4501,18 @@
         <v>376</v>
       </c>
       <c r="B3">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C3">
         <v>700</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E3" s="6">
         <f>D3/(D15)</f>
-        <v>3.4596871239470514E-2</v>
+        <v>3.4782608695652174E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4520,18 +4520,18 @@
         <v>377</v>
       </c>
       <c r="B4">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="C4">
         <v>750</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D14" si="0">C4-B4</f>
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E4" s="6">
         <f>D4/(D15)</f>
-        <v>3.5048134777376658E-2</v>
+        <v>3.5403726708074533E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16">
@@ -4539,18 +4539,18 @@
         <v>375</v>
       </c>
       <c r="B5">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C5">
         <v>750</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E5" s="6">
         <f>D5/(D15)</f>
-        <v>3.6552346570397111E-2</v>
+        <v>3.6645962732919257E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4558,18 +4558,18 @@
         <v>385</v>
       </c>
       <c r="B6">
-        <v>1379</v>
+        <v>1404</v>
       </c>
       <c r="C6">
         <v>2056</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>677</v>
+        <v>652</v>
       </c>
       <c r="E6" s="6">
         <f>D6/(D15)</f>
-        <v>0.10183513838748495</v>
+        <v>0.10124223602484472</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4577,18 +4577,18 @@
         <v>384</v>
       </c>
       <c r="B7">
-        <v>1391</v>
+        <v>1414</v>
       </c>
       <c r="C7">
         <v>2056</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="E7" s="6">
         <f>D7/(D15)</f>
-        <v>0.10003008423586041</v>
+        <v>9.9689440993788819E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4596,18 +4596,18 @@
         <v>383</v>
       </c>
       <c r="B8">
-        <v>1395</v>
+        <v>1414</v>
       </c>
       <c r="C8">
         <v>2056</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="E8" s="6">
         <f>D8/(D15)</f>
-        <v>9.9428399518652233E-2</v>
+        <v>9.9689440993788819E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4615,18 +4615,18 @@
         <v>386</v>
       </c>
       <c r="B9">
-        <v>1374</v>
+        <v>1395</v>
       </c>
       <c r="C9">
         <v>2056</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="E9" s="6">
         <f>D9/(D15)</f>
-        <v>0.10258724428399518</v>
+        <v>0.10263975155279503</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4634,18 +4634,18 @@
         <v>387</v>
       </c>
       <c r="B10">
-        <v>1433</v>
+        <v>1451</v>
       </c>
       <c r="C10">
         <v>2056</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="E10" s="6">
         <f>D10/(D15)</f>
-        <v>9.3712394705174493E-2</v>
+        <v>9.3944099378881984E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4653,18 +4653,18 @@
         <v>382</v>
       </c>
       <c r="B11">
-        <v>1419</v>
+        <v>1441</v>
       </c>
       <c r="C11">
         <v>2056</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>637</v>
+        <v>615</v>
       </c>
       <c r="E11" s="6">
         <f>D11/(D15)</f>
-        <v>9.5818291215403126E-2</v>
+        <v>9.5496894409937888E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4672,18 +4672,18 @@
         <v>381</v>
       </c>
       <c r="B12">
-        <v>1382</v>
+        <v>1403</v>
       </c>
       <c r="C12">
         <v>2056</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>674</v>
+        <v>653</v>
       </c>
       <c r="E12" s="6">
         <f>D12/(D15)</f>
-        <v>0.10138387484957882</v>
+        <v>0.10139751552795032</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4691,18 +4691,18 @@
         <v>380</v>
       </c>
       <c r="B13">
-        <v>1390</v>
+        <v>1406</v>
       </c>
       <c r="C13">
         <v>2056</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="E13" s="6">
         <f>D13/(D15)</f>
-        <v>0.10018050541516245</v>
+        <v>0.10093167701863354</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4710,25 +4710,25 @@
         <v>388</v>
       </c>
       <c r="B14">
-        <v>1407</v>
+        <v>1432</v>
       </c>
       <c r="C14">
         <v>2056</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="E14" s="6">
         <f>D14/(D15)</f>
-        <v>9.7623345367027672E-2</v>
+        <v>9.6894409937888198E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B2:B14)</f>
-        <v>14076</v>
+        <v>14284</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C14)</f>
@@ -4736,12 +4736,12 @@
       </c>
       <c r="D15">
         <f>SUM(D2:D14)</f>
-        <v>6648</v>
+        <v>6440</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8">
-        <v>44653.407997685186</v>
+        <v>44653.67564814815</v>
       </c>
     </row>
     <row r="17" spans="1:1">

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAE0195-04F1-9D40-92A7-55696664B1D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2226E937-D5A6-884D-8B99-E3B7568C5B68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10480" yWindow="760" windowWidth="11500" windowHeight="19760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10480" yWindow="460" windowWidth="17240" windowHeight="19160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="价格" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="391">
   <si>
     <t>藏品名字</t>
   </si>
@@ -1203,6 +1203,14 @@
   </si>
   <si>
     <t>艾斯波列塔（ESPOLETA）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api-h5.ibox.art/nft-mall-web/v1.2/nft/product/getProductListByAlbumId?page=1&amp;pageSize=50&amp;albumId=100513762&amp;onSale=0&amp;order=0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1210,7 +1218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1252,6 +1260,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1288,10 +1312,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1301,9 +1326,14 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -4452,18 +4482,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D06DC-D0D3-DC41-8495-1A009DF45D20}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>372</v>
       </c>
@@ -4476,259 +4507,301 @@
       <c r="E1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>379</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>20</v>
       </c>
       <c r="D2">
         <f>C2-B2</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" s="6">
         <f>D2/(D15)</f>
-        <v>1.2422360248447205E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>1.1426394972386211E-3</v>
+      </c>
+      <c r="F2" s="9">
+        <v>100513772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>376</v>
       </c>
       <c r="B3">
-        <v>476</v>
+        <v>518</v>
       </c>
       <c r="C3">
         <v>700</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="E3" s="6">
         <f>D3/(D15)</f>
-        <v>3.4782608695652174E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>3.4660064749571513E-2</v>
+      </c>
+      <c r="F3" s="9">
+        <v>101040087</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>377</v>
       </c>
       <c r="B4">
-        <v>522</v>
+        <v>566</v>
       </c>
       <c r="C4">
         <v>750</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D14" si="0">C4-B4</f>
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="E4" s="6">
         <f>D4/(D15)</f>
-        <v>3.5403726708074533E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16">
+        <v>3.5040944581984382E-2</v>
+      </c>
+      <c r="F4" s="9">
+        <v>100513761</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16">
       <c r="A5" s="3" t="s">
         <v>375</v>
       </c>
       <c r="B5">
-        <v>514</v>
+        <v>558</v>
       </c>
       <c r="C5">
         <v>750</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="E5" s="6">
         <f>D5/(D15)</f>
-        <v>3.6645962732919257E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>3.6564463911635876E-2</v>
+      </c>
+      <c r="F5" s="9">
+        <v>100513762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
         <v>385</v>
       </c>
       <c r="B6">
-        <v>1404</v>
+        <v>1533</v>
       </c>
       <c r="C6">
         <v>2056</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>652</v>
+        <v>523</v>
       </c>
       <c r="E6" s="6">
         <f>D6/(D15)</f>
-        <v>0.10124223602484472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>9.9600076175966487E-2</v>
+      </c>
+      <c r="F6">
+        <v>100513763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="7" t="s">
         <v>384</v>
       </c>
       <c r="B7">
-        <v>1414</v>
+        <v>1527</v>
       </c>
       <c r="C7">
         <v>2056</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>642</v>
+        <v>529</v>
       </c>
       <c r="E7" s="6">
         <f>D7/(D15)</f>
-        <v>9.9689440993788819E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.1007427156732051</v>
+      </c>
+      <c r="F7">
+        <v>100513764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
         <v>383</v>
       </c>
       <c r="B8">
-        <v>1414</v>
+        <v>1529</v>
       </c>
       <c r="C8">
         <v>2056</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>642</v>
+        <v>527</v>
       </c>
       <c r="E8" s="6">
         <f>D8/(D15)</f>
-        <v>9.9689440993788819E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.10036183584079222</v>
+      </c>
+      <c r="F8">
+        <v>100513765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
         <v>386</v>
       </c>
       <c r="B9">
-        <v>1395</v>
+        <v>1534</v>
       </c>
       <c r="C9">
         <v>2056</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>661</v>
+        <v>522</v>
       </c>
       <c r="E9" s="6">
         <f>D9/(D15)</f>
-        <v>0.10263975155279503</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>9.9409636259760042E-2</v>
+      </c>
+      <c r="F9">
+        <v>100513766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="7" t="s">
         <v>387</v>
       </c>
       <c r="B10">
-        <v>1451</v>
+        <v>1553</v>
       </c>
       <c r="C10">
         <v>2056</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>605</v>
+        <v>503</v>
       </c>
       <c r="E10" s="6">
         <f>D10/(D15)</f>
-        <v>9.3944099378881984E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>9.5791277851837747E-2</v>
+      </c>
+      <c r="F10">
+        <v>100513767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="7" t="s">
         <v>382</v>
       </c>
       <c r="B11">
-        <v>1441</v>
+        <v>1549</v>
       </c>
       <c r="C11">
         <v>2056</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>615</v>
+        <v>507</v>
       </c>
       <c r="E11" s="6">
         <f>D11/(D15)</f>
-        <v>9.5496894409937888E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>9.6553037516663498E-2</v>
+      </c>
+      <c r="F11">
+        <v>100513768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="7" t="s">
         <v>381</v>
       </c>
       <c r="B12">
-        <v>1403</v>
+        <v>1530</v>
       </c>
       <c r="C12">
         <v>2056</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>653</v>
+        <v>526</v>
       </c>
       <c r="E12" s="6">
         <f>D12/(D15)</f>
-        <v>0.10139751552795032</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.10017139592458579</v>
+      </c>
+      <c r="F12">
+        <v>100513769</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
         <v>380</v>
       </c>
       <c r="B13">
-        <v>1406</v>
+        <v>1534</v>
       </c>
       <c r="C13">
         <v>2056</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>650</v>
+        <v>522</v>
       </c>
       <c r="E13" s="6">
         <f>D13/(D15)</f>
-        <v>0.10093167701863354</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>9.9409636259760042E-2</v>
+      </c>
+      <c r="F13">
+        <v>100513770</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
         <v>388</v>
       </c>
       <c r="B14">
-        <v>1432</v>
+        <v>1528</v>
       </c>
       <c r="C14">
         <v>2056</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>624</v>
+        <v>528</v>
       </c>
       <c r="E14" s="6">
         <f>D14/(D15)</f>
-        <v>9.6894409937888198E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.10055227575699867</v>
+      </c>
+      <c r="F14">
+        <v>100513771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B2:B14)</f>
-        <v>14284</v>
+        <v>15473</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C14)</f>
@@ -4736,52 +4809,61 @@
       </c>
       <c r="D15">
         <f>SUM(D2:D14)</f>
+        <v>5251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8">
+        <v>44655.894583333335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="90" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="G21" s="10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1"/>
+      <c r="C27">
         <v>6440</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="8">
-        <v>44653.67564814815</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:7">
       <c r="A28" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G21" r:id="rId1" xr:uid="{F0DBC503-B7EE-254D-9F13-B466A4A215CB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2226E937-D5A6-884D-8B99-E3B7568C5B68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0005F3EE-B948-1F40-8790-C6F240C604D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10480" yWindow="460" windowWidth="17240" windowHeight="19160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8880" yWindow="460" windowWidth="23600" windowHeight="19160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="价格" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="392">
   <si>
     <t>藏品名字</t>
   </si>
@@ -1211,6 +1211,10 @@
   </si>
   <si>
     <t>https://api-h5.ibox.art/nft-mall-web/v1.2/nft/product/getProductListByAlbumId?page=1&amp;pageSize=50&amp;albumId=100513762&amp;onSale=0&amp;order=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api-h5.ibox.art/nft-mall-web/v1.2/nft/product/getProductListByAlbumId?page=3&amp;pageSize=200&amp;albumId=100513759&amp;onSale=0&amp;order=0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1316,7 +1320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1330,6 +1334,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4482,19 +4488,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D06DC-D0D3-DC41-8495-1A009DF45D20}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="7" max="7" width="49.5" customWidth="1"/>
+    <col min="7" max="7" width="141" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
         <v>372</v>
       </c>
@@ -4511,7 +4517,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>379</v>
       </c>
@@ -4527,281 +4533,284 @@
       </c>
       <c r="E2" s="6">
         <f>D2/(D15)</f>
-        <v>1.1426394972386211E-3</v>
+        <v>1.3562386980108499E-3</v>
       </c>
       <c r="F2" s="9">
         <v>100513772</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>376</v>
       </c>
       <c r="B3">
-        <v>518</v>
+        <v>546</v>
       </c>
       <c r="C3">
         <v>700</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="E3" s="6">
         <f>D3/(D15)</f>
-        <v>3.4660064749571513E-2</v>
+        <v>3.4810126582278479E-2</v>
       </c>
       <c r="F3" s="9">
         <v>101040087</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>377</v>
       </c>
       <c r="B4">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="C4">
         <v>750</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D14" si="0">C4-B4</f>
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="E4" s="6">
         <f>D4/(D15)</f>
-        <v>3.5040944581984382E-2</v>
+        <v>3.25497287522604E-2</v>
       </c>
       <c r="F4" s="9">
         <v>100513761</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16">
+    <row r="5" spans="1:7" ht="16">
       <c r="A5" s="3" t="s">
         <v>375</v>
       </c>
       <c r="B5">
-        <v>558</v>
+        <v>582</v>
       </c>
       <c r="C5">
         <v>750</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="E5" s="6">
         <f>D5/(D15)</f>
-        <v>3.6564463911635876E-2</v>
+        <v>3.7974683544303799E-2</v>
       </c>
       <c r="F5" s="9">
         <v>100513762</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="7" t="s">
         <v>385</v>
       </c>
       <c r="B6">
-        <v>1533</v>
+        <v>1607</v>
       </c>
       <c r="C6">
         <v>2056</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>523</v>
+        <v>449</v>
       </c>
       <c r="E6" s="6">
         <f>D6/(D15)</f>
-        <v>9.9600076175966487E-2</v>
+        <v>0.10149186256781194</v>
       </c>
       <c r="F6">
         <v>100513763</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="7" t="s">
         <v>384</v>
       </c>
       <c r="B7">
-        <v>1527</v>
+        <v>1616</v>
       </c>
       <c r="C7">
         <v>2056</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>529</v>
+        <v>440</v>
       </c>
       <c r="E7" s="6">
         <f>D7/(D15)</f>
-        <v>0.1007427156732051</v>
+        <v>9.9457504520795659E-2</v>
       </c>
       <c r="F7">
         <v>100513764</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="7" t="s">
         <v>383</v>
       </c>
       <c r="B8">
-        <v>1529</v>
+        <v>1614</v>
       </c>
       <c r="C8">
         <v>2056</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>527</v>
+        <v>442</v>
       </c>
       <c r="E8" s="6">
         <f>D8/(D15)</f>
-        <v>0.10036183584079222</v>
+        <v>9.9909584086799272E-2</v>
       </c>
       <c r="F8">
         <v>100513765</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>386</v>
       </c>
       <c r="B9">
-        <v>1534</v>
+        <v>1628</v>
       </c>
       <c r="C9">
         <v>2056</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>522</v>
+        <v>428</v>
       </c>
       <c r="E9" s="6">
         <f>D9/(D15)</f>
-        <v>9.9409636259760042E-2</v>
+        <v>9.6745027124773966E-2</v>
       </c>
       <c r="F9">
         <v>100513766</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="7" t="s">
         <v>387</v>
       </c>
       <c r="B10">
-        <v>1553</v>
+        <v>1623</v>
       </c>
       <c r="C10">
         <v>2056</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>503</v>
+        <v>433</v>
       </c>
       <c r="E10" s="6">
         <f>D10/(D15)</f>
-        <v>9.5791277851837747E-2</v>
+        <v>9.7875226039783006E-2</v>
       </c>
       <c r="F10">
         <v>100513767</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="7" t="s">
         <v>382</v>
       </c>
       <c r="B11">
-        <v>1549</v>
+        <v>1632</v>
       </c>
       <c r="C11">
         <v>2056</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>507</v>
+        <v>424</v>
       </c>
       <c r="E11" s="6">
         <f>D11/(D15)</f>
-        <v>9.6553037516663498E-2</v>
+        <v>9.5840867992766726E-2</v>
       </c>
       <c r="F11">
         <v>100513768</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="7" t="s">
         <v>381</v>
       </c>
       <c r="B12">
-        <v>1530</v>
+        <v>1612</v>
       </c>
       <c r="C12">
         <v>2056</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>526</v>
+        <v>444</v>
       </c>
       <c r="E12" s="6">
         <f>D12/(D15)</f>
-        <v>0.10017139592458579</v>
+        <v>0.1003616636528029</v>
       </c>
       <c r="F12">
         <v>100513769</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="7" t="s">
         <v>380</v>
       </c>
       <c r="B13">
-        <v>1534</v>
+        <v>1619</v>
       </c>
       <c r="C13">
         <v>2056</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>522</v>
+        <v>437</v>
       </c>
       <c r="E13" s="6">
         <f>D13/(D15)</f>
-        <v>9.9409636259760042E-2</v>
+        <v>9.8779385171790232E-2</v>
       </c>
       <c r="F13">
         <v>100513770</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="7" t="s">
         <v>388</v>
       </c>
       <c r="B14">
-        <v>1528</v>
+        <v>1601</v>
       </c>
       <c r="C14">
         <v>2056</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>528</v>
+        <v>455</v>
       </c>
       <c r="E14" s="6">
         <f>D14/(D15)</f>
-        <v>0.10055227575699867</v>
+        <v>0.10284810126582279</v>
       </c>
       <c r="F14">
         <v>100513771</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B2:B14)</f>
-        <v>15473</v>
+        <v>16300</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C14)</f>
@@ -4809,12 +4818,12 @@
       </c>
       <c r="D15">
         <f>SUM(D2:D14)</f>
-        <v>5251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>4424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="8">
-        <v>44655.894583333335</v>
+        <v>44657.480613425927</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4859,10 +4868,19 @@
     <row r="28" spans="1:7">
       <c r="A28" s="1"/>
     </row>
+    <row r="30" spans="1:7">
+      <c r="D30">
+        <v>4424</v>
+      </c>
+      <c r="G30" s="12">
+        <v>44657.48164351852</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G21" r:id="rId1" xr:uid="{F0DBC503-B7EE-254D-9F13-B466A4A215CB}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{1C020035-B25F-F547-9F40-CA3D97BA6B45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox-os/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0005F3EE-B948-1F40-8790-C6F240C604D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CEE68F-AB1D-AF49-8857-FD804406D40F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8880" yWindow="460" windowWidth="23600" windowHeight="19160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1320,7 +1320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1336,6 +1336,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4488,32 +4491,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D06DC-D0D3-DC41-8495-1A009DF45D20}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="141" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="13" t="s">
         <v>389</v>
       </c>
     </row>
@@ -4533,7 +4538,7 @@
       </c>
       <c r="E2" s="6">
         <f>D2/(D15)</f>
-        <v>1.3562386980108499E-3</v>
+        <v>1.4524328249818446E-3</v>
       </c>
       <c r="F2" s="9">
         <v>100513772</v>
@@ -4544,18 +4549,18 @@
         <v>376</v>
       </c>
       <c r="B3">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="C3">
         <v>700</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E3" s="6">
         <f>D3/(D15)</f>
-        <v>3.4810126582278479E-2</v>
+        <v>3.5826676349552167E-2</v>
       </c>
       <c r="F3" s="9">
         <v>101040087</v>
@@ -4569,18 +4574,18 @@
         <v>377</v>
       </c>
       <c r="B4">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="C4">
         <v>750</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D14" si="0">C4-B4</f>
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E4" s="6">
         <f>D4/(D15)</f>
-        <v>3.25497287522604E-2</v>
+        <v>3.146937787460663E-2</v>
       </c>
       <c r="F4" s="9">
         <v>100513761</v>
@@ -4591,18 +4596,18 @@
         <v>375</v>
       </c>
       <c r="B5">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="C5">
         <v>750</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E5" s="6">
         <f>D5/(D15)</f>
-        <v>3.7974683544303799E-2</v>
+        <v>3.727910917453401E-2</v>
       </c>
       <c r="F5" s="9">
         <v>100513762</v>
@@ -4613,18 +4618,18 @@
         <v>385</v>
       </c>
       <c r="B6">
-        <v>1607</v>
+        <v>1629</v>
       </c>
       <c r="C6">
         <v>2056</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="E6" s="6">
         <f>D6/(D15)</f>
-        <v>0.10149186256781194</v>
+        <v>0.10336480271120795</v>
       </c>
       <c r="F6">
         <v>100513763</v>
@@ -4635,18 +4640,18 @@
         <v>384</v>
       </c>
       <c r="B7">
-        <v>1616</v>
+        <v>1652</v>
       </c>
       <c r="C7">
         <v>2056</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="E7" s="6">
         <f>D7/(D15)</f>
-        <v>9.9457504520795659E-2</v>
+        <v>9.779714354877754E-2</v>
       </c>
       <c r="F7">
         <v>100513764</v>
@@ -4657,18 +4662,18 @@
         <v>383</v>
       </c>
       <c r="B8">
-        <v>1614</v>
+        <v>1634</v>
       </c>
       <c r="C8">
         <v>2056</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="E8" s="6">
         <f>D8/(D15)</f>
-        <v>9.9909584086799272E-2</v>
+        <v>0.10215444202372306</v>
       </c>
       <c r="F8">
         <v>100513765</v>
@@ -4679,18 +4684,18 @@
         <v>386</v>
       </c>
       <c r="B9">
-        <v>1628</v>
+        <v>1661</v>
       </c>
       <c r="C9">
         <v>2056</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="E9" s="6">
         <f>D9/(D15)</f>
-        <v>9.6745027124773966E-2</v>
+        <v>9.5618494311304772E-2</v>
       </c>
       <c r="F9">
         <v>100513766</v>
@@ -4701,18 +4706,18 @@
         <v>387</v>
       </c>
       <c r="B10">
-        <v>1623</v>
+        <v>1654</v>
       </c>
       <c r="C10">
         <v>2056</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>433</v>
+        <v>402</v>
       </c>
       <c r="E10" s="6">
         <f>D10/(D15)</f>
-        <v>9.7875226039783006E-2</v>
+        <v>9.731299927378359E-2</v>
       </c>
       <c r="F10">
         <v>100513767</v>
@@ -4723,18 +4728,18 @@
         <v>382</v>
       </c>
       <c r="B11">
-        <v>1632</v>
+        <v>1669</v>
       </c>
       <c r="C11">
         <v>2056</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="E11" s="6">
         <f>D11/(D15)</f>
-        <v>9.5840867992766726E-2</v>
+        <v>9.3681917211328972E-2</v>
       </c>
       <c r="F11">
         <v>100513768</v>
@@ -4745,18 +4750,18 @@
         <v>381</v>
       </c>
       <c r="B12">
-        <v>1612</v>
+        <v>1637</v>
       </c>
       <c r="C12">
         <v>2056</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="E12" s="6">
         <f>D12/(D15)</f>
-        <v>0.1003616636528029</v>
+        <v>0.10142822561123215</v>
       </c>
       <c r="F12">
         <v>100513769</v>
@@ -4767,18 +4772,18 @@
         <v>380</v>
       </c>
       <c r="B13">
-        <v>1619</v>
+        <v>1653</v>
       </c>
       <c r="C13">
         <v>2056</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="E13" s="6">
         <f>D13/(D15)</f>
-        <v>9.8779385171790232E-2</v>
+        <v>9.7555071411280558E-2</v>
       </c>
       <c r="F13">
         <v>100513770</v>
@@ -4789,18 +4794,18 @@
         <v>388</v>
       </c>
       <c r="B14">
-        <v>1601</v>
+        <v>1622</v>
       </c>
       <c r="C14">
         <v>2056</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="E14" s="6">
         <f>D14/(D15)</f>
-        <v>0.10284810126582279</v>
+        <v>0.10505930767368676</v>
       </c>
       <c r="F14">
         <v>100513771</v>
@@ -4810,7 +4815,7 @@
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B2:B14)</f>
-        <v>16300</v>
+        <v>16593</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C14)</f>
@@ -4818,12 +4823,12 @@
       </c>
       <c r="D15">
         <f>SUM(D2:D14)</f>
-        <v>4424</v>
+        <v>4131</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="8">
-        <v>44657.480613425927</v>
+        <v>44658.458807870367</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4872,8 +4877,19 @@
       <c r="D30">
         <v>4424</v>
       </c>
+      <c r="F30" s="12">
+        <v>44657.48164351852</v>
+      </c>
       <c r="G30" s="12">
         <v>44657.48164351852</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="D31">
+        <v>4131</v>
+      </c>
+      <c r="F31" s="12">
+        <v>44658.459386574075</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox-os/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CEE68F-AB1D-AF49-8857-FD804406D40F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC34B1B-7BA9-0B44-A036-AB077E4B5524}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8880" yWindow="460" windowWidth="23600" windowHeight="19160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4491,10 +4491,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D06DC-D0D3-DC41-8495-1A009DF45D20}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="E2" s="6">
         <f>D2/(D15)</f>
-        <v>1.4524328249818446E-3</v>
+        <v>1.534134492457172E-3</v>
       </c>
       <c r="F2" s="9">
         <v>100513772</v>
@@ -4549,18 +4549,18 @@
         <v>376</v>
       </c>
       <c r="B3">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="C3">
         <v>700</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E3" s="6">
         <f>D3/(D15)</f>
-        <v>3.5826676349552167E-2</v>
+        <v>3.6052160572743547E-2</v>
       </c>
       <c r="F3" s="9">
         <v>101040087</v>
@@ -4574,18 +4574,18 @@
         <v>377</v>
       </c>
       <c r="B4">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="C4">
         <v>750</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D14" si="0">C4-B4</f>
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E4" s="6">
         <f>D4/(D15)</f>
-        <v>3.146937787460663E-2</v>
+        <v>3.1194068013295832E-2</v>
       </c>
       <c r="F4" s="9">
         <v>100513761</v>
@@ -4596,18 +4596,18 @@
         <v>375</v>
       </c>
       <c r="B5">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="C5">
         <v>750</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E5" s="6">
         <f>D5/(D15)</f>
-        <v>3.727910917453401E-2</v>
+        <v>3.7074916901048326E-2</v>
       </c>
       <c r="F5" s="9">
         <v>100513762</v>
@@ -4618,18 +4618,18 @@
         <v>385</v>
       </c>
       <c r="B6">
-        <v>1629</v>
+        <v>1648</v>
       </c>
       <c r="C6">
         <v>2056</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="E6" s="6">
         <f>D6/(D15)</f>
-        <v>0.10336480271120795</v>
+        <v>0.10432114548708771</v>
       </c>
       <c r="F6">
         <v>100513763</v>
@@ -4640,18 +4640,18 @@
         <v>384</v>
       </c>
       <c r="B7">
-        <v>1652</v>
+        <v>1668</v>
       </c>
       <c r="C7">
         <v>2056</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="E7" s="6">
         <f>D7/(D15)</f>
-        <v>9.779714354877754E-2</v>
+        <v>9.9207363845563792E-2</v>
       </c>
       <c r="F7">
         <v>100513764</v>
@@ -4662,18 +4662,18 @@
         <v>383</v>
       </c>
       <c r="B8">
-        <v>1634</v>
+        <v>1652</v>
       </c>
       <c r="C8">
         <v>2056</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="E8" s="6">
         <f>D8/(D15)</f>
-        <v>0.10215444202372306</v>
+        <v>0.10329838915878292</v>
       </c>
       <c r="F8">
         <v>100513765</v>
@@ -4684,18 +4684,18 @@
         <v>386</v>
       </c>
       <c r="B9">
-        <v>1661</v>
+        <v>1681</v>
       </c>
       <c r="C9">
         <v>2056</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="E9" s="6">
         <f>D9/(D15)</f>
-        <v>9.5618494311304772E-2</v>
+        <v>9.5883405778573252E-2</v>
       </c>
       <c r="F9">
         <v>100513766</v>
@@ -4706,18 +4706,18 @@
         <v>387</v>
       </c>
       <c r="B10">
-        <v>1654</v>
+        <v>1675</v>
       </c>
       <c r="C10">
         <v>2056</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="E10" s="6">
         <f>D10/(D15)</f>
-        <v>9.731299927378359E-2</v>
+        <v>9.7417540271030431E-2</v>
       </c>
       <c r="F10">
         <v>100513767</v>
@@ -4728,18 +4728,18 @@
         <v>382</v>
       </c>
       <c r="B11">
-        <v>1669</v>
+        <v>1691</v>
       </c>
       <c r="C11">
         <v>2056</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="E11" s="6">
         <f>D11/(D15)</f>
-        <v>9.3681917211328972E-2</v>
+        <v>9.3326514957811302E-2</v>
       </c>
       <c r="F11">
         <v>100513768</v>
@@ -4750,18 +4750,18 @@
         <v>381</v>
       </c>
       <c r="B12">
-        <v>1637</v>
+        <v>1658</v>
       </c>
       <c r="C12">
         <v>2056</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="E12" s="6">
         <f>D12/(D15)</f>
-        <v>0.10142822561123215</v>
+        <v>0.10176425466632574</v>
       </c>
       <c r="F12">
         <v>100513769</v>
@@ -4772,18 +4772,18 @@
         <v>380</v>
       </c>
       <c r="B13">
-        <v>1653</v>
+        <v>1679</v>
       </c>
       <c r="C13">
         <v>2056</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="E13" s="6">
         <f>D13/(D15)</f>
-        <v>9.7555071411280558E-2</v>
+        <v>9.6394783942725645E-2</v>
       </c>
       <c r="F13">
         <v>100513770</v>
@@ -4794,18 +4794,18 @@
         <v>388</v>
       </c>
       <c r="B14">
-        <v>1622</v>
+        <v>1655</v>
       </c>
       <c r="C14">
         <v>2056</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>434</v>
+        <v>401</v>
       </c>
       <c r="E14" s="6">
         <f>D14/(D15)</f>
-        <v>0.10505930767368676</v>
+        <v>0.10253132191255433</v>
       </c>
       <c r="F14">
         <v>100513771</v>
@@ -4815,7 +4815,7 @@
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B2:B14)</f>
-        <v>16593</v>
+        <v>16813</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C14)</f>
@@ -4823,12 +4823,12 @@
       </c>
       <c r="D15">
         <f>SUM(D2:D14)</f>
-        <v>4131</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="8">
-        <v>44658.458807870367</v>
+        <v>44659.39984953704</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4888,8 +4888,24 @@
       <c r="D31">
         <v>4131</v>
       </c>
+      <c r="E31">
+        <f>D31-D30</f>
+        <v>-293</v>
+      </c>
       <c r="F31" s="12">
         <v>44658.459386574075</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="D32">
+        <v>3911</v>
+      </c>
+      <c r="E32">
+        <f>D32-D31</f>
+        <v>-220</v>
+      </c>
+      <c r="F32" s="12">
+        <v>44659.39980324074</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC34B1B-7BA9-0B44-A036-AB077E4B5524}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A203CCBB-23D2-934E-B67E-717FF0B650DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="460" windowWidth="23600" windowHeight="19160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="价格" sheetId="1" r:id="rId1"/>
@@ -4491,10 +4491,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D06DC-D0D3-DC41-8495-1A009DF45D20}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="E2" s="6">
         <f>D2/(D15)</f>
-        <v>1.534134492457172E-3</v>
+        <v>1.5604681404421327E-3</v>
       </c>
       <c r="F2" s="9">
         <v>100513772</v>
@@ -4549,18 +4549,18 @@
         <v>376</v>
       </c>
       <c r="B3">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C3">
         <v>700</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E3" s="6">
         <f>D3/(D15)</f>
-        <v>3.6052160572743547E-2</v>
+        <v>3.6410923276983094E-2</v>
       </c>
       <c r="F3" s="9">
         <v>101040087</v>
@@ -4574,18 +4574,18 @@
         <v>377</v>
       </c>
       <c r="B4">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C4">
         <v>750</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D14" si="0">C4-B4</f>
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E4" s="6">
         <f>D4/(D15)</f>
-        <v>3.1194068013295832E-2</v>
+        <v>3.1209362808842653E-2</v>
       </c>
       <c r="F4" s="9">
         <v>100513761</v>
@@ -4596,18 +4596,18 @@
         <v>375</v>
       </c>
       <c r="B5">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C5">
         <v>750</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E5" s="6">
         <f>D5/(D15)</f>
-        <v>3.7074916901048326E-2</v>
+        <v>3.7191157347204164E-2</v>
       </c>
       <c r="F5" s="9">
         <v>100513762</v>
@@ -4618,18 +4618,18 @@
         <v>385</v>
       </c>
       <c r="B6">
-        <v>1648</v>
+        <v>1661</v>
       </c>
       <c r="C6">
         <v>2056</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="E6" s="6">
         <f>D6/(D15)</f>
-        <v>0.10432114548708771</v>
+        <v>0.10273081924577374</v>
       </c>
       <c r="F6">
         <v>100513763</v>
@@ -4640,18 +4640,18 @@
         <v>384</v>
       </c>
       <c r="B7">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="C7">
         <v>2056</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E7" s="6">
         <f>D7/(D15)</f>
-        <v>9.9207363845563792E-2</v>
+        <v>0.10013003901170352</v>
       </c>
       <c r="F7">
         <v>100513764</v>
@@ -4662,18 +4662,18 @@
         <v>383</v>
       </c>
       <c r="B8">
-        <v>1652</v>
+        <v>1658</v>
       </c>
       <c r="C8">
         <v>2056</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E8" s="6">
         <f>D8/(D15)</f>
-        <v>0.10329838915878292</v>
+        <v>0.10351105331599479</v>
       </c>
       <c r="F8">
         <v>100513765</v>
@@ -4684,18 +4684,18 @@
         <v>386</v>
       </c>
       <c r="B9">
-        <v>1681</v>
+        <v>1688</v>
       </c>
       <c r="C9">
         <v>2056</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E9" s="6">
         <f>D9/(D15)</f>
-        <v>9.5883405778573252E-2</v>
+        <v>9.5708712613784136E-2</v>
       </c>
       <c r="F9">
         <v>100513766</v>
@@ -4706,18 +4706,18 @@
         <v>387</v>
       </c>
       <c r="B10">
-        <v>1675</v>
+        <v>1681</v>
       </c>
       <c r="C10">
         <v>2056</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E10" s="6">
         <f>D10/(D15)</f>
-        <v>9.7417540271030431E-2</v>
+        <v>9.7529258777633285E-2</v>
       </c>
       <c r="F10">
         <v>100513767</v>
@@ -4728,18 +4728,18 @@
         <v>382</v>
       </c>
       <c r="B11">
-        <v>1691</v>
+        <v>1699</v>
       </c>
       <c r="C11">
         <v>2056</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E11" s="6">
         <f>D11/(D15)</f>
-        <v>9.3326514957811302E-2</v>
+        <v>9.2847854356306894E-2</v>
       </c>
       <c r="F11">
         <v>100513768</v>
@@ -4750,18 +4750,18 @@
         <v>381</v>
       </c>
       <c r="B12">
-        <v>1658</v>
+        <v>1665</v>
       </c>
       <c r="C12">
         <v>2056</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="E12" s="6">
         <f>D12/(D15)</f>
-        <v>0.10176425466632574</v>
+        <v>0.10169050715214564</v>
       </c>
       <c r="F12">
         <v>100513769</v>
@@ -4772,18 +4772,18 @@
         <v>380</v>
       </c>
       <c r="B13">
-        <v>1679</v>
+        <v>1685</v>
       </c>
       <c r="C13">
         <v>2056</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E13" s="6">
         <f>D13/(D15)</f>
-        <v>9.6394783942725645E-2</v>
+        <v>9.6488946684005206E-2</v>
       </c>
       <c r="F13">
         <v>100513770</v>
@@ -4794,18 +4794,18 @@
         <v>388</v>
       </c>
       <c r="B14">
-        <v>1655</v>
+        <v>1660</v>
       </c>
       <c r="C14">
         <v>2056</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="E14" s="6">
         <f>D14/(D15)</f>
-        <v>0.10253132191255433</v>
+        <v>0.10299089726918076</v>
       </c>
       <c r="F14">
         <v>100513771</v>
@@ -4815,7 +4815,7 @@
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B2:B14)</f>
-        <v>16813</v>
+        <v>16879</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C14)</f>
@@ -4823,12 +4823,12 @@
       </c>
       <c r="D15">
         <f>SUM(D2:D14)</f>
-        <v>3911</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="8">
-        <v>44659.39984953704</v>
+        <v>44659.893692129626</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4906,6 +4906,18 @@
       </c>
       <c r="F32" s="12">
         <v>44659.39980324074</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6">
+      <c r="D33">
+        <v>3845</v>
+      </c>
+      <c r="E33">
+        <f>D33-D32</f>
+        <v>-66</v>
+      </c>
+      <c r="F33" s="12">
+        <v>44659.893761574072</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A203CCBB-23D2-934E-B67E-717FF0B650DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFBB4F6-64E3-0641-BA66-285A1FF485CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="价格" sheetId="1" r:id="rId1"/>
@@ -4494,7 +4494,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4563,7 +4563,7 @@
         <v>3.6410923276983094E-2</v>
       </c>
       <c r="F3" s="9">
-        <v>101040087</v>
+        <v>100513759</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>391</v>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFBB4F6-64E3-0641-BA66-285A1FF485CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB38756-E014-7D41-9F5F-24DE83E261C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4491,10 +4491,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D06DC-D0D3-DC41-8495-1A009DF45D20}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="E2" s="6">
         <f>D2/(D15)</f>
-        <v>1.5604681404421327E-3</v>
+        <v>1.6620498614958448E-3</v>
       </c>
       <c r="F2" s="9">
         <v>100513772</v>
@@ -4549,18 +4549,18 @@
         <v>376</v>
       </c>
       <c r="B3">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C3">
         <v>700</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E3" s="6">
         <f>D3/(D15)</f>
-        <v>3.6410923276983094E-2</v>
+        <v>3.7950138504155122E-2</v>
       </c>
       <c r="F3" s="9">
         <v>100513759</v>
@@ -4574,18 +4574,18 @@
         <v>377</v>
       </c>
       <c r="B4">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="C4">
         <v>750</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D14" si="0">C4-B4</f>
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E4" s="6">
         <f>D4/(D15)</f>
-        <v>3.1209362808842653E-2</v>
+        <v>3.1855955678670361E-2</v>
       </c>
       <c r="F4" s="9">
         <v>100513761</v>
@@ -4596,18 +4596,18 @@
         <v>375</v>
       </c>
       <c r="B5">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C5">
         <v>750</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E5" s="6">
         <f>D5/(D15)</f>
-        <v>3.7191157347204164E-2</v>
+        <v>3.8504155124653737E-2</v>
       </c>
       <c r="F5" s="9">
         <v>100513762</v>
@@ -4618,18 +4618,18 @@
         <v>385</v>
       </c>
       <c r="B6">
-        <v>1661</v>
+        <v>1676</v>
       </c>
       <c r="C6">
         <v>2056</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="E6" s="6">
         <f>D6/(D15)</f>
-        <v>0.10273081924577374</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="F6">
         <v>100513763</v>
@@ -4640,18 +4640,18 @@
         <v>384</v>
       </c>
       <c r="B7">
-        <v>1671</v>
+        <v>1689</v>
       </c>
       <c r="C7">
         <v>2056</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="E7" s="6">
         <f>D7/(D15)</f>
-        <v>0.10013003901170352</v>
+        <v>0.10166204986149585</v>
       </c>
       <c r="F7">
         <v>100513764</v>
@@ -4662,18 +4662,18 @@
         <v>383</v>
       </c>
       <c r="B8">
-        <v>1658</v>
+        <v>1679</v>
       </c>
       <c r="C8">
         <v>2056</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="E8" s="6">
         <f>D8/(D15)</f>
-        <v>0.10351105331599479</v>
+        <v>0.10443213296398891</v>
       </c>
       <c r="F8">
         <v>100513765</v>
@@ -4684,18 +4684,18 @@
         <v>386</v>
       </c>
       <c r="B9">
-        <v>1688</v>
+        <v>1714</v>
       </c>
       <c r="C9">
         <v>2056</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="E9" s="6">
         <f>D9/(D15)</f>
-        <v>9.5708712613784136E-2</v>
+        <v>9.4736842105263161E-2</v>
       </c>
       <c r="F9">
         <v>100513766</v>
@@ -4706,18 +4706,18 @@
         <v>387</v>
       </c>
       <c r="B10">
-        <v>1681</v>
+        <v>1703</v>
       </c>
       <c r="C10">
         <v>2056</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="E10" s="6">
         <f>D10/(D15)</f>
-        <v>9.7529258777633285E-2</v>
+        <v>9.7783933518005545E-2</v>
       </c>
       <c r="F10">
         <v>100513767</v>
@@ -4728,18 +4728,18 @@
         <v>382</v>
       </c>
       <c r="B11">
-        <v>1699</v>
+        <v>1732</v>
       </c>
       <c r="C11">
         <v>2056</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="E11" s="6">
         <f>D11/(D15)</f>
-        <v>9.2847854356306894E-2</v>
+        <v>8.9750692520775624E-2</v>
       </c>
       <c r="F11">
         <v>100513768</v>
@@ -4750,18 +4750,18 @@
         <v>381</v>
       </c>
       <c r="B12">
-        <v>1665</v>
+        <v>1696</v>
       </c>
       <c r="C12">
         <v>2056</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="E12" s="6">
         <f>D12/(D15)</f>
-        <v>0.10169050715214564</v>
+        <v>9.9722991689750698E-2</v>
       </c>
       <c r="F12">
         <v>100513769</v>
@@ -4772,18 +4772,18 @@
         <v>380</v>
       </c>
       <c r="B13">
-        <v>1685</v>
+        <v>1709</v>
       </c>
       <c r="C13">
         <v>2056</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="E13" s="6">
         <f>D13/(D15)</f>
-        <v>9.6488946684005206E-2</v>
+        <v>9.6121883656509699E-2</v>
       </c>
       <c r="F13">
         <v>100513770</v>
@@ -4794,18 +4794,18 @@
         <v>388</v>
       </c>
       <c r="B14">
-        <v>1660</v>
+        <v>1693</v>
       </c>
       <c r="C14">
         <v>2056</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="E14" s="6">
         <f>D14/(D15)</f>
-        <v>0.10299089726918076</v>
+        <v>0.10055401662049862</v>
       </c>
       <c r="F14">
         <v>100513771</v>
@@ -4815,7 +4815,7 @@
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B2:B14)</f>
-        <v>16879</v>
+        <v>17114</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C14)</f>
@@ -4823,12 +4823,12 @@
       </c>
       <c r="D15">
         <f>SUM(D2:D14)</f>
-        <v>3845</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="8">
-        <v>44659.893692129626</v>
+        <v>44660.580706018518</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4918,6 +4918,18 @@
       </c>
       <c r="F33" s="12">
         <v>44659.893761574072</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6">
+      <c r="D34">
+        <v>3610</v>
+      </c>
+      <c r="E34">
+        <f>D34-D33</f>
+        <v>-235</v>
+      </c>
+      <c r="F34" s="12">
+        <v>44660.580752314818</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB38756-E014-7D41-9F5F-24DE83E261C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFC8D8B-24DB-F949-AC3A-E869CA2B0FC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="394">
   <si>
     <t>藏品名字</t>
   </si>
@@ -1215,6 +1215,14 @@
   </si>
   <si>
     <t>https://api-h5.ibox.art/nft-mall-web/v1.2/nft/product/getProductListByAlbumId?page=3&amp;pageSize=200&amp;albumId=100513759&amp;onSale=0&amp;order=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1320,7 +1328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1337,6 +1345,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -4491,21 +4502,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D06DC-D0D3-DC41-8495-1A009DF45D20}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="141" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="141" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="13" t="s">
         <v>372</v>
       </c>
@@ -4519,10 +4530,13 @@
         <v>374</v>
       </c>
       <c r="F1" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>379</v>
       </c>
@@ -4538,284 +4552,323 @@
       </c>
       <c r="E2" s="6">
         <f>D2/(D15)</f>
-        <v>1.6620498614958448E-3</v>
-      </c>
-      <c r="F2" s="9">
+        <v>1.7523364485981308E-3</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="G2" s="9">
         <v>100513772</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>376</v>
       </c>
       <c r="B3">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="C3">
         <v>700</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E3" s="6">
         <f>D3/(D15)</f>
-        <v>3.7950138504155122E-2</v>
-      </c>
-      <c r="F3" s="9">
+        <v>3.6799065420560745E-2</v>
+      </c>
+      <c r="F3">
+        <v>13886</v>
+      </c>
+      <c r="G3" s="9">
         <v>100513759</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
         <v>377</v>
       </c>
       <c r="B4">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="C4">
         <v>750</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D14" si="0">C4-B4</f>
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E4" s="6">
         <f>D4/(D15)</f>
-        <v>3.1855955678670361E-2</v>
-      </c>
-      <c r="F4" s="9">
+        <v>3.2126168224299062E-2</v>
+      </c>
+      <c r="F4">
+        <v>3475</v>
+      </c>
+      <c r="G4" s="9">
         <v>100513761</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16">
+    <row r="5" spans="1:8" ht="16">
       <c r="A5" s="3" t="s">
         <v>375</v>
       </c>
       <c r="B5">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="C5">
         <v>750</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E5" s="6">
         <f>D5/(D15)</f>
-        <v>3.8504155124653737E-2</v>
-      </c>
-      <c r="F5" s="9">
+        <v>3.7383177570093455E-2</v>
+      </c>
+      <c r="F5">
+        <v>3499</v>
+      </c>
+      <c r="G5" s="9">
         <v>100513762</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="7" t="s">
         <v>385</v>
       </c>
       <c r="B6">
-        <v>1676</v>
+        <v>1694</v>
       </c>
       <c r="C6">
         <v>2056</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="E6" s="6">
         <f>D6/(D15)</f>
-        <v>0.10526315789473684</v>
+        <v>0.10572429906542057</v>
       </c>
       <c r="F6">
+        <v>496</v>
+      </c>
+      <c r="G6">
         <v>100513763</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="7" t="s">
         <v>384</v>
       </c>
       <c r="B7">
-        <v>1689</v>
+        <v>1715</v>
       </c>
       <c r="C7">
         <v>2056</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="E7" s="6">
         <f>D7/(D15)</f>
-        <v>0.10166204986149585</v>
+        <v>9.9591121495327103E-2</v>
       </c>
       <c r="F7">
+        <v>495</v>
+      </c>
+      <c r="G7">
         <v>100513764</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="7" t="s">
         <v>383</v>
       </c>
       <c r="B8">
-        <v>1679</v>
+        <v>1696</v>
       </c>
       <c r="C8">
         <v>2056</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="E8" s="6">
         <f>D8/(D15)</f>
-        <v>0.10443213296398891</v>
+        <v>0.10514018691588785</v>
       </c>
       <c r="F8">
+        <v>495</v>
+      </c>
+      <c r="G8">
         <v>100513765</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="7" t="s">
         <v>386</v>
       </c>
       <c r="B9">
-        <v>1714</v>
+        <v>1731</v>
       </c>
       <c r="C9">
         <v>2056</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="E9" s="6">
         <f>D9/(D15)</f>
-        <v>9.4736842105263161E-2</v>
+        <v>9.4918224299065421E-2</v>
       </c>
       <c r="F9">
+        <v>495</v>
+      </c>
+      <c r="G9">
         <v>100513766</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="7" t="s">
         <v>387</v>
       </c>
       <c r="B10">
-        <v>1703</v>
+        <v>1722</v>
       </c>
       <c r="C10">
         <v>2056</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="E10" s="6">
         <f>D10/(D15)</f>
-        <v>9.7783933518005545E-2</v>
+        <v>9.7546728971962621E-2</v>
       </c>
       <c r="F10">
+        <v>498</v>
+      </c>
+      <c r="G10">
         <v>100513767</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="7" t="s">
         <v>382</v>
       </c>
       <c r="B11">
-        <v>1732</v>
+        <v>1747</v>
       </c>
       <c r="C11">
         <v>2056</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="E11" s="6">
         <f>D11/(D15)</f>
-        <v>8.9750692520775624E-2</v>
+        <v>9.0245327102803738E-2</v>
       </c>
       <c r="F11">
+        <v>497</v>
+      </c>
+      <c r="G11">
         <v>100513768</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="7" t="s">
         <v>381</v>
       </c>
       <c r="B12">
-        <v>1696</v>
+        <v>1715</v>
       </c>
       <c r="C12">
         <v>2056</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="E12" s="6">
         <f>D12/(D15)</f>
-        <v>9.9722991689750698E-2</v>
+        <v>9.9591121495327103E-2</v>
       </c>
       <c r="F12">
+        <v>498</v>
+      </c>
+      <c r="G12">
         <v>100513769</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="7" t="s">
         <v>380</v>
       </c>
       <c r="B13">
-        <v>1709</v>
+        <v>1725</v>
       </c>
       <c r="C13">
         <v>2056</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="E13" s="6">
         <f>D13/(D15)</f>
-        <v>9.6121883656509699E-2</v>
+        <v>9.6670560747663545E-2</v>
       </c>
       <c r="F13">
+        <v>497</v>
+      </c>
+      <c r="G13">
         <v>100513770</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="7" t="s">
         <v>388</v>
       </c>
       <c r="B14">
-        <v>1693</v>
+        <v>1705</v>
       </c>
       <c r="C14">
         <v>2056</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="E14" s="6">
         <f>D14/(D15)</f>
-        <v>0.10055401662049862</v>
+        <v>0.10251168224299065</v>
       </c>
       <c r="F14">
+        <v>497</v>
+      </c>
+      <c r="G14">
         <v>100513771</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B2:B14)</f>
-        <v>17114</v>
+        <v>17300</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C14)</f>
@@ -4823,68 +4876,68 @@
       </c>
       <c r="D15">
         <f>SUM(D2:D14)</f>
-        <v>3610</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="8">
-        <v>44660.580706018518</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>44661.330081018517</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="90" customHeight="1">
+    <row r="21" spans="1:8" ht="90" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="G21" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" s="1"/>
       <c r="C27">
         <v>6440</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28" s="1"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="D30">
         <v>4424</v>
       </c>
-      <c r="F30" s="12">
-        <v>44657.48164351852</v>
-      </c>
       <c r="G30" s="12">
         <v>44657.48164351852</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="12">
+        <v>44657.48164351852</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="D31">
         <v>4131</v>
       </c>
@@ -4892,11 +4945,11 @@
         <f>D31-D30</f>
         <v>-293</v>
       </c>
-      <c r="F31" s="12">
+      <c r="G31" s="12">
         <v>44658.459386574075</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="D32">
         <v>3911</v>
       </c>
@@ -4904,11 +4957,11 @@
         <f>D32-D31</f>
         <v>-220</v>
       </c>
-      <c r="F32" s="12">
+      <c r="G32" s="12">
         <v>44659.39980324074</v>
       </c>
     </row>
-    <row r="33" spans="4:6">
+    <row r="33" spans="4:7">
       <c r="D33">
         <v>3845</v>
       </c>
@@ -4916,11 +4969,11 @@
         <f>D33-D32</f>
         <v>-66</v>
       </c>
-      <c r="F33" s="12">
+      <c r="G33" s="12">
         <v>44659.893761574072</v>
       </c>
     </row>
-    <row r="34" spans="4:6">
+    <row r="34" spans="4:7">
       <c r="D34">
         <v>3610</v>
       </c>
@@ -4928,15 +4981,27 @@
         <f>D34-D33</f>
         <v>-235</v>
       </c>
-      <c r="F34" s="12">
+      <c r="G34" s="12">
         <v>44660.580752314818</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7">
+      <c r="D35">
+        <v>3424</v>
+      </c>
+      <c r="E35">
+        <f>D35-D34</f>
+        <v>-186</v>
+      </c>
+      <c r="G35" s="12">
+        <v>44661.330034722225</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G21" r:id="rId1" xr:uid="{F0DBC503-B7EE-254D-9F13-B466A4A215CB}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{1C020035-B25F-F547-9F40-CA3D97BA6B45}"/>
+    <hyperlink ref="H21" r:id="rId1" xr:uid="{F0DBC503-B7EE-254D-9F13-B466A4A215CB}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{1C020035-B25F-F547-9F40-CA3D97BA6B45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFC8D8B-24DB-F949-AC3A-E869CA2B0FC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0FD485-D833-6144-BB17-F804103546FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="397">
   <si>
     <t>藏品名字</t>
   </si>
@@ -1223,6 +1223,18 @@
   </si>
   <si>
     <t>--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涨跌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4502,21 +4514,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D06DC-D0D3-DC41-8495-1A009DF45D20}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" customWidth="1"/>
-    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="141" customWidth="1"/>
+    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="141" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="B1" s="13" t="s">
         <v>372</v>
       </c>
@@ -4533,10 +4545,19 @@
         <v>392</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
         <v>379</v>
       </c>
@@ -4552,323 +4573,446 @@
       </c>
       <c r="E2" s="6">
         <f>D2/(D15)</f>
-        <v>1.7523364485981308E-3</v>
+        <v>1.9821605550049554E-3</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="9">
         <v>100513772</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>376</v>
       </c>
       <c r="B3">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="C3">
         <v>700</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E3" s="6">
         <f>D3/(D15)</f>
-        <v>3.6799065420560745E-2</v>
+        <v>3.7330690452593324E-2</v>
       </c>
       <c r="F3">
+        <v>16554</v>
+      </c>
+      <c r="G3">
+        <f>I3-H3</f>
+        <v>2668</v>
+      </c>
+      <c r="H3">
         <v>13886</v>
       </c>
-      <c r="G3" s="9">
+      <c r="I3">
+        <v>16554</v>
+      </c>
+      <c r="J3" s="9">
         <v>100513759</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:11">
       <c r="A4" s="5" t="s">
         <v>377</v>
       </c>
       <c r="B4">
-        <v>640</v>
+        <v>657</v>
       </c>
       <c r="C4">
         <v>750</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D14" si="0">C4-B4</f>
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E4" s="6">
         <f>D4/(D15)</f>
-        <v>3.2126168224299062E-2</v>
+        <v>3.0723488602576808E-2</v>
       </c>
       <c r="F4">
+        <v>4437</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G14" si="1">I4-H4</f>
+        <v>962</v>
+      </c>
+      <c r="H4">
         <v>3475</v>
       </c>
-      <c r="G4" s="9">
+      <c r="I4">
+        <v>4437</v>
+      </c>
+      <c r="J4" s="9">
         <v>100513761</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16">
+    <row r="5" spans="1:11" ht="16">
       <c r="A5" s="3" t="s">
         <v>375</v>
       </c>
       <c r="B5">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="C5">
         <v>750</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E5" s="6">
         <f>D5/(D15)</f>
-        <v>3.7383177570093455E-2</v>
+        <v>3.7661050545094152E-2</v>
       </c>
       <c r="F5">
+        <v>4444</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>945</v>
+      </c>
+      <c r="H5">
         <v>3499</v>
       </c>
-      <c r="G5" s="9">
+      <c r="I5">
+        <v>4444</v>
+      </c>
+      <c r="J5" s="9">
         <v>100513762</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:11">
       <c r="A6" s="7" t="s">
         <v>385</v>
       </c>
       <c r="B6">
-        <v>1694</v>
+        <v>1730</v>
       </c>
       <c r="C6">
         <v>2056</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="E6" s="6">
         <f>D6/(D15)</f>
-        <v>0.10572429906542057</v>
+        <v>0.10769739015526925</v>
       </c>
       <c r="F6">
+        <v>548</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="H6">
         <v>496</v>
       </c>
-      <c r="G6">
+      <c r="I6">
+        <v>548</v>
+      </c>
+      <c r="J6">
         <v>100513763</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:11">
       <c r="A7" s="7" t="s">
         <v>384</v>
       </c>
       <c r="B7">
-        <v>1715</v>
+        <v>1750</v>
       </c>
       <c r="C7">
         <v>2056</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="E7" s="6">
         <f>D7/(D15)</f>
-        <v>9.9591121495327103E-2</v>
+        <v>0.10109018830525272</v>
       </c>
       <c r="F7">
+        <v>555</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="H7">
         <v>495</v>
       </c>
-      <c r="G7">
+      <c r="I7">
+        <v>555</v>
+      </c>
+      <c r="J7">
         <v>100513764</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:11">
       <c r="A8" s="7" t="s">
         <v>383</v>
       </c>
       <c r="B8">
-        <v>1696</v>
+        <v>1743</v>
       </c>
       <c r="C8">
         <v>2056</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>313</v>
       </c>
       <c r="E8" s="6">
         <f>D8/(D15)</f>
-        <v>0.10514018691588785</v>
+        <v>0.10340270895275851</v>
       </c>
       <c r="F8">
+        <v>550</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="H8">
         <v>495</v>
       </c>
-      <c r="G8">
+      <c r="I8">
+        <v>550</v>
+      </c>
+      <c r="J8">
         <v>100513765</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:11">
       <c r="A9" s="7" t="s">
         <v>386</v>
       </c>
       <c r="B9">
-        <v>1731</v>
+        <v>1760</v>
       </c>
       <c r="C9">
         <v>2056</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="E9" s="6">
         <f>D9/(D15)</f>
-        <v>9.4918224299065421E-2</v>
+        <v>9.7786587380244469E-2</v>
       </c>
       <c r="F9">
+        <v>555</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="H9">
         <v>495</v>
       </c>
-      <c r="G9">
+      <c r="I9">
+        <v>555</v>
+      </c>
+      <c r="J9">
         <v>100513766</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:11">
       <c r="A10" s="7" t="s">
         <v>387</v>
       </c>
       <c r="B10">
-        <v>1722</v>
+        <v>1759</v>
       </c>
       <c r="C10">
         <v>2056</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="E10" s="6">
         <f>D10/(D15)</f>
-        <v>9.7546728971962621E-2</v>
+        <v>9.8116947472745297E-2</v>
       </c>
       <c r="F10">
+        <v>555</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="H10">
         <v>498</v>
       </c>
-      <c r="G10">
+      <c r="I10">
+        <v>555</v>
+      </c>
+      <c r="J10">
         <v>100513767</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:11">
       <c r="A11" s="7" t="s">
         <v>382</v>
       </c>
       <c r="B11">
-        <v>1747</v>
+        <v>1790</v>
       </c>
       <c r="C11">
         <v>2056</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="E11" s="6">
         <f>D11/(D15)</f>
-        <v>9.0245327102803738E-2</v>
+        <v>8.7875784605219692E-2</v>
       </c>
       <c r="F11">
+        <v>549</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="H11">
         <v>497</v>
       </c>
-      <c r="G11">
+      <c r="I11">
+        <v>549</v>
+      </c>
+      <c r="J11">
         <v>100513768</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:11">
       <c r="A12" s="7" t="s">
         <v>381</v>
       </c>
       <c r="B12">
-        <v>1715</v>
+        <v>1758</v>
       </c>
       <c r="C12">
         <v>2056</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="E12" s="6">
         <f>D12/(D15)</f>
-        <v>9.9591121495327103E-2</v>
+        <v>9.8447307565246112E-2</v>
       </c>
       <c r="F12">
+        <v>555</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="H12">
         <v>498</v>
       </c>
-      <c r="G12">
+      <c r="I12">
+        <v>555</v>
+      </c>
+      <c r="J12">
         <v>100513769</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:11">
       <c r="A13" s="7" t="s">
         <v>380</v>
       </c>
       <c r="B13">
-        <v>1725</v>
+        <v>1765</v>
       </c>
       <c r="C13">
         <v>2056</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="E13" s="6">
         <f>D13/(D15)</f>
-        <v>9.6670560747663545E-2</v>
+        <v>9.6134786917740342E-2</v>
       </c>
       <c r="F13">
+        <v>555</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="H13">
         <v>497</v>
       </c>
-      <c r="G13">
+      <c r="I13">
+        <v>555</v>
+      </c>
+      <c r="J13">
         <v>100513770</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:11">
       <c r="A14" s="7" t="s">
         <v>388</v>
       </c>
       <c r="B14">
-        <v>1705</v>
+        <v>1748</v>
       </c>
       <c r="C14">
         <v>2056</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="E14" s="6">
         <f>D14/(D15)</f>
-        <v>0.10251168224299065</v>
+        <v>0.10175090849025438</v>
       </c>
       <c r="F14">
+        <v>550</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="H14">
         <v>497</v>
       </c>
-      <c r="G14">
+      <c r="I14">
+        <v>550</v>
+      </c>
+      <c r="J14">
         <v>100513771</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:11">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B2:B14)</f>
-        <v>17300</v>
+        <v>17697</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C14)</f>
@@ -4876,68 +5020,68 @@
       </c>
       <c r="D15">
         <f>SUM(D2:D14)</f>
-        <v>3424</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="8">
-        <v>44661.330081018517</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>44662.432106481479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:11">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:11">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:11">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="90" customHeight="1">
+    <row r="21" spans="1:11" ht="90" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="H21" s="10" t="s">
+      <c r="K21" s="10" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:11">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:11">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:11">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:11">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:11">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:11">
       <c r="A27" s="1"/>
       <c r="C27">
         <v>6440</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:11">
       <c r="A28" s="1"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:11">
       <c r="D30">
         <v>4424</v>
       </c>
-      <c r="G30" s="12">
+      <c r="J30" s="12">
         <v>44657.48164351852</v>
       </c>
-      <c r="H30" s="12">
+      <c r="K30" s="12">
         <v>44657.48164351852</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:11">
       <c r="D31">
         <v>4131</v>
       </c>
@@ -4945,11 +5089,11 @@
         <f>D31-D30</f>
         <v>-293</v>
       </c>
-      <c r="G31" s="12">
+      <c r="J31" s="12">
         <v>44658.459386574075</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:11">
       <c r="D32">
         <v>3911</v>
       </c>
@@ -4957,11 +5101,11 @@
         <f>D32-D31</f>
         <v>-220</v>
       </c>
-      <c r="G32" s="12">
+      <c r="J32" s="12">
         <v>44659.39980324074</v>
       </c>
     </row>
-    <row r="33" spans="4:7">
+    <row r="33" spans="4:10">
       <c r="D33">
         <v>3845</v>
       </c>
@@ -4969,11 +5113,11 @@
         <f>D33-D32</f>
         <v>-66</v>
       </c>
-      <c r="G33" s="12">
+      <c r="J33" s="12">
         <v>44659.893761574072</v>
       </c>
     </row>
-    <row r="34" spans="4:7">
+    <row r="34" spans="4:10">
       <c r="D34">
         <v>3610</v>
       </c>
@@ -4981,11 +5125,11 @@
         <f>D34-D33</f>
         <v>-235</v>
       </c>
-      <c r="G34" s="12">
+      <c r="J34" s="12">
         <v>44660.580752314818</v>
       </c>
     </row>
-    <row r="35" spans="4:7">
+    <row r="35" spans="4:10">
       <c r="D35">
         <v>3424</v>
       </c>
@@ -4993,15 +5137,27 @@
         <f>D35-D34</f>
         <v>-186</v>
       </c>
-      <c r="G35" s="12">
+      <c r="J35" s="12">
         <v>44661.330034722225</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10">
+      <c r="D36">
+        <v>3027</v>
+      </c>
+      <c r="E36">
+        <f>D36-D35</f>
+        <v>-397</v>
+      </c>
+      <c r="J36" s="12">
+        <v>44662.432233796295</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H21" r:id="rId1" xr:uid="{F0DBC503-B7EE-254D-9F13-B466A4A215CB}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{1C020035-B25F-F547-9F40-CA3D97BA6B45}"/>
+    <hyperlink ref="K21" r:id="rId1" xr:uid="{F0DBC503-B7EE-254D-9F13-B466A4A215CB}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{1C020035-B25F-F547-9F40-CA3D97BA6B45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0FD485-D833-6144-BB17-F804103546FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EA433A-6F0A-BA4A-88AE-1A123F991608}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4520" yWindow="460" windowWidth="33600" windowHeight="19080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="价格" sheetId="1" r:id="rId1"/>
@@ -4514,10 +4514,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D06DC-D0D3-DC41-8495-1A009DF45D20}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4573,7 +4573,7 @@
       </c>
       <c r="E2" s="6">
         <f>D2/(D15)</f>
-        <v>1.9821605550049554E-3</v>
+        <v>2.2338049143708115E-3</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>393</v>
@@ -4590,31 +4590,31 @@
         <v>376</v>
       </c>
       <c r="B3">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="C3">
         <v>700</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E3" s="6">
         <f>D3/(D15)</f>
-        <v>3.7330690452593324E-2</v>
+        <v>3.8346984363365602E-2</v>
       </c>
       <c r="F3">
-        <v>16554</v>
+        <v>16768</v>
       </c>
       <c r="G3">
         <f>I3-H3</f>
-        <v>2668</v>
+        <v>214</v>
       </c>
       <c r="H3">
-        <v>13886</v>
+        <v>16554</v>
       </c>
       <c r="I3">
-        <v>16554</v>
+        <v>16768</v>
       </c>
       <c r="J3" s="9">
         <v>100513759</v>
@@ -4628,31 +4628,31 @@
         <v>377</v>
       </c>
       <c r="B4">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="C4">
         <v>750</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D14" si="0">C4-B4</f>
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E4" s="6">
         <f>D4/(D15)</f>
-        <v>3.0723488602576808E-2</v>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="F4">
-        <v>4437</v>
+        <v>4979</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G14" si="1">I4-H4</f>
-        <v>962</v>
+        <v>542</v>
       </c>
       <c r="H4">
-        <v>3475</v>
+        <v>4437</v>
       </c>
       <c r="I4">
-        <v>4437</v>
+        <v>4979</v>
       </c>
       <c r="J4" s="9">
         <v>100513761</v>
@@ -4663,31 +4663,31 @@
         <v>375</v>
       </c>
       <c r="B5">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="C5">
         <v>750</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E5" s="6">
         <f>D5/(D15)</f>
-        <v>3.7661050545094152E-2</v>
+        <v>3.9091586001489202E-2</v>
       </c>
       <c r="F5">
-        <v>4444</v>
+        <v>5049</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>945</v>
+        <v>605</v>
       </c>
       <c r="H5">
-        <v>3499</v>
+        <v>4444</v>
       </c>
       <c r="I5">
-        <v>4444</v>
+        <v>5049</v>
       </c>
       <c r="J5" s="9">
         <v>100513762</v>
@@ -4698,31 +4698,31 @@
         <v>385</v>
       </c>
       <c r="B6">
-        <v>1730</v>
+        <v>1767</v>
       </c>
       <c r="C6">
         <v>2056</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="E6" s="6">
         <f>D6/(D15)</f>
-        <v>0.10769739015526925</v>
+        <v>0.10759493670886076</v>
       </c>
       <c r="F6">
-        <v>548</v>
+        <v>856</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>308</v>
       </c>
       <c r="H6">
-        <v>496</v>
+        <v>548</v>
       </c>
       <c r="I6">
-        <v>548</v>
+        <v>856</v>
       </c>
       <c r="J6">
         <v>100513763</v>
@@ -4733,31 +4733,31 @@
         <v>384</v>
       </c>
       <c r="B7">
-        <v>1750</v>
+        <v>1783</v>
       </c>
       <c r="C7">
         <v>2056</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="E7" s="6">
         <f>D7/(D15)</f>
-        <v>0.10109018830525272</v>
+        <v>0.10163812360387194</v>
       </c>
       <c r="F7">
-        <v>555</v>
+        <v>849</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>294</v>
       </c>
       <c r="H7">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="I7">
-        <v>555</v>
+        <v>849</v>
       </c>
       <c r="J7">
         <v>100513764</v>
@@ -4768,31 +4768,31 @@
         <v>383</v>
       </c>
       <c r="B8">
-        <v>1743</v>
+        <v>1783</v>
       </c>
       <c r="C8">
         <v>2056</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="E8" s="6">
         <f>D8/(D15)</f>
-        <v>0.10340270895275851</v>
+        <v>0.10163812360387194</v>
       </c>
       <c r="F8">
-        <v>550</v>
+        <v>875</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>325</v>
       </c>
       <c r="H8">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="I8">
-        <v>550</v>
+        <v>875</v>
       </c>
       <c r="J8">
         <v>100513765</v>
@@ -4803,31 +4803,31 @@
         <v>386</v>
       </c>
       <c r="B9">
-        <v>1760</v>
+        <v>1792</v>
       </c>
       <c r="C9">
         <v>2056</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="E9" s="6">
         <f>D9/(D15)</f>
-        <v>9.7786587380244469E-2</v>
+        <v>9.8287416232315711E-2</v>
       </c>
       <c r="F9">
-        <v>555</v>
+        <v>858</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>303</v>
       </c>
       <c r="H9">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="I9">
-        <v>555</v>
+        <v>858</v>
       </c>
       <c r="J9">
         <v>100513766</v>
@@ -4838,31 +4838,31 @@
         <v>387</v>
       </c>
       <c r="B10">
-        <v>1759</v>
+        <v>1797</v>
       </c>
       <c r="C10">
         <v>2056</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="E10" s="6">
         <f>D10/(D15)</f>
-        <v>9.8116947472745297E-2</v>
+        <v>9.64259121370067E-2</v>
       </c>
       <c r="F10">
-        <v>555</v>
+        <v>846</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>291</v>
       </c>
       <c r="H10">
-        <v>498</v>
+        <v>555</v>
       </c>
       <c r="I10">
-        <v>555</v>
+        <v>846</v>
       </c>
       <c r="J10">
         <v>100513767</v>
@@ -4873,31 +4873,31 @@
         <v>382</v>
       </c>
       <c r="B11">
-        <v>1790</v>
+        <v>1820</v>
       </c>
       <c r="C11">
         <v>2056</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="E11" s="6">
         <f>D11/(D15)</f>
-        <v>8.7875784605219692E-2</v>
+        <v>8.7862993298585254E-2</v>
       </c>
       <c r="F11">
-        <v>549</v>
+        <v>840</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>291</v>
       </c>
       <c r="H11">
-        <v>497</v>
+        <v>549</v>
       </c>
       <c r="I11">
-        <v>549</v>
+        <v>840</v>
       </c>
       <c r="J11">
         <v>100513768</v>
@@ -4908,31 +4908,31 @@
         <v>381</v>
       </c>
       <c r="B12">
-        <v>1758</v>
+        <v>1783</v>
       </c>
       <c r="C12">
         <v>2056</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="E12" s="6">
         <f>D12/(D15)</f>
-        <v>9.8447307565246112E-2</v>
+        <v>0.10163812360387194</v>
       </c>
       <c r="F12">
-        <v>555</v>
+        <v>850</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>295</v>
       </c>
       <c r="H12">
-        <v>498</v>
+        <v>555</v>
       </c>
       <c r="I12">
-        <v>555</v>
+        <v>850</v>
       </c>
       <c r="J12">
         <v>100513769</v>
@@ -4943,31 +4943,31 @@
         <v>380</v>
       </c>
       <c r="B13">
-        <v>1765</v>
+        <v>1801</v>
       </c>
       <c r="C13">
         <v>2056</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="E13" s="6">
         <f>D13/(D15)</f>
-        <v>9.6134786917740342E-2</v>
+        <v>9.49367088607595E-2</v>
       </c>
       <c r="F13">
-        <v>555</v>
+        <v>832</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>277</v>
       </c>
       <c r="H13">
-        <v>497</v>
+        <v>555</v>
       </c>
       <c r="I13">
-        <v>555</v>
+        <v>832</v>
       </c>
       <c r="J13">
         <v>100513770</v>
@@ -4978,31 +4978,31 @@
         <v>388</v>
       </c>
       <c r="B14">
-        <v>1748</v>
+        <v>1785</v>
       </c>
       <c r="C14">
         <v>2056</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="E14" s="6">
         <f>D14/(D15)</f>
-        <v>0.10175090849025438</v>
+        <v>0.10089352196574833</v>
       </c>
       <c r="F14">
-        <v>550</v>
+        <v>870</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>320</v>
       </c>
       <c r="H14">
-        <v>497</v>
+        <v>550</v>
       </c>
       <c r="I14">
-        <v>550</v>
+        <v>870</v>
       </c>
       <c r="J14">
         <v>100513771</v>
@@ -5012,7 +5012,7 @@
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B2:B14)</f>
-        <v>17697</v>
+        <v>18038</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C14)</f>
@@ -5020,12 +5020,12 @@
       </c>
       <c r="D15">
         <f>SUM(D2:D14)</f>
-        <v>3027</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="8">
-        <v>44662.432106481479</v>
+        <v>44663.429074074076</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5086,7 +5086,7 @@
         <v>4131</v>
       </c>
       <c r="E31">
-        <f>D31-D30</f>
+        <f t="shared" ref="E31:E37" si="2">D31-D30</f>
         <v>-293</v>
       </c>
       <c r="J31" s="12">
@@ -5098,7 +5098,7 @@
         <v>3911</v>
       </c>
       <c r="E32">
-        <f>D32-D31</f>
+        <f t="shared" si="2"/>
         <v>-220</v>
       </c>
       <c r="J32" s="12">
@@ -5110,7 +5110,7 @@
         <v>3845</v>
       </c>
       <c r="E33">
-        <f>D33-D32</f>
+        <f t="shared" si="2"/>
         <v>-66</v>
       </c>
       <c r="J33" s="12">
@@ -5122,7 +5122,7 @@
         <v>3610</v>
       </c>
       <c r="E34">
-        <f>D34-D33</f>
+        <f t="shared" si="2"/>
         <v>-235</v>
       </c>
       <c r="J34" s="12">
@@ -5134,7 +5134,7 @@
         <v>3424</v>
       </c>
       <c r="E35">
-        <f>D35-D34</f>
+        <f t="shared" si="2"/>
         <v>-186</v>
       </c>
       <c r="J35" s="12">
@@ -5146,11 +5146,23 @@
         <v>3027</v>
       </c>
       <c r="E36">
-        <f>D36-D35</f>
+        <f t="shared" si="2"/>
         <v>-397</v>
       </c>
       <c r="J36" s="12">
         <v>44662.432233796295</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10">
+      <c r="D37">
+        <v>2686</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>-341</v>
+      </c>
+      <c r="J37" s="12">
+        <v>44663.429201388892</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EA433A-6F0A-BA4A-88AE-1A123F991608}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0175E122-E6D5-EF48-8145-B666CFA61E8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4520" yWindow="460" windowWidth="33600" windowHeight="19080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4514,10 +4514,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D06DC-D0D3-DC41-8495-1A009DF45D20}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4528,7 +4528,7 @@
     <col min="11" max="11" width="141" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="13" t="s">
         <v>372</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>379</v>
       </c>
@@ -4573,7 +4573,7 @@
       </c>
       <c r="E2" s="6">
         <f>D2/(D15)</f>
-        <v>2.2338049143708115E-3</v>
+        <v>2.5717959708529792E-3</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>393</v>
@@ -4585,36 +4585,36 @@
         <v>100513772</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>376</v>
       </c>
       <c r="B3">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="C3">
         <v>700</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="E3" s="6">
         <f>D3/(D15)</f>
-        <v>3.8346984363365602E-2</v>
+        <v>3.7719674239177027E-2</v>
       </c>
       <c r="F3">
-        <v>16768</v>
+        <v>27888</v>
       </c>
       <c r="G3">
         <f>I3-H3</f>
-        <v>214</v>
+        <v>11120</v>
       </c>
       <c r="H3">
-        <v>16554</v>
+        <v>16768</v>
       </c>
       <c r="I3">
-        <v>16768</v>
+        <v>27888</v>
       </c>
       <c r="J3" s="9">
         <v>100513759</v>
@@ -4623,396 +4623,417 @@
         <v>391</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:14">
       <c r="A4" s="5" t="s">
         <v>377</v>
       </c>
       <c r="B4">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="C4">
         <v>750</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D14" si="0">C4-B4</f>
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E4" s="6">
         <f>D4/(D15)</f>
-        <v>2.9411764705882353E-2</v>
+        <v>2.87183883411916E-2</v>
       </c>
       <c r="F4">
-        <v>4979</v>
+        <v>6200</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G14" si="1">I4-H4</f>
-        <v>542</v>
+        <v>1221</v>
       </c>
       <c r="H4">
-        <v>4437</v>
+        <v>4979</v>
       </c>
       <c r="I4">
-        <v>4979</v>
+        <v>6200</v>
       </c>
       <c r="J4" s="9">
         <v>100513761</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16">
+    <row r="5" spans="1:14" ht="16">
       <c r="A5" s="3" t="s">
         <v>375</v>
       </c>
       <c r="B5">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="C5">
         <v>750</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E5" s="6">
         <f>D5/(D15)</f>
-        <v>3.9091586001489202E-2</v>
+        <v>3.9862837548221175E-2</v>
       </c>
       <c r="F5">
-        <v>5049</v>
+        <v>6188</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>605</v>
+        <v>1139</v>
       </c>
       <c r="H5">
-        <v>4444</v>
+        <v>5049</v>
       </c>
       <c r="I5">
-        <v>5049</v>
+        <v>6188</v>
       </c>
       <c r="J5" s="9">
         <v>100513762</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:14">
       <c r="A6" s="7" t="s">
         <v>385</v>
       </c>
       <c r="B6">
-        <v>1767</v>
+        <v>1803</v>
       </c>
       <c r="C6">
         <v>2056</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="E6" s="6">
         <f>D6/(D15)</f>
-        <v>0.10759493670886076</v>
+        <v>0.10844406343763395</v>
       </c>
       <c r="F6">
-        <v>856</v>
+        <v>1338</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>308</v>
+        <v>482</v>
       </c>
       <c r="H6">
-        <v>548</v>
+        <v>856</v>
       </c>
       <c r="I6">
-        <v>856</v>
+        <v>1338</v>
       </c>
       <c r="J6">
         <v>100513763</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:14">
       <c r="A7" s="7" t="s">
         <v>384</v>
       </c>
       <c r="B7">
-        <v>1783</v>
+        <v>1826</v>
       </c>
       <c r="C7">
         <v>2056</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="E7" s="6">
         <f>D7/(D15)</f>
-        <v>0.10163812360387194</v>
+        <v>9.858551221603086E-2</v>
       </c>
       <c r="F7">
-        <v>849</v>
+        <v>1328</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>294</v>
+        <v>479</v>
       </c>
       <c r="H7">
-        <v>555</v>
+        <v>849</v>
       </c>
       <c r="I7">
-        <v>849</v>
+        <v>1328</v>
       </c>
       <c r="J7">
         <v>100513764</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:14">
       <c r="A8" s="7" t="s">
         <v>383</v>
       </c>
       <c r="B8">
-        <v>1783</v>
+        <v>1814</v>
       </c>
       <c r="C8">
         <v>2056</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="E8" s="6">
         <f>D8/(D15)</f>
-        <v>0.10163812360387194</v>
+        <v>0.10372910415773683</v>
       </c>
       <c r="F8">
-        <v>875</v>
+        <v>1338</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>325</v>
+        <v>463</v>
       </c>
       <c r="H8">
-        <v>550</v>
+        <v>875</v>
       </c>
       <c r="I8">
-        <v>875</v>
+        <v>1338</v>
       </c>
       <c r="J8">
         <v>100513765</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="N8">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="7" t="s">
         <v>386</v>
       </c>
       <c r="B9">
-        <v>1792</v>
+        <v>1832</v>
       </c>
       <c r="C9">
         <v>2056</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="E9" s="6">
         <f>D9/(D15)</f>
-        <v>9.8287416232315711E-2</v>
+        <v>9.6013716245177877E-2</v>
       </c>
       <c r="F9">
-        <v>858</v>
+        <v>1340</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>303</v>
+        <v>482</v>
       </c>
       <c r="H9">
-        <v>555</v>
+        <v>858</v>
       </c>
       <c r="I9">
-        <v>858</v>
+        <v>1340</v>
       </c>
       <c r="J9">
         <v>100513766</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="N9">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="7" t="s">
         <v>387</v>
       </c>
       <c r="B10">
-        <v>1797</v>
+        <v>1822</v>
       </c>
       <c r="C10">
         <v>2056</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="E10" s="6">
         <f>D10/(D15)</f>
-        <v>9.64259121370067E-2</v>
+        <v>0.10030004286326619</v>
       </c>
       <c r="F10">
-        <v>846</v>
+        <v>1345</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>499</v>
       </c>
       <c r="H10">
-        <v>555</v>
+        <v>846</v>
       </c>
       <c r="I10">
-        <v>846</v>
+        <v>1345</v>
       </c>
       <c r="J10">
         <v>100513767</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="N10">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="7" t="s">
         <v>382</v>
       </c>
       <c r="B11">
-        <v>1820</v>
+        <v>1853</v>
       </c>
       <c r="C11">
         <v>2056</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="E11" s="6">
         <f>D11/(D15)</f>
-        <v>8.7862993298585254E-2</v>
+        <v>8.7012430347192457E-2</v>
       </c>
       <c r="F11">
-        <v>840</v>
+        <v>1329</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>489</v>
       </c>
       <c r="H11">
-        <v>549</v>
+        <v>840</v>
       </c>
       <c r="I11">
-        <v>840</v>
+        <v>1329</v>
       </c>
       <c r="J11">
         <v>100513768</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="N11">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="7" t="s">
         <v>381</v>
       </c>
       <c r="B12">
-        <v>1783</v>
+        <v>1826</v>
       </c>
       <c r="C12">
         <v>2056</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="E12" s="6">
         <f>D12/(D15)</f>
-        <v>0.10163812360387194</v>
+        <v>9.858551221603086E-2</v>
       </c>
       <c r="F12">
-        <v>850</v>
+        <v>1330</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>295</v>
+        <v>480</v>
       </c>
       <c r="H12">
-        <v>555</v>
+        <v>850</v>
       </c>
       <c r="I12">
-        <v>850</v>
+        <v>1330</v>
       </c>
       <c r="J12">
         <v>100513769</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="N12">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="7" t="s">
         <v>380</v>
       </c>
       <c r="B13">
-        <v>1801</v>
+        <v>1834</v>
       </c>
       <c r="C13">
         <v>2056</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="E13" s="6">
         <f>D13/(D15)</f>
-        <v>9.49367088607595E-2</v>
+        <v>9.5156450921560221E-2</v>
       </c>
       <c r="F13">
-        <v>832</v>
+        <v>1329</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>277</v>
+        <v>497</v>
       </c>
       <c r="H13">
-        <v>555</v>
+        <v>832</v>
       </c>
       <c r="I13">
-        <v>832</v>
+        <v>1329</v>
       </c>
       <c r="J13">
         <v>100513770</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="N13">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="7" t="s">
         <v>388</v>
       </c>
       <c r="B14">
-        <v>1785</v>
+        <v>1815</v>
       </c>
       <c r="C14">
         <v>2056</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="E14" s="6">
         <f>D14/(D15)</f>
-        <v>0.10089352196574833</v>
+        <v>0.10330047149592798</v>
       </c>
       <c r="F14">
-        <v>870</v>
+        <v>1320</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>320</v>
+        <v>450</v>
       </c>
       <c r="H14">
-        <v>550</v>
+        <v>870</v>
       </c>
       <c r="I14">
-        <v>870</v>
+        <v>1320</v>
       </c>
       <c r="J14">
         <v>100513771</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="N14">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B2:B14)</f>
-        <v>18038</v>
+        <v>18391</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C14)</f>
@@ -5020,57 +5041,67 @@
       </c>
       <c r="D15">
         <f>SUM(D2:D14)</f>
-        <v>2686</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>2333</v>
+      </c>
+      <c r="N15">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="8">
-        <v>44663.429074074076</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>44664.428819444445</v>
+      </c>
+      <c r="N16">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="N17">
+        <f>SUM(N8:N16)</f>
+        <v>16425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:14">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:14">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="90" customHeight="1">
+    <row r="21" spans="1:14" ht="90" customHeight="1">
       <c r="A21" s="1"/>
       <c r="K21" s="10" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:14">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:14">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:14">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:14">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:14">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:14">
       <c r="A27" s="1"/>
       <c r="C27">
         <v>6440</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:14">
       <c r="A28" s="1"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:14">
       <c r="D30">
         <v>4424</v>
       </c>
@@ -5081,19 +5112,19 @@
         <v>44657.48164351852</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:14">
       <c r="D31">
         <v>4131</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31:E37" si="2">D31-D30</f>
+        <f t="shared" ref="E31:E38" si="2">D31-D30</f>
         <v>-293</v>
       </c>
       <c r="J31" s="12">
         <v>44658.459386574075</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:14">
       <c r="D32">
         <v>3911</v>
       </c>
@@ -5163,6 +5194,18 @@
       </c>
       <c r="J37" s="12">
         <v>44663.429201388892</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10">
+      <c r="D38">
+        <v>2333</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>-353</v>
+      </c>
+      <c r="J38" s="12">
+        <v>44664.428946759261</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0175E122-E6D5-EF48-8145-B666CFA61E8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE63BC46-D4CE-C64C-A949-1ECDF5E9AE43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4520" yWindow="460" windowWidth="33600" windowHeight="19080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1151,9 +1151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>贝贝（BEBE）</t>
-  </si>
-  <si>
     <t>伊爱娃（IARA）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1235,6 +1232,10 @@
   </si>
   <si>
     <t>今日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝贝（BEBE）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1242,7 +1243,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1256,12 +1257,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Menlo"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1338,23 +1333,22 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4516,8 +4510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D06DC-D0D3-DC41-8495-1A009DF45D20}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4529,37 +4523,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="3" t="s">
         <v>378</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="4" t="s">
-        <v>379</v>
       </c>
       <c r="B2">
         <v>14</v>
@@ -4571,228 +4565,228 @@
         <f>C2-B2</f>
         <v>6</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <f>D2/(D15)</f>
-        <v>2.5717959708529792E-3</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="9">
+        <v>2.7027027027027029E-3</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="8">
         <v>100513772</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B3">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C3">
         <v>700</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>88</v>
-      </c>
-      <c r="E3" s="6">
+        <v>87</v>
+      </c>
+      <c r="E3" s="5">
         <f>D3/(D15)</f>
-        <v>3.7719674239177027E-2</v>
+        <v>3.9189189189189191E-2</v>
       </c>
       <c r="F3">
-        <v>27888</v>
+        <v>30888</v>
       </c>
       <c r="G3">
         <f>I3-H3</f>
-        <v>11120</v>
+        <v>3000</v>
       </c>
       <c r="H3">
-        <v>16768</v>
+        <v>27888</v>
       </c>
       <c r="I3">
-        <v>27888</v>
-      </c>
-      <c r="J3" s="9">
+        <v>30888</v>
+      </c>
+      <c r="J3" s="8">
         <v>100513759</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>391</v>
+      <c r="K3" s="10" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="5" t="s">
-        <v>377</v>
+      <c r="A4" s="4" t="s">
+        <v>376</v>
       </c>
       <c r="B4">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="C4">
         <v>750</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D14" si="0">C4-B4</f>
-        <v>67</v>
-      </c>
-      <c r="E4" s="6">
+        <v>63</v>
+      </c>
+      <c r="E4" s="5">
         <f>D4/(D15)</f>
-        <v>2.87183883411916E-2</v>
+        <v>2.837837837837838E-2</v>
       </c>
       <c r="F4">
-        <v>6200</v>
+        <v>4999</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G14" si="1">I4-H4</f>
-        <v>1221</v>
+        <v>-1201</v>
       </c>
       <c r="H4">
-        <v>4979</v>
+        <v>6200</v>
       </c>
       <c r="I4">
-        <v>6200</v>
-      </c>
-      <c r="J4" s="9">
+        <v>4999</v>
+      </c>
+      <c r="J4" s="8">
         <v>100513761</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16">
-      <c r="A5" s="3" t="s">
-        <v>375</v>
+    <row r="5" spans="1:14">
+      <c r="A5" s="4" t="s">
+        <v>396</v>
       </c>
       <c r="B5">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C5">
         <v>750</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="E5" s="6">
+        <v>90</v>
+      </c>
+      <c r="E5" s="5">
         <f>D5/(D15)</f>
-        <v>3.9862837548221175E-2</v>
+        <v>4.0540540540540543E-2</v>
       </c>
       <c r="F5">
-        <v>6188</v>
+        <v>5288</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>1139</v>
+        <v>-900</v>
       </c>
       <c r="H5">
-        <v>5049</v>
+        <v>6188</v>
       </c>
       <c r="I5">
-        <v>6188</v>
-      </c>
-      <c r="J5" s="9">
+        <v>5288</v>
+      </c>
+      <c r="J5" s="8">
         <v>100513762</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="7" t="s">
-        <v>385</v>
+      <c r="A6" s="6" t="s">
+        <v>384</v>
       </c>
       <c r="B6">
-        <v>1803</v>
+        <v>1823</v>
       </c>
       <c r="C6">
         <v>2056</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>253</v>
-      </c>
-      <c r="E6" s="6">
+        <v>233</v>
+      </c>
+      <c r="E6" s="5">
         <f>D6/(D15)</f>
-        <v>0.10844406343763395</v>
+        <v>0.10495495495495495</v>
       </c>
       <c r="F6">
-        <v>1338</v>
+        <v>1100</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>482</v>
+        <v>-238</v>
       </c>
       <c r="H6">
-        <v>856</v>
+        <v>1338</v>
       </c>
       <c r="I6">
-        <v>1338</v>
+        <v>1100</v>
       </c>
       <c r="J6">
         <v>100513763</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="7" t="s">
-        <v>384</v>
+      <c r="A7" s="6" t="s">
+        <v>383</v>
       </c>
       <c r="B7">
-        <v>1826</v>
+        <v>1835</v>
       </c>
       <c r="C7">
         <v>2056</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>230</v>
-      </c>
-      <c r="E7" s="6">
+        <v>221</v>
+      </c>
+      <c r="E7" s="5">
         <f>D7/(D15)</f>
-        <v>9.858551221603086E-2</v>
+        <v>9.9549549549549546E-2</v>
       </c>
       <c r="F7">
-        <v>1328</v>
+        <v>1100</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>479</v>
+        <v>-228</v>
       </c>
       <c r="H7">
-        <v>849</v>
+        <v>1328</v>
       </c>
       <c r="I7">
-        <v>1328</v>
+        <v>1100</v>
       </c>
       <c r="J7">
         <v>100513764</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="7" t="s">
-        <v>383</v>
+      <c r="A8" s="6" t="s">
+        <v>382</v>
       </c>
       <c r="B8">
-        <v>1814</v>
+        <v>1825</v>
       </c>
       <c r="C8">
         <v>2056</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>242</v>
-      </c>
-      <c r="E8" s="6">
+        <v>231</v>
+      </c>
+      <c r="E8" s="5">
         <f>D8/(D15)</f>
-        <v>0.10372910415773683</v>
+        <v>0.10405405405405406</v>
       </c>
       <c r="F8">
-        <v>1338</v>
+        <v>1060</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>463</v>
+        <v>-278</v>
       </c>
       <c r="H8">
-        <v>875</v>
+        <v>1338</v>
       </c>
       <c r="I8">
-        <v>1338</v>
+        <v>1060</v>
       </c>
       <c r="J8">
         <v>100513765</v>
@@ -4802,35 +4796,35 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="7" t="s">
-        <v>386</v>
+      <c r="A9" s="6" t="s">
+        <v>385</v>
       </c>
       <c r="B9">
-        <v>1832</v>
+        <v>1837</v>
       </c>
       <c r="C9">
         <v>2056</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>224</v>
-      </c>
-      <c r="E9" s="6">
+        <v>219</v>
+      </c>
+      <c r="E9" s="5">
         <f>D9/(D15)</f>
-        <v>9.6013716245177877E-2</v>
+        <v>9.8648648648648654E-2</v>
       </c>
       <c r="F9">
-        <v>1340</v>
+        <v>1140</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>482</v>
+        <v>-200</v>
       </c>
       <c r="H9">
-        <v>858</v>
+        <v>1340</v>
       </c>
       <c r="I9">
-        <v>1340</v>
+        <v>1140</v>
       </c>
       <c r="J9">
         <v>100513766</v>
@@ -4840,35 +4834,35 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="7" t="s">
-        <v>387</v>
+      <c r="A10" s="6" t="s">
+        <v>386</v>
       </c>
       <c r="B10">
-        <v>1822</v>
+        <v>1841</v>
       </c>
       <c r="C10">
         <v>2056</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>234</v>
-      </c>
-      <c r="E10" s="6">
+        <v>215</v>
+      </c>
+      <c r="E10" s="5">
         <f>D10/(D15)</f>
-        <v>0.10030004286326619</v>
+        <v>9.6846846846846843E-2</v>
       </c>
       <c r="F10">
-        <v>1345</v>
+        <v>1099</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>499</v>
+        <v>-246</v>
       </c>
       <c r="H10">
-        <v>846</v>
+        <v>1345</v>
       </c>
       <c r="I10">
-        <v>1345</v>
+        <v>1099</v>
       </c>
       <c r="J10">
         <v>100513767</v>
@@ -4878,35 +4872,35 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="7" t="s">
-        <v>382</v>
+      <c r="A11" s="6" t="s">
+        <v>381</v>
       </c>
       <c r="B11">
-        <v>1853</v>
+        <v>1862</v>
       </c>
       <c r="C11">
         <v>2056</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>203</v>
-      </c>
-      <c r="E11" s="6">
+        <v>194</v>
+      </c>
+      <c r="E11" s="5">
         <f>D11/(D15)</f>
-        <v>8.7012430347192457E-2</v>
+        <v>8.7387387387387383E-2</v>
       </c>
       <c r="F11">
-        <v>1329</v>
+        <v>1098</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>489</v>
+        <v>-231</v>
       </c>
       <c r="H11">
-        <v>840</v>
+        <v>1329</v>
       </c>
       <c r="I11">
-        <v>1329</v>
+        <v>1098</v>
       </c>
       <c r="J11">
         <v>100513768</v>
@@ -4916,35 +4910,35 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="7" t="s">
-        <v>381</v>
+      <c r="A12" s="6" t="s">
+        <v>380</v>
       </c>
       <c r="B12">
-        <v>1826</v>
+        <v>1836</v>
       </c>
       <c r="C12">
         <v>2056</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>230</v>
-      </c>
-      <c r="E12" s="6">
+        <v>220</v>
+      </c>
+      <c r="E12" s="5">
         <f>D12/(D15)</f>
-        <v>9.858551221603086E-2</v>
+        <v>9.90990990990991E-2</v>
       </c>
       <c r="F12">
-        <v>1330</v>
+        <v>1100</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>480</v>
+        <v>-230</v>
       </c>
       <c r="H12">
-        <v>850</v>
+        <v>1330</v>
       </c>
       <c r="I12">
-        <v>1330</v>
+        <v>1100</v>
       </c>
       <c r="J12">
         <v>100513769</v>
@@ -4954,35 +4948,35 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="7" t="s">
-        <v>380</v>
+      <c r="A13" s="6" t="s">
+        <v>379</v>
       </c>
       <c r="B13">
-        <v>1834</v>
+        <v>1843</v>
       </c>
       <c r="C13">
         <v>2056</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>222</v>
-      </c>
-      <c r="E13" s="6">
+        <v>213</v>
+      </c>
+      <c r="E13" s="5">
         <f>D13/(D15)</f>
-        <v>9.5156450921560221E-2</v>
+        <v>9.5945945945945951E-2</v>
       </c>
       <c r="F13">
-        <v>1329</v>
+        <v>1100</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>497</v>
+        <v>-229</v>
       </c>
       <c r="H13">
-        <v>832</v>
+        <v>1329</v>
       </c>
       <c r="I13">
-        <v>1329</v>
+        <v>1100</v>
       </c>
       <c r="J13">
         <v>100513770</v>
@@ -4992,35 +4986,35 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="7" t="s">
-        <v>388</v>
+      <c r="A14" s="6" t="s">
+        <v>387</v>
       </c>
       <c r="B14">
-        <v>1815</v>
+        <v>1828</v>
       </c>
       <c r="C14">
         <v>2056</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>241</v>
-      </c>
-      <c r="E14" s="6">
+        <v>228</v>
+      </c>
+      <c r="E14" s="5">
         <f>D14/(D15)</f>
-        <v>0.10330047149592798</v>
+        <v>0.10270270270270271</v>
       </c>
       <c r="F14">
-        <v>1320</v>
+        <v>1100</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>450</v>
+        <v>-220</v>
       </c>
       <c r="H14">
-        <v>870</v>
+        <v>1320</v>
       </c>
       <c r="I14">
-        <v>1320</v>
+        <v>1100</v>
       </c>
       <c r="J14">
         <v>100513771</v>
@@ -5033,7 +5027,7 @@
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B2:B14)</f>
-        <v>18391</v>
+        <v>18504</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C14)</f>
@@ -5041,15 +5035,15 @@
       </c>
       <c r="D15">
         <f>SUM(D2:D14)</f>
-        <v>2333</v>
+        <v>2220</v>
       </c>
       <c r="N15">
         <v>1834</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="8">
-        <v>44664.428819444445</v>
+      <c r="A16" s="7">
+        <v>44665.590451388889</v>
       </c>
       <c r="N16">
         <v>1815</v>
@@ -5073,8 +5067,8 @@
     </row>
     <row r="21" spans="1:14" ht="90" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="K21" s="10" t="s">
-        <v>390</v>
+      <c r="K21" s="9" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -5105,10 +5099,10 @@
       <c r="D30">
         <v>4424</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="11">
         <v>44657.48164351852</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="11">
         <v>44657.48164351852</v>
       </c>
     </row>
@@ -5120,7 +5114,7 @@
         <f t="shared" ref="E31:E38" si="2">D31-D30</f>
         <v>-293</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="11">
         <v>44658.459386574075</v>
       </c>
     </row>
@@ -5132,7 +5126,7 @@
         <f t="shared" si="2"/>
         <v>-220</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="11">
         <v>44659.39980324074</v>
       </c>
     </row>
@@ -5144,7 +5138,7 @@
         <f t="shared" si="2"/>
         <v>-66</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="11">
         <v>44659.893761574072</v>
       </c>
     </row>
@@ -5156,7 +5150,7 @@
         <f t="shared" si="2"/>
         <v>-235</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="11">
         <v>44660.580752314818</v>
       </c>
     </row>
@@ -5168,7 +5162,7 @@
         <f t="shared" si="2"/>
         <v>-186</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="11">
         <v>44661.330034722225</v>
       </c>
     </row>
@@ -5180,7 +5174,7 @@
         <f t="shared" si="2"/>
         <v>-397</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J36" s="11">
         <v>44662.432233796295</v>
       </c>
     </row>
@@ -5192,7 +5186,7 @@
         <f t="shared" si="2"/>
         <v>-341</v>
       </c>
-      <c r="J37" s="12">
+      <c r="J37" s="11">
         <v>44663.429201388892</v>
       </c>
     </row>
@@ -5204,7 +5198,7 @@
         <f t="shared" si="2"/>
         <v>-353</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J38" s="11">
         <v>44664.428946759261</v>
       </c>
     </row>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE63BC46-D4CE-C64C-A949-1ECDF5E9AE43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDACFF45-467E-EE4D-97E9-EFA4496B1C2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4520" yWindow="460" windowWidth="33600" windowHeight="19080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4508,10 +4508,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D06DC-D0D3-DC41-8495-1A009DF45D20}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="E2" s="5">
         <f>D2/(D15)</f>
-        <v>2.7027027027027029E-3</v>
+        <v>2.7739251040221915E-3</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>392</v>
@@ -4584,31 +4584,31 @@
         <v>375</v>
       </c>
       <c r="B3">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C3">
         <v>700</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E3" s="5">
         <f>D3/(D15)</f>
-        <v>3.9189189189189191E-2</v>
+        <v>3.9297272306981046E-2</v>
       </c>
       <c r="F3">
-        <v>30888</v>
+        <v>30555</v>
       </c>
       <c r="G3">
         <f>I3-H3</f>
-        <v>3000</v>
+        <v>-333</v>
       </c>
       <c r="H3">
-        <v>27888</v>
+        <v>30888</v>
       </c>
       <c r="I3">
-        <v>30888</v>
+        <v>30555</v>
       </c>
       <c r="J3" s="8">
         <v>100513759</v>
@@ -4622,31 +4622,31 @@
         <v>376</v>
       </c>
       <c r="B4">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="C4">
         <v>750</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D14" si="0">C4-B4</f>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E4" s="5">
         <f>D4/(D15)</f>
-        <v>2.837837837837838E-2</v>
+        <v>2.7739251040221916E-2</v>
       </c>
       <c r="F4">
-        <v>4999</v>
+        <v>5400</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G14" si="1">I4-H4</f>
-        <v>-1201</v>
+        <v>401</v>
       </c>
       <c r="H4">
-        <v>6200</v>
+        <v>4999</v>
       </c>
       <c r="I4">
-        <v>4999</v>
+        <v>5400</v>
       </c>
       <c r="J4" s="8">
         <v>100513761</v>
@@ -4657,31 +4657,31 @@
         <v>396</v>
       </c>
       <c r="B5">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C5">
         <v>750</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E5" s="5">
         <f>D5/(D15)</f>
-        <v>4.0540540540540543E-2</v>
+        <v>4.0221914008321778E-2</v>
       </c>
       <c r="F5">
-        <v>5288</v>
+        <v>5750</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>-900</v>
+        <v>462</v>
       </c>
       <c r="H5">
-        <v>6188</v>
+        <v>5288</v>
       </c>
       <c r="I5">
-        <v>5288</v>
+        <v>5750</v>
       </c>
       <c r="J5" s="8">
         <v>100513762</v>
@@ -4692,28 +4692,28 @@
         <v>384</v>
       </c>
       <c r="B6">
-        <v>1823</v>
+        <v>1829</v>
       </c>
       <c r="C6">
         <v>2056</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E6" s="5">
         <f>D6/(D15)</f>
-        <v>0.10495495495495495</v>
+        <v>0.10494683310217291</v>
       </c>
       <c r="F6">
         <v>1100</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>-238</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1338</v>
+        <v>1100</v>
       </c>
       <c r="I6">
         <v>1100</v>
@@ -4727,31 +4727,31 @@
         <v>383</v>
       </c>
       <c r="B7">
-        <v>1835</v>
+        <v>1841</v>
       </c>
       <c r="C7">
         <v>2056</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E7" s="5">
         <f>D7/(D15)</f>
-        <v>9.9549549549549546E-2</v>
+        <v>9.9398982894128532E-2</v>
       </c>
       <c r="F7">
-        <v>1100</v>
+        <v>1050</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>-228</v>
+        <v>-50</v>
       </c>
       <c r="H7">
-        <v>1328</v>
+        <v>1100</v>
       </c>
       <c r="I7">
-        <v>1100</v>
+        <v>1050</v>
       </c>
       <c r="J7">
         <v>100513764</v>
@@ -4762,31 +4762,31 @@
         <v>382</v>
       </c>
       <c r="B8">
-        <v>1825</v>
+        <v>1828</v>
       </c>
       <c r="C8">
         <v>2056</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E8" s="5">
         <f>D8/(D15)</f>
-        <v>0.10405405405405406</v>
+        <v>0.10540915395284327</v>
       </c>
       <c r="F8">
-        <v>1060</v>
+        <v>1048</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>-278</v>
+        <v>-12</v>
       </c>
       <c r="H8">
-        <v>1338</v>
+        <v>1060</v>
       </c>
       <c r="I8">
-        <v>1060</v>
+        <v>1048</v>
       </c>
       <c r="J8">
         <v>100513765</v>
@@ -4800,31 +4800,31 @@
         <v>385</v>
       </c>
       <c r="B9">
-        <v>1837</v>
+        <v>1843</v>
       </c>
       <c r="C9">
         <v>2056</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E9" s="5">
         <f>D9/(D15)</f>
-        <v>9.8648648648648654E-2</v>
+        <v>9.8474341192787793E-2</v>
       </c>
       <c r="F9">
-        <v>1140</v>
+        <v>1048</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>-200</v>
+        <v>-92</v>
       </c>
       <c r="H9">
-        <v>1340</v>
+        <v>1140</v>
       </c>
       <c r="I9">
-        <v>1140</v>
+        <v>1048</v>
       </c>
       <c r="J9">
         <v>100513766</v>
@@ -4838,31 +4838,31 @@
         <v>386</v>
       </c>
       <c r="B10">
-        <v>1841</v>
+        <v>1844</v>
       </c>
       <c r="C10">
         <v>2056</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E10" s="5">
         <f>D10/(D15)</f>
-        <v>9.6846846846846843E-2</v>
+        <v>9.8012020342117423E-2</v>
       </c>
       <c r="F10">
-        <v>1099</v>
+        <v>1040</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>-246</v>
+        <v>-59</v>
       </c>
       <c r="H10">
-        <v>1345</v>
+        <v>1099</v>
       </c>
       <c r="I10">
-        <v>1099</v>
+        <v>1040</v>
       </c>
       <c r="J10">
         <v>100513767</v>
@@ -4876,31 +4876,31 @@
         <v>381</v>
       </c>
       <c r="B11">
-        <v>1862</v>
+        <v>1868</v>
       </c>
       <c r="C11">
         <v>2056</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E11" s="5">
         <f>D11/(D15)</f>
-        <v>8.7387387387387383E-2</v>
+        <v>8.6916319926028662E-2</v>
       </c>
       <c r="F11">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>-231</v>
+        <v>-10</v>
       </c>
       <c r="H11">
-        <v>1329</v>
+        <v>1098</v>
       </c>
       <c r="I11">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="J11">
         <v>100513768</v>
@@ -4914,31 +4914,31 @@
         <v>380</v>
       </c>
       <c r="B12">
-        <v>1836</v>
+        <v>1839</v>
       </c>
       <c r="C12">
         <v>2056</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E12" s="5">
         <f>D12/(D15)</f>
-        <v>9.90990990990991E-2</v>
+        <v>0.10032362459546926</v>
       </c>
       <c r="F12">
-        <v>1100</v>
+        <v>1039</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>-230</v>
+        <v>-61</v>
       </c>
       <c r="H12">
-        <v>1330</v>
+        <v>1100</v>
       </c>
       <c r="I12">
-        <v>1100</v>
+        <v>1039</v>
       </c>
       <c r="J12">
         <v>100513769</v>
@@ -4952,31 +4952,31 @@
         <v>379</v>
       </c>
       <c r="B13">
-        <v>1843</v>
+        <v>1852</v>
       </c>
       <c r="C13">
         <v>2056</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E13" s="5">
         <f>D13/(D15)</f>
-        <v>9.5945945945945951E-2</v>
+        <v>9.4313453536754507E-2</v>
       </c>
       <c r="F13">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>-229</v>
+        <v>-5</v>
       </c>
       <c r="H13">
-        <v>1329</v>
+        <v>1100</v>
       </c>
       <c r="I13">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="J13">
         <v>100513770</v>
@@ -4990,31 +4990,31 @@
         <v>387</v>
       </c>
       <c r="B14">
-        <v>1828</v>
+        <v>1835</v>
       </c>
       <c r="C14">
         <v>2056</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E14" s="5">
         <f>D14/(D15)</f>
-        <v>0.10270270270270271</v>
+        <v>0.10217290799815072</v>
       </c>
       <c r="F14">
-        <v>1100</v>
+        <v>1039</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>-220</v>
+        <v>-61</v>
       </c>
       <c r="H14">
-        <v>1320</v>
+        <v>1100</v>
       </c>
       <c r="I14">
-        <v>1100</v>
+        <v>1039</v>
       </c>
       <c r="J14">
         <v>100513771</v>
@@ -5027,7 +5027,7 @@
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B2:B14)</f>
-        <v>18504</v>
+        <v>18561</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C14)</f>
@@ -5035,7 +5035,7 @@
       </c>
       <c r="D15">
         <f>SUM(D2:D14)</f>
-        <v>2220</v>
+        <v>2163</v>
       </c>
       <c r="N15">
         <v>1834</v>
@@ -5043,7 +5043,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="7">
-        <v>44665.590451388889</v>
+        <v>44666.382511574076</v>
       </c>
       <c r="N16">
         <v>1815</v>
@@ -5111,7 +5111,7 @@
         <v>4131</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31:E38" si="2">D31-D30</f>
+        <f t="shared" ref="E31:E39" si="2">D31-D30</f>
         <v>-293</v>
       </c>
       <c r="J31" s="11">
@@ -5200,6 +5200,18 @@
       </c>
       <c r="J38" s="11">
         <v>44664.428946759261</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10">
+      <c r="D39">
+        <v>2163</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>-170</v>
+      </c>
+      <c r="J39" s="11">
+        <v>44666.382650462961</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,20 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDACFF45-467E-EE4D-97E9-EFA4496B1C2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57D9D70-2174-6547-913D-DD69A322290C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4520" yWindow="460" windowWidth="33600" windowHeight="19080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="价格" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="7期" sheetId="2" r:id="rId2"/>
+    <sheet name="6期" sheetId="3" r:id="rId3"/>
+    <sheet name="5期" sheetId="4" r:id="rId4"/>
+    <sheet name="4期" sheetId="5" r:id="rId5"/>
+    <sheet name="3期" sheetId="6" r:id="rId6"/>
+    <sheet name="2期" sheetId="7" r:id="rId7"/>
+    <sheet name="1期" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="464">
   <si>
     <t>藏品名字</t>
   </si>
@@ -1237,6 +1243,211 @@
   <si>
     <t>贝贝（BEBE）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林黛玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛宝钗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史湘云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王熙凤</t>
+  </si>
+  <si>
+    <t>贾巧姐</t>
+  </si>
+  <si>
+    <t>贾探春</t>
+  </si>
+  <si>
+    <t>贾惜春</t>
+  </si>
+  <si>
+    <t>贾迎春</t>
+  </si>
+  <si>
+    <t>贾元春</t>
+  </si>
+  <si>
+    <t>李纨</t>
+  </si>
+  <si>
+    <t>妙玉</t>
+  </si>
+  <si>
+    <t>秦可卿</t>
+  </si>
+  <si>
+    <t>经典熊</t>
+  </si>
+  <si>
+    <t>万圣熊</t>
+  </si>
+  <si>
+    <t>精灵熊</t>
+  </si>
+  <si>
+    <t>摇滚熊</t>
+  </si>
+  <si>
+    <t>美女熊</t>
+  </si>
+  <si>
+    <t>可可熊</t>
+  </si>
+  <si>
+    <t>迪奇克熊</t>
+  </si>
+  <si>
+    <t>剑士熊</t>
+  </si>
+  <si>
+    <t>全机甲熊</t>
+  </si>
+  <si>
+    <t>斗士熊</t>
+  </si>
+  <si>
+    <t>军团熊</t>
+  </si>
+  <si>
+    <t>半机甲熊</t>
+  </si>
+  <si>
+    <t>机器人熊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同道大叔</t>
+  </si>
+  <si>
+    <t>大魔术师</t>
+  </si>
+  <si>
+    <t>奇幻马戏团</t>
+  </si>
+  <si>
+    <t>白羊座：加利斯</t>
+  </si>
+  <si>
+    <t>金牛座：牛丢丢</t>
+  </si>
+  <si>
+    <t>双子座：猫院长</t>
+  </si>
+  <si>
+    <t>巨蟹座：蛋丁</t>
+  </si>
+  <si>
+    <t>狮子座：狮总裁</t>
+  </si>
+  <si>
+    <t>处女座：矮豆豆</t>
+  </si>
+  <si>
+    <t>天秤座：窝窝鸡</t>
+  </si>
+  <si>
+    <t>天蝎座：雷猴</t>
+  </si>
+  <si>
+    <t>射手座：格雷</t>
+  </si>
+  <si>
+    <t>摩羯座：奋斗熊</t>
+  </si>
+  <si>
+    <t>水瓶座：格白尼</t>
+  </si>
+  <si>
+    <t>双鱼座：小超鱼</t>
+  </si>
+  <si>
+    <t>奥特意念光线</t>
+  </si>
+  <si>
+    <t>奥特屏障</t>
+  </si>
+  <si>
+    <t>空中撞击战法</t>
+  </si>
+  <si>
+    <t>奥特念力</t>
+  </si>
+  <si>
+    <t>奥特水流</t>
+  </si>
+  <si>
+    <t>奥特瞬间移动</t>
+  </si>
+  <si>
+    <t>奥特高速旋转</t>
+  </si>
+  <si>
+    <t>巨大化能力</t>
+  </si>
+  <si>
+    <t>碎裂光线</t>
+  </si>
+  <si>
+    <t>奥特眼光线</t>
+  </si>
+  <si>
+    <t>超级过肩摔</t>
+  </si>
+  <si>
+    <t>防御能力</t>
+  </si>
+  <si>
+    <t>光线白刃取</t>
+  </si>
+  <si>
+    <t>奥特空中意念捕捉</t>
+  </si>
+  <si>
+    <t>斯派修姆光线</t>
+  </si>
+  <si>
+    <t>八分光轮</t>
+  </si>
+  <si>
+    <t>捕捉光环</t>
+  </si>
+  <si>
+    <t>木叶村众人</t>
+  </si>
+  <si>
+    <t>奇拉比&amp;鸣人</t>
+  </si>
+  <si>
+    <t>鸣人VS佐助</t>
+  </si>
+  <si>
+    <t>宇智波佐助</t>
+  </si>
+  <si>
+    <t>旗木卡卡西</t>
+  </si>
+  <si>
+    <t>自来也</t>
+  </si>
+  <si>
+    <t>波风水门</t>
+  </si>
+  <si>
+    <t>第七班</t>
+  </si>
+  <si>
+    <t>鸣人VS我爱罗</t>
+  </si>
+  <si>
+    <t>漩涡鸣人</t>
   </si>
 </sst>
 </file>
@@ -4510,8 +4721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D06DC-D0D3-DC41-8495-1A009DF45D20}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5222,4 +5433,3752 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23834F0F-0918-B64F-9000-1ED84B75F029}">
+  <dimension ref="A1:N40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1">
+      <c r="B1" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B2">
+        <v>689</v>
+      </c>
+      <c r="C2">
+        <v>700</v>
+      </c>
+      <c r="D2">
+        <f>C2-B2</f>
+        <v>11</v>
+      </c>
+      <c r="E2" s="5">
+        <f>D2/(D16)</f>
+        <v>4.4715447154471545E-2</v>
+      </c>
+      <c r="F2">
+        <v>13333</v>
+      </c>
+      <c r="G2">
+        <f>I2-H2</f>
+        <v>-333</v>
+      </c>
+      <c r="H2">
+        <v>30888</v>
+      </c>
+      <c r="I2">
+        <v>30555</v>
+      </c>
+      <c r="J2" s="8">
+        <v>100513759</v>
+      </c>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B3">
+        <v>742</v>
+      </c>
+      <c r="C3">
+        <v>750</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D13" si="0">C3-B3</f>
+        <v>8</v>
+      </c>
+      <c r="E3" s="5">
+        <f>D3/(D16)</f>
+        <v>3.2520325203252036E-2</v>
+      </c>
+      <c r="F3">
+        <v>4488</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G13" si="1">I3-H3</f>
+        <v>401</v>
+      </c>
+      <c r="H3">
+        <v>4999</v>
+      </c>
+      <c r="I3">
+        <v>5400</v>
+      </c>
+      <c r="J3" s="8">
+        <v>100513761</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B4">
+        <v>744</v>
+      </c>
+      <c r="C4">
+        <v>750</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E4" s="5">
+        <f>D4/(D16)</f>
+        <v>2.4390243902439025E-2</v>
+      </c>
+      <c r="F4">
+        <v>4350</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>462</v>
+      </c>
+      <c r="H4">
+        <v>5288</v>
+      </c>
+      <c r="I4">
+        <v>5750</v>
+      </c>
+      <c r="J4" s="8">
+        <v>100513762</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B5">
+        <v>2029</v>
+      </c>
+      <c r="C5">
+        <v>2055</v>
+      </c>
+      <c r="D5">
+        <f>C5-B5</f>
+        <v>26</v>
+      </c>
+      <c r="E5" s="5">
+        <f>D5/(D16)</f>
+        <v>0.10569105691056911</v>
+      </c>
+      <c r="F5">
+        <v>950</v>
+      </c>
+      <c r="G5">
+        <f>I5-H5</f>
+        <v>-61</v>
+      </c>
+      <c r="H5">
+        <v>1100</v>
+      </c>
+      <c r="I5">
+        <v>1039</v>
+      </c>
+      <c r="J5">
+        <v>100513771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B6">
+        <v>2028</v>
+      </c>
+      <c r="C6">
+        <v>2055</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E6" s="5">
+        <f>D6/(D16)</f>
+        <v>0.10975609756097561</v>
+      </c>
+      <c r="F6">
+        <v>1280</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1100</v>
+      </c>
+      <c r="I6">
+        <v>1100</v>
+      </c>
+      <c r="J6">
+        <v>100513763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B7">
+        <v>2037</v>
+      </c>
+      <c r="C7">
+        <v>2055</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E7" s="5">
+        <f>D7/(D16)</f>
+        <v>7.3170731707317069E-2</v>
+      </c>
+      <c r="F7">
+        <v>999</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>-50</v>
+      </c>
+      <c r="H7">
+        <v>1100</v>
+      </c>
+      <c r="I7">
+        <v>1050</v>
+      </c>
+      <c r="J7">
+        <v>100513764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B8">
+        <v>2030</v>
+      </c>
+      <c r="C8">
+        <v>2055</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E8" s="5">
+        <f>D8/(D16)</f>
+        <v>0.1016260162601626</v>
+      </c>
+      <c r="F8">
+        <v>1008</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="H8">
+        <v>1060</v>
+      </c>
+      <c r="I8">
+        <v>1048</v>
+      </c>
+      <c r="J8">
+        <v>100513765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B9">
+        <v>2028</v>
+      </c>
+      <c r="C9">
+        <v>2056</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E9" s="5">
+        <f>D9/(D16)</f>
+        <v>0.11382113821138211</v>
+      </c>
+      <c r="F9">
+        <v>970</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>-92</v>
+      </c>
+      <c r="H9">
+        <v>1140</v>
+      </c>
+      <c r="I9">
+        <v>1048</v>
+      </c>
+      <c r="J9">
+        <v>100513766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B10">
+        <v>2031</v>
+      </c>
+      <c r="C10">
+        <v>2056</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E10" s="5">
+        <f>D10/(D16)</f>
+        <v>0.1016260162601626</v>
+      </c>
+      <c r="F10">
+        <v>999</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>-59</v>
+      </c>
+      <c r="H10">
+        <v>1099</v>
+      </c>
+      <c r="I10">
+        <v>1040</v>
+      </c>
+      <c r="J10">
+        <v>100513767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B11">
+        <v>2034</v>
+      </c>
+      <c r="C11">
+        <v>2056</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E11" s="5">
+        <f>D11/(D16)</f>
+        <v>8.943089430894309E-2</v>
+      </c>
+      <c r="F11">
+        <v>989</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="H11">
+        <v>1098</v>
+      </c>
+      <c r="I11">
+        <v>1088</v>
+      </c>
+      <c r="J11">
+        <v>100513768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B12">
+        <v>2033</v>
+      </c>
+      <c r="C12">
+        <v>2056</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E12" s="5">
+        <f>D12/(D16)</f>
+        <v>9.3495934959349589E-2</v>
+      </c>
+      <c r="F12">
+        <v>940</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-61</v>
+      </c>
+      <c r="H12">
+        <v>1100</v>
+      </c>
+      <c r="I12">
+        <v>1039</v>
+      </c>
+      <c r="J12">
+        <v>100513769</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B13">
+        <v>2029</v>
+      </c>
+      <c r="C13">
+        <v>2056</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E13" s="5">
+        <f>D13/(D16)</f>
+        <v>0.10975609756097561</v>
+      </c>
+      <c r="F13">
+        <v>960</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="H13">
+        <v>1100</v>
+      </c>
+      <c r="I13">
+        <v>1095</v>
+      </c>
+      <c r="J13">
+        <v>100513770</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B14">
+        <v>2029</v>
+      </c>
+      <c r="C14">
+        <v>2056</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D15" si="2">C14-B14</f>
+        <v>27</v>
+      </c>
+      <c r="E14" s="5">
+        <f>D14/(D16)</f>
+        <v>0.10975609756097561</v>
+      </c>
+      <c r="F14">
+        <v>960</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:G15" si="3">I14-H14</f>
+        <v>-5</v>
+      </c>
+      <c r="H14">
+        <v>1100</v>
+      </c>
+      <c r="I14">
+        <v>1095</v>
+      </c>
+      <c r="J14">
+        <v>100513770</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B15">
+        <v>2029</v>
+      </c>
+      <c r="C15">
+        <v>2056</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="E15" s="5">
+        <f>D15/(D16)</f>
+        <v>0.10975609756097561</v>
+      </c>
+      <c r="F15">
+        <v>960</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+      <c r="H15">
+        <v>1100</v>
+      </c>
+      <c r="I15">
+        <v>1095</v>
+      </c>
+      <c r="J15">
+        <v>100513770</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
+      <c r="A16" s="1"/>
+      <c r="B16">
+        <f>SUM(B2:B13)</f>
+        <v>20454</v>
+      </c>
+      <c r="C16">
+        <f>SUM(C2:C13)</f>
+        <v>20700</v>
+      </c>
+      <c r="D16">
+        <f>SUM(D2:D13)</f>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
+      <c r="A17" s="7">
+        <v>44666.404791666668</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1">
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1">
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="N31" s="11"/>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1">
+      <c r="J32" s="11"/>
+      <c r="N32" s="11"/>
+    </row>
+    <row r="33" spans="10:14" ht="15" customHeight="1">
+      <c r="J33" s="11"/>
+      <c r="N33" s="11"/>
+    </row>
+    <row r="34" spans="10:14" ht="15" customHeight="1">
+      <c r="J34" s="11"/>
+      <c r="N34" s="11"/>
+    </row>
+    <row r="35" spans="10:14" ht="15" customHeight="1">
+      <c r="J35" s="11"/>
+      <c r="N35" s="11"/>
+    </row>
+    <row r="36" spans="10:14" ht="15" customHeight="1">
+      <c r="J36" s="11"/>
+      <c r="N36" s="11"/>
+    </row>
+    <row r="37" spans="10:14" ht="15" customHeight="1">
+      <c r="J37" s="11"/>
+      <c r="N37" s="11"/>
+    </row>
+    <row r="38" spans="10:14" ht="15" customHeight="1">
+      <c r="J38" s="11"/>
+      <c r="N38" s="11"/>
+    </row>
+    <row r="39" spans="10:14" ht="15" customHeight="1">
+      <c r="J39" s="11"/>
+      <c r="N39" s="11"/>
+    </row>
+    <row r="40" spans="10:14" ht="15" customHeight="1">
+      <c r="J40" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184DB00E-F6FB-F54F-9B72-986678B8AC5C}">
+  <dimension ref="A1:N40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1">
+      <c r="B1" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B2">
+        <v>345</v>
+      </c>
+      <c r="C2">
+        <v>348</v>
+      </c>
+      <c r="D2">
+        <f>C2-B2</f>
+        <v>3</v>
+      </c>
+      <c r="E2" s="5">
+        <f>D2/(D15)</f>
+        <v>1.107011070110701E-2</v>
+      </c>
+      <c r="F2">
+        <v>15999</v>
+      </c>
+      <c r="G2">
+        <f>I2-H2</f>
+        <v>-333</v>
+      </c>
+      <c r="H2">
+        <v>30888</v>
+      </c>
+      <c r="I2">
+        <v>30555</v>
+      </c>
+      <c r="J2" s="8">
+        <v>100513759</v>
+      </c>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B3">
+        <v>584</v>
+      </c>
+      <c r="C3">
+        <v>600</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D13" si="0">C3-B3</f>
+        <v>16</v>
+      </c>
+      <c r="E3" s="5">
+        <f>D3/(D15)</f>
+        <v>5.9040590405904057E-2</v>
+      </c>
+      <c r="F3">
+        <v>4855</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G13" si="1">I3-H3</f>
+        <v>401</v>
+      </c>
+      <c r="H3">
+        <v>4999</v>
+      </c>
+      <c r="I3">
+        <v>5400</v>
+      </c>
+      <c r="J3" s="8">
+        <v>100513761</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B4">
+        <v>589</v>
+      </c>
+      <c r="C4">
+        <v>600</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E4" s="5">
+        <f>D4/(D15)</f>
+        <v>4.0590405904059039E-2</v>
+      </c>
+      <c r="F4">
+        <v>4666</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>462</v>
+      </c>
+      <c r="H4">
+        <v>5288</v>
+      </c>
+      <c r="I4">
+        <v>5750</v>
+      </c>
+      <c r="J4" s="8">
+        <v>100513762</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B5">
+        <v>1022</v>
+      </c>
+      <c r="C5">
+        <v>1045</v>
+      </c>
+      <c r="D5">
+        <f>C5-B5</f>
+        <v>23</v>
+      </c>
+      <c r="E5" s="5">
+        <f>D5/(D15)</f>
+        <v>8.4870848708487087E-2</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5">
+        <f>I5-H5</f>
+        <v>-61</v>
+      </c>
+      <c r="H5">
+        <v>1100</v>
+      </c>
+      <c r="I5">
+        <v>1039</v>
+      </c>
+      <c r="J5">
+        <v>100513771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="B6">
+        <v>1016</v>
+      </c>
+      <c r="C6">
+        <v>1045</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="E6" s="5">
+        <f>D6/(D15)</f>
+        <v>0.1070110701107011</v>
+      </c>
+      <c r="F6">
+        <v>1150</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1100</v>
+      </c>
+      <c r="I6">
+        <v>1100</v>
+      </c>
+      <c r="J6">
+        <v>100513763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B7">
+        <v>1024</v>
+      </c>
+      <c r="C7">
+        <v>1045</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E7" s="5">
+        <f>D7/(D15)</f>
+        <v>7.7490774907749083E-2</v>
+      </c>
+      <c r="F7">
+        <v>1050</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>-50</v>
+      </c>
+      <c r="H7">
+        <v>1100</v>
+      </c>
+      <c r="I7">
+        <v>1050</v>
+      </c>
+      <c r="J7">
+        <v>100513764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="B8">
+        <v>1017</v>
+      </c>
+      <c r="C8">
+        <v>1045</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E8" s="5">
+        <f>D8/(D15)</f>
+        <v>0.10332103321033211</v>
+      </c>
+      <c r="F8">
+        <v>1030</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="H8">
+        <v>1060</v>
+      </c>
+      <c r="I8">
+        <v>1048</v>
+      </c>
+      <c r="J8">
+        <v>100513765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="B9">
+        <v>1016</v>
+      </c>
+      <c r="C9">
+        <v>1045</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="E9" s="5">
+        <f>D9/(D15)</f>
+        <v>0.1070110701107011</v>
+      </c>
+      <c r="F9">
+        <v>998</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>-92</v>
+      </c>
+      <c r="H9">
+        <v>1140</v>
+      </c>
+      <c r="I9">
+        <v>1048</v>
+      </c>
+      <c r="J9">
+        <v>100513766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B10">
+        <v>1010</v>
+      </c>
+      <c r="C10">
+        <v>1045</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E10" s="5">
+        <f>D10/(D15)</f>
+        <v>0.12915129151291513</v>
+      </c>
+      <c r="F10">
+        <v>995</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>-59</v>
+      </c>
+      <c r="H10">
+        <v>1099</v>
+      </c>
+      <c r="I10">
+        <v>1040</v>
+      </c>
+      <c r="J10">
+        <v>100513767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B11">
+        <v>1013</v>
+      </c>
+      <c r="C11">
+        <v>1045</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E11" s="5">
+        <f>D11/(D15)</f>
+        <v>0.11808118081180811</v>
+      </c>
+      <c r="F11">
+        <v>1100</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="H11">
+        <v>1098</v>
+      </c>
+      <c r="I11">
+        <v>1088</v>
+      </c>
+      <c r="J11">
+        <v>100513768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="B12">
+        <v>1025</v>
+      </c>
+      <c r="C12">
+        <v>1045</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E12" s="5">
+        <f>D12/(D15)</f>
+        <v>7.3800738007380073E-2</v>
+      </c>
+      <c r="F12">
+        <v>1000</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-61</v>
+      </c>
+      <c r="H12">
+        <v>1100</v>
+      </c>
+      <c r="I12">
+        <v>1039</v>
+      </c>
+      <c r="J12">
+        <v>100513769</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B13">
+        <v>1022</v>
+      </c>
+      <c r="C13">
+        <v>1046</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E13" s="5">
+        <f>D13/(D15)</f>
+        <v>8.8560885608856083E-2</v>
+      </c>
+      <c r="F13">
+        <v>991</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="H13">
+        <v>1100</v>
+      </c>
+      <c r="I13">
+        <v>1095</v>
+      </c>
+      <c r="J13">
+        <v>100513770</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B14">
+        <v>1024</v>
+      </c>
+      <c r="C14">
+        <v>1046</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14" si="2">C14-B14</f>
+        <v>22</v>
+      </c>
+      <c r="E14" s="5">
+        <f>D14/(D15)</f>
+        <v>8.1180811808118078E-2</v>
+      </c>
+      <c r="F14">
+        <v>998</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14" si="3">I14-H14</f>
+        <v>-5</v>
+      </c>
+      <c r="H14">
+        <v>1100</v>
+      </c>
+      <c r="I14">
+        <v>1095</v>
+      </c>
+      <c r="J14">
+        <v>100513770</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <f>SUM(B2:B13)</f>
+        <v>10683</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C2:C14)</f>
+        <v>12000</v>
+      </c>
+      <c r="D15">
+        <f>SUM(D2:D13)</f>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
+      <c r="A16" s="7">
+        <v>44666.382511574076</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1">
+      <c r="N29" s="11"/>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1">
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1">
+      <c r="J31" s="11"/>
+      <c r="N31" s="11"/>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1">
+      <c r="J32" s="11"/>
+      <c r="N32" s="11"/>
+    </row>
+    <row r="33" spans="10:14" ht="15" customHeight="1">
+      <c r="J33" s="11"/>
+      <c r="N33" s="11"/>
+    </row>
+    <row r="34" spans="10:14" ht="15" customHeight="1">
+      <c r="J34" s="11"/>
+      <c r="N34" s="11"/>
+    </row>
+    <row r="35" spans="10:14" ht="15" customHeight="1">
+      <c r="J35" s="11"/>
+      <c r="N35" s="11"/>
+    </row>
+    <row r="36" spans="10:14" ht="15" customHeight="1">
+      <c r="J36" s="11"/>
+      <c r="N36" s="11"/>
+    </row>
+    <row r="37" spans="10:14" ht="15" customHeight="1">
+      <c r="J37" s="11"/>
+      <c r="N37" s="11"/>
+    </row>
+    <row r="38" spans="10:14" ht="15" customHeight="1">
+      <c r="J38" s="11"/>
+      <c r="N38" s="11"/>
+    </row>
+    <row r="39" spans="10:14" ht="15" customHeight="1">
+      <c r="J39" s="11"/>
+    </row>
+    <row r="40" spans="10:14" ht="15" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4614B3D9-5D01-494A-AB9B-1EE17B5FD0A0}">
+  <dimension ref="A1:N42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1">
+      <c r="B1" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B2">
+        <v>615</v>
+      </c>
+      <c r="C2">
+        <v>700</v>
+      </c>
+      <c r="D2">
+        <f>C2-B2</f>
+        <v>85</v>
+      </c>
+      <c r="E2" s="5">
+        <f>D2/(D17)</f>
+        <v>3.0313837375178315E-2</v>
+      </c>
+      <c r="F2">
+        <v>30555</v>
+      </c>
+      <c r="G2">
+        <f>I2-H2</f>
+        <v>-333</v>
+      </c>
+      <c r="H2">
+        <v>30888</v>
+      </c>
+      <c r="I2">
+        <v>30555</v>
+      </c>
+      <c r="J2" s="8">
+        <v>100513759</v>
+      </c>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B3">
+        <v>690</v>
+      </c>
+      <c r="C3">
+        <v>750</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D16" si="0">C3-B3</f>
+        <v>60</v>
+      </c>
+      <c r="E3" s="5">
+        <f>D3/(D17)</f>
+        <v>2.1398002853067047E-2</v>
+      </c>
+      <c r="F3">
+        <v>5400</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G16" si="1">I3-H3</f>
+        <v>401</v>
+      </c>
+      <c r="H3">
+        <v>4999</v>
+      </c>
+      <c r="I3">
+        <v>5400</v>
+      </c>
+      <c r="J3" s="8">
+        <v>100513761</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B4">
+        <v>663</v>
+      </c>
+      <c r="C4">
+        <v>750</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="E4" s="5">
+        <f>D4/(D17)</f>
+        <v>3.1027104136947217E-2</v>
+      </c>
+      <c r="F4">
+        <v>5750</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>462</v>
+      </c>
+      <c r="H4">
+        <v>5288</v>
+      </c>
+      <c r="I4">
+        <v>5750</v>
+      </c>
+      <c r="J4" s="8">
+        <v>100513762</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="B5">
+        <v>1835</v>
+      </c>
+      <c r="C5">
+        <v>2055</v>
+      </c>
+      <c r="D5">
+        <f>C5-B5</f>
+        <v>220</v>
+      </c>
+      <c r="E5" s="5">
+        <f>D5/(D17)</f>
+        <v>7.8459343794579167E-2</v>
+      </c>
+      <c r="F5">
+        <v>1039</v>
+      </c>
+      <c r="G5">
+        <f>I5-H5</f>
+        <v>-61</v>
+      </c>
+      <c r="H5">
+        <v>1100</v>
+      </c>
+      <c r="I5">
+        <v>1039</v>
+      </c>
+      <c r="J5">
+        <v>100513771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B6">
+        <v>1829</v>
+      </c>
+      <c r="C6">
+        <v>2055</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="E6" s="5">
+        <f>D6/(D17)</f>
+        <v>8.0599144079885873E-2</v>
+      </c>
+      <c r="F6">
+        <v>1100</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1100</v>
+      </c>
+      <c r="I6">
+        <v>1100</v>
+      </c>
+      <c r="J6">
+        <v>100513763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B7">
+        <v>1841</v>
+      </c>
+      <c r="C7">
+        <v>2055</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>214</v>
+      </c>
+      <c r="E7" s="5">
+        <f>D7/(D17)</f>
+        <v>7.6319543509272461E-2</v>
+      </c>
+      <c r="F7">
+        <v>1050</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>-50</v>
+      </c>
+      <c r="H7">
+        <v>1100</v>
+      </c>
+      <c r="I7">
+        <v>1050</v>
+      </c>
+      <c r="J7">
+        <v>100513764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B8">
+        <v>1828</v>
+      </c>
+      <c r="C8">
+        <v>2055</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>227</v>
+      </c>
+      <c r="E8" s="5">
+        <f>D8/(D17)</f>
+        <v>8.0955777460770331E-2</v>
+      </c>
+      <c r="F8">
+        <v>1048</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="H8">
+        <v>1060</v>
+      </c>
+      <c r="I8">
+        <v>1048</v>
+      </c>
+      <c r="J8">
+        <v>100513765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B9">
+        <v>1843</v>
+      </c>
+      <c r="C9">
+        <v>2056</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>213</v>
+      </c>
+      <c r="E9" s="5">
+        <f>D9/(D17)</f>
+        <v>7.5962910128388017E-2</v>
+      </c>
+      <c r="F9">
+        <v>1048</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>-92</v>
+      </c>
+      <c r="H9">
+        <v>1140</v>
+      </c>
+      <c r="I9">
+        <v>1048</v>
+      </c>
+      <c r="J9">
+        <v>100513766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B10">
+        <v>1844</v>
+      </c>
+      <c r="C10">
+        <v>2056</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="E10" s="5">
+        <f>D10/(D17)</f>
+        <v>7.5606276747503573E-2</v>
+      </c>
+      <c r="F10">
+        <v>1040</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>-59</v>
+      </c>
+      <c r="H10">
+        <v>1099</v>
+      </c>
+      <c r="I10">
+        <v>1040</v>
+      </c>
+      <c r="J10">
+        <v>100513767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="B11">
+        <v>1868</v>
+      </c>
+      <c r="C11">
+        <v>2056</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+      <c r="E11" s="5">
+        <f>D11/(D17)</f>
+        <v>6.7047075606276749E-2</v>
+      </c>
+      <c r="F11">
+        <v>1088</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="H11">
+        <v>1098</v>
+      </c>
+      <c r="I11">
+        <v>1088</v>
+      </c>
+      <c r="J11">
+        <v>100513768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B12">
+        <v>1839</v>
+      </c>
+      <c r="C12">
+        <v>2056</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>217</v>
+      </c>
+      <c r="E12" s="5">
+        <f>D12/(D17)</f>
+        <v>7.7389443651925821E-2</v>
+      </c>
+      <c r="F12">
+        <v>1039</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-61</v>
+      </c>
+      <c r="H12">
+        <v>1100</v>
+      </c>
+      <c r="I12">
+        <v>1039</v>
+      </c>
+      <c r="J12">
+        <v>100513769</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B13">
+        <v>1839</v>
+      </c>
+      <c r="C13">
+        <v>2056</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:D15" si="2">C13-B13</f>
+        <v>217</v>
+      </c>
+      <c r="E13" s="5">
+        <f>D13/C17</f>
+        <v>8.0765222569599525E-3</v>
+      </c>
+      <c r="F13">
+        <v>1039</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:G15" si="3">I13-H13</f>
+        <v>-61</v>
+      </c>
+      <c r="H13">
+        <v>1100</v>
+      </c>
+      <c r="I13">
+        <v>1039</v>
+      </c>
+      <c r="J13">
+        <v>100513769</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B14">
+        <v>1839</v>
+      </c>
+      <c r="C14">
+        <v>2056</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>217</v>
+      </c>
+      <c r="E14" s="5">
+        <f>D14/C17</f>
+        <v>8.0765222569599525E-3</v>
+      </c>
+      <c r="F14">
+        <v>1039</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>-61</v>
+      </c>
+      <c r="H14">
+        <v>1100</v>
+      </c>
+      <c r="I14">
+        <v>1039</v>
+      </c>
+      <c r="J14">
+        <v>100513769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B15">
+        <v>1839</v>
+      </c>
+      <c r="C15">
+        <v>2056</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>217</v>
+      </c>
+      <c r="E15" s="5">
+        <f>D15/C17</f>
+        <v>8.0765222569599525E-3</v>
+      </c>
+      <c r="F15">
+        <v>1039</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>-61</v>
+      </c>
+      <c r="H15">
+        <v>1100</v>
+      </c>
+      <c r="I15">
+        <v>1039</v>
+      </c>
+      <c r="J15">
+        <v>100513769</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B16">
+        <v>1852</v>
+      </c>
+      <c r="C16">
+        <v>2056</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="E16" s="5">
+        <f>D16/(D17)</f>
+        <v>7.2753209700427965E-2</v>
+      </c>
+      <c r="F16">
+        <v>1095</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="H16">
+        <v>1100</v>
+      </c>
+      <c r="I16">
+        <v>1095</v>
+      </c>
+      <c r="J16">
+        <v>100513770</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
+      <c r="A17" s="1"/>
+      <c r="B17">
+        <f>SUM(B2:B16)</f>
+        <v>24064</v>
+      </c>
+      <c r="C17">
+        <f>SUM(C2:C16)</f>
+        <v>26868</v>
+      </c>
+      <c r="D17">
+        <f>SUM(D2:D16)</f>
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1">
+      <c r="A18" s="7">
+        <v>44666.382511574076</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1">
+      <c r="A23" s="1"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1">
+      <c r="N31" s="11"/>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1">
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="N32" s="11"/>
+    </row>
+    <row r="33" spans="10:14" ht="15" customHeight="1">
+      <c r="J33" s="11"/>
+      <c r="N33" s="11"/>
+    </row>
+    <row r="34" spans="10:14" ht="15" customHeight="1">
+      <c r="J34" s="11"/>
+      <c r="N34" s="11"/>
+    </row>
+    <row r="35" spans="10:14" ht="15" customHeight="1">
+      <c r="J35" s="11"/>
+      <c r="N35" s="11"/>
+    </row>
+    <row r="36" spans="10:14" ht="15" customHeight="1">
+      <c r="J36" s="11"/>
+      <c r="N36" s="11"/>
+    </row>
+    <row r="37" spans="10:14" ht="15" customHeight="1">
+      <c r="J37" s="11"/>
+      <c r="N37" s="11"/>
+    </row>
+    <row r="38" spans="10:14" ht="15" customHeight="1">
+      <c r="J38" s="11"/>
+      <c r="N38" s="11"/>
+    </row>
+    <row r="39" spans="10:14" ht="15" customHeight="1">
+      <c r="J39" s="11"/>
+      <c r="N39" s="11"/>
+    </row>
+    <row r="40" spans="10:14" ht="15" customHeight="1">
+      <c r="J40" s="11"/>
+      <c r="N40" s="11"/>
+    </row>
+    <row r="41" spans="10:14" ht="15" customHeight="1">
+      <c r="J41" s="11"/>
+    </row>
+    <row r="42" spans="10:14" ht="15" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3E1037-247A-B34C-A448-182432C86F5C}">
+  <dimension ref="A1:N44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1">
+      <c r="B1" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2">
+        <v>348</v>
+      </c>
+      <c r="C2">
+        <v>349</v>
+      </c>
+      <c r="D2">
+        <f>C2-B2</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <f>D2/(D19)</f>
+        <v>2.976190476190476E-3</v>
+      </c>
+      <c r="F2">
+        <v>33331</v>
+      </c>
+      <c r="G2">
+        <f>I2-H2</f>
+        <v>-333</v>
+      </c>
+      <c r="H2">
+        <v>30888</v>
+      </c>
+      <c r="I2">
+        <v>30555</v>
+      </c>
+      <c r="J2" s="8">
+        <v>100513759</v>
+      </c>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3">
+        <v>586</v>
+      </c>
+      <c r="C3">
+        <v>599</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D17" si="0">C3-B3</f>
+        <v>13</v>
+      </c>
+      <c r="E3" s="5">
+        <f>D3/(D19)</f>
+        <v>3.8690476190476192E-2</v>
+      </c>
+      <c r="F3">
+        <v>6888</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G17" si="1">I3-H3</f>
+        <v>401</v>
+      </c>
+      <c r="H3">
+        <v>4999</v>
+      </c>
+      <c r="I3">
+        <v>5400</v>
+      </c>
+      <c r="J3" s="8">
+        <v>100513761</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B4">
+        <v>585</v>
+      </c>
+      <c r="C4">
+        <v>599</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E4" s="5">
+        <f>D4/(D19)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F4">
+        <v>6999</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>462</v>
+      </c>
+      <c r="H4">
+        <v>5288</v>
+      </c>
+      <c r="I4">
+        <v>5750</v>
+      </c>
+      <c r="J4" s="8">
+        <v>100513762</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B5">
+        <v>579</v>
+      </c>
+      <c r="C5">
+        <v>599</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E5" s="5">
+        <f>D5/(D19)</f>
+        <v>5.9523809523809521E-2</v>
+      </c>
+      <c r="F5">
+        <v>6999</v>
+      </c>
+      <c r="G5">
+        <f>I5-H5</f>
+        <v>-61</v>
+      </c>
+      <c r="H5">
+        <v>1100</v>
+      </c>
+      <c r="I5">
+        <v>1039</v>
+      </c>
+      <c r="J5">
+        <v>100513771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B6">
+        <v>736</v>
+      </c>
+      <c r="C6">
+        <v>758</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E6" s="5">
+        <f>D6/(D19)</f>
+        <v>6.5476190476190479E-2</v>
+      </c>
+      <c r="F6">
+        <v>1388</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1100</v>
+      </c>
+      <c r="I6">
+        <v>1100</v>
+      </c>
+      <c r="J6">
+        <v>100513763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="B7">
+        <v>735</v>
+      </c>
+      <c r="C7">
+        <v>758</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E7" s="5">
+        <f>D7/(D19)</f>
+        <v>6.8452380952380959E-2</v>
+      </c>
+      <c r="F7">
+        <v>1300</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>-50</v>
+      </c>
+      <c r="H7">
+        <v>1100</v>
+      </c>
+      <c r="I7">
+        <v>1050</v>
+      </c>
+      <c r="J7">
+        <v>100513764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B8">
+        <v>734</v>
+      </c>
+      <c r="C8">
+        <v>758</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E8" s="5">
+        <f>D8/(D19)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="F8">
+        <v>1400</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="H8">
+        <v>1060</v>
+      </c>
+      <c r="I8">
+        <v>1048</v>
+      </c>
+      <c r="J8">
+        <v>100513765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="B9">
+        <v>739</v>
+      </c>
+      <c r="C9">
+        <v>758</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E9" s="5">
+        <f>D9/(D19)</f>
+        <v>5.6547619047619048E-2</v>
+      </c>
+      <c r="F9">
+        <v>1300</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>-92</v>
+      </c>
+      <c r="H9">
+        <v>1140</v>
+      </c>
+      <c r="I9">
+        <v>1048</v>
+      </c>
+      <c r="J9">
+        <v>100513766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B10">
+        <v>739</v>
+      </c>
+      <c r="C10">
+        <v>758</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E10" s="5">
+        <f>D10/(D19)</f>
+        <v>5.6547619047619048E-2</v>
+      </c>
+      <c r="F10">
+        <v>1450</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>-59</v>
+      </c>
+      <c r="H10">
+        <v>1099</v>
+      </c>
+      <c r="I10">
+        <v>1040</v>
+      </c>
+      <c r="J10">
+        <v>100513767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B11">
+        <v>741</v>
+      </c>
+      <c r="C11">
+        <v>758</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E11" s="5">
+        <f>D11/(D19)</f>
+        <v>5.0595238095238096E-2</v>
+      </c>
+      <c r="F11">
+        <v>1444</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="H11">
+        <v>1098</v>
+      </c>
+      <c r="I11">
+        <v>1088</v>
+      </c>
+      <c r="J11">
+        <v>100513768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B12">
+        <v>733</v>
+      </c>
+      <c r="C12">
+        <v>758</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E12" s="5">
+        <f>D12/(D19)</f>
+        <v>7.4404761904761904E-2</v>
+      </c>
+      <c r="F12">
+        <v>1299</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-61</v>
+      </c>
+      <c r="H12">
+        <v>1100</v>
+      </c>
+      <c r="I12">
+        <v>1039</v>
+      </c>
+      <c r="J12">
+        <v>100513769</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="B13">
+        <v>739</v>
+      </c>
+      <c r="C13">
+        <v>758</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E13" s="5">
+        <f>D13/(D19)</f>
+        <v>5.6547619047619048E-2</v>
+      </c>
+      <c r="F13">
+        <v>1478</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>-61</v>
+      </c>
+      <c r="H13">
+        <v>1100</v>
+      </c>
+      <c r="I13">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B14">
+        <v>740</v>
+      </c>
+      <c r="C14">
+        <v>758</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E14" s="5">
+        <f>D14/(D19)</f>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="F14">
+        <v>1445</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>-61</v>
+      </c>
+      <c r="H14">
+        <v>1100</v>
+      </c>
+      <c r="I14">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="B15">
+        <v>729</v>
+      </c>
+      <c r="C15">
+        <v>758</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="E15" s="5">
+        <f>D15/(D19)</f>
+        <v>8.6309523809523808E-2</v>
+      </c>
+      <c r="F15">
+        <v>1300</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>-61</v>
+      </c>
+      <c r="H15">
+        <v>1100</v>
+      </c>
+      <c r="I15">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B16">
+        <v>731</v>
+      </c>
+      <c r="C16">
+        <v>758</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E16" s="5">
+        <f>D16/(D19)</f>
+        <v>8.0357142857142863E-2</v>
+      </c>
+      <c r="F16">
+        <v>1750</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>-61</v>
+      </c>
+      <c r="H16">
+        <v>1100</v>
+      </c>
+      <c r="I16">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B17">
+        <v>732</v>
+      </c>
+      <c r="C17">
+        <v>758</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E17" s="5">
+        <f>D17/(D19)</f>
+        <v>7.7380952380952384E-2</v>
+      </c>
+      <c r="F17">
+        <v>1490</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="H17">
+        <v>1100</v>
+      </c>
+      <c r="I17">
+        <v>1095</v>
+      </c>
+      <c r="J17">
+        <v>100513770</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B18">
+        <v>738</v>
+      </c>
+      <c r="C18">
+        <v>758</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18" si="2">C18-B18</f>
+        <v>20</v>
+      </c>
+      <c r="E18" s="5">
+        <f>D18/(D19)</f>
+        <v>5.9523809523809521E-2</v>
+      </c>
+      <c r="F18">
+        <v>1350</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18" si="3">I18-H18</f>
+        <v>-5</v>
+      </c>
+      <c r="H18">
+        <v>1100</v>
+      </c>
+      <c r="I18">
+        <v>1095</v>
+      </c>
+      <c r="J18">
+        <v>100513770</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B19">
+        <f>SUM(B2:B18)</f>
+        <v>11664</v>
+      </c>
+      <c r="C19">
+        <f>SUM(C2:C18)</f>
+        <v>12000</v>
+      </c>
+      <c r="D19">
+        <f>SUM(D2:D18)</f>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1">
+      <c r="A20" s="7">
+        <v>44666.382511574076</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1">
+      <c r="A25" s="1"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="10:14" ht="15" customHeight="1">
+      <c r="N33" s="11"/>
+    </row>
+    <row r="34" spans="10:14" ht="15" customHeight="1">
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="N34" s="11"/>
+    </row>
+    <row r="35" spans="10:14" ht="15" customHeight="1">
+      <c r="J35" s="11"/>
+      <c r="N35" s="11"/>
+    </row>
+    <row r="36" spans="10:14" ht="15" customHeight="1">
+      <c r="J36" s="11"/>
+      <c r="N36" s="11"/>
+    </row>
+    <row r="37" spans="10:14" ht="15" customHeight="1">
+      <c r="J37" s="11"/>
+      <c r="N37" s="11"/>
+    </row>
+    <row r="38" spans="10:14" ht="15" customHeight="1">
+      <c r="J38" s="11"/>
+      <c r="N38" s="11"/>
+    </row>
+    <row r="39" spans="10:14" ht="15" customHeight="1">
+      <c r="J39" s="11"/>
+      <c r="N39" s="11"/>
+    </row>
+    <row r="40" spans="10:14" ht="15" customHeight="1">
+      <c r="J40" s="11"/>
+      <c r="N40" s="11"/>
+    </row>
+    <row r="41" spans="10:14" ht="15" customHeight="1">
+      <c r="J41" s="11"/>
+      <c r="N41" s="11"/>
+    </row>
+    <row r="42" spans="10:14" ht="15" customHeight="1">
+      <c r="J42" s="11"/>
+      <c r="N42" s="11"/>
+    </row>
+    <row r="43" spans="10:14" ht="15" customHeight="1">
+      <c r="J43" s="11"/>
+    </row>
+    <row r="44" spans="10:14" ht="15" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0660C9D-E02C-D446-977A-9E47C695C27D}">
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1">
+      <c r="B1" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B2">
+        <v>230</v>
+      </c>
+      <c r="C2">
+        <v>232</v>
+      </c>
+      <c r="D2">
+        <f>C2-B2</f>
+        <v>2</v>
+      </c>
+      <c r="E2" s="5">
+        <f>D2/(D12)</f>
+        <v>7.1428571428571426E-3</v>
+      </c>
+      <c r="F2">
+        <v>37887</v>
+      </c>
+      <c r="G2">
+        <f>I2-H2</f>
+        <v>-333</v>
+      </c>
+      <c r="H2">
+        <v>30888</v>
+      </c>
+      <c r="I2">
+        <v>30555</v>
+      </c>
+      <c r="J2" s="8">
+        <v>100513759</v>
+      </c>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3">
+        <v>386</v>
+      </c>
+      <c r="C3">
+        <v>400</v>
+      </c>
+      <c r="D3">
+        <f>C3-B3</f>
+        <v>14</v>
+      </c>
+      <c r="E3" s="5">
+        <f>D3/(D12)</f>
+        <v>0.05</v>
+      </c>
+      <c r="F3">
+        <v>8500</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="0">I3-H3</f>
+        <v>401</v>
+      </c>
+      <c r="H3">
+        <v>4999</v>
+      </c>
+      <c r="I3">
+        <v>5400</v>
+      </c>
+      <c r="J3" s="8">
+        <v>100513761</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B4">
+        <v>388</v>
+      </c>
+      <c r="C4">
+        <v>400</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D3:D11" si="1">C4-B4</f>
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <f>D4/(D12)</f>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="F4">
+        <v>8500</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>462</v>
+      </c>
+      <c r="H4">
+        <v>5288</v>
+      </c>
+      <c r="I4">
+        <v>5750</v>
+      </c>
+      <c r="J4" s="8">
+        <v>100513762</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B5">
+        <v>956</v>
+      </c>
+      <c r="C5">
+        <v>995</v>
+      </c>
+      <c r="D5">
+        <f>C5-B5</f>
+        <v>39</v>
+      </c>
+      <c r="E5" s="5">
+        <f>D5/(D12)</f>
+        <v>0.13928571428571429</v>
+      </c>
+      <c r="F5">
+        <v>1379</v>
+      </c>
+      <c r="G5">
+        <f>I5-H5</f>
+        <v>-61</v>
+      </c>
+      <c r="H5">
+        <v>1100</v>
+      </c>
+      <c r="I5">
+        <v>1039</v>
+      </c>
+      <c r="J5">
+        <v>100513771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="B6">
+        <v>960</v>
+      </c>
+      <c r="C6">
+        <v>995</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E6" s="5">
+        <f>D6/(D12)</f>
+        <v>0.125</v>
+      </c>
+      <c r="F6">
+        <v>1340</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1100</v>
+      </c>
+      <c r="I6">
+        <v>1100</v>
+      </c>
+      <c r="J6">
+        <v>100513763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B7">
+        <v>962</v>
+      </c>
+      <c r="C7">
+        <v>995</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="E7" s="5">
+        <f>D7/(D12)</f>
+        <v>0.11785714285714285</v>
+      </c>
+      <c r="F7">
+        <v>1250</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>-50</v>
+      </c>
+      <c r="H7">
+        <v>1100</v>
+      </c>
+      <c r="I7">
+        <v>1050</v>
+      </c>
+      <c r="J7">
+        <v>100513764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B8">
+        <v>956</v>
+      </c>
+      <c r="C8">
+        <v>995</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="E8" s="5">
+        <f>D8/(D12)</f>
+        <v>0.13928571428571429</v>
+      </c>
+      <c r="F8">
+        <v>1300</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+      <c r="H8">
+        <v>1060</v>
+      </c>
+      <c r="I8">
+        <v>1048</v>
+      </c>
+      <c r="J8">
+        <v>100513765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="B9">
+        <v>953</v>
+      </c>
+      <c r="C9">
+        <v>995</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="E9" s="5">
+        <f>D9/(D12)</f>
+        <v>0.15</v>
+      </c>
+      <c r="F9">
+        <v>1466</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>-92</v>
+      </c>
+      <c r="H9">
+        <v>1140</v>
+      </c>
+      <c r="I9">
+        <v>1048</v>
+      </c>
+      <c r="J9">
+        <v>100513766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="B10">
+        <v>967</v>
+      </c>
+      <c r="C10">
+        <v>995</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="E10" s="5">
+        <f>D10/(D12)</f>
+        <v>0.1</v>
+      </c>
+      <c r="F10">
+        <v>1197</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>-59</v>
+      </c>
+      <c r="H10">
+        <v>1099</v>
+      </c>
+      <c r="I10">
+        <v>1040</v>
+      </c>
+      <c r="J10">
+        <v>100513767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B11">
+        <v>959</v>
+      </c>
+      <c r="C11">
+        <v>995</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="E11" s="5">
+        <f>D11/(D12)</f>
+        <v>0.12857142857142856</v>
+      </c>
+      <c r="F11">
+        <v>1300</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="H11">
+        <v>1098</v>
+      </c>
+      <c r="I11">
+        <v>1088</v>
+      </c>
+      <c r="J11">
+        <v>100513768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12">
+        <f>SUM(B2:B11)</f>
+        <v>7717</v>
+      </c>
+      <c r="C12">
+        <f>SUM(C2:C11)</f>
+        <v>7997</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D2:D11)</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1">
+      <c r="A13" s="7">
+        <v>44666.382511574076</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1">
+      <c r="N26" s="11"/>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1">
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="N27" s="11"/>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1">
+      <c r="J28" s="11"/>
+      <c r="N28" s="11"/>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1">
+      <c r="J29" s="11"/>
+      <c r="N29" s="11"/>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1">
+      <c r="J30" s="11"/>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1">
+      <c r="J31" s="11"/>
+      <c r="N31" s="11"/>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1">
+      <c r="J32" s="11"/>
+      <c r="N32" s="11"/>
+    </row>
+    <row r="33" spans="10:14" ht="15" customHeight="1">
+      <c r="J33" s="11"/>
+      <c r="N33" s="11"/>
+    </row>
+    <row r="34" spans="10:14" ht="15" customHeight="1">
+      <c r="J34" s="11"/>
+      <c r="N34" s="11"/>
+    </row>
+    <row r="35" spans="10:14" ht="15" customHeight="1">
+      <c r="J35" s="11"/>
+      <c r="N35" s="11"/>
+    </row>
+    <row r="36" spans="10:14" ht="15" customHeight="1">
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" spans="10:14" ht="15" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7221D8-E6B2-6A47-92D2-13357EC161D5}">
+  <dimension ref="A1:N39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1">
+      <c r="B1" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B2">
+        <v>615</v>
+      </c>
+      <c r="C2">
+        <v>700</v>
+      </c>
+      <c r="D2">
+        <f>C2-B2</f>
+        <v>85</v>
+      </c>
+      <c r="E2" s="5">
+        <f>D2/(D14)</f>
+        <v>3.9479795633999074E-2</v>
+      </c>
+      <c r="F2">
+        <v>30555</v>
+      </c>
+      <c r="G2">
+        <f>I2-H2</f>
+        <v>-333</v>
+      </c>
+      <c r="H2">
+        <v>30888</v>
+      </c>
+      <c r="I2">
+        <v>30555</v>
+      </c>
+      <c r="J2" s="8">
+        <v>100513759</v>
+      </c>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B3">
+        <v>690</v>
+      </c>
+      <c r="C3">
+        <v>750</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D13" si="0">C3-B3</f>
+        <v>60</v>
+      </c>
+      <c r="E3" s="5">
+        <f>D3/(D14)</f>
+        <v>2.7868091035764049E-2</v>
+      </c>
+      <c r="F3">
+        <v>5400</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G13" si="1">I3-H3</f>
+        <v>401</v>
+      </c>
+      <c r="H3">
+        <v>4999</v>
+      </c>
+      <c r="I3">
+        <v>5400</v>
+      </c>
+      <c r="J3" s="8">
+        <v>100513761</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B4">
+        <v>663</v>
+      </c>
+      <c r="C4">
+        <v>750</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="E4" s="5">
+        <f>D4/(D14)</f>
+        <v>4.0408732001857871E-2</v>
+      </c>
+      <c r="F4">
+        <v>5750</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>462</v>
+      </c>
+      <c r="H4">
+        <v>5288</v>
+      </c>
+      <c r="I4">
+        <v>5750</v>
+      </c>
+      <c r="J4" s="8">
+        <v>100513762</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B5">
+        <v>1835</v>
+      </c>
+      <c r="C5">
+        <v>2055</v>
+      </c>
+      <c r="D5">
+        <f>C5-B5</f>
+        <v>220</v>
+      </c>
+      <c r="E5" s="5">
+        <f>D5/(D14)</f>
+        <v>0.10218300046446818</v>
+      </c>
+      <c r="F5">
+        <v>1039</v>
+      </c>
+      <c r="G5">
+        <f>I5-H5</f>
+        <v>-61</v>
+      </c>
+      <c r="H5">
+        <v>1100</v>
+      </c>
+      <c r="I5">
+        <v>1039</v>
+      </c>
+      <c r="J5">
+        <v>100513771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B6">
+        <v>1829</v>
+      </c>
+      <c r="C6">
+        <v>2055</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="E6" s="5">
+        <f>D6/(D14)</f>
+        <v>0.10496980956804459</v>
+      </c>
+      <c r="F6">
+        <v>1100</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1100</v>
+      </c>
+      <c r="I6">
+        <v>1100</v>
+      </c>
+      <c r="J6">
+        <v>100513763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B7">
+        <v>1841</v>
+      </c>
+      <c r="C7">
+        <v>2055</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>214</v>
+      </c>
+      <c r="E7" s="5">
+        <f>D7/(D14)</f>
+        <v>9.9396191360891784E-2</v>
+      </c>
+      <c r="F7">
+        <v>1050</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>-50</v>
+      </c>
+      <c r="H7">
+        <v>1100</v>
+      </c>
+      <c r="I7">
+        <v>1050</v>
+      </c>
+      <c r="J7">
+        <v>100513764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B8">
+        <v>1828</v>
+      </c>
+      <c r="C8">
+        <v>2055</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>227</v>
+      </c>
+      <c r="E8" s="5">
+        <f>D8/(D14)</f>
+        <v>0.10543427775197399</v>
+      </c>
+      <c r="F8">
+        <v>1048</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="H8">
+        <v>1060</v>
+      </c>
+      <c r="I8">
+        <v>1048</v>
+      </c>
+      <c r="J8">
+        <v>100513765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B9">
+        <v>1843</v>
+      </c>
+      <c r="C9">
+        <v>2056</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>213</v>
+      </c>
+      <c r="E9" s="5">
+        <f>D9/(D14)</f>
+        <v>9.8931723176962374E-2</v>
+      </c>
+      <c r="F9">
+        <v>1048</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>-92</v>
+      </c>
+      <c r="H9">
+        <v>1140</v>
+      </c>
+      <c r="I9">
+        <v>1048</v>
+      </c>
+      <c r="J9">
+        <v>100513766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B10">
+        <v>1844</v>
+      </c>
+      <c r="C10">
+        <v>2056</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="E10" s="5">
+        <f>D10/(D14)</f>
+        <v>9.8467254993032979E-2</v>
+      </c>
+      <c r="F10">
+        <v>1040</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>-59</v>
+      </c>
+      <c r="H10">
+        <v>1099</v>
+      </c>
+      <c r="I10">
+        <v>1040</v>
+      </c>
+      <c r="J10">
+        <v>100513767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B11">
+        <v>1868</v>
+      </c>
+      <c r="C11">
+        <v>2056</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+      <c r="E11" s="5">
+        <f>D11/(D14)</f>
+        <v>8.7320018578727357E-2</v>
+      </c>
+      <c r="F11">
+        <v>1088</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="H11">
+        <v>1098</v>
+      </c>
+      <c r="I11">
+        <v>1088</v>
+      </c>
+      <c r="J11">
+        <v>100513768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B12">
+        <v>1839</v>
+      </c>
+      <c r="C12">
+        <v>2056</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>217</v>
+      </c>
+      <c r="E12" s="5">
+        <f>D12/(D14)</f>
+        <v>0.10078959591267998</v>
+      </c>
+      <c r="F12">
+        <v>1039</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-61</v>
+      </c>
+      <c r="H12">
+        <v>1100</v>
+      </c>
+      <c r="I12">
+        <v>1039</v>
+      </c>
+      <c r="J12">
+        <v>100513769</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B13">
+        <v>1852</v>
+      </c>
+      <c r="C13">
+        <v>2056</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="E13" s="5">
+        <f>D13/(D14)</f>
+        <v>9.4751509521597777E-2</v>
+      </c>
+      <c r="F13">
+        <v>1095</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="H13">
+        <v>1100</v>
+      </c>
+      <c r="I13">
+        <v>1095</v>
+      </c>
+      <c r="J13">
+        <v>100513770</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14">
+        <f>SUM(B2:B13)</f>
+        <v>18547</v>
+      </c>
+      <c r="C14">
+        <f>SUM(C2:C13)</f>
+        <v>20700</v>
+      </c>
+      <c r="D14">
+        <f>SUM(D2:D13)</f>
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1">
+      <c r="A15" s="7">
+        <v>44666.382511574076</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
+      <c r="A20" s="1"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1">
+      <c r="N28" s="11"/>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1">
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="N29" s="11"/>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1">
+      <c r="J30" s="11"/>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1">
+      <c r="J31" s="11"/>
+      <c r="N31" s="11"/>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1">
+      <c r="J32" s="11"/>
+      <c r="N32" s="11"/>
+    </row>
+    <row r="33" spans="10:14" ht="15" customHeight="1">
+      <c r="J33" s="11"/>
+      <c r="N33" s="11"/>
+    </row>
+    <row r="34" spans="10:14" ht="15" customHeight="1">
+      <c r="J34" s="11"/>
+      <c r="N34" s="11"/>
+    </row>
+    <row r="35" spans="10:14" ht="15" customHeight="1">
+      <c r="J35" s="11"/>
+      <c r="N35" s="11"/>
+    </row>
+    <row r="36" spans="10:14" ht="15" customHeight="1">
+      <c r="J36" s="11"/>
+      <c r="N36" s="11"/>
+    </row>
+    <row r="37" spans="10:14" ht="15" customHeight="1">
+      <c r="J37" s="11"/>
+      <c r="N37" s="11"/>
+    </row>
+    <row r="38" spans="10:14" ht="15" customHeight="1">
+      <c r="J38" s="11"/>
+    </row>
+    <row r="39" spans="10:14" ht="15" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57D9D70-2174-6547-913D-DD69A322290C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A3BE5F-DEA2-FC40-9B01-512DAF2656D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="477">
   <si>
     <t>藏品名字</t>
   </si>
@@ -1448,13 +1448,54 @@
   </si>
   <si>
     <t>漩涡鸣人</t>
+  </si>
+  <si>
+    <t>斯巴达（Sparta）</t>
+  </si>
+  <si>
+    <t>雪莉（Sydney）</t>
+  </si>
+  <si>
+    <t>迪赛尔（Diesel）</t>
+  </si>
+  <si>
+    <t>麦克思（Max）</t>
+  </si>
+  <si>
+    <t>露娜（Luna）</t>
+  </si>
+  <si>
+    <t>奇迹（Miracle）</t>
+  </si>
+  <si>
+    <t>吉娜（Gina）</t>
+  </si>
+  <si>
+    <t>桑迪（Sunday）</t>
+  </si>
+  <si>
+    <t>格若瑞娅（Gloria）</t>
+  </si>
+  <si>
+    <t>艾伯纳（Abner）</t>
+  </si>
+  <si>
+    <t>泡泡（Bubble</t>
+  </si>
+  <si>
+    <t>卡洛儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨德（Sade）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1506,6 +1547,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1546,7 +1596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1567,6 +1617,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1583,6 +1634,601 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>103187</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4294188" cy="960438"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E6185DC-6CD2-0E48-A131-90D279B40C2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="301625" y="2198687"/>
+          <a:ext cx="4294188" cy="960438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="4800" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="11000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow>
+                  <a:schemeClr val="accent1"/>
+                </a:glow>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>ibox-data.cn</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4800" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:alpha val="11000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:glow>
+                <a:schemeClr val="accent1"/>
+              </a:glow>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4294188" cy="960438"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07851A70-CE3E-D144-9123-6F40D087BA18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2016125"/>
+          <a:ext cx="4294188" cy="960438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="4800" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="11000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow>
+                  <a:schemeClr val="accent1"/>
+                </a:glow>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>ibox-data.cn</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4800" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:alpha val="11000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:glow>
+                <a:schemeClr val="accent1"/>
+              </a:glow>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4294188" cy="960438"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{626DD03F-64C4-E849-B33F-13405D7E17A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2206625"/>
+          <a:ext cx="4294188" cy="960438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="4800" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="11000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow>
+                  <a:schemeClr val="accent1"/>
+                </a:glow>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>ibox-data.cn</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4800" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:alpha val="11000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:glow>
+                <a:schemeClr val="accent1"/>
+              </a:glow>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>103187</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4294188" cy="960438"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B92FA590-2DF0-DC48-A11B-8231EE315437}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2579687"/>
+          <a:ext cx="4294188" cy="960438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="4800" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="11000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow>
+                  <a:schemeClr val="accent1"/>
+                </a:glow>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>ibox-data.cn</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4800" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:alpha val="11000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:glow>
+                <a:schemeClr val="accent1"/>
+              </a:glow>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>134937</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4294188" cy="960438"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF04821F-4ED8-5344-8206-CE76F82336EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2992437"/>
+          <a:ext cx="4294188" cy="960438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="4800" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="11000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow>
+                  <a:schemeClr val="accent1"/>
+                </a:glow>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>ibox-data.cn</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4800" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:alpha val="11000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:glow>
+                <a:schemeClr val="accent1"/>
+              </a:glow>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4294188" cy="960438"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F33E944-8D87-E64D-98DE-AF697DF7C29E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1651000"/>
+          <a:ext cx="4294188" cy="960438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="4800" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="11000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow>
+                  <a:schemeClr val="accent1"/>
+                </a:glow>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>ibox-data.cn</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4800" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:alpha val="11000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:glow>
+                <a:schemeClr val="accent1"/>
+              </a:glow>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4294188" cy="960438"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C400985A-8E4C-4249-B41E-DD3AE616F1BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2214563"/>
+          <a:ext cx="4294188" cy="960438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="4800" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="11000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow>
+                  <a:schemeClr val="accent1"/>
+                </a:glow>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>ibox-data.cn</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4800" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:alpha val="11000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:glow>
+                <a:schemeClr val="accent1"/>
+              </a:glow>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4722,7 +5368,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5432,15 +6078,16 @@
     <hyperlink ref="K3" r:id="rId2" xr:uid="{1C020035-B25F-F547-9F40-CA3D97BA6B45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23834F0F-0918-B64F-9000-1ED84B75F029}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -5496,7 +6143,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="5">
-        <f>D2/(D16)</f>
+        <f>D2/(D14)</f>
         <v>4.4715447154471545E-2</v>
       </c>
       <c r="F2">
@@ -5532,7 +6179,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="5">
-        <f>D3/(D16)</f>
+        <f>D3/(D14)</f>
         <v>3.2520325203252036E-2</v>
       </c>
       <c r="F3">
@@ -5567,7 +6214,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="5">
-        <f>D4/(D16)</f>
+        <f>D4/(D14)</f>
         <v>2.4390243902439025E-2</v>
       </c>
       <c r="F4">
@@ -5602,7 +6249,7 @@
         <v>26</v>
       </c>
       <c r="E5" s="5">
-        <f>D5/(D16)</f>
+        <f>D5/(D14)</f>
         <v>0.10569105691056911</v>
       </c>
       <c r="F5">
@@ -5637,7 +6284,7 @@
         <v>27</v>
       </c>
       <c r="E6" s="5">
-        <f>D6/(D16)</f>
+        <f>D6/(D14)</f>
         <v>0.10975609756097561</v>
       </c>
       <c r="F6">
@@ -5672,7 +6319,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="5">
-        <f>D7/(D16)</f>
+        <f>D7/(D14)</f>
         <v>7.3170731707317069E-2</v>
       </c>
       <c r="F7">
@@ -5707,7 +6354,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="5">
-        <f>D8/(D16)</f>
+        <f>D8/(D14)</f>
         <v>0.1016260162601626</v>
       </c>
       <c r="F8">
@@ -5742,7 +6389,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="5">
-        <f>D9/(D16)</f>
+        <f>D9/(D14)</f>
         <v>0.11382113821138211</v>
       </c>
       <c r="F9">
@@ -5777,7 +6424,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="5">
-        <f>D10/(D16)</f>
+        <f>D10/(D14)</f>
         <v>0.1016260162601626</v>
       </c>
       <c r="F10">
@@ -5812,7 +6459,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="5">
-        <f>D11/(D16)</f>
+        <f>D11/(D14)</f>
         <v>8.943089430894309E-2</v>
       </c>
       <c r="F11">
@@ -5847,7 +6494,7 @@
         <v>23</v>
       </c>
       <c r="E12" s="5">
-        <f>D12/(D16)</f>
+        <f>D12/(D14)</f>
         <v>9.3495934959349589E-2</v>
       </c>
       <c r="F12">
@@ -5882,7 +6529,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="5">
-        <f>D13/(D16)</f>
+        <f>D13/(D14)</f>
         <v>0.10975609756097561</v>
       </c>
       <c r="F13">
@@ -5903,94 +6550,30 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>407</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="B14">
-        <v>2029</v>
+        <f>SUM(B2:B13)</f>
+        <v>20454</v>
       </c>
       <c r="C14">
-        <v>2056</v>
+        <f>SUM(C2:C13)</f>
+        <v>20700</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D15" si="2">C14-B14</f>
-        <v>27</v>
-      </c>
-      <c r="E14" s="5">
-        <f>D14/(D16)</f>
-        <v>0.10975609756097561</v>
-      </c>
-      <c r="F14">
-        <v>960</v>
-      </c>
-      <c r="G14">
-        <f t="shared" ref="G14:G15" si="3">I14-H14</f>
-        <v>-5</v>
-      </c>
-      <c r="H14">
-        <v>1100</v>
-      </c>
-      <c r="I14">
-        <v>1095</v>
-      </c>
-      <c r="J14">
-        <v>100513770</v>
+        <f>SUM(D2:D13)</f>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="B15">
-        <v>2029</v>
-      </c>
-      <c r="C15">
-        <v>2056</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="E15" s="5">
-        <f>D15/(D16)</f>
-        <v>0.10975609756097561</v>
-      </c>
-      <c r="F15">
-        <v>960</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-      <c r="H15">
-        <v>1100</v>
-      </c>
-      <c r="I15">
-        <v>1095</v>
-      </c>
-      <c r="J15">
-        <v>100513770</v>
+      <c r="A15" s="7">
+        <v>44666.482430555552</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16">
-        <f>SUM(B2:B13)</f>
-        <v>20454</v>
-      </c>
-      <c r="C16">
-        <f>SUM(C2:C13)</f>
-        <v>20700</v>
-      </c>
-      <c r="D16">
-        <f>SUM(D2:D13)</f>
-        <v>246</v>
-      </c>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1">
-      <c r="A17" s="7">
-        <v>44666.404791666668</v>
-      </c>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1">
       <c r="A18" s="1"/>
@@ -6000,13 +6583,13 @@
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="1"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1">
       <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1">
       <c r="A23" s="1"/>
@@ -6024,17 +6607,19 @@
       <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1">
-      <c r="A28" s="1"/>
+      <c r="N28" s="11"/>
     </row>
     <row r="29" spans="1:14" ht="15" customHeight="1">
-      <c r="A29" s="1"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="N29" s="11"/>
     </row>
     <row r="30" spans="1:14" ht="15" customHeight="1">
+      <c r="J30" s="11"/>
       <c r="N30" s="11"/>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1">
       <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
       <c r="N31" s="11"/>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1">
@@ -6063,18 +6648,11 @@
     </row>
     <row r="38" spans="10:14" ht="15" customHeight="1">
       <c r="J38" s="11"/>
-      <c r="N38" s="11"/>
-    </row>
-    <row r="39" spans="10:14" ht="15" customHeight="1">
-      <c r="J39" s="11"/>
-      <c r="N39" s="11"/>
-    </row>
-    <row r="40" spans="10:14" ht="15" customHeight="1">
-      <c r="J40" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6082,8 +6660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184DB00E-F6FB-F54F-9B72-986678B8AC5C}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6583,8 +7161,8 @@
     <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15">
-        <f>SUM(B2:B13)</f>
-        <v>10683</v>
+        <f>SUM(B2:B14)</f>
+        <v>11707</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C14)</f>
@@ -6597,7 +7175,7 @@
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" s="7">
-        <v>44666.382511574076</v>
+        <v>44666.482430555552</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1">
@@ -6684,6 +7262,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6691,14 +7270,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4614B3D9-5D01-494A-AB9B-1EE17B5FD0A0}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.33203125" customWidth="1"/>
     <col min="14" max="14" width="22.83203125" customWidth="1"/>
@@ -7276,7 +7855,7 @@
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1">
       <c r="A18" s="7">
-        <v>44666.382511574076</v>
+        <v>44666.482430555552</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1">
@@ -7363,6 +7942,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7370,8 +7950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3E1037-247A-B34C-A448-182432C86F5C}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7963,7 +8543,7 @@
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B18">
         <v>738</v>
@@ -7997,9 +8577,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>450</v>
-      </c>
+      <c r="A19" s="6"/>
       <c r="B19">
         <f>SUM(B2:B18)</f>
         <v>11664</v>
@@ -8015,7 +8593,7 @@
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
       <c r="A20" s="7">
-        <v>44666.382511574076</v>
+        <v>44666.482430555552</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
@@ -8025,7 +8603,7 @@
       <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1">
-      <c r="A23" s="1"/>
+      <c r="A23" s="14"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1">
       <c r="A24" s="1"/>
@@ -8102,6 +8680,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8109,8 +8689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0660C9D-E02C-D446-977A-9E47C695C27D}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8519,7 +9099,7 @@
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="7">
-        <v>44666.382511574076</v>
+        <v>44666.482430555552</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
@@ -8606,15 +9186,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7221D8-E6B2-6A47-92D2-13357EC161D5}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8657,21 +9238,21 @@
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>397</v>
+        <v>475</v>
       </c>
       <c r="B2">
-        <v>615</v>
+        <v>57</v>
       </c>
       <c r="C2">
-        <v>700</v>
+        <v>58</v>
       </c>
       <c r="D2">
         <f>C2-B2</f>
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="E2" s="5">
-        <f>D2/(D14)</f>
-        <v>3.9479795633999074E-2</v>
+        <f>D2/(D15)</f>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="F2">
         <v>30555</v>
@@ -8693,27 +9274,27 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>398</v>
+        <v>464</v>
       </c>
       <c r="B3">
-        <v>690</v>
+        <v>99</v>
       </c>
       <c r="C3">
-        <v>750</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D13" si="0">C3-B3</f>
-        <v>60</v>
+        <f t="shared" ref="D3:D14" si="0">C3-B3</f>
+        <v>1</v>
       </c>
       <c r="E3" s="5">
-        <f>D3/(D14)</f>
-        <v>2.7868091035764049E-2</v>
+        <f>D3/(D15)</f>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="F3">
-        <v>5400</v>
+        <v>36666</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G13" si="1">I3-H3</f>
+        <f t="shared" ref="G3:G14" si="1">I3-H3</f>
         <v>401</v>
       </c>
       <c r="H3">
@@ -8728,24 +9309,24 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>399</v>
+        <v>465</v>
       </c>
       <c r="B4">
-        <v>663</v>
+        <v>99</v>
       </c>
       <c r="C4">
-        <v>750</v>
+        <v>100</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="E4" s="5">
-        <f>D4/(D14)</f>
-        <v>4.0408732001857871E-2</v>
+        <f>D4/(D15)</f>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="F4">
-        <v>5750</v>
+        <v>48800</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
@@ -8762,25 +9343,25 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>408</v>
+      <c r="A5" s="4" t="s">
+        <v>466</v>
       </c>
       <c r="B5">
-        <v>1835</v>
+        <v>100</v>
       </c>
       <c r="C5">
-        <v>2055</v>
+        <v>100</v>
       </c>
       <c r="D5">
         <f>C5-B5</f>
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="E5" s="5">
-        <f>D5/(D14)</f>
-        <v>0.10218300046446818</v>
+        <f>D5/(D15)</f>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1039</v>
+        <v>39999</v>
       </c>
       <c r="G5">
         <f>I5-H5</f>
@@ -8798,24 +9379,24 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>400</v>
+        <v>467</v>
       </c>
       <c r="B6">
-        <v>1829</v>
+        <v>172</v>
       </c>
       <c r="C6">
-        <v>2055</v>
+        <v>182</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>226</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5">
-        <f>D6/(D14)</f>
-        <v>0.10496980956804459</v>
+        <f>D6/(D15)</f>
+        <v>0.26315789473684209</v>
       </c>
       <c r="F6">
-        <v>1100</v>
+        <v>13666</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
@@ -8833,24 +9414,24 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>401</v>
+        <v>476</v>
       </c>
       <c r="B7">
-        <v>1841</v>
+        <v>178</v>
       </c>
       <c r="C7">
-        <v>2055</v>
+        <v>182</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>214</v>
+        <v>4</v>
       </c>
       <c r="E7" s="5">
-        <f>D7/(D14)</f>
-        <v>9.9396191360891784E-2</v>
+        <f>D7/(D15)</f>
+        <v>0.10526315789473684</v>
       </c>
       <c r="F7">
-        <v>1050</v>
+        <v>13888</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
@@ -8868,24 +9449,24 @@
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>402</v>
+        <v>468</v>
       </c>
       <c r="B8">
-        <v>1828</v>
+        <v>177</v>
       </c>
       <c r="C8">
-        <v>2055</v>
+        <v>182</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>227</v>
+        <v>5</v>
       </c>
       <c r="E8" s="5">
-        <f>D8/(D14)</f>
-        <v>0.10543427775197399</v>
+        <f>D8/(D15)</f>
+        <v>0.13157894736842105</v>
       </c>
       <c r="F8">
-        <v>1048</v>
+        <v>13666</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
@@ -8903,24 +9484,24 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>403</v>
+        <v>469</v>
       </c>
       <c r="B9">
-        <v>1843</v>
+        <v>180</v>
       </c>
       <c r="C9">
-        <v>2056</v>
+        <v>182</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>213</v>
+        <v>2</v>
       </c>
       <c r="E9" s="5">
-        <f>D9/(D14)</f>
-        <v>9.8931723176962374E-2</v>
+        <f>D9/(D15)</f>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="F9">
-        <v>1048</v>
+        <v>13500</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
@@ -8938,24 +9519,24 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>404</v>
+        <v>470</v>
       </c>
       <c r="B10">
-        <v>1844</v>
+        <v>177</v>
       </c>
       <c r="C10">
-        <v>2056</v>
+        <v>182</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>5</v>
       </c>
       <c r="E10" s="5">
-        <f>D10/(D14)</f>
-        <v>9.8467254993032979E-2</v>
+        <f>D10/(D15)</f>
+        <v>0.13157894736842105</v>
       </c>
       <c r="F10">
-        <v>1040</v>
+        <v>12888</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
@@ -8973,24 +9554,24 @@
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>405</v>
+        <v>471</v>
       </c>
       <c r="B11">
-        <v>1868</v>
+        <v>180</v>
       </c>
       <c r="C11">
-        <v>2056</v>
+        <v>182</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="E11" s="5">
-        <f>D11/(D14)</f>
-        <v>8.7320018578727357E-2</v>
+        <f>D11/(D15)</f>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="F11">
-        <v>1088</v>
+        <v>16666</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
@@ -9008,24 +9589,24 @@
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>406</v>
+        <v>472</v>
       </c>
       <c r="B12">
-        <v>1839</v>
+        <v>181</v>
       </c>
       <c r="C12">
-        <v>2056</v>
+        <v>182</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>217</v>
+        <v>1</v>
       </c>
       <c r="E12" s="5">
-        <f>D12/(D14)</f>
-        <v>0.10078959591267998</v>
+        <f>D12/(D15)</f>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="F12">
-        <v>1039</v>
+        <v>13888</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
@@ -9043,61 +9624,93 @@
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>407</v>
+        <v>473</v>
       </c>
       <c r="B13">
-        <v>1852</v>
+        <v>178</v>
       </c>
       <c r="C13">
-        <v>2056</v>
+        <v>182</v>
       </c>
       <c r="D13">
+        <f t="shared" ref="D13" si="2">C13-B13</f>
+        <v>4</v>
+      </c>
+      <c r="E13" s="5">
+        <f>D13/(D15)</f>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="F13">
+        <v>13999</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13" si="3">I13-H13</f>
+        <v>-5</v>
+      </c>
+      <c r="H13">
+        <v>1100</v>
+      </c>
+      <c r="I13">
+        <v>1095</v>
+      </c>
+      <c r="J13">
+        <v>100513770</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="B14">
+        <v>180</v>
+      </c>
+      <c r="C14">
+        <v>182</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="0"/>
-        <v>204</v>
-      </c>
-      <c r="E13" s="5">
-        <f>D13/(D14)</f>
-        <v>9.4751509521597777E-2</v>
-      </c>
-      <c r="F13">
-        <v>1095</v>
-      </c>
-      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5">
+        <f>D14/(D15)</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="F14">
+        <v>13666</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>1100</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>1095</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>100513770</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14">
-        <f>SUM(B2:B13)</f>
-        <v>18547</v>
-      </c>
-      <c r="C14">
-        <f>SUM(C2:C13)</f>
-        <v>20700</v>
-      </c>
-      <c r="D14">
-        <f>SUM(D2:D13)</f>
-        <v>2153</v>
-      </c>
-    </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
-      <c r="A15" s="7">
-        <v>44666.382511574076</v>
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <f>SUM(B2:B14)</f>
+        <v>1958</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C2:C14)</f>
+        <v>1996</v>
+      </c>
+      <c r="D15">
+        <f>SUM(D2:D14)</f>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
-      <c r="A16" s="1"/>
+      <c r="A16" s="7">
+        <v>44666.482430555552</v>
+      </c>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="1"/>
@@ -9110,10 +9723,10 @@
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1">
       <c r="A21" s="1"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1">
       <c r="A22" s="1"/>
@@ -9134,15 +9747,14 @@
       <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1">
-      <c r="N28" s="11"/>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:14" ht="15" customHeight="1">
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
       <c r="N29" s="11"/>
     </row>
     <row r="30" spans="1:14" ht="15" customHeight="1">
       <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
       <c r="N30" s="11"/>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1">
@@ -9175,10 +9787,16 @@
     </row>
     <row r="38" spans="10:14" ht="15" customHeight="1">
       <c r="J38" s="11"/>
-    </row>
-    <row r="39" spans="10:14" ht="15" customHeight="1"/>
+      <c r="N38" s="11"/>
+    </row>
+    <row r="39" spans="10:14" ht="15" customHeight="1">
+      <c r="J39" s="11"/>
+    </row>
+    <row r="40" spans="10:14" ht="15" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A3BE5F-DEA2-FC40-9B01-512DAF2656D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA8EC39-9798-9E4F-A99D-EC2FADB27399}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="价格" sheetId="1" r:id="rId1"/>
-    <sheet name="7期" sheetId="2" r:id="rId2"/>
-    <sheet name="6期" sheetId="3" r:id="rId3"/>
-    <sheet name="5期" sheetId="4" r:id="rId4"/>
-    <sheet name="4期" sheetId="5" r:id="rId5"/>
-    <sheet name="3期" sheetId="6" r:id="rId6"/>
-    <sheet name="2期" sheetId="7" r:id="rId7"/>
-    <sheet name="1期" sheetId="8" r:id="rId8"/>
+    <sheet name="8期" sheetId="9" r:id="rId2"/>
+    <sheet name="7期" sheetId="2" r:id="rId3"/>
+    <sheet name="6期" sheetId="3" r:id="rId4"/>
+    <sheet name="5期" sheetId="4" r:id="rId5"/>
+    <sheet name="4期" sheetId="5" r:id="rId6"/>
+    <sheet name="3期" sheetId="6" r:id="rId7"/>
+    <sheet name="2期" sheetId="7" r:id="rId8"/>
+    <sheet name="1期" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="484">
   <si>
     <t>藏品名字</t>
   </si>
@@ -1489,6 +1490,28 @@
   <si>
     <t>萨德（Sade）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰玫瑰我爱你</t>
+  </si>
+  <si>
+    <t>夜上海</t>
+  </si>
+  <si>
+    <t>霸王别姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有你</t>
+  </si>
+  <si>
+    <t>俏冤家</t>
+  </si>
+  <si>
+    <t>好春宵</t>
+  </si>
+  <si>
+    <t>蔷薇处处开</t>
   </si>
 </sst>
 </file>
@@ -1641,6 +1664,171 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4294188" cy="960438"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1A84739-784A-544B-9544-1B01DB94BD2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="1066800"/>
+          <a:ext cx="4294188" cy="960438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="4800" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="11000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow>
+                  <a:schemeClr val="accent1"/>
+                </a:glow>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>ibox-data.cn</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4800" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:alpha val="11000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:glow>
+                <a:schemeClr val="accent1"/>
+              </a:glow>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4294188" cy="960438"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8D37E1A-2E26-3448-9D82-81FC3E8AEC94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7439025" y="4851400"/>
+          <a:ext cx="4294188" cy="960438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="4800" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="11000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow>
+                  <a:schemeClr val="accent1"/>
+                </a:glow>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>ibox-data.cn</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4800" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:alpha val="11000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:glow>
+                <a:schemeClr val="accent1"/>
+              </a:glow>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>301625</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>103187</xdr:rowOff>
@@ -1721,7 +1909,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1806,7 +1994,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1891,7 +2079,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1976,7 +2164,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2061,7 +2249,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2146,7 +2334,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -5364,11 +5552,413 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62339BF-82AB-134D-8EFD-921FB55AD5F0}">
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1">
+      <c r="B1" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <f>C2-B2</f>
+        <v>18</v>
+      </c>
+      <c r="E2" s="5">
+        <f>D2/(D9)</f>
+        <v>9.4191522762951331E-4</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="8">
+        <v>100513772</v>
+      </c>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B3">
+        <v>65</v>
+      </c>
+      <c r="C3">
+        <v>600</v>
+      </c>
+      <c r="D3">
+        <f>C3-B3</f>
+        <v>535</v>
+      </c>
+      <c r="E3" s="5">
+        <f>D3/(D9)</f>
+        <v>2.7995813710099425E-2</v>
+      </c>
+      <c r="F3">
+        <v>30555</v>
+      </c>
+      <c r="G3">
+        <f>I3-H3</f>
+        <v>-333</v>
+      </c>
+      <c r="H3">
+        <v>30888</v>
+      </c>
+      <c r="I3">
+        <v>30555</v>
+      </c>
+      <c r="J3" s="8">
+        <v>100513759</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B4">
+        <v>133</v>
+      </c>
+      <c r="C4">
+        <v>900</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D8" si="0">C4-B4</f>
+        <v>767</v>
+      </c>
+      <c r="E4" s="5">
+        <f>D4/(D9)</f>
+        <v>4.0136054421768708E-2</v>
+      </c>
+      <c r="F4">
+        <v>5400</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G8" si="1">I4-H4</f>
+        <v>401</v>
+      </c>
+      <c r="H4">
+        <v>4999</v>
+      </c>
+      <c r="I4">
+        <v>5400</v>
+      </c>
+      <c r="J4" s="8">
+        <v>100513761</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B5">
+        <v>148</v>
+      </c>
+      <c r="C5">
+        <v>900</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>752</v>
+      </c>
+      <c r="E5" s="5">
+        <f>D5/(D9)</f>
+        <v>3.9351125065410782E-2</v>
+      </c>
+      <c r="F5">
+        <v>5750</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>462</v>
+      </c>
+      <c r="H5">
+        <v>5288</v>
+      </c>
+      <c r="I5">
+        <v>5750</v>
+      </c>
+      <c r="J5" s="8">
+        <v>100513762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="B6">
+        <v>1022</v>
+      </c>
+      <c r="C6">
+        <v>6673</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>5651</v>
+      </c>
+      <c r="E6" s="5">
+        <f>D6/(D9)</f>
+        <v>0.29570905285191001</v>
+      </c>
+      <c r="F6">
+        <v>1100</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1100</v>
+      </c>
+      <c r="I6">
+        <v>1100</v>
+      </c>
+      <c r="J6">
+        <v>100513763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="B7">
+        <v>971</v>
+      </c>
+      <c r="C7">
+        <v>6673</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>5702</v>
+      </c>
+      <c r="E7" s="5">
+        <f>D7/(D9)</f>
+        <v>0.29837781266352698</v>
+      </c>
+      <c r="F7">
+        <v>1050</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>-50</v>
+      </c>
+      <c r="H7">
+        <v>1100</v>
+      </c>
+      <c r="I7">
+        <v>1050</v>
+      </c>
+      <c r="J7">
+        <v>100513764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="B8">
+        <v>988</v>
+      </c>
+      <c r="C8">
+        <v>6673</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>5685</v>
+      </c>
+      <c r="E8" s="5">
+        <f>D8/(D9)</f>
+        <v>0.29748822605965464</v>
+      </c>
+      <c r="F8">
+        <v>1048</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="H8">
+        <v>1060</v>
+      </c>
+      <c r="I8">
+        <v>1048</v>
+      </c>
+      <c r="J8">
+        <v>100513765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9">
+        <f>SUM(B2:B8)</f>
+        <v>3329</v>
+      </c>
+      <c r="C9">
+        <f>SUM(C2:C8)</f>
+        <v>22439</v>
+      </c>
+      <c r="D9">
+        <f>SUM(D2:D8)</f>
+        <v>19110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1">
+      <c r="A10" s="7">
+        <v>44667.763865740744</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
+      <c r="A16" s="1"/>
+      <c r="H16">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
+      <c r="A17" s="1"/>
+      <c r="H17">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="H18">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1">
+      <c r="A19" s="1"/>
+      <c r="H19">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
+      <c r="H20">
+        <v>988</v>
+      </c>
+      <c r="N20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1">
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1">
+      <c r="J22" s="11"/>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1">
+      <c r="J23" s="11"/>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1">
+      <c r="J24" s="11"/>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1">
+      <c r="J25" s="11"/>
+      <c r="N25" s="11"/>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1">
+      <c r="J26" s="11"/>
+      <c r="N26" s="11"/>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1">
+      <c r="J27" s="11"/>
+      <c r="N27" s="11"/>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1">
+      <c r="J28" s="11"/>
+      <c r="N28" s="11"/>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1">
+      <c r="J29" s="11"/>
+      <c r="N29" s="11"/>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1">
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D06DC-D0D3-DC41-8495-1A009DF45D20}">
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="J16" sqref="A1:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6082,7 +6672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23834F0F-0918-B64F-9000-1ED84B75F029}">
   <dimension ref="A1:N38"/>
   <sheetViews>
@@ -6656,7 +7246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184DB00E-F6FB-F54F-9B72-986678B8AC5C}">
   <dimension ref="A1:N40"/>
   <sheetViews>
@@ -7266,7 +7856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4614B3D9-5D01-494A-AB9B-1EE17B5FD0A0}">
   <dimension ref="A1:N42"/>
   <sheetViews>
@@ -7946,7 +8536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3E1037-247A-B34C-A448-182432C86F5C}">
   <dimension ref="A1:N44"/>
   <sheetViews>
@@ -8685,12 +9275,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0660C9D-E02C-D446-977A-9E47C695C27D}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8813,7 +9403,7 @@
         <v>400</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D3:D11" si="1">C4-B4</f>
+        <f t="shared" ref="D4:D11" si="1">C4-B4</f>
         <v>12</v>
       </c>
       <c r="E4" s="5">
@@ -9190,7 +9780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7221D8-E6B2-6A47-92D2-13357EC161D5}">
   <dimension ref="A1:N40"/>
   <sheetViews>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA8EC39-9798-9E4F-A99D-EC2FADB27399}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75DDFF9-7B09-9C4C-B7E2-0716569B922E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="价格" sheetId="1" r:id="rId1"/>
@@ -1829,91 +1829,6 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>301625</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>103187</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4294188" cy="960438"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E6185DC-6CD2-0E48-A131-90D279B40C2F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="301625" y="2198687"/>
-          <a:ext cx="4294188" cy="960438"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="4800" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="11000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:glow>
-                  <a:schemeClr val="accent1"/>
-                </a:glow>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>ibox-data.cn</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4800" b="0" cap="none" spc="0">
-            <a:ln w="0"/>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:alpha val="11000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:effectLst>
-              <a:glow>
-                <a:schemeClr val="accent1"/>
-              </a:glow>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
@@ -1994,7 +1909,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2079,7 +1994,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2164,7 +2079,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2249,7 +2164,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2334,7 +2249,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -5556,7 +5471,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5602,18 +5517,18 @@
         <v>479</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>20</v>
       </c>
       <c r="D2">
         <f>C2-B2</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E2" s="5">
         <f>D2/(D9)</f>
-        <v>9.4191522762951331E-4</v>
+        <v>9.6445301736015432E-4</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>392</v>
@@ -5621,8 +5536,8 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
-      <c r="J2" s="8">
-        <v>100513772</v>
+      <c r="J2">
+        <v>100513812</v>
       </c>
       <c r="K2" s="10"/>
     </row>
@@ -5631,18 +5546,18 @@
         <v>477</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>201</v>
       </c>
       <c r="C3">
         <v>600</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>535</v>
+        <v>399</v>
       </c>
       <c r="E3" s="5">
         <f>D3/(D9)</f>
-        <v>2.7995813710099425E-2</v>
+        <v>2.7486910994764399E-2</v>
       </c>
       <c r="F3">
         <v>30555</v>
@@ -5658,7 +5573,7 @@
         <v>30555</v>
       </c>
       <c r="J3" s="8">
-        <v>100513759</v>
+        <v>100513813</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
@@ -5666,18 +5581,18 @@
         <v>478</v>
       </c>
       <c r="B4">
-        <v>133</v>
+        <v>326</v>
       </c>
       <c r="C4">
         <v>900</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D8" si="0">C4-B4</f>
-        <v>767</v>
+        <v>574</v>
       </c>
       <c r="E4" s="5">
         <f>D4/(D9)</f>
-        <v>4.0136054421768708E-2</v>
+        <v>3.9542573711766324E-2</v>
       </c>
       <c r="F4">
         <v>5400</v>
@@ -5693,7 +5608,7 @@
         <v>5400</v>
       </c>
       <c r="J4" s="8">
-        <v>100513761</v>
+        <v>100513814</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
@@ -5701,18 +5616,18 @@
         <v>480</v>
       </c>
       <c r="B5">
-        <v>148</v>
+        <v>310</v>
       </c>
       <c r="C5">
         <v>900</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>752</v>
+        <v>590</v>
       </c>
       <c r="E5" s="5">
         <f>D5/(D9)</f>
-        <v>3.9351125065410782E-2</v>
+        <v>4.0644805731606504E-2</v>
       </c>
       <c r="F5">
         <v>5750</v>
@@ -5728,7 +5643,7 @@
         <v>5750</v>
       </c>
       <c r="J5" s="8">
-        <v>100513762</v>
+        <v>100513815</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
@@ -5736,18 +5651,18 @@
         <v>481</v>
       </c>
       <c r="B6">
-        <v>1022</v>
+        <v>2384</v>
       </c>
       <c r="C6">
         <v>6673</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>5651</v>
+        <v>4289</v>
       </c>
       <c r="E6" s="5">
         <f>D6/(D9)</f>
-        <v>0.29570905285191001</v>
+        <v>0.29546707081840728</v>
       </c>
       <c r="F6">
         <v>1100</v>
@@ -5763,7 +5678,7 @@
         <v>1100</v>
       </c>
       <c r="J6">
-        <v>100513763</v>
+        <v>100513816</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
@@ -5771,18 +5686,18 @@
         <v>482</v>
       </c>
       <c r="B7">
-        <v>971</v>
+        <v>2360</v>
       </c>
       <c r="C7">
         <v>6673</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>5702</v>
+        <v>4313</v>
       </c>
       <c r="E7" s="5">
         <f>D7/(D9)</f>
-        <v>0.29837781266352698</v>
+        <v>0.29712041884816753</v>
       </c>
       <c r="F7">
         <v>1050</v>
@@ -5798,7 +5713,7 @@
         <v>1050</v>
       </c>
       <c r="J7">
-        <v>100513764</v>
+        <v>100513820</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
@@ -5806,18 +5721,18 @@
         <v>483</v>
       </c>
       <c r="B8">
-        <v>988</v>
+        <v>2336</v>
       </c>
       <c r="C8">
         <v>6673</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>5685</v>
+        <v>4337</v>
       </c>
       <c r="E8" s="5">
         <f>D8/(D9)</f>
-        <v>0.29748822605965464</v>
+        <v>0.29877376687792778</v>
       </c>
       <c r="F8">
         <v>1048</v>
@@ -5833,14 +5748,14 @@
         <v>1048</v>
       </c>
       <c r="J8">
-        <v>100513765</v>
+        <v>100513818</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9">
         <f>SUM(B2:B8)</f>
-        <v>3329</v>
+        <v>7923</v>
       </c>
       <c r="C9">
         <f>SUM(C2:C8)</f>
@@ -5848,12 +5763,12 @@
       </c>
       <c r="D9">
         <f>SUM(D2:D8)</f>
-        <v>19110</v>
+        <v>14516</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="7">
-        <v>44667.763865740744</v>
+        <v>44668.45579861111</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
@@ -5871,38 +5786,20 @@
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="H15">
-        <v>2</v>
-      </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="H16">
-        <v>65</v>
-      </c>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="H17">
-        <v>133</v>
-      </c>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="H18">
-        <v>148</v>
-      </c>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="H19">
-        <v>1022</v>
-      </c>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1">
-      <c r="H20">
-        <v>988</v>
-      </c>
       <c r="N20" s="11"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1">
@@ -5957,15 +5854,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D06DC-D0D3-DC41-8495-1A009DF45D20}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J16" sqref="A1:J16"/>
+    <sheetView zoomScale="89" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" customWidth="1"/>
-    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" customWidth="1"/>
     <col min="11" max="11" width="141" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6668,7 +6565,6 @@
     <hyperlink ref="K3" r:id="rId2" xr:uid="{1C020035-B25F-F547-9F40-CA3D97BA6B45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -9279,7 +9175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0660C9D-E02C-D446-977A-9E47C695C27D}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="81" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="I14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9784,7 +9680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7221D8-E6B2-6A47-92D2-13357EC161D5}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="83" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75DDFF9-7B09-9C4C-B7E2-0716569B922E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212A51C7-91FE-C84B-8109-6160B53AB32E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5471,7 +5471,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5517,18 +5517,18 @@
         <v>479</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>20</v>
       </c>
       <c r="D2">
         <f>C2-B2</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5">
         <f>D2/(D9)</f>
-        <v>9.6445301736015432E-4</v>
+        <v>7.9843216955795889E-4</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>392</v>
@@ -5546,18 +5546,18 @@
         <v>477</v>
       </c>
       <c r="B3">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="C3">
         <v>600</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="E3" s="5">
         <f>D3/(D9)</f>
-        <v>2.7486910994764399E-2</v>
+        <v>2.7291863250344779E-2</v>
       </c>
       <c r="F3">
         <v>30555</v>
@@ -5581,18 +5581,18 @@
         <v>478</v>
       </c>
       <c r="B4">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="C4">
         <v>900</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D8" si="0">C4-B4</f>
-        <v>574</v>
+        <v>537</v>
       </c>
       <c r="E4" s="5">
         <f>D4/(D9)</f>
-        <v>3.9542573711766324E-2</v>
+        <v>3.8978006822965809E-2</v>
       </c>
       <c r="F4">
         <v>5400</v>
@@ -5616,18 +5616,18 @@
         <v>480</v>
       </c>
       <c r="B5">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="C5">
         <v>900</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>590</v>
+        <v>559</v>
       </c>
       <c r="E5" s="5">
         <f>D5/(D9)</f>
-        <v>4.0644805731606504E-2</v>
+        <v>4.0574871162081728E-2</v>
       </c>
       <c r="F5">
         <v>5750</v>
@@ -5651,18 +5651,18 @@
         <v>481</v>
       </c>
       <c r="B6">
-        <v>2384</v>
+        <v>2589</v>
       </c>
       <c r="C6">
         <v>6673</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>4289</v>
+        <v>4084</v>
       </c>
       <c r="E6" s="5">
         <f>D6/(D9)</f>
-        <v>0.29546707081840728</v>
+        <v>0.296436089134064</v>
       </c>
       <c r="F6">
         <v>1100</v>
@@ -5686,18 +5686,18 @@
         <v>482</v>
       </c>
       <c r="B7">
-        <v>2360</v>
+        <v>2572</v>
       </c>
       <c r="C7">
         <v>6673</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>4313</v>
+        <v>4101</v>
       </c>
       <c r="E7" s="5">
         <f>D7/(D9)</f>
-        <v>0.29712041884816753</v>
+        <v>0.29767002975974449</v>
       </c>
       <c r="F7">
         <v>1050</v>
@@ -5721,18 +5721,18 @@
         <v>483</v>
       </c>
       <c r="B8">
-        <v>2336</v>
+        <v>2564</v>
       </c>
       <c r="C8">
         <v>6673</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>4337</v>
+        <v>4109</v>
       </c>
       <c r="E8" s="5">
         <f>D8/(D9)</f>
-        <v>0.29877376687792778</v>
+        <v>0.29825070770124118</v>
       </c>
       <c r="F8">
         <v>1048</v>
@@ -5755,7 +5755,7 @@
       <c r="A9" s="1"/>
       <c r="B9">
         <f>SUM(B2:B8)</f>
-        <v>7923</v>
+        <v>8662</v>
       </c>
       <c r="C9">
         <f>SUM(C2:C8)</f>
@@ -5763,12 +5763,12 @@
       </c>
       <c r="D9">
         <f>SUM(D2:D8)</f>
-        <v>14516</v>
+        <v>13777</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="7">
-        <v>44668.45579861111</v>
+        <v>44668.894085648149</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212A51C7-91FE-C84B-8109-6160B53AB32E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEB3BF1-017E-884E-9FE5-2445A6ED05FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="价格" sheetId="1" r:id="rId1"/>
@@ -5471,7 +5471,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5528,7 +5528,7 @@
       </c>
       <c r="E2" s="5">
         <f>D2/(D9)</f>
-        <v>7.9843216955795889E-4</v>
+        <v>8.194278903456496E-4</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>392</v>
@@ -5546,18 +5546,18 @@
         <v>477</v>
       </c>
       <c r="B3">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C3">
         <v>600</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="E3" s="5">
         <f>D3/(D9)</f>
-        <v>2.7291863250344779E-2</v>
+        <v>2.7264600715137068E-2</v>
       </c>
       <c r="F3">
         <v>30555</v>
@@ -5581,18 +5581,18 @@
         <v>478</v>
       </c>
       <c r="B4">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="C4">
         <v>900</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D8" si="0">C4-B4</f>
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="E4" s="5">
         <f>D4/(D9)</f>
-        <v>3.8978006822965809E-2</v>
+        <v>3.9332538736591177E-2</v>
       </c>
       <c r="F4">
         <v>5400</v>
@@ -5616,18 +5616,18 @@
         <v>480</v>
       </c>
       <c r="B5">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="C5">
         <v>900</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="E5" s="5">
         <f>D5/(D9)</f>
-        <v>4.0574871162081728E-2</v>
+        <v>4.0151966626936826E-2</v>
       </c>
       <c r="F5">
         <v>5750</v>
@@ -5651,18 +5651,18 @@
         <v>481</v>
       </c>
       <c r="B6">
-        <v>2589</v>
+        <v>2698</v>
       </c>
       <c r="C6">
         <v>6673</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>4084</v>
+        <v>3975</v>
       </c>
       <c r="E6" s="5">
         <f>D6/(D9)</f>
-        <v>0.296436089134064</v>
+        <v>0.29611144219308699</v>
       </c>
       <c r="F6">
         <v>1100</v>
@@ -5686,18 +5686,18 @@
         <v>482</v>
       </c>
       <c r="B7">
-        <v>2572</v>
+        <v>2674</v>
       </c>
       <c r="C7">
         <v>6673</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>4101</v>
+        <v>3999</v>
       </c>
       <c r="E7" s="5">
         <f>D7/(D9)</f>
-        <v>0.29767002975974449</v>
+        <v>0.29789928486293205</v>
       </c>
       <c r="F7">
         <v>1050</v>
@@ -5721,18 +5721,18 @@
         <v>483</v>
       </c>
       <c r="B8">
-        <v>2564</v>
+        <v>2667</v>
       </c>
       <c r="C8">
         <v>6673</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>4109</v>
+        <v>4006</v>
       </c>
       <c r="E8" s="5">
         <f>D8/(D9)</f>
-        <v>0.29825070770124118</v>
+        <v>0.29842073897497018</v>
       </c>
       <c r="F8">
         <v>1048</v>
@@ -5755,7 +5755,7 @@
       <c r="A9" s="1"/>
       <c r="B9">
         <f>SUM(B2:B8)</f>
-        <v>8662</v>
+        <v>9015</v>
       </c>
       <c r="C9">
         <f>SUM(C2:C8)</f>
@@ -5763,12 +5763,12 @@
       </c>
       <c r="D9">
         <f>SUM(D2:D8)</f>
-        <v>13777</v>
+        <v>13424</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="7">
-        <v>44668.894085648149</v>
+        <v>44669.403587962966</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEB3BF1-017E-884E-9FE5-2445A6ED05FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6EA356-F3D9-BF44-9E72-14CBEA6F2D80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="价格" sheetId="1" r:id="rId1"/>
@@ -1829,6 +1829,91 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>214045</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57078</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4294188" cy="960438"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B8469B2-2415-364E-84B1-9F4E54FEB377}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="214045" y="2097640"/>
+          <a:ext cx="4294188" cy="960438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="4800" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="11000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow>
+                  <a:schemeClr val="accent1"/>
+                </a:glow>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>ibox-data.cn</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4800" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:alpha val="11000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:glow>
+                <a:schemeClr val="accent1"/>
+              </a:glow>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
@@ -1909,7 +1994,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1994,7 +2079,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2079,7 +2164,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2164,7 +2249,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2249,7 +2334,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -5471,7 +5556,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5480,7 +5565,7 @@
     <col min="5" max="5" width="8.83203125" customWidth="1"/>
     <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="22.83203125" customWidth="1"/>
+    <col min="14" max="14" width="40.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -5528,7 +5613,7 @@
       </c>
       <c r="E2" s="5">
         <f>D2/(D9)</f>
-        <v>8.194278903456496E-4</v>
+        <v>8.5126141464169638E-4</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>392</v>
@@ -5546,18 +5631,18 @@
         <v>477</v>
       </c>
       <c r="B3">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C3">
         <v>600</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E3" s="5">
         <f>D3/(D9)</f>
-        <v>2.7264600715137068E-2</v>
+        <v>2.76273022751896E-2</v>
       </c>
       <c r="F3">
         <v>30555</v>
@@ -5581,18 +5666,18 @@
         <v>478</v>
       </c>
       <c r="B4">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="C4">
         <v>900</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D8" si="0">C4-B4</f>
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="E4" s="5">
         <f>D4/(D9)</f>
-        <v>3.9332538736591177E-2</v>
+        <v>3.954496208017335E-2</v>
       </c>
       <c r="F4">
         <v>5400</v>
@@ -5616,18 +5701,18 @@
         <v>480</v>
       </c>
       <c r="B5">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="C5">
         <v>900</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="E5" s="5">
         <f>D5/(D9)</f>
-        <v>4.0151966626936826E-2</v>
+        <v>4.0550998297477173E-2</v>
       </c>
       <c r="F5">
         <v>5750</v>
@@ -5651,18 +5736,18 @@
         <v>481</v>
       </c>
       <c r="B6">
-        <v>2698</v>
+        <v>2846</v>
       </c>
       <c r="C6">
         <v>6673</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>3975</v>
+        <v>3827</v>
       </c>
       <c r="E6" s="5">
         <f>D6/(D9)</f>
-        <v>0.29611144219308699</v>
+        <v>0.29616158489397926</v>
       </c>
       <c r="F6">
         <v>1100</v>
@@ -5686,18 +5771,18 @@
         <v>482</v>
       </c>
       <c r="B7">
-        <v>2674</v>
+        <v>2835</v>
       </c>
       <c r="C7">
         <v>6673</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>3999</v>
+        <v>3838</v>
       </c>
       <c r="E7" s="5">
         <f>D7/(D9)</f>
-        <v>0.29789928486293205</v>
+        <v>0.29701284630862096</v>
       </c>
       <c r="F7">
         <v>1050</v>
@@ -5721,18 +5806,18 @@
         <v>483</v>
       </c>
       <c r="B8">
-        <v>2667</v>
+        <v>2819</v>
       </c>
       <c r="C8">
         <v>6673</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>4006</v>
+        <v>3854</v>
       </c>
       <c r="E8" s="5">
         <f>D8/(D9)</f>
-        <v>0.29842073897497018</v>
+        <v>0.29825104472991798</v>
       </c>
       <c r="F8">
         <v>1048</v>
@@ -5755,7 +5840,7 @@
       <c r="A9" s="1"/>
       <c r="B9">
         <f>SUM(B2:B8)</f>
-        <v>9015</v>
+        <v>9517</v>
       </c>
       <c r="C9">
         <f>SUM(C2:C8)</f>
@@ -5763,12 +5848,12 @@
       </c>
       <c r="D9">
         <f>SUM(D2:D8)</f>
-        <v>13424</v>
+        <v>12922</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="7">
-        <v>44669.403587962966</v>
+        <v>44669.873912037037</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
@@ -5805,7 +5890,12 @@
     <row r="21" spans="1:14" ht="15" customHeight="1">
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
-      <c r="N21" s="11"/>
+      <c r="L21">
+        <v>12922</v>
+      </c>
+      <c r="N21" s="11">
+        <v>44669.882013888891</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1">
       <c r="J22" s="11"/>
@@ -5852,10 +5942,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D06DC-D0D3-DC41-8495-1A009DF45D20}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5911,7 +6001,7 @@
       </c>
       <c r="E2" s="5">
         <f>D2/(D15)</f>
-        <v>2.7739251040221915E-3</v>
+        <v>3.1136481577581734E-3</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>392</v>
@@ -5928,18 +6018,18 @@
         <v>375</v>
       </c>
       <c r="B3">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C3">
         <v>700</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E3" s="5">
         <f>D3/(D15)</f>
-        <v>3.9297272306981046E-2</v>
+        <v>4.0477426050856254E-2</v>
       </c>
       <c r="F3">
         <v>30555</v>
@@ -5966,18 +6056,18 @@
         <v>376</v>
       </c>
       <c r="B4">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C4">
         <v>750</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D14" si="0">C4-B4</f>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E4" s="5">
         <f>D4/(D15)</f>
-        <v>2.7739251040221916E-2</v>
+        <v>3.0098598858329009E-2</v>
       </c>
       <c r="F4">
         <v>5400</v>
@@ -6001,18 +6091,18 @@
         <v>396</v>
       </c>
       <c r="B5">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="C5">
         <v>750</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E5" s="5">
         <f>D5/(D15)</f>
-        <v>4.0221914008321778E-2</v>
+        <v>4.1515308770108977E-2</v>
       </c>
       <c r="F5">
         <v>5750</v>
@@ -6036,18 +6126,18 @@
         <v>384</v>
       </c>
       <c r="B6">
-        <v>1829</v>
+        <v>1854</v>
       </c>
       <c r="C6">
         <v>2056</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="E6" s="5">
         <f>D6/(D15)</f>
-        <v>0.10494683310217291</v>
+        <v>0.10482615464452517</v>
       </c>
       <c r="F6">
         <v>1100</v>
@@ -6071,18 +6161,18 @@
         <v>383</v>
       </c>
       <c r="B7">
-        <v>1841</v>
+        <v>1863</v>
       </c>
       <c r="C7">
         <v>2056</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="E7" s="5">
         <f>D7/(D15)</f>
-        <v>9.9398982894128532E-2</v>
+        <v>0.10015568240788791</v>
       </c>
       <c r="F7">
         <v>1050</v>
@@ -6106,18 +6196,18 @@
         <v>382</v>
       </c>
       <c r="B8">
-        <v>1828</v>
+        <v>1859</v>
       </c>
       <c r="C8">
         <v>2056</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="E8" s="5">
         <f>D8/(D15)</f>
-        <v>0.10540915395284327</v>
+        <v>0.10223144784639336</v>
       </c>
       <c r="F8">
         <v>1048</v>
@@ -6144,18 +6234,18 @@
         <v>385</v>
       </c>
       <c r="B9">
-        <v>1843</v>
+        <v>1873</v>
       </c>
       <c r="C9">
         <v>2056</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="E9" s="5">
         <f>D9/(D15)</f>
-        <v>9.8474341192787793E-2</v>
+        <v>9.4966268811624288E-2</v>
       </c>
       <c r="F9">
         <v>1048</v>
@@ -6182,18 +6272,18 @@
         <v>386</v>
       </c>
       <c r="B10">
-        <v>1844</v>
+        <v>1864</v>
       </c>
       <c r="C10">
         <v>2056</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="E10" s="5">
         <f>D10/(D15)</f>
-        <v>9.8012020342117423E-2</v>
+        <v>9.9636741048261548E-2</v>
       </c>
       <c r="F10">
         <v>1040</v>
@@ -6220,18 +6310,18 @@
         <v>381</v>
       </c>
       <c r="B11">
-        <v>1868</v>
+        <v>1888</v>
       </c>
       <c r="C11">
         <v>2056</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="E11" s="5">
         <f>D11/(D15)</f>
-        <v>8.6916319926028662E-2</v>
+        <v>8.718214841722885E-2</v>
       </c>
       <c r="F11">
         <v>1088</v>
@@ -6258,18 +6348,18 @@
         <v>380</v>
       </c>
       <c r="B12">
-        <v>1839</v>
+        <v>1859</v>
       </c>
       <c r="C12">
         <v>2056</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="E12" s="5">
         <f>D12/(D15)</f>
-        <v>0.10032362459546926</v>
+        <v>0.10223144784639336</v>
       </c>
       <c r="F12">
         <v>1039</v>
@@ -6296,18 +6386,18 @@
         <v>379</v>
       </c>
       <c r="B13">
-        <v>1852</v>
+        <v>1875</v>
       </c>
       <c r="C13">
         <v>2056</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="E13" s="5">
         <f>D13/(D15)</f>
-        <v>9.4313453536754507E-2</v>
+        <v>9.3928386092371557E-2</v>
       </c>
       <c r="F13">
         <v>1095</v>
@@ -6334,18 +6424,18 @@
         <v>387</v>
       </c>
       <c r="B14">
-        <v>1835</v>
+        <v>1864</v>
       </c>
       <c r="C14">
         <v>2056</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="E14" s="5">
         <f>D14/(D15)</f>
-        <v>0.10217290799815072</v>
+        <v>9.9636741048261548E-2</v>
       </c>
       <c r="F14">
         <v>1039</v>
@@ -6371,7 +6461,7 @@
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B2:B14)</f>
-        <v>18561</v>
+        <v>18797</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C14)</f>
@@ -6379,15 +6469,15 @@
       </c>
       <c r="D15">
         <f>SUM(D2:D14)</f>
-        <v>2163</v>
+        <v>1927</v>
       </c>
       <c r="N15">
         <v>1834</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="7">
-        <v>44666.382511574076</v>
+      <c r="A16" s="11">
+        <v>44669.880324074074</v>
       </c>
       <c r="N16">
         <v>1815</v>
@@ -6455,7 +6545,7 @@
         <v>4131</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31:E39" si="2">D31-D30</f>
+        <f t="shared" ref="E31:E40" si="2">D31-D30</f>
         <v>-293</v>
       </c>
       <c r="J31" s="11">
@@ -6556,6 +6646,18 @@
       </c>
       <c r="J39" s="11">
         <v>44666.382650462961</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10">
+      <c r="D40">
+        <v>1927</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>-236</v>
+      </c>
+      <c r="J40" s="11">
+        <v>44669.880324074074</v>
       </c>
     </row>
   </sheetData>
@@ -6565,6 +6667,7 @@
     <hyperlink ref="K3" r:id="rId2" xr:uid="{1C020035-B25F-F547-9F40-CA3D97BA6B45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6EA356-F3D9-BF44-9E72-14CBEA6F2D80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F96A52-0ED3-5D47-AB73-4C6873E1B7EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="价格" sheetId="1" r:id="rId1"/>
@@ -5555,7 +5555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62339BF-82AB-134D-8EFD-921FB55AD5F0}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
@@ -8539,8 +8539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3E1037-247A-B34C-A448-182432C86F5C}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8597,7 +8597,7 @@
       </c>
       <c r="E2" s="5">
         <f>D2/(D19)</f>
-        <v>2.976190476190476E-3</v>
+        <v>3.0211480362537764E-3</v>
       </c>
       <c r="F2">
         <v>33331</v>
@@ -8613,7 +8613,7 @@
         <v>30555</v>
       </c>
       <c r="J2" s="8">
-        <v>100513759</v>
+        <v>100000233</v>
       </c>
       <c r="K2" s="10"/>
     </row>
@@ -8633,7 +8633,7 @@
       </c>
       <c r="E3" s="5">
         <f>D3/(D19)</f>
-        <v>3.8690476190476192E-2</v>
+        <v>3.9274924471299093E-2</v>
       </c>
       <c r="F3">
         <v>6888</v>
@@ -8649,7 +8649,7 @@
         <v>5400</v>
       </c>
       <c r="J3" s="8">
-        <v>100513761</v>
+        <v>100000234</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
@@ -8668,7 +8668,7 @@
       </c>
       <c r="E4" s="5">
         <f>D4/(D19)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.2296072507552872E-2</v>
       </c>
       <c r="F4">
         <v>6999</v>
@@ -8684,7 +8684,7 @@
         <v>5750</v>
       </c>
       <c r="J4" s="8">
-        <v>100513762</v>
+        <v>100000235</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
@@ -8703,7 +8703,7 @@
       </c>
       <c r="E5" s="5">
         <f>D5/(D19)</f>
-        <v>5.9523809523809521E-2</v>
+        <v>6.0422960725075532E-2</v>
       </c>
       <c r="F5">
         <v>6999</v>
@@ -8719,7 +8719,7 @@
         <v>1039</v>
       </c>
       <c r="J5">
-        <v>100513771</v>
+        <v>100000236</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="E6" s="5">
         <f>D6/(D19)</f>
-        <v>6.5476190476190479E-2</v>
+        <v>6.6465256797583083E-2</v>
       </c>
       <c r="F6">
         <v>1388</v>
@@ -8754,7 +8754,7 @@
         <v>1100</v>
       </c>
       <c r="J6">
-        <v>100513763</v>
+        <v>100000237</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
@@ -8773,7 +8773,7 @@
       </c>
       <c r="E7" s="5">
         <f>D7/(D19)</f>
-        <v>6.8452380952380959E-2</v>
+        <v>6.9486404833836862E-2</v>
       </c>
       <c r="F7">
         <v>1300</v>
@@ -8789,7 +8789,7 @@
         <v>1050</v>
       </c>
       <c r="J7">
-        <v>100513764</v>
+        <v>100000238</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
@@ -8797,18 +8797,18 @@
         <v>440</v>
       </c>
       <c r="B8">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C8">
         <v>758</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="5">
         <f>D8/(D19)</f>
-        <v>7.1428571428571425E-2</v>
+        <v>6.9486404833836862E-2</v>
       </c>
       <c r="F8">
         <v>1400</v>
@@ -8824,7 +8824,7 @@
         <v>1048</v>
       </c>
       <c r="J8">
-        <v>100513765</v>
+        <v>100000239</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
@@ -8832,18 +8832,18 @@
         <v>441</v>
       </c>
       <c r="B9">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C9">
         <v>758</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="5">
         <f>D9/(D19)</f>
-        <v>5.6547619047619048E-2</v>
+        <v>5.4380664652567974E-2</v>
       </c>
       <c r="F9">
         <v>1300</v>
@@ -8859,7 +8859,7 @@
         <v>1048</v>
       </c>
       <c r="J9">
-        <v>100513766</v>
+        <v>100000240</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
@@ -8878,7 +8878,7 @@
       </c>
       <c r="E10" s="5">
         <f>D10/(D19)</f>
-        <v>5.6547619047619048E-2</v>
+        <v>5.7401812688821753E-2</v>
       </c>
       <c r="F10">
         <v>1450</v>
@@ -8894,7 +8894,7 @@
         <v>1040</v>
       </c>
       <c r="J10">
-        <v>100513767</v>
+        <v>100000241</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
@@ -8902,18 +8902,18 @@
         <v>443</v>
       </c>
       <c r="B11">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C11">
         <v>758</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="5">
         <f>D11/(D19)</f>
-        <v>5.0595238095238096E-2</v>
+        <v>4.8338368580060423E-2</v>
       </c>
       <c r="F11">
         <v>1444</v>
@@ -8929,7 +8929,7 @@
         <v>1088</v>
       </c>
       <c r="J11">
-        <v>100513768</v>
+        <v>100000242</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
@@ -8948,7 +8948,7 @@
       </c>
       <c r="E12" s="5">
         <f>D12/(D19)</f>
-        <v>7.4404761904761904E-2</v>
+        <v>7.5528700906344406E-2</v>
       </c>
       <c r="F12">
         <v>1299</v>
@@ -8964,7 +8964,7 @@
         <v>1039</v>
       </c>
       <c r="J12">
-        <v>100513769</v>
+        <v>100000243</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
@@ -8983,7 +8983,7 @@
       </c>
       <c r="E13" s="5">
         <f>D13/(D19)</f>
-        <v>5.6547619047619048E-2</v>
+        <v>5.7401812688821753E-2</v>
       </c>
       <c r="F13">
         <v>1478</v>
@@ -8998,6 +8998,9 @@
       <c r="I13">
         <v>1039</v>
       </c>
+      <c r="J13">
+        <v>100000244</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="6" t="s">
@@ -9015,7 +9018,7 @@
       </c>
       <c r="E14" s="5">
         <f>D14/(D19)</f>
-        <v>5.3571428571428568E-2</v>
+        <v>5.4380664652567974E-2</v>
       </c>
       <c r="F14">
         <v>1445</v>
@@ -9030,24 +9033,27 @@
       <c r="I14">
         <v>1039</v>
       </c>
+      <c r="J14">
+        <v>100000245</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>447</v>
       </c>
       <c r="B15">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C15">
         <v>758</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="5">
         <f>D15/(D19)</f>
-        <v>8.6309523809523808E-2</v>
+        <v>8.4592145015105744E-2</v>
       </c>
       <c r="F15">
         <v>1300</v>
@@ -9062,24 +9068,27 @@
       <c r="I15">
         <v>1039</v>
       </c>
+      <c r="J15">
+        <v>100000246</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>448</v>
       </c>
       <c r="B16">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C16">
         <v>758</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="5">
         <f>D16/(D19)</f>
-        <v>8.0357142857142863E-2</v>
+        <v>7.8549848942598186E-2</v>
       </c>
       <c r="F16">
         <v>1750</v>
@@ -9094,6 +9103,9 @@
       <c r="I16">
         <v>1039</v>
       </c>
+      <c r="J16">
+        <v>100000247</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1">
       <c r="A17" s="6" t="s">
@@ -9111,7 +9123,7 @@
       </c>
       <c r="E17" s="5">
         <f>D17/(D19)</f>
-        <v>7.7380952380952384E-2</v>
+        <v>7.8549848942598186E-2</v>
       </c>
       <c r="F17">
         <v>1490</v>
@@ -9127,7 +9139,7 @@
         <v>1095</v>
       </c>
       <c r="J17">
-        <v>100513770</v>
+        <v>100000248</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
@@ -9146,7 +9158,7 @@
       </c>
       <c r="E18" s="5">
         <f>D18/(D19)</f>
-        <v>5.9523809523809521E-2</v>
+        <v>6.0422960725075532E-2</v>
       </c>
       <c r="F18">
         <v>1350</v>
@@ -9162,14 +9174,14 @@
         <v>1095</v>
       </c>
       <c r="J18">
-        <v>100513770</v>
+        <v>100000249</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19">
         <f>SUM(B2:B18)</f>
-        <v>11664</v>
+        <v>11669</v>
       </c>
       <c r="C19">
         <f>SUM(C2:C18)</f>
@@ -9177,12 +9189,12 @@
       </c>
       <c r="D19">
         <f>SUM(D2:D18)</f>
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
       <c r="A20" s="7">
-        <v>44666.482430555552</v>
+        <v>44669.94736111111</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F96A52-0ED3-5D47-AB73-4C6873E1B7EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FA2A56-982B-1540-917A-8FCCCAE06E53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="价格" sheetId="1" r:id="rId1"/>
@@ -5555,8 +5555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62339BF-82AB-134D-8EFD-921FB55AD5F0}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5602,18 +5602,18 @@
         <v>479</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>20</v>
       </c>
       <c r="D2">
         <f>C2-B2</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="5">
         <f>D2/(D9)</f>
-        <v>8.5126141464169638E-4</v>
+        <v>7.2057646116893519E-4</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>392</v>
@@ -5631,18 +5631,18 @@
         <v>477</v>
       </c>
       <c r="B3">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C3">
         <v>600</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="E3" s="5">
         <f>D3/(D9)</f>
-        <v>2.76273022751896E-2</v>
+        <v>2.7862289831865492E-2</v>
       </c>
       <c r="F3">
         <v>30555</v>
@@ -5666,18 +5666,18 @@
         <v>478</v>
       </c>
       <c r="B4">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="C4">
         <v>900</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D8" si="0">C4-B4</f>
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="E4" s="5">
         <f>D4/(D9)</f>
-        <v>3.954496208017335E-2</v>
+        <v>3.9711769415532429E-2</v>
       </c>
       <c r="F4">
         <v>5400</v>
@@ -5701,18 +5701,18 @@
         <v>480</v>
       </c>
       <c r="B5">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="C5">
         <v>900</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="E5" s="5">
         <f>D5/(D9)</f>
-        <v>4.0550998297477173E-2</v>
+        <v>4.0272217774219375E-2</v>
       </c>
       <c r="F5">
         <v>5750</v>
@@ -5736,18 +5736,18 @@
         <v>481</v>
       </c>
       <c r="B6">
-        <v>2846</v>
+        <v>2976</v>
       </c>
       <c r="C6">
         <v>6673</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>3827</v>
+        <v>3697</v>
       </c>
       <c r="E6" s="5">
         <f>D6/(D9)</f>
-        <v>0.29616158489397926</v>
+        <v>0.29599679743795038</v>
       </c>
       <c r="F6">
         <v>1100</v>
@@ -5771,18 +5771,18 @@
         <v>482</v>
       </c>
       <c r="B7">
-        <v>2835</v>
+        <v>2965</v>
       </c>
       <c r="C7">
         <v>6673</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>3838</v>
+        <v>3708</v>
       </c>
       <c r="E7" s="5">
         <f>D7/(D9)</f>
-        <v>0.29701284630862096</v>
+        <v>0.29687750200160129</v>
       </c>
       <c r="F7">
         <v>1050</v>
@@ -5806,18 +5806,18 @@
         <v>483</v>
       </c>
       <c r="B8">
-        <v>2819</v>
+        <v>2944</v>
       </c>
       <c r="C8">
         <v>6673</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>3854</v>
+        <v>3729</v>
       </c>
       <c r="E8" s="5">
         <f>D8/(D9)</f>
-        <v>0.29825104472991798</v>
+        <v>0.29855884707766212</v>
       </c>
       <c r="F8">
         <v>1048</v>
@@ -5840,7 +5840,7 @@
       <c r="A9" s="1"/>
       <c r="B9">
         <f>SUM(B2:B8)</f>
-        <v>9517</v>
+        <v>9949</v>
       </c>
       <c r="C9">
         <f>SUM(C2:C8)</f>
@@ -5848,12 +5848,12 @@
       </c>
       <c r="D9">
         <f>SUM(D2:D8)</f>
-        <v>12922</v>
+        <v>12490</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="7">
-        <v>44669.873912037037</v>
+        <v>44670.543298611112</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
@@ -5899,7 +5899,16 @@
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1">
       <c r="J22" s="11"/>
-      <c r="N22" s="11"/>
+      <c r="L22">
+        <v>12490</v>
+      </c>
+      <c r="M22">
+        <f>L22-L21</f>
+        <v>-432</v>
+      </c>
+      <c r="N22" s="11">
+        <v>44670.543634259258</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1">
       <c r="J23" s="11"/>
@@ -8539,7 +8548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3E1037-247A-B34C-A448-182432C86F5C}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FA2A56-982B-1540-917A-8FCCCAE06E53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E8704A-FBDB-C648-8636-2334106BDD77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1664,9 +1664,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4294188" cy="960438"/>
     <xdr:sp macro="" textlink="">
@@ -1682,7 +1682,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152400" y="1066800"/>
+          <a:off x="139700" y="1384300"/>
           <a:ext cx="4294188" cy="960438"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5556,7 +5556,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5565,7 +5565,7 @@
     <col min="5" max="5" width="8.83203125" customWidth="1"/>
     <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="40.1640625" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="E2" s="5">
         <f>D2/(D9)</f>
-        <v>7.2057646116893519E-4</v>
+        <v>7.9176563737133805E-4</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>392</v>
@@ -5631,18 +5631,18 @@
         <v>477</v>
       </c>
       <c r="B3">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="C3">
         <v>600</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="E3" s="5">
         <f>D3/(D9)</f>
-        <v>2.7862289831865492E-2</v>
+        <v>2.8415588985660243E-2</v>
       </c>
       <c r="F3">
         <v>30555</v>
@@ -5666,18 +5666,18 @@
         <v>478</v>
       </c>
       <c r="B4">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="C4">
         <v>900</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D8" si="0">C4-B4</f>
-        <v>496</v>
+        <v>445</v>
       </c>
       <c r="E4" s="5">
         <f>D4/(D9)</f>
-        <v>3.9711769415532429E-2</v>
+        <v>3.9148412070027269E-2</v>
       </c>
       <c r="F4">
         <v>5400</v>
@@ -5701,18 +5701,18 @@
         <v>480</v>
       </c>
       <c r="B5">
-        <v>397</v>
+        <v>448</v>
       </c>
       <c r="C5">
         <v>900</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>503</v>
+        <v>452</v>
       </c>
       <c r="E5" s="5">
         <f>D5/(D9)</f>
-        <v>4.0272217774219375E-2</v>
+        <v>3.9764229787982761E-2</v>
       </c>
       <c r="F5">
         <v>5750</v>
@@ -5736,18 +5736,18 @@
         <v>481</v>
       </c>
       <c r="B6">
-        <v>2976</v>
+        <v>3328</v>
       </c>
       <c r="C6">
         <v>6673</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>3697</v>
+        <v>3345</v>
       </c>
       <c r="E6" s="5">
         <f>D6/(D9)</f>
-        <v>0.29599679743795038</v>
+        <v>0.29427289522301397</v>
       </c>
       <c r="F6">
         <v>1100</v>
@@ -5771,18 +5771,18 @@
         <v>482</v>
       </c>
       <c r="B7">
-        <v>2965</v>
+        <v>3294</v>
       </c>
       <c r="C7">
         <v>6673</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>3708</v>
+        <v>3379</v>
       </c>
       <c r="E7" s="5">
         <f>D7/(D9)</f>
-        <v>0.29687750200160129</v>
+        <v>0.29726400985308349</v>
       </c>
       <c r="F7">
         <v>1050</v>
@@ -5806,18 +5806,18 @@
         <v>483</v>
       </c>
       <c r="B8">
-        <v>2944</v>
+        <v>3259</v>
       </c>
       <c r="C8">
         <v>6673</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>3729</v>
+        <v>3414</v>
       </c>
       <c r="E8" s="5">
         <f>D8/(D9)</f>
-        <v>0.29855884707766212</v>
+        <v>0.30034309844286089</v>
       </c>
       <c r="F8">
         <v>1048</v>
@@ -5840,7 +5840,7 @@
       <c r="A9" s="1"/>
       <c r="B9">
         <f>SUM(B2:B8)</f>
-        <v>9949</v>
+        <v>11072</v>
       </c>
       <c r="C9">
         <f>SUM(C2:C8)</f>
@@ -5848,26 +5848,49 @@
       </c>
       <c r="D9">
         <f>SUM(D2:D8)</f>
-        <v>12490</v>
+        <v>11367</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="7">
-        <v>44670.543298611112</v>
+        <v>44671.424062500002</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="1"/>
+      <c r="A12" s="11">
+        <v>44669.882013888891</v>
+      </c>
+      <c r="D12">
+        <v>12922</v>
+      </c>
       <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
-      <c r="A13" s="1"/>
+      <c r="A13" s="11">
+        <v>44670.543634259258</v>
+      </c>
+      <c r="C13">
+        <f>D13-D12</f>
+        <v>-432</v>
+      </c>
+      <c r="D13">
+        <v>12490</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
-      <c r="A14" s="1"/>
+      <c r="A14" s="11">
+        <v>44671.423993055556</v>
+      </c>
+      <c r="C14">
+        <f>D14-D13</f>
+        <v>-1123</v>
+      </c>
+      <c r="D14">
+        <v>11367</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="1"/>
@@ -5912,7 +5935,16 @@
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1">
       <c r="J23" s="11"/>
-      <c r="N23" s="11"/>
+      <c r="L23">
+        <v>11367</v>
+      </c>
+      <c r="M23">
+        <f>L23-L22</f>
+        <v>-1123</v>
+      </c>
+      <c r="N23" s="11">
+        <v>44671.423993055556</v>
+      </c>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="J24" s="11"/>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E8704A-FBDB-C648-8636-2334106BDD77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4E7655-7213-0E42-8EC0-718C39F0EBE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9480" yWindow="460" windowWidth="33600" windowHeight="19620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="价格" sheetId="1" r:id="rId1"/>
@@ -5555,8 +5555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62339BF-82AB-134D-8EFD-921FB55AD5F0}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="E2" s="5">
         <f>D2/(D9)</f>
-        <v>7.9176563737133805E-4</v>
+        <v>8.4681972149040275E-4</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>392</v>
@@ -5631,18 +5631,18 @@
         <v>477</v>
       </c>
       <c r="B3">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="C3">
         <v>600</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="E3" s="5">
         <f>D3/(D9)</f>
-        <v>2.8415588985660243E-2</v>
+        <v>2.8791870530673693E-2</v>
       </c>
       <c r="F3">
         <v>30555</v>
@@ -5666,18 +5666,18 @@
         <v>478</v>
       </c>
       <c r="B4">
-        <v>455</v>
+        <v>481</v>
       </c>
       <c r="C4">
         <v>900</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D8" si="0">C4-B4</f>
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="E4" s="5">
         <f>D4/(D9)</f>
-        <v>3.9148412070027269E-2</v>
+        <v>3.9424162589386524E-2</v>
       </c>
       <c r="F4">
         <v>5400</v>
@@ -5701,18 +5701,18 @@
         <v>480</v>
       </c>
       <c r="B5">
-        <v>448</v>
+        <v>475</v>
       </c>
       <c r="C5">
         <v>900</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>452</v>
+        <v>425</v>
       </c>
       <c r="E5" s="5">
         <f>D5/(D9)</f>
-        <v>3.9764229787982761E-2</v>
+        <v>3.998870907038013E-2</v>
       </c>
       <c r="F5">
         <v>5750</v>
@@ -5736,18 +5736,18 @@
         <v>481</v>
       </c>
       <c r="B6">
-        <v>3328</v>
+        <v>3554</v>
       </c>
       <c r="C6">
         <v>6673</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>3345</v>
+        <v>3119</v>
       </c>
       <c r="E6" s="5">
         <f>D6/(D9)</f>
-        <v>0.29427289522301397</v>
+        <v>0.29347007903650735</v>
       </c>
       <c r="F6">
         <v>1100</v>
@@ -5771,18 +5771,18 @@
         <v>482</v>
       </c>
       <c r="B7">
-        <v>3294</v>
+        <v>3515</v>
       </c>
       <c r="C7">
         <v>6673</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>3379</v>
+        <v>3158</v>
       </c>
       <c r="E7" s="5">
         <f>D7/(D9)</f>
-        <v>0.29726400985308349</v>
+        <v>0.29713963116296577</v>
       </c>
       <c r="F7">
         <v>1050</v>
@@ -5806,18 +5806,18 @@
         <v>483</v>
       </c>
       <c r="B8">
-        <v>3259</v>
+        <v>3481</v>
       </c>
       <c r="C8">
         <v>6673</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>3414</v>
+        <v>3192</v>
       </c>
       <c r="E8" s="5">
         <f>D8/(D9)</f>
-        <v>0.30034309844286089</v>
+        <v>0.30033872788859617</v>
       </c>
       <c r="F8">
         <v>1048</v>
@@ -5840,7 +5840,7 @@
       <c r="A9" s="1"/>
       <c r="B9">
         <f>SUM(B2:B8)</f>
-        <v>11072</v>
+        <v>11811</v>
       </c>
       <c r="C9">
         <f>SUM(C2:C8)</f>
@@ -5848,12 +5848,12 @@
       </c>
       <c r="D9">
         <f>SUM(D2:D8)</f>
-        <v>11367</v>
+        <v>10628</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="7">
-        <v>44671.424062500002</v>
+        <v>44672.407326388886</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
@@ -5893,7 +5893,16 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
-      <c r="A15" s="1"/>
+      <c r="A15" s="7">
+        <v>44672.407280092593</v>
+      </c>
+      <c r="C15">
+        <f>D15-D14</f>
+        <v>-739</v>
+      </c>
+      <c r="D15">
+        <v>10628</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" s="1"/>
@@ -5983,10 +5992,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D06DC-D0D3-DC41-8495-1A009DF45D20}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6042,7 +6051,7 @@
       </c>
       <c r="E2" s="5">
         <f>D2/(D15)</f>
-        <v>3.1136481577581734E-3</v>
+        <v>3.7014188772362738E-3</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>392</v>
@@ -6059,18 +6068,18 @@
         <v>375</v>
       </c>
       <c r="B3">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="C3">
         <v>700</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E3" s="5">
         <f>D3/(D15)</f>
-        <v>4.0477426050856254E-2</v>
+        <v>4.0098704503392965E-2</v>
       </c>
       <c r="F3">
         <v>30555</v>
@@ -6097,18 +6106,18 @@
         <v>376</v>
       </c>
       <c r="B4">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="C4">
         <v>750</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D14" si="0">C4-B4</f>
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E4" s="5">
         <f>D4/(D15)</f>
-        <v>3.0098598858329009E-2</v>
+        <v>2.961135101789019E-2</v>
       </c>
       <c r="F4">
         <v>5400</v>
@@ -6132,18 +6141,18 @@
         <v>396</v>
       </c>
       <c r="B5">
-        <v>670</v>
+        <v>691</v>
       </c>
       <c r="C5">
         <v>750</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E5" s="5">
         <f>D5/(D15)</f>
-        <v>4.1515308770108977E-2</v>
+        <v>3.639728562615669E-2</v>
       </c>
       <c r="F5">
         <v>5750</v>
@@ -6167,18 +6176,18 @@
         <v>384</v>
       </c>
       <c r="B6">
-        <v>1854</v>
+        <v>1882</v>
       </c>
       <c r="C6">
         <v>2056</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="E6" s="5">
         <f>D6/(D15)</f>
-        <v>0.10482615464452517</v>
+        <v>0.10734114743985194</v>
       </c>
       <c r="F6">
         <v>1100</v>
@@ -6202,18 +6211,18 @@
         <v>383</v>
       </c>
       <c r="B7">
-        <v>1863</v>
+        <v>1898</v>
       </c>
       <c r="C7">
         <v>2056</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="E7" s="5">
         <f>D7/(D15)</f>
-        <v>0.10015568240788791</v>
+        <v>9.7470697100555212E-2</v>
       </c>
       <c r="F7">
         <v>1050</v>
@@ -6237,18 +6246,18 @@
         <v>382</v>
       </c>
       <c r="B8">
-        <v>1859</v>
+        <v>1886</v>
       </c>
       <c r="C8">
         <v>2056</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="E8" s="5">
         <f>D8/(D15)</f>
-        <v>0.10223144784639336</v>
+        <v>0.10487353485502776</v>
       </c>
       <c r="F8">
         <v>1048</v>
@@ -6275,18 +6284,18 @@
         <v>385</v>
       </c>
       <c r="B9">
-        <v>1873</v>
+        <v>1900</v>
       </c>
       <c r="C9">
         <v>2056</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="E9" s="5">
         <f>D9/(D15)</f>
-        <v>9.4966268811624288E-2</v>
+        <v>9.6236890808143127E-2</v>
       </c>
       <c r="F9">
         <v>1048</v>
@@ -6313,18 +6322,18 @@
         <v>386</v>
       </c>
       <c r="B10">
-        <v>1864</v>
+        <v>1887</v>
       </c>
       <c r="C10">
         <v>2056</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="E10" s="5">
         <f>D10/(D15)</f>
-        <v>9.9636741048261548E-2</v>
+        <v>0.10425663170882171</v>
       </c>
       <c r="F10">
         <v>1040</v>
@@ -6351,18 +6360,18 @@
         <v>381</v>
       </c>
       <c r="B11">
-        <v>1888</v>
+        <v>1908</v>
       </c>
       <c r="C11">
         <v>2056</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="E11" s="5">
         <f>D11/(D15)</f>
-        <v>8.718214841722885E-2</v>
+        <v>9.1301665638494761E-2</v>
       </c>
       <c r="F11">
         <v>1088</v>
@@ -6389,18 +6398,18 @@
         <v>380</v>
       </c>
       <c r="B12">
-        <v>1859</v>
+        <v>1892</v>
       </c>
       <c r="C12">
         <v>2056</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="E12" s="5">
         <f>D12/(D15)</f>
-        <v>0.10223144784639336</v>
+        <v>0.10117211597779149</v>
       </c>
       <c r="F12">
         <v>1039</v>
@@ -6427,18 +6436,18 @@
         <v>379</v>
       </c>
       <c r="B13">
-        <v>1875</v>
+        <v>1910</v>
       </c>
       <c r="C13">
         <v>2056</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="E13" s="5">
         <f>D13/(D15)</f>
-        <v>9.3928386092371557E-2</v>
+        <v>9.0067859346082663E-2</v>
       </c>
       <c r="F13">
         <v>1095</v>
@@ -6465,18 +6474,18 @@
         <v>387</v>
       </c>
       <c r="B14">
-        <v>1864</v>
+        <v>1898</v>
       </c>
       <c r="C14">
         <v>2056</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="E14" s="5">
         <f>D14/(D15)</f>
-        <v>9.9636741048261548E-2</v>
+        <v>9.7470697100555212E-2</v>
       </c>
       <c r="F14">
         <v>1039</v>
@@ -6502,7 +6511,7 @@
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B2:B14)</f>
-        <v>18797</v>
+        <v>19103</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C14)</f>
@@ -6510,7 +6519,7 @@
       </c>
       <c r="D15">
         <f>SUM(D2:D14)</f>
-        <v>1927</v>
+        <v>1621</v>
       </c>
       <c r="N15">
         <v>1834</v>
@@ -6518,7 +6527,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="11">
-        <v>44669.880324074074</v>
+        <v>44672.414907407408</v>
       </c>
       <c r="N16">
         <v>1815</v>
@@ -6586,7 +6595,7 @@
         <v>4131</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31:E40" si="2">D31-D30</f>
+        <f t="shared" ref="E31:E41" si="2">D31-D30</f>
         <v>-293</v>
       </c>
       <c r="J31" s="11">
@@ -6699,6 +6708,18 @@
       </c>
       <c r="J40" s="11">
         <v>44669.880324074074</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10">
+      <c r="D41">
+        <v>1621</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>-306</v>
+      </c>
+      <c r="J41" s="11">
+        <v>44672.414965277778</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,1143 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4E7655-7213-0E42-8EC0-718C39F0EBE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132C81F1-6E9D-FD4C-B7EF-89EBF9807B9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="460" windowWidth="33600" windowHeight="19620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9480" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="价格" sheetId="1" r:id="rId1"/>
-    <sheet name="8期" sheetId="9" r:id="rId2"/>
-    <sheet name="7期" sheetId="2" r:id="rId3"/>
-    <sheet name="6期" sheetId="3" r:id="rId4"/>
-    <sheet name="5期" sheetId="4" r:id="rId5"/>
-    <sheet name="4期" sheetId="5" r:id="rId6"/>
-    <sheet name="3期" sheetId="6" r:id="rId7"/>
-    <sheet name="2期" sheetId="7" r:id="rId8"/>
-    <sheet name="1期" sheetId="8" r:id="rId9"/>
+    <sheet name="8期" sheetId="9" r:id="rId1"/>
+    <sheet name="7期" sheetId="2" r:id="rId2"/>
+    <sheet name="6期" sheetId="3" r:id="rId3"/>
+    <sheet name="5期" sheetId="4" r:id="rId4"/>
+    <sheet name="4期" sheetId="5" r:id="rId5"/>
+    <sheet name="3期" sheetId="6" r:id="rId6"/>
+    <sheet name="2期" sheetId="7" r:id="rId7"/>
+    <sheet name="1期" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="484">
-  <si>
-    <t>藏品名字</t>
-  </si>
-  <si>
-    <t>最低价格</t>
-  </si>
-  <si>
-    <t>总发行量</t>
-  </si>
-  <si>
-    <t>所属系列</t>
-  </si>
-  <si>
-    <t>作者名字</t>
-  </si>
-  <si>
-    <t>认证</t>
-  </si>
-  <si>
-    <t>地址</t>
-  </si>
-  <si>
-    <t>禄瑞狮</t>
-  </si>
-  <si>
-    <t>五瑞狮</t>
-  </si>
-  <si>
-    <t>龙在天皮影</t>
-  </si>
-  <si>
-    <t>该作品拥有北京岚韵文化传媒有限公司官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100513757</t>
-  </si>
-  <si>
-    <t>异星夜袭</t>
-  </si>
-  <si>
-    <t>疯姜大粒</t>
-  </si>
-  <si>
-    <t>该作品拥有元宙光年官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100513747</t>
-  </si>
-  <si>
-    <t>福瑞狮</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100513755</t>
-  </si>
-  <si>
-    <t>炉灶女神-赫斯提亚</t>
-  </si>
-  <si>
-    <t>希腊神话系列</t>
-  </si>
-  <si>
-    <t>Ignacio.Z</t>
-  </si>
-  <si>
-    <t>该作品拥有AuctPool NFT Studio官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100513751</t>
-  </si>
-  <si>
-    <t>爱神-阿佛洛狄忒</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100513749</t>
-  </si>
-  <si>
-    <t>想你的液</t>
-  </si>
-  <si>
-    <t>Otatob</t>
-  </si>
-  <si>
-    <t>该作品拥有iBox官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100513746</t>
-  </si>
-  <si>
-    <t>橙C的愿望</t>
-  </si>
-  <si>
-    <t>橙C</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100513743</t>
-  </si>
-  <si>
-    <t>戏剧老虎</t>
-  </si>
-  <si>
-    <t>池月秋</t>
-  </si>
-  <si>
-    <t>该作品拥有恩爱福提官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100513740</t>
-  </si>
-  <si>
-    <t>虎年生金</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100513739</t>
-  </si>
-  <si>
-    <t>《你到底在想什么》-音乐</t>
-  </si>
-  <si>
-    <t>畅享音乐（无版权）</t>
-  </si>
-  <si>
-    <t>小河River</t>
-  </si>
-  <si>
-    <t>该作品拥有UOVA宇宙官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100513728</t>
-  </si>
-  <si>
-    <t>《你到底在想什么》-附改编发行授权</t>
-  </si>
-  <si>
-    <t>你到底在想什么（附改编发行权）</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100513729</t>
-  </si>
-  <si>
-    <t>众生</t>
-  </si>
-  <si>
-    <t xml:space="preserve">齐兴华2022数字藏品	</t>
-  </si>
-  <si>
-    <t>齐兴华</t>
-  </si>
-  <si>
-    <t>该作品拥有MagicBox官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100513699</t>
-  </si>
-  <si>
-    <t>龙啸</t>
-  </si>
-  <si>
-    <t>齐兴华2022数字藏品</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100513691</t>
-  </si>
-  <si>
-    <t>狐狸小姐和她的小公主</t>
-  </si>
-  <si>
-    <t>苏童（Amy Su）</t>
-  </si>
-  <si>
-    <t>该作品拥有M Space官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100513692</t>
-  </si>
-  <si>
-    <t>Winter Beneath</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100513693</t>
-  </si>
-  <si>
-    <t>暴富有道(蓝)</t>
-  </si>
-  <si>
-    <t>茅山财富新福系列</t>
-  </si>
-  <si>
-    <t>中轴线数字天工</t>
-  </si>
-  <si>
-    <t>该作品拥有中轴线数字天工官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100513392</t>
-  </si>
-  <si>
-    <t>暴富有道(红)</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100513393</t>
-  </si>
-  <si>
-    <t>暴富有道(黄)</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100513394</t>
-  </si>
-  <si>
-    <t>一星三闪</t>
-  </si>
-  <si>
-    <t>“十二天宫”系列</t>
-  </si>
-  <si>
-    <t>王泽工作室</t>
-  </si>
-  <si>
-    <t>该作品拥有十二天宫官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100098433</t>
-  </si>
-  <si>
-    <t>天庭对接</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100098435</t>
-  </si>
-  <si>
-    <t>东方红系列</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100098436</t>
-  </si>
-  <si>
-    <t>奔月系列</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100098437</t>
-  </si>
-  <si>
-    <t>悟空号</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100098438</t>
-  </si>
-  <si>
-    <t>首次载人航天</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100098439</t>
-  </si>
-  <si>
-    <t>问天一号</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100098440</t>
-  </si>
-  <si>
-    <t>空间站</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100098441</t>
-  </si>
-  <si>
-    <t>风暴系列</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100098442</t>
-  </si>
-  <si>
-    <t>能源系列</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100098443</t>
-  </si>
-  <si>
-    <t>天通一号</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100098444</t>
-  </si>
-  <si>
-    <t>探索系列</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100098448</t>
-  </si>
-  <si>
-    <t>Magic Girl</t>
-  </si>
-  <si>
-    <t>COSMOS</t>
-  </si>
-  <si>
-    <t>Pancya</t>
-  </si>
-  <si>
-    <t>该作品拥有NFTCOSMOS官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100097452</t>
-  </si>
-  <si>
-    <t>Bit Doge</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100097453</t>
-  </si>
-  <si>
-    <t>SCREW-未来人2046</t>
-  </si>
-  <si>
-    <t>SCREW</t>
-  </si>
-  <si>
-    <t>李延</t>
-  </si>
-  <si>
-    <t>该作品拥有雷鹿文创官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100090982</t>
-  </si>
-  <si>
-    <t>宝宝—大火、小火</t>
-  </si>
-  <si>
-    <t>宝宝系列</t>
-  </si>
-  <si>
-    <t>Tei</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100090988</t>
-  </si>
-  <si>
-    <t>《平行幻象》</t>
-  </si>
-  <si>
-    <t>一汽大众-奥迪33周年纪念数字藏品</t>
-  </si>
-  <si>
-    <t>奥迪</t>
-  </si>
-  <si>
-    <t>该作品拥有YIKART官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000387</t>
-  </si>
-  <si>
-    <t>宝宝—创世</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000385</t>
-  </si>
-  <si>
-    <t>《宝可梦H2O》</t>
-  </si>
-  <si>
-    <t>宝可梦系列</t>
-  </si>
-  <si>
-    <t>杨嘎</t>
-  </si>
-  <si>
-    <t>该作品拥有YG加密艺术工作室官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000386</t>
-  </si>
-  <si>
-    <t>《精灵圣域-驭灵师》</t>
-  </si>
-  <si>
-    <t>精灵圣域-驭灵师</t>
-  </si>
-  <si>
-    <t>9th Art</t>
-  </si>
-  <si>
-    <t>该作品拥有9th Art官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000379</t>
-  </si>
-  <si>
-    <t>《平行世界行舟1号》</t>
-  </si>
-  <si>
-    <t>平行世界</t>
-  </si>
-  <si>
-    <t>于世涛</t>
-  </si>
-  <si>
-    <t>该作品拥有So Art官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000381</t>
-  </si>
-  <si>
-    <t>梦境系列01</t>
-  </si>
-  <si>
-    <t>梦境系列</t>
-  </si>
-  <si>
-    <t>小白</t>
-  </si>
-  <si>
-    <t>该作品拥有Camus Club官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000349</t>
-  </si>
-  <si>
-    <t>多维宇宙谎言03</t>
-  </si>
-  <si>
-    <t>多维宇宙谎言</t>
-  </si>
-  <si>
-    <t>HOUHAORAN（侯浩然）</t>
-  </si>
-  <si>
-    <t>该作品拥有元気星空（METACHI）官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000374</t>
-  </si>
-  <si>
-    <t>Rich</t>
-  </si>
-  <si>
-    <t>SIJIA</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000350</t>
-  </si>
-  <si>
-    <t>仙境</t>
-  </si>
-  <si>
-    <t>Bobliang 梁卫华</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000352</t>
-  </si>
-  <si>
-    <t>无声剧场系列2号</t>
-  </si>
-  <si>
-    <t>无声剧场</t>
-  </si>
-  <si>
-    <t>徐清</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000358</t>
-  </si>
-  <si>
-    <t>何B仔坐姿</t>
-  </si>
-  <si>
-    <t>何B仔系列</t>
-  </si>
-  <si>
-    <t>骆宗杰</t>
-  </si>
-  <si>
-    <t>该作品拥有TKSX官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000369</t>
-  </si>
-  <si>
-    <t>SCREW-创世纪</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000364</t>
-  </si>
-  <si>
-    <t>SCREW-舜跖</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000372</t>
-  </si>
-  <si>
-    <t>Particle Fever No.1</t>
-  </si>
-  <si>
-    <t>Particle Fever</t>
-  </si>
-  <si>
-    <t>Michelle six</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000366</t>
-  </si>
-  <si>
-    <t>1001页-0038</t>
-  </si>
-  <si>
-    <t>1001页(1001 Pages)</t>
-  </si>
-  <si>
-    <t>余润德</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000367</t>
-  </si>
-  <si>
-    <t>十二支宝宝之龙</t>
-  </si>
-  <si>
-    <t>十二支宝宝</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000365</t>
-  </si>
-  <si>
-    <t>十二支宝宝之虎</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000373</t>
-  </si>
-  <si>
-    <t>天宫之手</t>
-  </si>
-  <si>
-    <t>一枚以太的奇妙旅程</t>
-  </si>
-  <si>
-    <t>洛兵</t>
-  </si>
-  <si>
-    <t>该作品拥有熵湾艺术官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000346</t>
-  </si>
-  <si>
-    <t>赛博敦煌02</t>
-  </si>
-  <si>
-    <t>赛博敦煌</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000347</t>
-  </si>
-  <si>
-    <t>iBox-Black Hole</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000344</t>
-  </si>
-  <si>
-    <t>《云上涂鸦》</t>
-  </si>
-  <si>
-    <t>云上涂鸦</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000345</t>
-  </si>
-  <si>
-    <t>吴作人《任重道远图》</t>
-  </si>
-  <si>
-    <t>荣宝斋当代十大画家</t>
-  </si>
-  <si>
-    <t>荣宝斋</t>
-  </si>
-  <si>
-    <t>该作品拥有搜云科技官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000338</t>
-  </si>
-  <si>
-    <t>叶浅予《延边长鼓舞图》</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000337</t>
-  </si>
-  <si>
-    <t>张大千《南岳祝融峰图》</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000336</t>
-  </si>
-  <si>
-    <t>张国荣公益数字藏品-四期</t>
-  </si>
-  <si>
-    <t>厦门任星投资有限公司</t>
-  </si>
-  <si>
-    <t>该作品拥有厦门任星投资有限公司官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000332</t>
-  </si>
-  <si>
-    <t>张国荣公益数字藏品-三期</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000331</t>
-  </si>
-  <si>
-    <t>张国荣公益数字藏品-二期</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000330</t>
-  </si>
-  <si>
-    <t>张国荣公益数字藏品</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000322</t>
-  </si>
-  <si>
-    <t>《时空旅行者-3》</t>
-  </si>
-  <si>
-    <t>时空旅行者系列</t>
-  </si>
-  <si>
-    <t>林苒</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000275</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000276</t>
-  </si>
-  <si>
-    <t>记忆的花园-洋甘菊-清晨</t>
-  </si>
-  <si>
-    <t>殷世炎</t>
-  </si>
-  <si>
-    <t>该作品拥有殷世炎官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000273</t>
-  </si>
-  <si>
-    <t>记忆的花园-洋甘菊-正午</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000274</t>
-  </si>
-  <si>
-    <t>《谎言·冠军》</t>
-  </si>
-  <si>
-    <t>之之2021系列</t>
-  </si>
-  <si>
-    <t>之之</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000266</t>
-  </si>
-  <si>
-    <t>《云端·天使》</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000267</t>
-  </si>
-  <si>
-    <t>《创世·奔袭》</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000268</t>
-  </si>
-  <si>
-    <t>Arrive IN Mars</t>
-  </si>
-  <si>
-    <t>CrazyJN</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000264</t>
-  </si>
-  <si>
-    <t>DOGE CAR</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000265</t>
-  </si>
-  <si>
-    <t>云豹</t>
-  </si>
-  <si>
-    <t>LULU.Z</t>
-  </si>
-  <si>
-    <t>该作品拥有NFT Avatar Lab官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000255</t>
-  </si>
-  <si>
-    <t>火吻</t>
-  </si>
-  <si>
-    <t>周杨</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000256</t>
-  </si>
-  <si>
-    <t>悟空</t>
-  </si>
-  <si>
-    <t>Shan Qiao</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000257</t>
-  </si>
-  <si>
-    <t>Knight Guard</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000258</t>
-  </si>
-  <si>
-    <t>大闹天宫-孙悟空大战二郎神</t>
-  </si>
-  <si>
-    <t>大闹天宫系列</t>
-  </si>
-  <si>
-    <t>熵湾 X 上美影</t>
-  </si>
-  <si>
-    <t>该作品拥有熵湾 X 上美影官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000259</t>
-  </si>
-  <si>
-    <t>《The Girls-机车少女》</t>
-  </si>
-  <si>
-    <t>GGAC</t>
-  </si>
-  <si>
-    <t>该作品拥有GGAC.COM CG艺术创作分享平台官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000207</t>
-  </si>
-  <si>
-    <t>《The Girls—福音少女》</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000208</t>
-  </si>
-  <si>
-    <t>《启示录-天使战争》</t>
-  </si>
-  <si>
-    <t>《圣经-启示录》</t>
-  </si>
-  <si>
-    <t>Charles</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000203</t>
-  </si>
-  <si>
-    <t>草莓女孩</t>
-  </si>
-  <si>
-    <t>青爵</t>
-  </si>
-  <si>
-    <t>该作品拥有青爵-矢量艺术插画官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000204</t>
-  </si>
-  <si>
-    <t>粉红色的凝视</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000205</t>
-  </si>
-  <si>
-    <t>傅抱石《待细把江山图画》</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000200</t>
-  </si>
-  <si>
-    <t>丰收女神-德墨忒尔</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000201</t>
-  </si>
-  <si>
-    <t>战神-阿瑞斯</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000202</t>
-  </si>
-  <si>
-    <t>大闹天宫-孙悟空语录版</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000198</t>
-  </si>
-  <si>
-    <t>何B仔卡住了</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000199</t>
-  </si>
-  <si>
-    <t>祈祷之手</t>
-  </si>
-  <si>
-    <t>丁文尧</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000196</t>
-  </si>
-  <si>
-    <t>罗威纳犬</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000197</t>
-  </si>
-  <si>
-    <t>心动大王（老虎）</t>
-  </si>
-  <si>
-    <t>心动系列</t>
-  </si>
-  <si>
-    <t>任萌</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000193</t>
-  </si>
-  <si>
-    <t>心动牛牛（牛牛）</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000194</t>
-  </si>
-  <si>
-    <t>巴别塔</t>
-  </si>
-  <si>
-    <t>iBox先锋音乐</t>
-  </si>
-  <si>
-    <t>灰子</t>
-  </si>
-  <si>
-    <t>该作品拥有大乐musicchain官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000187</t>
-  </si>
-  <si>
-    <t>No other name</t>
-  </si>
-  <si>
-    <t>张骞</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000189</t>
-  </si>
-  <si>
-    <t>齐白石《贝叶工虫图》</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000170</t>
-  </si>
-  <si>
-    <t>“旷世之恋”情侣卡</t>
-  </si>
-  <si>
-    <t>《真 · 三国无双》电影版</t>
-  </si>
-  <si>
-    <t>Lead Supreme United</t>
-  </si>
-  <si>
-    <t>该作品拥有《真 · 三国无双》电影版官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000122</t>
-  </si>
-  <si>
-    <t>Huntress 女猎人</t>
-  </si>
-  <si>
-    <t>陈敦煌</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000129</t>
-  </si>
-  <si>
-    <t>Cyber Girl 赛博女孩</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000130</t>
-  </si>
-  <si>
-    <t>Freedom Fighter 自由战士</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000131</t>
-  </si>
-  <si>
-    <t>坠</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000132</t>
-  </si>
-  <si>
-    <t>龙夜·邪马祭祀会</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000133</t>
-  </si>
-  <si>
-    <t>痴娃娃-东方艺术花园主题-山茶花系列</t>
-  </si>
-  <si>
-    <t>刘欣珏</t>
-  </si>
-  <si>
-    <t>该作品拥有刘欣珏官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000134</t>
-  </si>
-  <si>
-    <t>时装雕塑-东方艺术花园主题-波普嘴唇系列</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000135</t>
-  </si>
-  <si>
-    <t>大闹天宫-土地公公</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000137</t>
-  </si>
-  <si>
-    <t>回眸倾城</t>
-  </si>
-  <si>
-    <t>郑梦瑶</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000125</t>
-  </si>
-  <si>
-    <t>Fool around</t>
-  </si>
-  <si>
-    <t>MAFIA-叶林涛</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000126</t>
-  </si>
-  <si>
-    <t>芒种</t>
-  </si>
-  <si>
-    <t>李夏</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000127</t>
-  </si>
-  <si>
-    <t>003号古力娜扎</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iBox十大明星卡 </t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000121</t>
-  </si>
-  <si>
-    <t>天后-赫拉</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000119</t>
-  </si>
-  <si>
-    <t>GGAC 探索地球起源传说</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000120</t>
-  </si>
-  <si>
-    <t>爱染明王</t>
-  </si>
-  <si>
-    <t>HOTOKEMONO</t>
-  </si>
-  <si>
-    <t>该作品拥有Tei官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000112</t>
-  </si>
-  <si>
-    <t>BUNNY BAR</t>
-  </si>
-  <si>
-    <t>陈镒晗</t>
-  </si>
-  <si>
-    <t>该作品拥有陈镒晗官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000113</t>
-  </si>
-  <si>
-    <t>困兽之斗</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000114</t>
-  </si>
-  <si>
-    <t>Bastet 特别版《时间》</t>
-  </si>
-  <si>
-    <t>刘皓南</t>
-  </si>
-  <si>
-    <t>该作品拥有刘皓南官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000117</t>
-  </si>
-  <si>
-    <t>002号陶喆</t>
-  </si>
-  <si>
-    <t>iBox十大明星卡</t>
-  </si>
-  <si>
-    <t>iFans NFT</t>
-  </si>
-  <si>
-    <t>该作品拥有iFans NFT官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000111</t>
-  </si>
-  <si>
-    <t>大闹天宫-Q版孙悟空VI</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000096</t>
-  </si>
-  <si>
-    <t>大闹天宫-Q版孙悟空VII</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000097</t>
-  </si>
-  <si>
-    <t>001号古天乐</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000098</t>
-  </si>
-  <si>
-    <t>海皇-波塞冬</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000099</t>
-  </si>
-  <si>
-    <t>囍</t>
-  </si>
-  <si>
-    <t>鱼鱼</t>
-  </si>
-  <si>
-    <t>该作品拥有鱼鱼官方认证</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000102</t>
-  </si>
-  <si>
-    <t>World-The Challenge</t>
-  </si>
-  <si>
-    <t>World- The Challenge</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000105</t>
-  </si>
-  <si>
-    <t>World-The King</t>
-  </si>
-  <si>
-    <t>https://www.ibox.art/zh-cn/item/?id=100000106</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="112">
   <si>
     <t>已开</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2740,2823 +1623,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G121"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:C58"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="3" width="8.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2">
-        <v>38888</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B3">
-        <v>36888</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4">
-        <v>40888</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B5">
-        <v>36665</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F5" t="s">
-        <v>192</v>
-      </c>
-      <c r="G5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>294</v>
-      </c>
-      <c r="B6">
-        <v>39999</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E6" t="s">
-        <v>191</v>
-      </c>
-      <c r="F6" t="s">
-        <v>192</v>
-      </c>
-      <c r="G6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B7">
-        <v>16666</v>
-      </c>
-      <c r="C7">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>256</v>
-      </c>
-      <c r="E7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>308</v>
-      </c>
-      <c r="B8">
-        <v>12000</v>
-      </c>
-      <c r="C8">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E8" t="s">
-        <v>250</v>
-      </c>
-      <c r="F8" t="s">
-        <v>251</v>
-      </c>
-      <c r="G8" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B9">
-        <v>16666</v>
-      </c>
-      <c r="C9">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>310</v>
-      </c>
-      <c r="E9" t="s">
-        <v>250</v>
-      </c>
-      <c r="F9" t="s">
-        <v>251</v>
-      </c>
-      <c r="G9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>334</v>
-      </c>
-      <c r="B10">
-        <v>18000</v>
-      </c>
-      <c r="C10">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>334</v>
-      </c>
-      <c r="E10" t="s">
-        <v>250</v>
-      </c>
-      <c r="F10" t="s">
-        <v>251</v>
-      </c>
-      <c r="G10" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>363</v>
-      </c>
-      <c r="B11">
-        <v>21000</v>
-      </c>
-      <c r="C11">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>363</v>
-      </c>
-      <c r="E11" t="s">
-        <v>364</v>
-      </c>
-      <c r="F11" t="s">
-        <v>365</v>
-      </c>
-      <c r="G11" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12">
-        <v>9999</v>
-      </c>
-      <c r="C12">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>232</v>
-      </c>
-      <c r="B13">
-        <v>11488</v>
-      </c>
-      <c r="C13">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>232</v>
-      </c>
-      <c r="E13" t="s">
-        <v>233</v>
-      </c>
-      <c r="F13" t="s">
-        <v>234</v>
-      </c>
-      <c r="G13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>273</v>
-      </c>
-      <c r="B14">
-        <v>9986</v>
-      </c>
-      <c r="C14">
-        <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>273</v>
-      </c>
-      <c r="E14" t="s">
-        <v>156</v>
-      </c>
-      <c r="F14" t="s">
-        <v>157</v>
-      </c>
-      <c r="G14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15">
-        <v>7555</v>
-      </c>
-      <c r="C15">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16">
-        <v>8688</v>
-      </c>
-      <c r="C16">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>336</v>
-      </c>
-      <c r="B17">
-        <v>8333</v>
-      </c>
-      <c r="C17">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>337</v>
-      </c>
-      <c r="E17" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" t="s">
-        <v>338</v>
-      </c>
-      <c r="G17" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>340</v>
-      </c>
-      <c r="B18">
-        <v>7399</v>
-      </c>
-      <c r="C18">
-        <v>77</v>
-      </c>
-      <c r="D18" t="s">
-        <v>340</v>
-      </c>
-      <c r="E18" t="s">
-        <v>341</v>
-      </c>
-      <c r="F18" t="s">
-        <v>342</v>
-      </c>
-      <c r="G18" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>344</v>
-      </c>
-      <c r="B19">
-        <v>7866</v>
-      </c>
-      <c r="C19">
-        <v>77</v>
-      </c>
-      <c r="D19" t="s">
-        <v>344</v>
-      </c>
-      <c r="E19" t="s">
-        <v>341</v>
-      </c>
-      <c r="F19" t="s">
-        <v>342</v>
-      </c>
-      <c r="G19" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>249</v>
-      </c>
-      <c r="B20">
-        <v>5699</v>
-      </c>
-      <c r="C20">
-        <v>80</v>
-      </c>
-      <c r="D20" t="s">
-        <v>250</v>
-      </c>
-      <c r="E20" t="s">
-        <v>250</v>
-      </c>
-      <c r="F20" t="s">
-        <v>251</v>
-      </c>
-      <c r="G20" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>253</v>
-      </c>
-      <c r="B21">
-        <v>5800</v>
-      </c>
-      <c r="C21">
-        <v>80</v>
-      </c>
-      <c r="D21" t="s">
-        <v>250</v>
-      </c>
-      <c r="E21" t="s">
-        <v>250</v>
-      </c>
-      <c r="F21" t="s">
-        <v>251</v>
-      </c>
-      <c r="G21" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>346</v>
-      </c>
-      <c r="B22">
-        <v>5666</v>
-      </c>
-      <c r="C22">
-        <v>99</v>
-      </c>
-      <c r="D22" t="s">
-        <v>346</v>
-      </c>
-      <c r="E22" t="s">
-        <v>347</v>
-      </c>
-      <c r="F22" t="s">
-        <v>348</v>
-      </c>
-      <c r="G22" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23">
-        <v>6999</v>
-      </c>
-      <c r="C23">
-        <v>100</v>
-      </c>
-      <c r="D23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24">
-        <v>6200</v>
-      </c>
-      <c r="C24">
-        <v>100</v>
-      </c>
-      <c r="D24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25">
-        <v>5299</v>
-      </c>
-      <c r="C25">
-        <v>100</v>
-      </c>
-      <c r="D25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26">
-        <v>5000</v>
-      </c>
-      <c r="C26">
-        <v>100</v>
-      </c>
-      <c r="D26" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27">
-        <v>4888</v>
-      </c>
-      <c r="C27">
-        <v>100</v>
-      </c>
-      <c r="D27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28">
-        <v>5555</v>
-      </c>
-      <c r="C28">
-        <v>100</v>
-      </c>
-      <c r="D28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" t="s">
-        <v>105</v>
-      </c>
-      <c r="F28" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B29">
-        <v>4886</v>
-      </c>
-      <c r="C29">
-        <v>100</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
-      </c>
-      <c r="E29" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" t="s">
-        <v>122</v>
-      </c>
-      <c r="G29" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30">
-        <v>6250</v>
-      </c>
-      <c r="C30">
-        <v>100</v>
-      </c>
-      <c r="D30" t="s">
-        <v>125</v>
-      </c>
-      <c r="E30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F30" t="s">
-        <v>127</v>
-      </c>
-      <c r="G30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31">
-        <v>5350</v>
-      </c>
-      <c r="C31">
-        <v>100</v>
-      </c>
-      <c r="D31" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31" t="s">
-        <v>131</v>
-      </c>
-      <c r="F31" t="s">
-        <v>132</v>
-      </c>
-      <c r="G31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>184</v>
-      </c>
-      <c r="B32">
-        <v>4800</v>
-      </c>
-      <c r="C32">
-        <v>100</v>
-      </c>
-      <c r="D32" t="s">
-        <v>145</v>
-      </c>
-      <c r="E32" t="s">
-        <v>145</v>
-      </c>
-      <c r="F32" t="s">
-        <v>137</v>
-      </c>
-      <c r="G32" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>186</v>
-      </c>
-      <c r="B33">
-        <v>6999</v>
-      </c>
-      <c r="C33">
-        <v>100</v>
-      </c>
-      <c r="D33" t="s">
-        <v>187</v>
-      </c>
-      <c r="E33" t="s">
-        <v>126</v>
-      </c>
-      <c r="F33" t="s">
-        <v>127</v>
-      </c>
-      <c r="G33" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>208</v>
-      </c>
-      <c r="B34">
-        <v>5850</v>
-      </c>
-      <c r="C34">
-        <v>100</v>
-      </c>
-      <c r="D34" t="s">
-        <v>209</v>
-      </c>
-      <c r="E34" t="s">
-        <v>210</v>
-      </c>
-      <c r="F34" t="s">
-        <v>122</v>
-      </c>
-      <c r="G34" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>208</v>
-      </c>
-      <c r="B35">
-        <v>5800</v>
-      </c>
-      <c r="C35">
-        <v>100</v>
-      </c>
-      <c r="D35" t="s">
-        <v>209</v>
-      </c>
-      <c r="E35" t="s">
-        <v>210</v>
-      </c>
-      <c r="F35" t="s">
-        <v>122</v>
-      </c>
-      <c r="G35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
-        <v>213</v>
-      </c>
-      <c r="B36">
-        <v>5399</v>
-      </c>
-      <c r="C36">
-        <v>100</v>
-      </c>
-      <c r="D36" t="s">
-        <v>213</v>
-      </c>
-      <c r="E36" t="s">
-        <v>214</v>
-      </c>
-      <c r="F36" t="s">
-        <v>215</v>
-      </c>
-      <c r="G36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s">
-        <v>217</v>
-      </c>
-      <c r="B37">
-        <v>5966</v>
-      </c>
-      <c r="C37">
-        <v>100</v>
-      </c>
-      <c r="D37" t="s">
-        <v>217</v>
-      </c>
-      <c r="E37" t="s">
-        <v>214</v>
-      </c>
-      <c r="F37" t="s">
-        <v>215</v>
-      </c>
-      <c r="G37" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s">
-        <v>219</v>
-      </c>
-      <c r="B38">
-        <v>5999</v>
-      </c>
-      <c r="C38">
-        <v>100</v>
-      </c>
-      <c r="D38" t="s">
-        <v>220</v>
-      </c>
-      <c r="E38" t="s">
-        <v>221</v>
-      </c>
-      <c r="F38" t="s">
-        <v>132</v>
-      </c>
-      <c r="G38" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="s">
-        <v>223</v>
-      </c>
-      <c r="B39">
-        <v>5799</v>
-      </c>
-      <c r="C39">
-        <v>100</v>
-      </c>
-      <c r="D39" t="s">
-        <v>220</v>
-      </c>
-      <c r="E39" t="s">
-        <v>221</v>
-      </c>
-      <c r="F39" t="s">
-        <v>132</v>
-      </c>
-      <c r="G39" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" t="s">
-        <v>225</v>
-      </c>
-      <c r="B40">
-        <v>6400</v>
-      </c>
-      <c r="C40">
-        <v>100</v>
-      </c>
-      <c r="D40" t="s">
-        <v>220</v>
-      </c>
-      <c r="E40" t="s">
-        <v>221</v>
-      </c>
-      <c r="F40" t="s">
-        <v>132</v>
-      </c>
-      <c r="G40" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="s">
-        <v>227</v>
-      </c>
-      <c r="B41">
-        <v>6388</v>
-      </c>
-      <c r="C41">
-        <v>100</v>
-      </c>
-      <c r="D41" t="s">
-        <v>227</v>
-      </c>
-      <c r="E41" t="s">
-        <v>228</v>
-      </c>
-      <c r="F41" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
-        <v>230</v>
-      </c>
-      <c r="B42">
-        <v>5400</v>
-      </c>
-      <c r="C42">
-        <v>100</v>
-      </c>
-      <c r="D42" t="s">
-        <v>230</v>
-      </c>
-      <c r="E42" t="s">
-        <v>228</v>
-      </c>
-      <c r="F42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G42" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
-        <v>236</v>
-      </c>
-      <c r="B43">
-        <v>4999</v>
-      </c>
-      <c r="C43">
-        <v>100</v>
-      </c>
-      <c r="D43" t="s">
-        <v>236</v>
-      </c>
-      <c r="E43" t="s">
-        <v>237</v>
-      </c>
-      <c r="F43" t="s">
-        <v>132</v>
-      </c>
-      <c r="G43" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>239</v>
-      </c>
-      <c r="B44">
-        <v>7555</v>
-      </c>
-      <c r="C44">
-        <v>100</v>
-      </c>
-      <c r="D44" t="s">
-        <v>239</v>
-      </c>
-      <c r="E44" t="s">
-        <v>240</v>
-      </c>
-      <c r="F44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>242</v>
-      </c>
-      <c r="B45">
-        <v>5888</v>
-      </c>
-      <c r="C45">
-        <v>100</v>
-      </c>
-      <c r="D45" t="s">
-        <v>242</v>
-      </c>
-      <c r="E45" t="s">
-        <v>237</v>
-      </c>
-      <c r="F45" t="s">
-        <v>132</v>
-      </c>
-      <c r="G45" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>259</v>
-      </c>
-      <c r="B46">
-        <v>5800</v>
-      </c>
-      <c r="C46">
-        <v>100</v>
-      </c>
-      <c r="D46" t="s">
-        <v>259</v>
-      </c>
-      <c r="E46" t="s">
-        <v>260</v>
-      </c>
-      <c r="F46" t="s">
-        <v>261</v>
-      </c>
-      <c r="G46" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>263</v>
-      </c>
-      <c r="B47">
-        <v>5600</v>
-      </c>
-      <c r="C47">
-        <v>100</v>
-      </c>
-      <c r="D47" t="s">
-        <v>263</v>
-      </c>
-      <c r="E47" t="s">
-        <v>260</v>
-      </c>
-      <c r="F47" t="s">
-        <v>261</v>
-      </c>
-      <c r="G47" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>275</v>
-      </c>
-      <c r="B48">
-        <v>7488</v>
-      </c>
-      <c r="C48">
-        <v>100</v>
-      </c>
-      <c r="D48" t="s">
-        <v>275</v>
-      </c>
-      <c r="E48" t="s">
-        <v>276</v>
-      </c>
-      <c r="F48" t="s">
-        <v>132</v>
-      </c>
-      <c r="G48" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
-        <v>278</v>
-      </c>
-      <c r="B49">
-        <v>4588</v>
-      </c>
-      <c r="C49">
-        <v>100</v>
-      </c>
-      <c r="D49" t="s">
-        <v>278</v>
-      </c>
-      <c r="E49" t="s">
-        <v>276</v>
-      </c>
-      <c r="F49" t="s">
-        <v>132</v>
-      </c>
-      <c r="G49" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>280</v>
-      </c>
-      <c r="B50">
-        <v>5555</v>
-      </c>
-      <c r="C50">
-        <v>100</v>
-      </c>
-      <c r="D50" t="s">
-        <v>281</v>
-      </c>
-      <c r="E50" t="s">
-        <v>282</v>
-      </c>
-      <c r="F50" t="s">
-        <v>132</v>
-      </c>
-      <c r="G50" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>284</v>
-      </c>
-      <c r="B51">
-        <v>5454</v>
-      </c>
-      <c r="C51">
-        <v>100</v>
-      </c>
-      <c r="D51" t="s">
-        <v>281</v>
-      </c>
-      <c r="E51" t="s">
-        <v>282</v>
-      </c>
-      <c r="F51" t="s">
-        <v>132</v>
-      </c>
-      <c r="G51" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>301</v>
-      </c>
-      <c r="B52">
-        <v>4800</v>
-      </c>
-      <c r="C52">
-        <v>100</v>
-      </c>
-      <c r="D52" t="s">
-        <v>301</v>
-      </c>
-      <c r="E52" t="s">
-        <v>302</v>
-      </c>
-      <c r="F52" t="s">
-        <v>56</v>
-      </c>
-      <c r="G52" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="s">
-        <v>304</v>
-      </c>
-      <c r="B53">
-        <v>4999</v>
-      </c>
-      <c r="C53">
-        <v>100</v>
-      </c>
-      <c r="D53" t="s">
-        <v>304</v>
-      </c>
-      <c r="E53" t="s">
-        <v>302</v>
-      </c>
-      <c r="F53" t="s">
-        <v>56</v>
-      </c>
-      <c r="G53" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" t="s">
-        <v>306</v>
-      </c>
-      <c r="B54">
-        <v>4666</v>
-      </c>
-      <c r="C54">
-        <v>100</v>
-      </c>
-      <c r="D54" t="s">
-        <v>306</v>
-      </c>
-      <c r="E54" t="s">
-        <v>302</v>
-      </c>
-      <c r="F54" t="s">
-        <v>304</v>
-      </c>
-      <c r="G54" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" t="s">
-        <v>312</v>
-      </c>
-      <c r="B55">
-        <v>5188</v>
-      </c>
-      <c r="C55">
-        <v>100</v>
-      </c>
-      <c r="D55" t="s">
-        <v>312</v>
-      </c>
-      <c r="E55" t="s">
-        <v>313</v>
-      </c>
-      <c r="F55" t="s">
-        <v>314</v>
-      </c>
-      <c r="G55" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" t="s">
-        <v>316</v>
-      </c>
-      <c r="B56">
-        <v>5000</v>
-      </c>
-      <c r="C56">
-        <v>100</v>
-      </c>
-      <c r="D56" t="s">
-        <v>316</v>
-      </c>
-      <c r="E56" t="s">
-        <v>313</v>
-      </c>
-      <c r="F56" t="s">
-        <v>314</v>
-      </c>
-      <c r="G56" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" t="s">
-        <v>367</v>
-      </c>
-      <c r="B57">
-        <v>8888</v>
-      </c>
-      <c r="C57">
-        <v>100</v>
-      </c>
-      <c r="D57" t="s">
-        <v>368</v>
-      </c>
-      <c r="E57" t="s">
-        <v>240</v>
-      </c>
-      <c r="F57" t="s">
-        <v>56</v>
-      </c>
-      <c r="G57" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" t="s">
-        <v>370</v>
-      </c>
-      <c r="B58">
-        <v>9999</v>
-      </c>
-      <c r="C58">
-        <v>100</v>
-      </c>
-      <c r="D58" t="s">
-        <v>370</v>
-      </c>
-      <c r="E58" t="s">
-        <v>240</v>
-      </c>
-      <c r="F58" t="s">
-        <v>56</v>
-      </c>
-      <c r="G58" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" t="s">
-        <v>134</v>
-      </c>
-      <c r="B59">
-        <v>2888</v>
-      </c>
-      <c r="C59">
-        <v>199</v>
-      </c>
-      <c r="D59" t="s">
-        <v>135</v>
-      </c>
-      <c r="E59" t="s">
-        <v>136</v>
-      </c>
-      <c r="F59" t="s">
-        <v>137</v>
-      </c>
-      <c r="G59" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" t="s">
-        <v>139</v>
-      </c>
-      <c r="B60">
-        <v>2500</v>
-      </c>
-      <c r="C60">
-        <v>199</v>
-      </c>
-      <c r="D60" t="s">
-        <v>140</v>
-      </c>
-      <c r="E60" t="s">
-        <v>141</v>
-      </c>
-      <c r="F60" t="s">
-        <v>142</v>
-      </c>
-      <c r="G60" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" t="s">
-        <v>144</v>
-      </c>
-      <c r="B61">
-        <v>2580</v>
-      </c>
-      <c r="C61">
-        <v>199</v>
-      </c>
-      <c r="D61" t="s">
-        <v>145</v>
-      </c>
-      <c r="E61" t="s">
-        <v>145</v>
-      </c>
-      <c r="F61" t="s">
-        <v>137</v>
-      </c>
-      <c r="G61" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" t="s">
-        <v>147</v>
-      </c>
-      <c r="B62">
-        <v>2750</v>
-      </c>
-      <c r="C62">
-        <v>199</v>
-      </c>
-      <c r="D62" t="s">
-        <v>147</v>
-      </c>
-      <c r="E62" t="s">
-        <v>148</v>
-      </c>
-      <c r="F62" t="s">
-        <v>142</v>
-      </c>
-      <c r="G62" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" t="s">
-        <v>150</v>
-      </c>
-      <c r="B63">
-        <v>2500</v>
-      </c>
-      <c r="C63">
-        <v>199</v>
-      </c>
-      <c r="D63" t="s">
-        <v>151</v>
-      </c>
-      <c r="E63" t="s">
-        <v>152</v>
-      </c>
-      <c r="F63" t="s">
-        <v>142</v>
-      </c>
-      <c r="G63" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" t="s">
-        <v>154</v>
-      </c>
-      <c r="B64">
-        <v>2550</v>
-      </c>
-      <c r="C64">
-        <v>199</v>
-      </c>
-      <c r="D64" t="s">
-        <v>155</v>
-      </c>
-      <c r="E64" t="s">
-        <v>156</v>
-      </c>
-      <c r="F64" t="s">
-        <v>157</v>
-      </c>
-      <c r="G64" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" t="s">
-        <v>159</v>
-      </c>
-      <c r="B65">
-        <v>2600</v>
-      </c>
-      <c r="C65">
-        <v>199</v>
-      </c>
-      <c r="D65" t="s">
-        <v>104</v>
-      </c>
-      <c r="E65" t="s">
-        <v>105</v>
-      </c>
-      <c r="F65" t="s">
-        <v>106</v>
-      </c>
-      <c r="G65" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" t="s">
-        <v>161</v>
-      </c>
-      <c r="B66">
-        <v>2800</v>
-      </c>
-      <c r="C66">
-        <v>199</v>
-      </c>
-      <c r="D66" t="s">
-        <v>104</v>
-      </c>
-      <c r="E66" t="s">
-        <v>105</v>
-      </c>
-      <c r="F66" t="s">
-        <v>106</v>
-      </c>
-      <c r="G66" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" t="s">
-        <v>163</v>
-      </c>
-      <c r="B67">
-        <v>2790</v>
-      </c>
-      <c r="C67">
-        <v>199</v>
-      </c>
-      <c r="D67" t="s">
-        <v>164</v>
-      </c>
-      <c r="E67" t="s">
-        <v>165</v>
-      </c>
-      <c r="F67" t="s">
-        <v>142</v>
-      </c>
-      <c r="G67" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" t="s">
-        <v>167</v>
-      </c>
-      <c r="B68">
-        <v>3099</v>
-      </c>
-      <c r="C68">
-        <v>199</v>
-      </c>
-      <c r="D68" t="s">
-        <v>168</v>
-      </c>
-      <c r="E68" t="s">
-        <v>169</v>
-      </c>
-      <c r="F68" t="s">
-        <v>142</v>
-      </c>
-      <c r="G68" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" t="s">
-        <v>171</v>
-      </c>
-      <c r="B69">
-        <v>2860</v>
-      </c>
-      <c r="C69">
-        <v>199</v>
-      </c>
-      <c r="D69" t="s">
-        <v>172</v>
-      </c>
-      <c r="E69" t="s">
-        <v>110</v>
-      </c>
-      <c r="F69" t="s">
-        <v>106</v>
-      </c>
-      <c r="G69" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" t="s">
-        <v>174</v>
-      </c>
-      <c r="B70">
-        <v>2900</v>
-      </c>
-      <c r="C70">
-        <v>199</v>
-      </c>
-      <c r="D70" t="s">
-        <v>172</v>
-      </c>
-      <c r="E70" t="s">
-        <v>110</v>
-      </c>
-      <c r="F70" t="s">
-        <v>106</v>
-      </c>
-      <c r="G70" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71">
-        <v>8965</v>
-      </c>
-      <c r="C71">
-        <v>200</v>
-      </c>
-      <c r="D71" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" t="s">
-        <v>16</v>
-      </c>
-      <c r="B72">
-        <v>9000</v>
-      </c>
-      <c r="C72">
-        <v>200</v>
-      </c>
-      <c r="D72" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" t="s">
-        <v>176</v>
-      </c>
-      <c r="B73">
-        <v>3880</v>
-      </c>
-      <c r="C73">
-        <v>200</v>
-      </c>
-      <c r="D73" t="s">
-        <v>177</v>
-      </c>
-      <c r="E73" t="s">
-        <v>178</v>
-      </c>
-      <c r="F73" t="s">
-        <v>179</v>
-      </c>
-      <c r="G73" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" t="s">
-        <v>181</v>
-      </c>
-      <c r="B74">
-        <v>4000</v>
-      </c>
-      <c r="C74">
-        <v>200</v>
-      </c>
-      <c r="D74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E74" t="s">
-        <v>136</v>
-      </c>
-      <c r="F74" t="s">
-        <v>137</v>
-      </c>
-      <c r="G74" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" t="s">
-        <v>46</v>
-      </c>
-      <c r="B75">
-        <v>4599</v>
-      </c>
-      <c r="C75">
-        <v>300</v>
-      </c>
-      <c r="D75" t="s">
-        <v>47</v>
-      </c>
-      <c r="E75" t="s">
-        <v>48</v>
-      </c>
-      <c r="F75" t="s">
-        <v>49</v>
-      </c>
-      <c r="G75" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" t="s">
-        <v>51</v>
-      </c>
-      <c r="B76">
-        <v>4600</v>
-      </c>
-      <c r="C76">
-        <v>300</v>
-      </c>
-      <c r="D76" t="s">
-        <v>52</v>
-      </c>
-      <c r="E76" t="s">
-        <v>48</v>
-      </c>
-      <c r="F76" t="s">
-        <v>49</v>
-      </c>
-      <c r="G76" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" t="s">
-        <v>60</v>
-      </c>
-      <c r="B77">
-        <v>17288</v>
-      </c>
-      <c r="C77">
-        <v>333</v>
-      </c>
-      <c r="D77" t="s">
-        <v>61</v>
-      </c>
-      <c r="E77" t="s">
-        <v>62</v>
-      </c>
-      <c r="F77" t="s">
-        <v>63</v>
-      </c>
-      <c r="G77" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" t="s">
-        <v>65</v>
-      </c>
-      <c r="B78">
-        <v>17788</v>
-      </c>
-      <c r="C78">
-        <v>333</v>
-      </c>
-      <c r="D78" t="s">
-        <v>61</v>
-      </c>
-      <c r="E78" t="s">
-        <v>62</v>
-      </c>
-      <c r="F78" t="s">
-        <v>63</v>
-      </c>
-      <c r="G78" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" t="s">
-        <v>67</v>
-      </c>
-      <c r="B79">
-        <v>20820</v>
-      </c>
-      <c r="C79">
-        <v>333</v>
-      </c>
-      <c r="D79" t="s">
-        <v>61</v>
-      </c>
-      <c r="E79" t="s">
-        <v>62</v>
-      </c>
-      <c r="F79" t="s">
-        <v>63</v>
-      </c>
-      <c r="G79" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" t="s">
-        <v>25</v>
-      </c>
-      <c r="B80">
-        <v>5470</v>
-      </c>
-      <c r="C80">
-        <v>500</v>
-      </c>
-      <c r="D80" t="s">
-        <v>25</v>
-      </c>
-      <c r="E80" t="s">
-        <v>26</v>
-      </c>
-      <c r="F80" t="s">
-        <v>27</v>
-      </c>
-      <c r="G80" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" t="s">
-        <v>36</v>
-      </c>
-      <c r="B81">
-        <v>2899</v>
-      </c>
-      <c r="C81">
-        <v>500</v>
-      </c>
-      <c r="D81" t="s">
-        <v>36</v>
-      </c>
-      <c r="E81" t="s">
-        <v>33</v>
-      </c>
-      <c r="F81" t="s">
-        <v>34</v>
-      </c>
-      <c r="G81" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" t="s">
-        <v>18</v>
-      </c>
-      <c r="B82">
-        <v>1650</v>
-      </c>
-      <c r="C82">
-        <v>888</v>
-      </c>
-      <c r="D82" t="s">
-        <v>19</v>
-      </c>
-      <c r="E82" t="s">
-        <v>20</v>
-      </c>
-      <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" t="s">
-        <v>23</v>
-      </c>
-      <c r="B83">
-        <v>1666</v>
-      </c>
-      <c r="C83">
-        <v>888</v>
-      </c>
-      <c r="D83" t="s">
-        <v>19</v>
-      </c>
-      <c r="E83" t="s">
-        <v>20</v>
-      </c>
-      <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" t="s">
-        <v>244</v>
-      </c>
-      <c r="B84">
-        <v>3250</v>
-      </c>
-      <c r="C84">
-        <v>888</v>
-      </c>
-      <c r="D84" t="s">
-        <v>245</v>
-      </c>
-      <c r="E84" t="s">
-        <v>246</v>
-      </c>
-      <c r="F84" t="s">
-        <v>247</v>
-      </c>
-      <c r="G84" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" t="s">
-        <v>267</v>
-      </c>
-      <c r="B85">
-        <v>1600</v>
-      </c>
-      <c r="C85">
-        <v>888</v>
-      </c>
-      <c r="D85" t="s">
-        <v>19</v>
-      </c>
-      <c r="E85" t="s">
-        <v>20</v>
-      </c>
-      <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" t="s">
-        <v>269</v>
-      </c>
-      <c r="B86">
-        <v>1595</v>
-      </c>
-      <c r="C86">
-        <v>888</v>
-      </c>
-      <c r="D86" t="s">
-        <v>19</v>
-      </c>
-      <c r="E86" t="s">
-        <v>20</v>
-      </c>
-      <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" t="s">
-        <v>271</v>
-      </c>
-      <c r="B87">
-        <v>2988</v>
-      </c>
-      <c r="C87">
-        <v>888</v>
-      </c>
-      <c r="D87" t="s">
-        <v>245</v>
-      </c>
-      <c r="E87" t="s">
-        <v>246</v>
-      </c>
-      <c r="F87" t="s">
-        <v>247</v>
-      </c>
-      <c r="G87" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" t="s">
-        <v>318</v>
-      </c>
-      <c r="B88">
-        <v>1970</v>
-      </c>
-      <c r="C88">
-        <v>888</v>
-      </c>
-      <c r="D88" t="s">
-        <v>245</v>
-      </c>
-      <c r="E88" t="s">
-        <v>246</v>
-      </c>
-      <c r="F88" t="s">
-        <v>247</v>
-      </c>
-      <c r="G88" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" t="s">
-        <v>332</v>
-      </c>
-      <c r="B89">
-        <v>1950</v>
-      </c>
-      <c r="C89">
-        <v>888</v>
-      </c>
-      <c r="D89" t="s">
-        <v>19</v>
-      </c>
-      <c r="E89" t="s">
-        <v>20</v>
-      </c>
-      <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" t="s">
-        <v>355</v>
-      </c>
-      <c r="B90">
-        <v>2098</v>
-      </c>
-      <c r="C90">
-        <v>888</v>
-      </c>
-      <c r="D90" t="s">
-        <v>245</v>
-      </c>
-      <c r="E90" t="s">
-        <v>246</v>
-      </c>
-      <c r="F90" t="s">
-        <v>247</v>
-      </c>
-      <c r="G90" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" t="s">
-        <v>357</v>
-      </c>
-      <c r="B91">
-        <v>2030</v>
-      </c>
-      <c r="C91">
-        <v>888</v>
-      </c>
-      <c r="D91" t="s">
-        <v>245</v>
-      </c>
-      <c r="E91" t="s">
-        <v>246</v>
-      </c>
-      <c r="F91" t="s">
-        <v>247</v>
-      </c>
-      <c r="G91" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" t="s">
-        <v>361</v>
-      </c>
-      <c r="B92">
-        <v>1659</v>
-      </c>
-      <c r="C92">
-        <v>888</v>
-      </c>
-      <c r="D92" t="s">
-        <v>19</v>
-      </c>
-      <c r="E92" t="s">
-        <v>20</v>
-      </c>
-      <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" t="s">
-        <v>32</v>
-      </c>
-      <c r="B93">
-        <v>1318</v>
-      </c>
-      <c r="C93">
-        <v>1000</v>
-      </c>
-      <c r="D93" t="s">
-        <v>32</v>
-      </c>
-      <c r="E93" t="s">
-        <v>33</v>
-      </c>
-      <c r="F93" t="s">
-        <v>34</v>
-      </c>
-      <c r="G93" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" t="s">
-        <v>329</v>
-      </c>
-      <c r="B94">
-        <v>2399</v>
-      </c>
-      <c r="C94">
-        <v>1000</v>
-      </c>
-      <c r="D94" t="s">
-        <v>330</v>
-      </c>
-      <c r="E94" t="s">
-        <v>298</v>
-      </c>
-      <c r="F94" t="s">
-        <v>299</v>
-      </c>
-      <c r="G94" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" t="s">
-        <v>350</v>
-      </c>
-      <c r="B95">
-        <v>2250</v>
-      </c>
-      <c r="C95">
-        <v>1000</v>
-      </c>
-      <c r="D95" t="s">
-        <v>351</v>
-      </c>
-      <c r="E95" t="s">
-        <v>352</v>
-      </c>
-      <c r="F95" t="s">
-        <v>353</v>
-      </c>
-      <c r="G95" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" t="s">
-        <v>359</v>
-      </c>
-      <c r="B96">
-        <v>2288</v>
-      </c>
-      <c r="C96">
-        <v>1000</v>
-      </c>
-      <c r="D96" t="s">
-        <v>351</v>
-      </c>
-      <c r="E96" t="s">
-        <v>298</v>
-      </c>
-      <c r="F96" t="s">
-        <v>353</v>
-      </c>
-      <c r="G96" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" t="s">
-        <v>296</v>
-      </c>
-      <c r="B97">
-        <v>2299</v>
-      </c>
-      <c r="C97">
-        <v>1888</v>
-      </c>
-      <c r="D97" t="s">
-        <v>297</v>
-      </c>
-      <c r="E97" t="s">
-        <v>298</v>
-      </c>
-      <c r="F97" t="s">
-        <v>299</v>
-      </c>
-      <c r="G97" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" t="s">
-        <v>12</v>
-      </c>
-      <c r="B98">
-        <v>730</v>
-      </c>
-      <c r="C98">
-        <v>2000</v>
-      </c>
-      <c r="D98" t="s">
-        <v>12</v>
-      </c>
-      <c r="E98" t="s">
-        <v>13</v>
-      </c>
-      <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" t="s">
-        <v>198</v>
-      </c>
-      <c r="B99">
-        <v>3999</v>
-      </c>
-      <c r="C99">
-        <v>2000</v>
-      </c>
-      <c r="D99" t="s">
-        <v>198</v>
-      </c>
-      <c r="E99" t="s">
-        <v>199</v>
-      </c>
-      <c r="F99" t="s">
-        <v>200</v>
-      </c>
-      <c r="G99" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" t="s">
-        <v>202</v>
-      </c>
-      <c r="B100">
-        <v>3649</v>
-      </c>
-      <c r="C100">
-        <v>2000</v>
-      </c>
-      <c r="D100" t="s">
-        <v>202</v>
-      </c>
-      <c r="E100" t="s">
-        <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
-      </c>
-      <c r="G100" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" t="s">
-        <v>204</v>
-      </c>
-      <c r="B101">
-        <v>3770</v>
-      </c>
-      <c r="C101">
-        <v>2000</v>
-      </c>
-      <c r="D101" t="s">
-        <v>204</v>
-      </c>
-      <c r="E101" t="s">
-        <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
-      </c>
-      <c r="G101" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" t="s">
-        <v>206</v>
-      </c>
-      <c r="B102">
-        <v>3665.99</v>
-      </c>
-      <c r="C102">
-        <v>2000</v>
-      </c>
-      <c r="D102" t="s">
-        <v>206</v>
-      </c>
-      <c r="E102" t="s">
-        <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
-      </c>
-      <c r="G102" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" t="s">
-        <v>29</v>
-      </c>
-      <c r="B103">
-        <v>693</v>
-      </c>
-      <c r="C103">
-        <v>3000</v>
-      </c>
-      <c r="D103" t="s">
-        <v>29</v>
-      </c>
-      <c r="E103" t="s">
-        <v>30</v>
-      </c>
-      <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" t="s">
-        <v>69</v>
-      </c>
-      <c r="B104">
-        <v>728</v>
-      </c>
-      <c r="C104">
-        <v>3000</v>
-      </c>
-      <c r="D104" t="s">
-        <v>70</v>
-      </c>
-      <c r="E104" t="s">
-        <v>71</v>
-      </c>
-      <c r="F104" t="s">
-        <v>72</v>
-      </c>
-      <c r="G104" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" t="s">
-        <v>74</v>
-      </c>
-      <c r="B105">
-        <v>696</v>
-      </c>
-      <c r="C105">
-        <v>3000</v>
-      </c>
-      <c r="D105" t="s">
-        <v>70</v>
-      </c>
-      <c r="E105" t="s">
-        <v>71</v>
-      </c>
-      <c r="F105" t="s">
-        <v>72</v>
-      </c>
-      <c r="G105" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" t="s">
-        <v>76</v>
-      </c>
-      <c r="B106">
-        <v>866</v>
-      </c>
-      <c r="C106">
-        <v>3000</v>
-      </c>
-      <c r="D106" t="s">
-        <v>70</v>
-      </c>
-      <c r="E106" t="s">
-        <v>71</v>
-      </c>
-      <c r="F106" t="s">
-        <v>72</v>
-      </c>
-      <c r="G106" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" t="s">
-        <v>78</v>
-      </c>
-      <c r="B107">
-        <v>720</v>
-      </c>
-      <c r="C107">
-        <v>3000</v>
-      </c>
-      <c r="D107" t="s">
-        <v>70</v>
-      </c>
-      <c r="E107" t="s">
-        <v>71</v>
-      </c>
-      <c r="F107" t="s">
-        <v>72</v>
-      </c>
-      <c r="G107" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" t="s">
-        <v>80</v>
-      </c>
-      <c r="B108">
-        <v>688</v>
-      </c>
-      <c r="C108">
-        <v>3000</v>
-      </c>
-      <c r="D108" t="s">
-        <v>70</v>
-      </c>
-      <c r="E108" t="s">
-        <v>71</v>
-      </c>
-      <c r="F108" t="s">
-        <v>72</v>
-      </c>
-      <c r="G108" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" t="s">
-        <v>82</v>
-      </c>
-      <c r="B109">
-        <v>660</v>
-      </c>
-      <c r="C109">
-        <v>3000</v>
-      </c>
-      <c r="D109" t="s">
-        <v>70</v>
-      </c>
-      <c r="E109" t="s">
-        <v>71</v>
-      </c>
-      <c r="F109" t="s">
-        <v>72</v>
-      </c>
-      <c r="G109" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" t="s">
-        <v>84</v>
-      </c>
-      <c r="B110">
-        <v>800</v>
-      </c>
-      <c r="C110">
-        <v>3000</v>
-      </c>
-      <c r="D110" t="s">
-        <v>70</v>
-      </c>
-      <c r="E110" t="s">
-        <v>71</v>
-      </c>
-      <c r="F110" t="s">
-        <v>72</v>
-      </c>
-      <c r="G110" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" t="s">
-        <v>86</v>
-      </c>
-      <c r="B111">
-        <v>1298</v>
-      </c>
-      <c r="C111">
-        <v>3000</v>
-      </c>
-      <c r="D111" t="s">
-        <v>70</v>
-      </c>
-      <c r="E111" t="s">
-        <v>71</v>
-      </c>
-      <c r="F111" t="s">
-        <v>72</v>
-      </c>
-      <c r="G111" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" t="s">
-        <v>88</v>
-      </c>
-      <c r="B112">
-        <v>999</v>
-      </c>
-      <c r="C112">
-        <v>3000</v>
-      </c>
-      <c r="D112" t="s">
-        <v>70</v>
-      </c>
-      <c r="E112" t="s">
-        <v>71</v>
-      </c>
-      <c r="F112" t="s">
-        <v>72</v>
-      </c>
-      <c r="G112" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" t="s">
-        <v>90</v>
-      </c>
-      <c r="B113">
-        <v>1499</v>
-      </c>
-      <c r="C113">
-        <v>3000</v>
-      </c>
-      <c r="D113" t="s">
-        <v>70</v>
-      </c>
-      <c r="E113" t="s">
-        <v>71</v>
-      </c>
-      <c r="F113" t="s">
-        <v>72</v>
-      </c>
-      <c r="G113" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" t="s">
-        <v>92</v>
-      </c>
-      <c r="B114">
-        <v>910</v>
-      </c>
-      <c r="C114">
-        <v>3000</v>
-      </c>
-      <c r="D114" t="s">
-        <v>70</v>
-      </c>
-      <c r="E114" t="s">
-        <v>71</v>
-      </c>
-      <c r="F114" t="s">
-        <v>72</v>
-      </c>
-      <c r="G114" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" t="s">
-        <v>94</v>
-      </c>
-      <c r="B115">
-        <v>680</v>
-      </c>
-      <c r="C115">
-        <v>3000</v>
-      </c>
-      <c r="D115" t="s">
-        <v>70</v>
-      </c>
-      <c r="E115" t="s">
-        <v>71</v>
-      </c>
-      <c r="F115" t="s">
-        <v>72</v>
-      </c>
-      <c r="G115" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" t="s">
-        <v>38</v>
-      </c>
-      <c r="B116">
-        <v>385</v>
-      </c>
-      <c r="C116">
-        <v>5355</v>
-      </c>
-      <c r="D116" t="s">
-        <v>39</v>
-      </c>
-      <c r="E116" t="s">
-        <v>40</v>
-      </c>
-      <c r="F116" t="s">
-        <v>41</v>
-      </c>
-      <c r="G116" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" t="s">
-        <v>286</v>
-      </c>
-      <c r="B117">
-        <v>83.5</v>
-      </c>
-      <c r="C117">
-        <v>10000</v>
-      </c>
-      <c r="D117" t="s">
-        <v>287</v>
-      </c>
-      <c r="E117" t="s">
-        <v>288</v>
-      </c>
-      <c r="F117" t="s">
-        <v>289</v>
-      </c>
-      <c r="G117" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" t="s">
-        <v>291</v>
-      </c>
-      <c r="B118">
-        <v>85.99</v>
-      </c>
-      <c r="C118">
-        <v>10000</v>
-      </c>
-      <c r="D118" t="s">
-        <v>287</v>
-      </c>
-      <c r="E118" t="s">
-        <v>292</v>
-      </c>
-      <c r="F118" t="s">
-        <v>289</v>
-      </c>
-      <c r="G118" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" t="s">
-        <v>320</v>
-      </c>
-      <c r="B119">
-        <v>141</v>
-      </c>
-      <c r="C119">
-        <v>10000</v>
-      </c>
-      <c r="D119" t="s">
-        <v>287</v>
-      </c>
-      <c r="E119" t="s">
-        <v>321</v>
-      </c>
-      <c r="F119" t="s">
-        <v>289</v>
-      </c>
-      <c r="G119" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" t="s">
-        <v>323</v>
-      </c>
-      <c r="B120">
-        <v>86.99</v>
-      </c>
-      <c r="C120">
-        <v>10000</v>
-      </c>
-      <c r="D120" t="s">
-        <v>287</v>
-      </c>
-      <c r="E120" t="s">
-        <v>324</v>
-      </c>
-      <c r="F120" t="s">
-        <v>289</v>
-      </c>
-      <c r="G120" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" t="s">
-        <v>326</v>
-      </c>
-      <c r="B121">
-        <v>85.99</v>
-      </c>
-      <c r="C121">
-        <v>10000</v>
-      </c>
-      <c r="D121" t="s">
-        <v>287</v>
-      </c>
-      <c r="E121" t="s">
-        <v>327</v>
-      </c>
-      <c r="F121" t="s">
-        <v>289</v>
-      </c>
-      <c r="G121" t="s">
-        <v>328</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:G121">
-    <sortCondition ref="C1"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:G1" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62339BF-82AB-134D-8EFD-921FB55AD5F0}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5570,36 +1641,36 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="B1" s="12" t="s">
-        <v>372</v>
+        <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>377</v>
+        <v>5</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>373</v>
+        <v>1</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>374</v>
+        <v>2</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>391</v>
+        <v>19</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>393</v>
+        <v>21</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>394</v>
+        <v>22</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>395</v>
+        <v>23</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>388</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>479</v>
+        <v>107</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -5616,7 +1687,7 @@
         <v>8.4681972149040275E-4</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>392</v>
+        <v>20</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -5628,7 +1699,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>477</v>
+        <v>105</v>
       </c>
       <c r="B3">
         <v>294</v>
@@ -5663,7 +1734,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>478</v>
+        <v>106</v>
       </c>
       <c r="B4">
         <v>481</v>
@@ -5698,7 +1769,7 @@
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>480</v>
+        <v>108</v>
       </c>
       <c r="B5">
         <v>475</v>
@@ -5733,7 +1804,7 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>481</v>
+        <v>109</v>
       </c>
       <c r="B6">
         <v>3554</v>
@@ -5768,7 +1839,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>482</v>
+        <v>110</v>
       </c>
       <c r="B7">
         <v>3515</v>
@@ -5803,7 +1874,7 @@
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>483</v>
+        <v>111</v>
       </c>
       <c r="B8">
         <v>3481</v>
@@ -5990,12 +2061,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D06DC-D0D3-DC41-8495-1A009DF45D20}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView zoomScale="89" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6008,53 +2079,53 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="12" t="s">
-        <v>372</v>
+        <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>377</v>
+        <v>5</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>373</v>
+        <v>1</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>374</v>
+        <v>2</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>391</v>
+        <v>19</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>393</v>
+        <v>21</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>394</v>
+        <v>22</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>395</v>
+        <v>23</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>388</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>378</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>20</v>
       </c>
       <c r="D2">
         <f>C2-B2</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="5">
         <f>D2/(D15)</f>
-        <v>3.7014188772362738E-3</v>
+        <v>3.0864197530864196E-3</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>392</v>
+        <v>20</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -6065,7 +2136,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>375</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>635</v>
@@ -6079,7 +2150,7 @@
       </c>
       <c r="E3" s="5">
         <f>D3/(D15)</f>
-        <v>4.0098704503392965E-2</v>
+        <v>4.0123456790123455E-2</v>
       </c>
       <c r="F3">
         <v>30555</v>
@@ -6098,12 +2169,12 @@
         <v>100513759</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>390</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
-        <v>376</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>702</v>
@@ -6117,7 +2188,7 @@
       </c>
       <c r="E4" s="5">
         <f>D4/(D15)</f>
-        <v>2.961135101789019E-2</v>
+        <v>2.9629629629629631E-2</v>
       </c>
       <c r="F4">
         <v>5400</v>
@@ -6138,7 +2209,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="4" t="s">
-        <v>396</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>691</v>
@@ -6152,7 +2223,7 @@
       </c>
       <c r="E5" s="5">
         <f>D5/(D15)</f>
-        <v>3.639728562615669E-2</v>
+        <v>3.6419753086419752E-2</v>
       </c>
       <c r="F5">
         <v>5750</v>
@@ -6173,7 +2244,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="6" t="s">
-        <v>384</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>1882</v>
@@ -6187,7 +2258,7 @@
       </c>
       <c r="E6" s="5">
         <f>D6/(D15)</f>
-        <v>0.10734114743985194</v>
+        <v>0.10740740740740741</v>
       </c>
       <c r="F6">
         <v>1100</v>
@@ -6208,7 +2279,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="6" t="s">
-        <v>383</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>1898</v>
@@ -6222,7 +2293,7 @@
       </c>
       <c r="E7" s="5">
         <f>D7/(D15)</f>
-        <v>9.7470697100555212E-2</v>
+        <v>9.7530864197530862E-2</v>
       </c>
       <c r="F7">
         <v>1050</v>
@@ -6243,7 +2314,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="6" t="s">
-        <v>382</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>1886</v>
@@ -6257,7 +2328,7 @@
       </c>
       <c r="E8" s="5">
         <f>D8/(D15)</f>
-        <v>0.10487353485502776</v>
+        <v>0.10493827160493827</v>
       </c>
       <c r="F8">
         <v>1048</v>
@@ -6281,7 +2352,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="6" t="s">
-        <v>385</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>1900</v>
@@ -6295,7 +2366,7 @@
       </c>
       <c r="E9" s="5">
         <f>D9/(D15)</f>
-        <v>9.6236890808143127E-2</v>
+        <v>9.6296296296296297E-2</v>
       </c>
       <c r="F9">
         <v>1048</v>
@@ -6319,7 +2390,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="6" t="s">
-        <v>386</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>1887</v>
@@ -6333,7 +2404,7 @@
       </c>
       <c r="E10" s="5">
         <f>D10/(D15)</f>
-        <v>0.10425663170882171</v>
+        <v>0.10432098765432099</v>
       </c>
       <c r="F10">
         <v>1040</v>
@@ -6357,7 +2428,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="6" t="s">
-        <v>381</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>1908</v>
@@ -6371,7 +2442,7 @@
       </c>
       <c r="E11" s="5">
         <f>D11/(D15)</f>
-        <v>9.1301665638494761E-2</v>
+        <v>9.1358024691358022E-2</v>
       </c>
       <c r="F11">
         <v>1088</v>
@@ -6395,7 +2466,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="6" t="s">
-        <v>380</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>1892</v>
@@ -6409,7 +2480,7 @@
       </c>
       <c r="E12" s="5">
         <f>D12/(D15)</f>
-        <v>0.10117211597779149</v>
+        <v>0.10123456790123457</v>
       </c>
       <c r="F12">
         <v>1039</v>
@@ -6433,7 +2504,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="6" t="s">
-        <v>379</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>1910</v>
@@ -6447,7 +2518,7 @@
       </c>
       <c r="E13" s="5">
         <f>D13/(D15)</f>
-        <v>9.0067859346082663E-2</v>
+        <v>9.0123456790123457E-2</v>
       </c>
       <c r="F13">
         <v>1095</v>
@@ -6471,7 +2542,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="6" t="s">
-        <v>387</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>1898</v>
@@ -6485,7 +2556,7 @@
       </c>
       <c r="E14" s="5">
         <f>D14/(D15)</f>
-        <v>9.7470697100555212E-2</v>
+        <v>9.7530864197530862E-2</v>
       </c>
       <c r="F14">
         <v>1039</v>
@@ -6511,7 +2582,7 @@
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B2:B14)</f>
-        <v>19103</v>
+        <v>19104</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C14)</f>
@@ -6519,7 +2590,7 @@
       </c>
       <c r="D15">
         <f>SUM(D2:D14)</f>
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="N15">
         <v>1834</v>
@@ -6552,7 +2623,7 @@
     <row r="21" spans="1:14" ht="90" customHeight="1">
       <c r="A21" s="1"/>
       <c r="K21" s="9" t="s">
-        <v>389</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -6733,7 +2804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23834F0F-0918-B64F-9000-1ED84B75F029}">
   <dimension ref="A1:N38"/>
   <sheetViews>
@@ -6752,36 +2823,36 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="B1" s="12" t="s">
-        <v>372</v>
+        <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>377</v>
+        <v>5</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>373</v>
+        <v>1</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>374</v>
+        <v>2</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>391</v>
+        <v>19</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>393</v>
+        <v>21</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>394</v>
+        <v>22</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>395</v>
+        <v>23</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>388</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>397</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>689</v>
@@ -6817,7 +2888,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>398</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>742</v>
@@ -6852,7 +2923,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>399</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>744</v>
@@ -6887,7 +2958,7 @@
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>408</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>2029</v>
@@ -6922,7 +2993,7 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>400</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>2028</v>
@@ -6957,7 +3028,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>401</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>2037</v>
@@ -6992,7 +3063,7 @@
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>2030</v>
@@ -7027,7 +3098,7 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>403</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>2028</v>
@@ -7062,7 +3133,7 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>404</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>2031</v>
@@ -7097,7 +3168,7 @@
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>405</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>2034</v>
@@ -7132,7 +3203,7 @@
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>406</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>2033</v>
@@ -7167,7 +3238,7 @@
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>407</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>2029</v>
@@ -7307,7 +3378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184DB00E-F6FB-F54F-9B72-986678B8AC5C}">
   <dimension ref="A1:N40"/>
   <sheetViews>
@@ -7326,36 +3397,36 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="B1" s="12" t="s">
-        <v>372</v>
+        <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>377</v>
+        <v>5</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>373</v>
+        <v>1</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>374</v>
+        <v>2</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>391</v>
+        <v>19</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>393</v>
+        <v>21</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>394</v>
+        <v>22</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>395</v>
+        <v>23</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>388</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>409</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>345</v>
@@ -7391,7 +3462,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>410</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>584</v>
@@ -7426,7 +3497,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>411</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>589</v>
@@ -7461,7 +3532,7 @@
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>412</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>1022</v>
@@ -7496,7 +3567,7 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>413</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>1016</v>
@@ -7531,7 +3602,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>414</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>1024</v>
@@ -7566,7 +3637,7 @@
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>415</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>1017</v>
@@ -7601,7 +3672,7 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>416</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>1016</v>
@@ -7636,7 +3707,7 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>417</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>1010</v>
@@ -7671,7 +3742,7 @@
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>418</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>1013</v>
@@ -7706,7 +3777,7 @@
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>419</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>1025</v>
@@ -7741,7 +3812,7 @@
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>420</v>
+        <v>48</v>
       </c>
       <c r="B13">
         <v>1022</v>
@@ -7776,7 +3847,7 @@
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>421</v>
+        <v>49</v>
       </c>
       <c r="B14">
         <v>1024</v>
@@ -7917,7 +3988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4614B3D9-5D01-494A-AB9B-1EE17B5FD0A0}">
   <dimension ref="A1:N42"/>
   <sheetViews>
@@ -7936,36 +4007,36 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="B1" s="12" t="s">
-        <v>372</v>
+        <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>377</v>
+        <v>5</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>373</v>
+        <v>1</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>374</v>
+        <v>2</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>391</v>
+        <v>19</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>393</v>
+        <v>21</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>394</v>
+        <v>22</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>395</v>
+        <v>23</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>388</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>422</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <v>615</v>
@@ -8001,7 +4072,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>423</v>
+        <v>51</v>
       </c>
       <c r="B3">
         <v>690</v>
@@ -8036,7 +4107,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>424</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>663</v>
@@ -8071,7 +4142,7 @@
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>425</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>1835</v>
@@ -8106,7 +4177,7 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>426</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>1829</v>
@@ -8141,7 +4212,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>427</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>1841</v>
@@ -8176,7 +4247,7 @@
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>428</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>1828</v>
@@ -8211,7 +4282,7 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>429</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>1843</v>
@@ -8246,7 +4317,7 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>430</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>1844</v>
@@ -8281,7 +4352,7 @@
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>431</v>
+        <v>59</v>
       </c>
       <c r="B11">
         <v>1868</v>
@@ -8316,7 +4387,7 @@
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>432</v>
+        <v>60</v>
       </c>
       <c r="B12">
         <v>1839</v>
@@ -8351,7 +4422,7 @@
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>433</v>
+        <v>61</v>
       </c>
       <c r="B13">
         <v>1839</v>
@@ -8386,7 +4457,7 @@
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>434</v>
+        <v>62</v>
       </c>
       <c r="B14">
         <v>1839</v>
@@ -8421,7 +4492,7 @@
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>435</v>
+        <v>63</v>
       </c>
       <c r="B15">
         <v>1839</v>
@@ -8456,7 +4527,7 @@
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>436</v>
+        <v>64</v>
       </c>
       <c r="B16">
         <v>1852</v>
@@ -8597,7 +4668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3E1037-247A-B34C-A448-182432C86F5C}">
   <dimension ref="A1:N44"/>
   <sheetViews>
@@ -8616,36 +4687,36 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="B1" s="12" t="s">
-        <v>372</v>
+        <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>377</v>
+        <v>5</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>373</v>
+        <v>1</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>374</v>
+        <v>2</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>391</v>
+        <v>19</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>393</v>
+        <v>21</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>394</v>
+        <v>22</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>395</v>
+        <v>23</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>388</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="B2">
         <v>348</v>
@@ -8681,7 +4752,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>452</v>
+        <v>80</v>
       </c>
       <c r="B3">
         <v>586</v>
@@ -8716,7 +4787,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>453</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <v>585</v>
@@ -8751,7 +4822,7 @@
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>437</v>
+        <v>65</v>
       </c>
       <c r="B5">
         <v>579</v>
@@ -8786,7 +4857,7 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>438</v>
+        <v>66</v>
       </c>
       <c r="B6">
         <v>736</v>
@@ -8821,7 +4892,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>439</v>
+        <v>67</v>
       </c>
       <c r="B7">
         <v>735</v>
@@ -8856,7 +4927,7 @@
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>440</v>
+        <v>68</v>
       </c>
       <c r="B8">
         <v>735</v>
@@ -8891,7 +4962,7 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>441</v>
+        <v>69</v>
       </c>
       <c r="B9">
         <v>740</v>
@@ -8926,7 +4997,7 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>442</v>
+        <v>70</v>
       </c>
       <c r="B10">
         <v>739</v>
@@ -8961,7 +5032,7 @@
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>443</v>
+        <v>71</v>
       </c>
       <c r="B11">
         <v>742</v>
@@ -8996,7 +5067,7 @@
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>444</v>
+        <v>72</v>
       </c>
       <c r="B12">
         <v>733</v>
@@ -9031,7 +5102,7 @@
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>445</v>
+        <v>73</v>
       </c>
       <c r="B13">
         <v>739</v>
@@ -9066,7 +5137,7 @@
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>446</v>
+        <v>74</v>
       </c>
       <c r="B14">
         <v>740</v>
@@ -9101,7 +5172,7 @@
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>447</v>
+        <v>75</v>
       </c>
       <c r="B15">
         <v>730</v>
@@ -9136,7 +5207,7 @@
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>448</v>
+        <v>76</v>
       </c>
       <c r="B16">
         <v>732</v>
@@ -9171,7 +5242,7 @@
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>449</v>
+        <v>77</v>
       </c>
       <c r="B17">
         <v>732</v>
@@ -9206,7 +5277,7 @@
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>450</v>
+        <v>78</v>
       </c>
       <c r="B18">
         <v>738</v>
@@ -9348,7 +5419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0660C9D-E02C-D446-977A-9E47C695C27D}">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -9367,36 +5438,36 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="B1" s="12" t="s">
-        <v>372</v>
+        <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>377</v>
+        <v>5</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>373</v>
+        <v>1</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>374</v>
+        <v>2</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>391</v>
+        <v>19</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>393</v>
+        <v>21</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>394</v>
+        <v>22</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>395</v>
+        <v>23</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>388</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>454</v>
+        <v>82</v>
       </c>
       <c r="B2">
         <v>230</v>
@@ -9432,7 +5503,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>455</v>
+        <v>83</v>
       </c>
       <c r="B3">
         <v>386</v>
@@ -9467,7 +5538,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>456</v>
+        <v>84</v>
       </c>
       <c r="B4">
         <v>388</v>
@@ -9502,7 +5573,7 @@
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>457</v>
+        <v>85</v>
       </c>
       <c r="B5">
         <v>956</v>
@@ -9537,7 +5608,7 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>458</v>
+        <v>86</v>
       </c>
       <c r="B6">
         <v>960</v>
@@ -9572,7 +5643,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>459</v>
+        <v>87</v>
       </c>
       <c r="B7">
         <v>962</v>
@@ -9607,7 +5678,7 @@
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>460</v>
+        <v>88</v>
       </c>
       <c r="B8">
         <v>956</v>
@@ -9642,7 +5713,7 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>461</v>
+        <v>89</v>
       </c>
       <c r="B9">
         <v>953</v>
@@ -9677,7 +5748,7 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>462</v>
+        <v>90</v>
       </c>
       <c r="B10">
         <v>967</v>
@@ -9712,7 +5783,7 @@
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>463</v>
+        <v>91</v>
       </c>
       <c r="B11">
         <v>959</v>
@@ -9853,12 +5924,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7221D8-E6B2-6A47-92D2-13357EC161D5}">
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView zoomScale="83" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9872,36 +5943,36 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="B1" s="12" t="s">
-        <v>372</v>
+        <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>377</v>
+        <v>5</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>373</v>
+        <v>1</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>374</v>
+        <v>2</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>391</v>
+        <v>19</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>393</v>
+        <v>21</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>394</v>
+        <v>22</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>395</v>
+        <v>23</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>388</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>475</v>
+        <v>103</v>
       </c>
       <c r="B2">
         <v>57</v>
@@ -9937,7 +6008,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>464</v>
+        <v>92</v>
       </c>
       <c r="B3">
         <v>99</v>
@@ -9972,7 +6043,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>465</v>
+        <v>93</v>
       </c>
       <c r="B4">
         <v>99</v>
@@ -10007,7 +6078,7 @@
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>466</v>
+        <v>94</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -10042,7 +6113,7 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>467</v>
+        <v>95</v>
       </c>
       <c r="B6">
         <v>172</v>
@@ -10077,7 +6148,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>476</v>
+        <v>104</v>
       </c>
       <c r="B7">
         <v>178</v>
@@ -10112,7 +6183,7 @@
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>468</v>
+        <v>96</v>
       </c>
       <c r="B8">
         <v>177</v>
@@ -10147,7 +6218,7 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>469</v>
+        <v>97</v>
       </c>
       <c r="B9">
         <v>180</v>
@@ -10182,7 +6253,7 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>470</v>
+        <v>98</v>
       </c>
       <c r="B10">
         <v>177</v>
@@ -10217,7 +6288,7 @@
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>471</v>
+        <v>99</v>
       </c>
       <c r="B11">
         <v>180</v>
@@ -10252,7 +6323,7 @@
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>472</v>
+        <v>100</v>
       </c>
       <c r="B12">
         <v>181</v>
@@ -10287,7 +6358,7 @@
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>473</v>
+        <v>101</v>
       </c>
       <c r="B13">
         <v>178</v>
@@ -10322,7 +6393,7 @@
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>474</v>
+        <v>102</v>
       </c>
       <c r="B14">
         <v>180</v>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132C81F1-6E9D-FD4C-B7EF-89EBF9807B9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4A2F19-22E1-7940-9830-D2F657BDD838}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8期" sheetId="9" r:id="rId1"/>
@@ -712,8 +712,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>214045</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:colOff>285393</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>57078</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4294188" cy="960438"/>
@@ -730,7 +730,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="214045" y="2097640"/>
+          <a:off x="285393" y="2654157"/>
           <a:ext cx="4294188" cy="960438"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1626,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62339BF-82AB-134D-8EFD-921FB55AD5F0}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="E2" s="5">
         <f>D2/(D9)</f>
-        <v>8.4681972149040275E-4</v>
+        <v>9.5531259951172915E-4</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>20</v>
@@ -1702,18 +1702,18 @@
         <v>105</v>
       </c>
       <c r="B3">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="C3">
         <v>600</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="E3" s="5">
         <f>D3/(D9)</f>
-        <v>2.8791870530673693E-2</v>
+        <v>2.8765523829742064E-2</v>
       </c>
       <c r="F3">
         <v>30555</v>
@@ -1737,18 +1737,18 @@
         <v>106</v>
       </c>
       <c r="B4">
-        <v>481</v>
+        <v>526</v>
       </c>
       <c r="C4">
         <v>900</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D8" si="0">C4-B4</f>
-        <v>419</v>
+        <v>374</v>
       </c>
       <c r="E4" s="5">
         <f>D4/(D9)</f>
-        <v>3.9424162589386524E-2</v>
+        <v>3.9698545801931856E-2</v>
       </c>
       <c r="F4">
         <v>5400</v>
@@ -1772,18 +1772,18 @@
         <v>108</v>
       </c>
       <c r="B5">
-        <v>475</v>
+        <v>526</v>
       </c>
       <c r="C5">
         <v>900</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>425</v>
+        <v>374</v>
       </c>
       <c r="E5" s="5">
         <f>D5/(D9)</f>
-        <v>3.998870907038013E-2</v>
+        <v>3.9698545801931856E-2</v>
       </c>
       <c r="F5">
         <v>5750</v>
@@ -1807,18 +1807,18 @@
         <v>109</v>
       </c>
       <c r="B6">
-        <v>3554</v>
+        <v>3910</v>
       </c>
       <c r="C6">
         <v>6673</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>3119</v>
+        <v>2763</v>
       </c>
       <c r="E6" s="5">
         <f>D6/(D9)</f>
-        <v>0.29347007903650735</v>
+        <v>0.29328096805010084</v>
       </c>
       <c r="F6">
         <v>1100</v>
@@ -1842,18 +1842,18 @@
         <v>110</v>
       </c>
       <c r="B7">
-        <v>3515</v>
+        <v>3882</v>
       </c>
       <c r="C7">
         <v>6673</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>3158</v>
+        <v>2791</v>
       </c>
       <c r="E7" s="5">
         <f>D7/(D9)</f>
-        <v>0.29713963116296577</v>
+        <v>0.29625305169302624</v>
       </c>
       <c r="F7">
         <v>1050</v>
@@ -1877,18 +1877,18 @@
         <v>111</v>
       </c>
       <c r="B8">
-        <v>3481</v>
+        <v>3834</v>
       </c>
       <c r="C8">
         <v>6673</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>3192</v>
+        <v>2839</v>
       </c>
       <c r="E8" s="5">
         <f>D8/(D9)</f>
-        <v>0.30033872788859617</v>
+        <v>0.30134805222375544</v>
       </c>
       <c r="F8">
         <v>1048</v>
@@ -1911,7 +1911,7 @@
       <c r="A9" s="1"/>
       <c r="B9">
         <f>SUM(B2:B8)</f>
-        <v>11811</v>
+        <v>13018</v>
       </c>
       <c r="C9">
         <f>SUM(C2:C8)</f>
@@ -1919,12 +1919,12 @@
       </c>
       <c r="D9">
         <f>SUM(D2:D8)</f>
-        <v>10628</v>
+        <v>9421</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="7">
-        <v>44672.407326388886</v>
+        <v>44674.503680555557</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
@@ -1976,7 +1976,16 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
-      <c r="A16" s="1"/>
+      <c r="A16" s="7">
+        <v>44674.50371527778</v>
+      </c>
+      <c r="C16">
+        <f>D16-D15</f>
+        <v>-1207</v>
+      </c>
+      <c r="D16">
+        <v>9421</v>
+      </c>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="1"/>
@@ -2063,10 +2072,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D06DC-D0D3-DC41-8495-1A009DF45D20}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2122,7 +2131,7 @@
       </c>
       <c r="E2" s="5">
         <f>D2/(D15)</f>
-        <v>3.0864197530864196E-3</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>20</v>
@@ -2139,18 +2148,18 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="C3">
         <v>700</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E3" s="5">
         <f>D3/(D15)</f>
-        <v>4.0123456790123455E-2</v>
+        <v>3.9583333333333331E-2</v>
       </c>
       <c r="F3">
         <v>30555</v>
@@ -2177,18 +2186,18 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="C4">
         <v>750</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D14" si="0">C4-B4</f>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E4" s="5">
         <f>D4/(D15)</f>
-        <v>2.9629629629629631E-2</v>
+        <v>2.9166666666666667E-2</v>
       </c>
       <c r="F4">
         <v>5400</v>
@@ -2212,18 +2221,18 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="C5">
         <v>750</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E5" s="5">
         <f>D5/(D15)</f>
-        <v>3.6419753086419752E-2</v>
+        <v>3.6111111111111108E-2</v>
       </c>
       <c r="F5">
         <v>5750</v>
@@ -2247,18 +2256,18 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1882</v>
+        <v>1908</v>
       </c>
       <c r="C6">
         <v>2056</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="E6" s="5">
         <f>D6/(D15)</f>
-        <v>0.10740740740740741</v>
+        <v>0.10277777777777777</v>
       </c>
       <c r="F6">
         <v>1100</v>
@@ -2282,18 +2291,18 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>1898</v>
+        <v>1921</v>
       </c>
       <c r="C7">
         <v>2056</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="E7" s="5">
         <f>D7/(D15)</f>
-        <v>9.7530864197530862E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="F7">
         <v>1050</v>
@@ -2317,18 +2326,18 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>1886</v>
+        <v>1900</v>
       </c>
       <c r="C8">
         <v>2056</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="E8" s="5">
         <f>D8/(D15)</f>
-        <v>0.10493827160493827</v>
+        <v>0.10833333333333334</v>
       </c>
       <c r="F8">
         <v>1048</v>
@@ -2355,18 +2364,18 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>1900</v>
+        <v>1918</v>
       </c>
       <c r="C9">
         <v>2056</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="E9" s="5">
         <f>D9/(D15)</f>
-        <v>9.6296296296296297E-2</v>
+        <v>9.583333333333334E-2</v>
       </c>
       <c r="F9">
         <v>1048</v>
@@ -2393,18 +2402,18 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>1887</v>
+        <v>1899</v>
       </c>
       <c r="C10">
         <v>2056</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E10" s="5">
         <f>D10/(D15)</f>
-        <v>0.10432098765432099</v>
+        <v>0.10902777777777778</v>
       </c>
       <c r="F10">
         <v>1040</v>
@@ -2431,18 +2440,18 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1908</v>
+        <v>1922</v>
       </c>
       <c r="C11">
         <v>2056</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E11" s="5">
         <f>D11/(D15)</f>
-        <v>9.1358024691358022E-2</v>
+        <v>9.3055555555555558E-2</v>
       </c>
       <c r="F11">
         <v>1088</v>
@@ -2469,18 +2478,18 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>1892</v>
+        <v>1909</v>
       </c>
       <c r="C12">
         <v>2056</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E12" s="5">
         <f>D12/(D15)</f>
-        <v>0.10123456790123457</v>
+        <v>0.10208333333333333</v>
       </c>
       <c r="F12">
         <v>1039</v>
@@ -2507,18 +2516,18 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>1910</v>
+        <v>1926</v>
       </c>
       <c r="C13">
         <v>2056</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E13" s="5">
         <f>D13/(D15)</f>
-        <v>9.0123456790123457E-2</v>
+        <v>9.0277777777777776E-2</v>
       </c>
       <c r="F13">
         <v>1095</v>
@@ -2545,18 +2554,18 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>1898</v>
+        <v>1917</v>
       </c>
       <c r="C14">
         <v>2056</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E14" s="5">
         <f>D14/(D15)</f>
-        <v>9.7530864197530862E-2</v>
+        <v>9.6527777777777782E-2</v>
       </c>
       <c r="F14">
         <v>1039</v>
@@ -2582,7 +2591,7 @@
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B2:B14)</f>
-        <v>19104</v>
+        <v>19284</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C14)</f>
@@ -2590,7 +2599,7 @@
       </c>
       <c r="D15">
         <f>SUM(D2:D14)</f>
-        <v>1620</v>
+        <v>1440</v>
       </c>
       <c r="N15">
         <v>1834</v>
@@ -2598,7 +2607,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="11">
-        <v>44672.414907407408</v>
+        <v>44674.506631944445</v>
       </c>
       <c r="N16">
         <v>1815</v>
@@ -2666,7 +2675,7 @@
         <v>4131</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31:E41" si="2">D31-D30</f>
+        <f t="shared" ref="E31:E42" si="2">D31-D30</f>
         <v>-293</v>
       </c>
       <c r="J31" s="11">
@@ -2791,6 +2800,18 @@
       </c>
       <c r="J41" s="11">
         <v>44672.414965277778</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10">
+      <c r="D42">
+        <v>1440</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>-181</v>
+      </c>
+      <c r="J42" s="11">
+        <v>44674.506678240738</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4A2F19-22E1-7940-9830-D2F657BDD838}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8378A3-9406-4B41-8BEF-D7F5684FFE6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8期" sheetId="9" r:id="rId1"/>
@@ -2074,7 +2074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D06DC-D0D3-DC41-8495-1A009DF45D20}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="89" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
@@ -4013,8 +4013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4614B3D9-5D01-494A-AB9B-1EE17B5FD0A0}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4026,7 +4026,7 @@
     <col min="14" max="14" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4055,23 +4055,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
+    <row r="2" spans="1:10" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B2">
-        <v>615</v>
+        <v>568</v>
       </c>
       <c r="C2">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="D2">
         <f>C2-B2</f>
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="E2" s="5">
         <f>D2/(D17)</f>
-        <v>3.0313837375178315E-2</v>
+        <v>3.287671232876712E-2</v>
       </c>
       <c r="F2">
         <v>30555</v>
@@ -4086,28 +4086,27 @@
       <c r="I2">
         <v>30555</v>
       </c>
-      <c r="J2" s="8">
-        <v>100513759</v>
-      </c>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="J2">
+        <v>100000317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B3">
-        <v>690</v>
+        <v>981</v>
       </c>
       <c r="C3">
-        <v>750</v>
+        <v>999</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D16" si="0">C3-B3</f>
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E3" s="5">
         <f>D3/(D17)</f>
-        <v>2.1398002853067047E-2</v>
+        <v>4.9315068493150684E-2</v>
       </c>
       <c r="F3">
         <v>5400</v>
@@ -4122,27 +4121,27 @@
       <c r="I3">
         <v>5400</v>
       </c>
-      <c r="J3" s="8">
-        <v>100513761</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="J3">
+        <v>100000316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B4">
-        <v>663</v>
+        <v>981</v>
       </c>
       <c r="C4">
-        <v>750</v>
+        <v>999</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="E4" s="5">
         <f>D4/(D17)</f>
-        <v>3.1027104136947217E-2</v>
+        <v>4.9315068493150684E-2</v>
       </c>
       <c r="F4">
         <v>5750</v>
@@ -4157,27 +4156,27 @@
       <c r="I4">
         <v>5750</v>
       </c>
-      <c r="J4" s="8">
-        <v>100513762</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
+      <c r="J4">
+        <v>100000315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B5">
-        <v>1835</v>
+        <v>1415</v>
       </c>
       <c r="C5">
-        <v>2055</v>
+        <v>1452</v>
       </c>
       <c r="D5">
         <f>C5-B5</f>
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5">
         <f>D5/(D17)</f>
-        <v>7.8459343794579167E-2</v>
+        <v>0.10136986301369863</v>
       </c>
       <c r="F5">
         <v>1039</v>
@@ -4192,27 +4191,27 @@
       <c r="I5">
         <v>1039</v>
       </c>
-      <c r="J5">
-        <v>100513771</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
+      <c r="J5" s="8">
+        <v>100000303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B6">
-        <v>1829</v>
+        <v>1432</v>
       </c>
       <c r="C6">
-        <v>2055</v>
+        <v>1452</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>226</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5">
         <f>D6/(D17)</f>
-        <v>8.0599144079885873E-2</v>
+        <v>5.4794520547945202E-2</v>
       </c>
       <c r="F6">
         <v>1100</v>
@@ -4227,27 +4226,27 @@
       <c r="I6">
         <v>1100</v>
       </c>
-      <c r="J6">
-        <v>100513763</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
+      <c r="J6" s="8">
+        <v>100000318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B7">
-        <v>1841</v>
+        <v>1411</v>
       </c>
       <c r="C7">
-        <v>2055</v>
+        <v>1452</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="E7" s="5">
         <f>D7/(D17)</f>
-        <v>7.6319543509272461E-2</v>
+        <v>0.11232876712328767</v>
       </c>
       <c r="F7">
         <v>1050</v>
@@ -4262,27 +4261,27 @@
       <c r="I7">
         <v>1050</v>
       </c>
-      <c r="J7">
-        <v>100513764</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1">
+      <c r="J7" s="8">
+        <v>100000319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B8">
-        <v>1828</v>
+        <v>1435</v>
       </c>
       <c r="C8">
-        <v>2055</v>
+        <v>1452</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>227</v>
+        <v>17</v>
       </c>
       <c r="E8" s="5">
         <f>D8/(D17)</f>
-        <v>8.0955777460770331E-2</v>
+        <v>4.6575342465753428E-2</v>
       </c>
       <c r="F8">
         <v>1048</v>
@@ -4298,26 +4297,26 @@
         <v>1048</v>
       </c>
       <c r="J8">
-        <v>100513765</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1">
+        <v>100000306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B9">
-        <v>1843</v>
+        <v>1428</v>
       </c>
       <c r="C9">
-        <v>2056</v>
+        <v>1452</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>213</v>
+        <v>24</v>
       </c>
       <c r="E9" s="5">
         <f>D9/(D17)</f>
-        <v>7.5962910128388017E-2</v>
+        <v>6.575342465753424E-2</v>
       </c>
       <c r="F9">
         <v>1048</v>
@@ -4333,26 +4332,26 @@
         <v>1048</v>
       </c>
       <c r="J9">
-        <v>100513766</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1">
+        <v>100000307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B10">
-        <v>1844</v>
+        <v>1429</v>
       </c>
       <c r="C10">
-        <v>2056</v>
+        <v>1452</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>23</v>
       </c>
       <c r="E10" s="5">
         <f>D10/(D17)</f>
-        <v>7.5606276747503573E-2</v>
+        <v>6.3013698630136991E-2</v>
       </c>
       <c r="F10">
         <v>1040</v>
@@ -4368,26 +4367,26 @@
         <v>1040</v>
       </c>
       <c r="J10">
-        <v>100513767</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
+        <v>100000308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B11">
-        <v>1868</v>
+        <v>1430</v>
       </c>
       <c r="C11">
-        <v>2056</v>
+        <v>1452</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="E11" s="5">
         <f>D11/(D17)</f>
-        <v>6.7047075606276749E-2</v>
+        <v>6.0273972602739728E-2</v>
       </c>
       <c r="F11">
         <v>1088</v>
@@ -4403,26 +4402,26 @@
         <v>1088</v>
       </c>
       <c r="J11">
-        <v>100513768</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
+        <v>100000309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B12">
-        <v>1839</v>
+        <v>1427</v>
       </c>
       <c r="C12">
-        <v>2056</v>
+        <v>1452</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>217</v>
+        <v>25</v>
       </c>
       <c r="E12" s="5">
         <f>D12/(D17)</f>
-        <v>7.7389443651925821E-2</v>
+        <v>6.8493150684931503E-2</v>
       </c>
       <c r="F12">
         <v>1039</v>
@@ -4438,26 +4437,26 @@
         <v>1039</v>
       </c>
       <c r="J12">
-        <v>100513769</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
+        <v>100000310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B13">
-        <v>1839</v>
+        <v>1422</v>
       </c>
       <c r="C13">
-        <v>2056</v>
+        <v>1452</v>
       </c>
       <c r="D13">
         <f t="shared" ref="D13:D15" si="2">C13-B13</f>
-        <v>217</v>
+        <v>30</v>
       </c>
       <c r="E13" s="5">
-        <f>D13/C17</f>
-        <v>8.0765222569599525E-3</v>
+        <f>D13/D17</f>
+        <v>8.2191780821917804E-2</v>
       </c>
       <c r="F13">
         <v>1039</v>
@@ -4473,26 +4472,26 @@
         <v>1039</v>
       </c>
       <c r="J13">
-        <v>100513769</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
+        <v>100000311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B14">
-        <v>1839</v>
+        <v>1430</v>
       </c>
       <c r="C14">
-        <v>2056</v>
+        <v>1451</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="E14" s="5">
-        <f>D14/C17</f>
-        <v>8.0765222569599525E-3</v>
+        <f>D14/D17</f>
+        <v>5.7534246575342465E-2</v>
       </c>
       <c r="F14">
         <v>1039</v>
@@ -4508,26 +4507,26 @@
         <v>1039</v>
       </c>
       <c r="J14">
-        <v>100513769</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1">
+        <v>100000312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B15">
-        <v>1839</v>
+        <v>1422</v>
       </c>
       <c r="C15">
-        <v>2056</v>
+        <v>1451</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="E15" s="5">
-        <f>D15/C17</f>
-        <v>8.0765222569599525E-3</v>
+        <f>D15/D17</f>
+        <v>7.9452054794520555E-2</v>
       </c>
       <c r="F15">
         <v>1039</v>
@@ -4543,26 +4542,26 @@
         <v>1039</v>
       </c>
       <c r="J15">
-        <v>100513769</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1">
+        <v>100000313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B16">
-        <v>1852</v>
+        <v>1423</v>
       </c>
       <c r="C16">
-        <v>2056</v>
+        <v>1451</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>28</v>
       </c>
       <c r="E16" s="5">
         <f>D16/(D17)</f>
-        <v>7.2753209700427965E-2</v>
+        <v>7.6712328767123292E-2</v>
       </c>
       <c r="F16">
         <v>1095</v>
@@ -4578,27 +4577,27 @@
         <v>1095</v>
       </c>
       <c r="J16">
-        <v>100513770</v>
+        <v>100000314</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17">
         <f>SUM(B2:B16)</f>
-        <v>24064</v>
+        <v>19634</v>
       </c>
       <c r="C17">
         <f>SUM(C2:C16)</f>
-        <v>26868</v>
+        <v>19999</v>
       </c>
       <c r="D17">
         <f>SUM(D2:D16)</f>
-        <v>2804</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1">
       <c r="A18" s="7">
-        <v>44666.482430555552</v>
+        <v>44675.737326388888</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1">
@@ -4694,7 +4693,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J2" sqref="J2:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8378A3-9406-4B41-8BEF-D7F5684FFE6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3E7B69-D1FA-7544-ACC4-1AB6751003F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8期" sheetId="9" r:id="rId1"/>
@@ -4013,7 +4013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4614B3D9-5D01-494A-AB9B-1EE17B5FD0A0}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -4692,8 +4692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3E1037-247A-B34C-A448-182432C86F5C}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J18"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4750,7 +4750,7 @@
       </c>
       <c r="E2" s="5">
         <f>D2/(D19)</f>
-        <v>3.0211480362537764E-3</v>
+        <v>3.205128205128205E-3</v>
       </c>
       <c r="F2">
         <v>33331</v>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="E3" s="5">
         <f>D3/(D19)</f>
-        <v>3.9274924471299093E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="F3">
         <v>6888</v>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="E4" s="5">
         <f>D4/(D19)</f>
-        <v>4.2296072507552872E-2</v>
+        <v>4.4871794871794872E-2</v>
       </c>
       <c r="F4">
         <v>6999</v>
@@ -4845,18 +4845,18 @@
         <v>65</v>
       </c>
       <c r="B5">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C5">
         <v>599</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="5">
         <f>D5/(D19)</f>
-        <v>6.0422960725075532E-2</v>
+        <v>5.7692307692307696E-2</v>
       </c>
       <c r="F5">
         <v>6999</v>
@@ -4891,7 +4891,7 @@
       </c>
       <c r="E6" s="5">
         <f>D6/(D19)</f>
-        <v>6.6465256797583083E-2</v>
+        <v>7.0512820512820512E-2</v>
       </c>
       <c r="F6">
         <v>1388</v>
@@ -4915,18 +4915,18 @@
         <v>67</v>
       </c>
       <c r="B7">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C7">
         <v>758</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="5">
         <f>D7/(D19)</f>
-        <v>6.9486404833836862E-2</v>
+        <v>6.7307692307692304E-2</v>
       </c>
       <c r="F7">
         <v>1300</v>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="E8" s="5">
         <f>D8/(D19)</f>
-        <v>6.9486404833836862E-2</v>
+        <v>7.371794871794872E-2</v>
       </c>
       <c r="F8">
         <v>1400</v>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="E9" s="5">
         <f>D9/(D19)</f>
-        <v>5.4380664652567974E-2</v>
+        <v>5.7692307692307696E-2</v>
       </c>
       <c r="F9">
         <v>1300</v>
@@ -5020,18 +5020,18 @@
         <v>70</v>
       </c>
       <c r="B10">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C10">
         <v>758</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="5">
         <f>D10/(D19)</f>
-        <v>5.7401812688821753E-2</v>
+        <v>5.7692307692307696E-2</v>
       </c>
       <c r="F10">
         <v>1450</v>
@@ -5055,18 +5055,18 @@
         <v>71</v>
       </c>
       <c r="B11">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C11">
         <v>758</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="5">
         <f>D11/(D19)</f>
-        <v>4.8338368580060423E-2</v>
+        <v>4.807692307692308E-2</v>
       </c>
       <c r="F11">
         <v>1444</v>
@@ -5090,18 +5090,18 @@
         <v>72</v>
       </c>
       <c r="B12">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="C12">
         <v>758</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E12" s="5">
         <f>D12/(D19)</f>
-        <v>7.5528700906344406E-2</v>
+        <v>6.7307692307692304E-2</v>
       </c>
       <c r="F12">
         <v>1299</v>
@@ -5125,18 +5125,18 @@
         <v>73</v>
       </c>
       <c r="B13">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C13">
         <v>758</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="5">
         <f>D13/(D19)</f>
-        <v>5.7401812688821753E-2</v>
+        <v>5.7692307692307696E-2</v>
       </c>
       <c r="F13">
         <v>1478</v>
@@ -5160,18 +5160,18 @@
         <v>74</v>
       </c>
       <c r="B14">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C14">
         <v>758</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E14" s="5">
         <f>D14/(D19)</f>
-        <v>5.4380664652567974E-2</v>
+        <v>4.807692307692308E-2</v>
       </c>
       <c r="F14">
         <v>1445</v>
@@ -5195,18 +5195,18 @@
         <v>75</v>
       </c>
       <c r="B15">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C15">
         <v>758</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="5">
         <f>D15/(D19)</f>
-        <v>8.4592145015105744E-2</v>
+        <v>8.6538461538461536E-2</v>
       </c>
       <c r="F15">
         <v>1300</v>
@@ -5230,18 +5230,18 @@
         <v>76</v>
       </c>
       <c r="B16">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C16">
         <v>758</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E16" s="5">
         <f>D16/(D19)</f>
-        <v>7.8549848942598186E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="F16">
         <v>1750</v>
@@ -5265,18 +5265,18 @@
         <v>77</v>
       </c>
       <c r="B17">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C17">
         <v>758</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E17" s="5">
         <f>D17/(D19)</f>
-        <v>7.8549848942598186E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="F17">
         <v>1490</v>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="E18" s="5">
         <f>D18/(D19)</f>
-        <v>6.0422960725075532E-2</v>
+        <v>6.4102564102564097E-2</v>
       </c>
       <c r="F18">
         <v>1350</v>
@@ -5334,7 +5334,7 @@
       <c r="A19" s="6"/>
       <c r="B19">
         <f>SUM(B2:B18)</f>
-        <v>11669</v>
+        <v>11688</v>
       </c>
       <c r="C19">
         <f>SUM(C2:C18)</f>
@@ -5342,12 +5342,15 @@
       </c>
       <c r="D19">
         <f>SUM(D2:D18)</f>
-        <v>331</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
       <c r="A20" s="7">
-        <v>44669.94736111111</v>
+        <v>44675.745127314818</v>
+      </c>
+      <c r="D20">
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3E7B69-D1FA-7544-ACC4-1AB6751003F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950B5AC0-26FC-3E4E-BB7F-A884CEEE6452}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8期" sheetId="9" r:id="rId1"/>
@@ -1626,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62339BF-82AB-134D-8EFD-921FB55AD5F0}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="E2" s="5">
         <f>D2/(D9)</f>
-        <v>9.5531259951172915E-4</v>
+        <v>1.2744265080713679E-3</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>20</v>
@@ -1702,18 +1702,18 @@
         <v>105</v>
       </c>
       <c r="B3">
-        <v>329</v>
+        <v>384</v>
       </c>
       <c r="C3">
         <v>600</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>271</v>
+        <v>216</v>
       </c>
       <c r="E3" s="5">
         <f>D3/(D9)</f>
-        <v>2.8765523829742064E-2</v>
+        <v>3.058623619371283E-2</v>
       </c>
       <c r="F3">
         <v>30555</v>
@@ -1737,18 +1737,18 @@
         <v>106</v>
       </c>
       <c r="B4">
-        <v>526</v>
+        <v>596</v>
       </c>
       <c r="C4">
         <v>900</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D8" si="0">C4-B4</f>
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="E4" s="5">
         <f>D4/(D9)</f>
-        <v>3.9698545801931856E-2</v>
+        <v>4.304729538374398E-2</v>
       </c>
       <c r="F4">
         <v>5400</v>
@@ -1772,18 +1772,18 @@
         <v>108</v>
       </c>
       <c r="B5">
-        <v>526</v>
+        <v>601</v>
       </c>
       <c r="C5">
         <v>900</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>374</v>
+        <v>299</v>
       </c>
       <c r="E5" s="5">
         <f>D5/(D9)</f>
-        <v>3.9698545801931856E-2</v>
+        <v>4.2339280657037667E-2</v>
       </c>
       <c r="F5">
         <v>5750</v>
@@ -1807,18 +1807,18 @@
         <v>109</v>
       </c>
       <c r="B6">
-        <v>3910</v>
+        <v>4883</v>
       </c>
       <c r="C6">
         <v>6673</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>2763</v>
+        <v>1790</v>
       </c>
       <c r="E6" s="5">
         <f>D6/(D9)</f>
-        <v>0.29328096805010084</v>
+        <v>0.25346927216086096</v>
       </c>
       <c r="F6">
         <v>1100</v>
@@ -1842,18 +1842,18 @@
         <v>110</v>
       </c>
       <c r="B7">
-        <v>3882</v>
+        <v>4449</v>
       </c>
       <c r="C7">
         <v>6673</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>2791</v>
+        <v>2224</v>
       </c>
       <c r="E7" s="5">
         <f>D7/(D9)</f>
-        <v>0.29625305169302624</v>
+        <v>0.31492495043896912</v>
       </c>
       <c r="F7">
         <v>1050</v>
@@ -1877,18 +1877,18 @@
         <v>111</v>
       </c>
       <c r="B8">
-        <v>3834</v>
+        <v>4453</v>
       </c>
       <c r="C8">
         <v>6673</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>2839</v>
+        <v>2220</v>
       </c>
       <c r="E8" s="5">
         <f>D8/(D9)</f>
-        <v>0.30134805222375544</v>
+        <v>0.3143585386576041</v>
       </c>
       <c r="F8">
         <v>1048</v>
@@ -1911,7 +1911,7 @@
       <c r="A9" s="1"/>
       <c r="B9">
         <f>SUM(B2:B8)</f>
-        <v>13018</v>
+        <v>15377</v>
       </c>
       <c r="C9">
         <f>SUM(C2:C8)</f>
@@ -1919,12 +1919,12 @@
       </c>
       <c r="D9">
         <f>SUM(D2:D8)</f>
-        <v>9421</v>
+        <v>7062</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="7">
-        <v>44674.503680555557</v>
+        <v>44676.46707175926</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
@@ -1988,7 +1988,16 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1">
-      <c r="A17" s="1"/>
+      <c r="A17" s="7">
+        <v>44676.46707175926</v>
+      </c>
+      <c r="C17">
+        <f>D17-D16</f>
+        <v>-2359</v>
+      </c>
+      <c r="D17">
+        <v>7062</v>
+      </c>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1">
       <c r="A18" s="1"/>
@@ -4692,7 +4701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3E1037-247A-B34C-A448-182432C86F5C}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950B5AC0-26FC-3E4E-BB7F-A884CEEE6452}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0B3E1D-B72B-8D4F-9297-F127C29D38F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8期" sheetId="9" r:id="rId1"/>
@@ -1626,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62339BF-82AB-134D-8EFD-921FB55AD5F0}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2838,8 +2838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23834F0F-0918-B64F-9000-1ED84B75F029}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -2885,18 +2885,18 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C2">
         <v>700</v>
       </c>
       <c r="D2">
         <f>C2-B2</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="5">
         <f>D2/(D14)</f>
-        <v>4.4715447154471545E-2</v>
+        <v>4.0540540540540543E-2</v>
       </c>
       <c r="F2">
         <v>13333</v>
@@ -2911,8 +2911,8 @@
       <c r="I2">
         <v>30555</v>
       </c>
-      <c r="J2" s="8">
-        <v>100513759</v>
+      <c r="J2">
+        <v>100513712</v>
       </c>
       <c r="K2" s="10"/>
     </row>
@@ -2921,18 +2921,18 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C3">
         <v>750</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D13" si="0">C3-B3</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="5">
         <f>D3/(D14)</f>
-        <v>3.2520325203252036E-2</v>
+        <v>3.1531531531531529E-2</v>
       </c>
       <c r="F3">
         <v>4488</v>
@@ -2947,8 +2947,8 @@
       <c r="I3">
         <v>5400</v>
       </c>
-      <c r="J3" s="8">
-        <v>100513761</v>
+      <c r="J3">
+        <v>100513713</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="E4" s="5">
         <f>D4/(D14)</f>
-        <v>2.4390243902439025E-2</v>
+        <v>2.7027027027027029E-2</v>
       </c>
       <c r="F4">
         <v>4350</v>
@@ -2982,8 +2982,8 @@
       <c r="I4">
         <v>5750</v>
       </c>
-      <c r="J4" s="8">
-        <v>100513762</v>
+      <c r="J4">
+        <v>100513714</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
@@ -2991,18 +2991,18 @@
         <v>36</v>
       </c>
       <c r="B5">
-        <v>2029</v>
+        <v>2033</v>
       </c>
       <c r="C5">
         <v>2055</v>
       </c>
       <c r="D5">
         <f>C5-B5</f>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5" s="5">
         <f>D5/(D14)</f>
-        <v>0.10569105691056911</v>
+        <v>9.90990990990991E-2</v>
       </c>
       <c r="F5">
         <v>950</v>
@@ -3018,7 +3018,7 @@
         <v>1039</v>
       </c>
       <c r="J5">
-        <v>100513771</v>
+        <v>100513715</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
@@ -3026,18 +3026,18 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="C6">
         <v>2055</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="5">
         <f>D6/(D14)</f>
-        <v>0.10975609756097561</v>
+        <v>0.11711711711711711</v>
       </c>
       <c r="F6">
         <v>1280</v>
@@ -3053,7 +3053,7 @@
         <v>1100</v>
       </c>
       <c r="J6">
-        <v>100513763</v>
+        <v>100513716</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
@@ -3061,18 +3061,18 @@
         <v>29</v>
       </c>
       <c r="B7">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="C7">
         <v>2055</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="5">
         <f>D7/(D14)</f>
-        <v>7.3170731707317069E-2</v>
+        <v>7.2072072072072071E-2</v>
       </c>
       <c r="F7">
         <v>999</v>
@@ -3088,7 +3088,7 @@
         <v>1050</v>
       </c>
       <c r="J7">
-        <v>100513764</v>
+        <v>100513717</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
@@ -3096,18 +3096,18 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>2030</v>
+        <v>2033</v>
       </c>
       <c r="C8">
         <v>2055</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8" s="5">
         <f>D8/(D14)</f>
-        <v>0.1016260162601626</v>
+        <v>9.90990990990991E-2</v>
       </c>
       <c r="F8">
         <v>1008</v>
@@ -3123,7 +3123,7 @@
         <v>1048</v>
       </c>
       <c r="J8">
-        <v>100513765</v>
+        <v>100513718</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
@@ -3131,18 +3131,18 @@
         <v>31</v>
       </c>
       <c r="B9">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="C9">
         <v>2056</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="5">
         <f>D9/(D14)</f>
-        <v>0.11382113821138211</v>
+        <v>0.12162162162162163</v>
       </c>
       <c r="F9">
         <v>970</v>
@@ -3158,7 +3158,7 @@
         <v>1048</v>
       </c>
       <c r="J9">
-        <v>100513766</v>
+        <v>100513719</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
@@ -3166,18 +3166,18 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <v>2031</v>
+        <v>2034</v>
       </c>
       <c r="C10">
         <v>2056</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10" s="5">
         <f>D10/(D14)</f>
-        <v>0.1016260162601626</v>
+        <v>9.90990990990991E-2</v>
       </c>
       <c r="F10">
         <v>999</v>
@@ -3193,7 +3193,7 @@
         <v>1040</v>
       </c>
       <c r="J10">
-        <v>100513767</v>
+        <v>100513720</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
@@ -3201,18 +3201,18 @@
         <v>33</v>
       </c>
       <c r="B11">
-        <v>2034</v>
+        <v>2037</v>
       </c>
       <c r="C11">
         <v>2056</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E11" s="5">
         <f>D11/(D14)</f>
-        <v>8.943089430894309E-2</v>
+        <v>8.5585585585585586E-2</v>
       </c>
       <c r="F11">
         <v>989</v>
@@ -3228,7 +3228,7 @@
         <v>1088</v>
       </c>
       <c r="J11">
-        <v>100513768</v>
+        <v>100513721</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
@@ -3236,18 +3236,18 @@
         <v>34</v>
       </c>
       <c r="B12">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="C12">
         <v>2056</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E12" s="5">
         <f>D12/(D14)</f>
-        <v>9.3495934959349589E-2</v>
+        <v>0.11261261261261261</v>
       </c>
       <c r="F12">
         <v>940</v>
@@ -3263,7 +3263,7 @@
         <v>1039</v>
       </c>
       <c r="J12">
-        <v>100513769</v>
+        <v>100513722</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
@@ -3271,18 +3271,18 @@
         <v>35</v>
       </c>
       <c r="B13">
-        <v>2029</v>
+        <v>2035</v>
       </c>
       <c r="C13">
         <v>2056</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E13" s="5">
         <f>D13/(D14)</f>
-        <v>0.10975609756097561</v>
+        <v>9.45945945945946E-2</v>
       </c>
       <c r="F13">
         <v>960</v>
@@ -3298,14 +3298,14 @@
         <v>1095</v>
       </c>
       <c r="J13">
-        <v>100513770</v>
+        <v>100513723</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14">
         <f>SUM(B2:B13)</f>
-        <v>20454</v>
+        <v>20478</v>
       </c>
       <c r="C14">
         <f>SUM(C2:C13)</f>
@@ -3313,12 +3313,12 @@
       </c>
       <c r="D14">
         <f>SUM(D2:D13)</f>
-        <v>246</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="7">
-        <v>44666.482430555552</v>
+        <v>44676.495370370372</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
@@ -3404,6 +3404,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0B3E1D-B72B-8D4F-9297-F127C29D38F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54652D22-D8DF-B44F-B770-5F6F2721DB17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2839,7 +2839,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54652D22-D8DF-B44F-B770-5F6F2721DB17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFFA5F2-F543-FA4F-A645-A7EC1FB6F1B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8期" sheetId="9" r:id="rId1"/>
@@ -2081,10 +2081,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D06DC-D0D3-DC41-8495-1A009DF45D20}">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2129,18 +2129,18 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>20</v>
       </c>
       <c r="D2">
         <f>C2-B2</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="5">
         <f>D2/(D15)</f>
-        <v>3.472222222222222E-3</v>
+        <v>3.0395136778115501E-3</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>20</v>
@@ -2157,18 +2157,18 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C3">
         <v>700</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E3" s="5">
         <f>D3/(D15)</f>
-        <v>3.9583333333333331E-2</v>
+        <v>3.8753799392097263E-2</v>
       </c>
       <c r="F3">
         <v>30555</v>
@@ -2195,18 +2195,18 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="C4">
         <v>750</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D14" si="0">C4-B4</f>
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E4" s="5">
         <f>D4/(D15)</f>
-        <v>2.9166666666666667E-2</v>
+        <v>2.5835866261398176E-2</v>
       </c>
       <c r="F4">
         <v>5400</v>
@@ -2230,18 +2230,18 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C5">
         <v>750</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="5">
         <f>D5/(D15)</f>
-        <v>3.6111111111111108E-2</v>
+        <v>3.8753799392097263E-2</v>
       </c>
       <c r="F5">
         <v>5750</v>
@@ -2265,18 +2265,18 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1908</v>
+        <v>1920</v>
       </c>
       <c r="C6">
         <v>2056</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E6" s="5">
         <f>D6/(D15)</f>
-        <v>0.10277777777777777</v>
+        <v>0.10334346504559271</v>
       </c>
       <c r="F6">
         <v>1100</v>
@@ -2300,18 +2300,18 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>1921</v>
+        <v>1932</v>
       </c>
       <c r="C7">
         <v>2056</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E7" s="5">
         <f>D7/(D15)</f>
-        <v>9.375E-2</v>
+        <v>9.4224924012158054E-2</v>
       </c>
       <c r="F7">
         <v>1050</v>
@@ -2335,18 +2335,18 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>1900</v>
+        <v>1910</v>
       </c>
       <c r="C8">
         <v>2056</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E8" s="5">
         <f>D8/(D15)</f>
-        <v>0.10833333333333334</v>
+        <v>0.11094224924012158</v>
       </c>
       <c r="F8">
         <v>1048</v>
@@ -2373,18 +2373,18 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>1918</v>
+        <v>1929</v>
       </c>
       <c r="C9">
         <v>2056</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E9" s="5">
         <f>D9/(D15)</f>
-        <v>9.583333333333334E-2</v>
+        <v>9.6504559270516724E-2</v>
       </c>
       <c r="F9">
         <v>1048</v>
@@ -2411,18 +2411,18 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>1899</v>
+        <v>1910</v>
       </c>
       <c r="C10">
         <v>2056</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E10" s="5">
         <f>D10/(D15)</f>
-        <v>0.10902777777777778</v>
+        <v>0.11094224924012158</v>
       </c>
       <c r="F10">
         <v>1040</v>
@@ -2449,18 +2449,18 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1922</v>
+        <v>1933</v>
       </c>
       <c r="C11">
         <v>2056</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E11" s="5">
         <f>D11/(D15)</f>
-        <v>9.3055555555555558E-2</v>
+        <v>9.3465045592705173E-2</v>
       </c>
       <c r="F11">
         <v>1088</v>
@@ -2487,18 +2487,18 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>1909</v>
+        <v>1924</v>
       </c>
       <c r="C12">
         <v>2056</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="E12" s="5">
         <f>D12/(D15)</f>
-        <v>0.10208333333333333</v>
+        <v>0.10030395136778116</v>
       </c>
       <c r="F12">
         <v>1039</v>
@@ -2525,18 +2525,18 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>1926</v>
+        <v>1937</v>
       </c>
       <c r="C13">
         <v>2056</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E13" s="5">
         <f>D13/(D15)</f>
-        <v>9.0277777777777776E-2</v>
+        <v>9.0425531914893623E-2</v>
       </c>
       <c r="F13">
         <v>1095</v>
@@ -2563,18 +2563,18 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>1917</v>
+        <v>1933</v>
       </c>
       <c r="C14">
         <v>2056</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E14" s="5">
         <f>D14/(D15)</f>
-        <v>9.6527777777777782E-2</v>
+        <v>9.3465045592705173E-2</v>
       </c>
       <c r="F14">
         <v>1039</v>
@@ -2600,7 +2600,7 @@
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B2:B14)</f>
-        <v>19284</v>
+        <v>19408</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C14)</f>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="D15">
         <f>SUM(D2:D14)</f>
-        <v>1440</v>
+        <v>1316</v>
       </c>
       <c r="N15">
         <v>1834</v>
@@ -2616,7 +2616,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="11">
-        <v>44674.506631944445</v>
+        <v>44676.603229166663</v>
       </c>
       <c r="N16">
         <v>1815</v>
@@ -2684,7 +2684,7 @@
         <v>4131</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31:E42" si="2">D31-D30</f>
+        <f t="shared" ref="E31:E43" si="2">D31-D30</f>
         <v>-293</v>
       </c>
       <c r="J31" s="11">
@@ -2821,6 +2821,18 @@
       </c>
       <c r="J42" s="11">
         <v>44674.506678240738</v>
+      </c>
+    </row>
+    <row r="43" spans="4:10">
+      <c r="D43">
+        <v>1317</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>-123</v>
+      </c>
+      <c r="J43" s="11">
+        <v>44676.603344907409</v>
       </c>
     </row>
   </sheetData>
@@ -2838,7 +2850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23834F0F-0918-B64F-9000-1ED84B75F029}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFFA5F2-F543-FA4F-A645-A7EC1FB6F1B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3703A036-B556-B44B-BA16-EAEE72986B86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8期" sheetId="9" r:id="rId1"/>
@@ -1626,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62339BF-82AB-134D-8EFD-921FB55AD5F0}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="E2" s="5">
         <f>D2/(D9)</f>
-        <v>1.2744265080713679E-3</v>
+        <v>1.7468944099378882E-3</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>20</v>
@@ -1702,18 +1702,18 @@
         <v>105</v>
       </c>
       <c r="B3">
-        <v>384</v>
+        <v>449</v>
       </c>
       <c r="C3">
         <v>600</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>216</v>
+        <v>151</v>
       </c>
       <c r="E3" s="5">
         <f>D3/(D9)</f>
-        <v>3.058623619371283E-2</v>
+        <v>2.9309006211180124E-2</v>
       </c>
       <c r="F3">
         <v>30555</v>
@@ -1737,18 +1737,18 @@
         <v>106</v>
       </c>
       <c r="B4">
-        <v>596</v>
+        <v>691</v>
       </c>
       <c r="C4">
         <v>900</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D8" si="0">C4-B4</f>
-        <v>304</v>
+        <v>209</v>
       </c>
       <c r="E4" s="5">
         <f>D4/(D9)</f>
-        <v>4.304729538374398E-2</v>
+        <v>4.05667701863354E-2</v>
       </c>
       <c r="F4">
         <v>5400</v>
@@ -1772,18 +1772,18 @@
         <v>108</v>
       </c>
       <c r="B5">
-        <v>601</v>
+        <v>700</v>
       </c>
       <c r="C5">
         <v>900</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>299</v>
+        <v>200</v>
       </c>
       <c r="E5" s="5">
         <f>D5/(D9)</f>
-        <v>4.2339280657037667E-2</v>
+        <v>3.8819875776397512E-2</v>
       </c>
       <c r="F5">
         <v>5750</v>
@@ -1807,18 +1807,18 @@
         <v>109</v>
       </c>
       <c r="B6">
-        <v>4883</v>
+        <v>5147</v>
       </c>
       <c r="C6">
         <v>6673</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>1790</v>
+        <v>1526</v>
       </c>
       <c r="E6" s="5">
         <f>D6/(D9)</f>
-        <v>0.25346927216086096</v>
+        <v>0.29619565217391303</v>
       </c>
       <c r="F6">
         <v>1100</v>
@@ -1842,18 +1842,18 @@
         <v>110</v>
       </c>
       <c r="B7">
-        <v>4449</v>
+        <v>5169</v>
       </c>
       <c r="C7">
         <v>6673</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>2224</v>
+        <v>1504</v>
       </c>
       <c r="E7" s="5">
         <f>D7/(D9)</f>
-        <v>0.31492495043896912</v>
+        <v>0.29192546583850931</v>
       </c>
       <c r="F7">
         <v>1050</v>
@@ -1877,18 +1877,18 @@
         <v>111</v>
       </c>
       <c r="B8">
-        <v>4453</v>
+        <v>5120</v>
       </c>
       <c r="C8">
         <v>6673</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>2220</v>
+        <v>1553</v>
       </c>
       <c r="E8" s="5">
         <f>D8/(D9)</f>
-        <v>0.3143585386576041</v>
+        <v>0.30143633540372672</v>
       </c>
       <c r="F8">
         <v>1048</v>
@@ -1911,7 +1911,7 @@
       <c r="A9" s="1"/>
       <c r="B9">
         <f>SUM(B2:B8)</f>
-        <v>15377</v>
+        <v>17287</v>
       </c>
       <c r="C9">
         <f>SUM(C2:C8)</f>
@@ -1919,12 +1919,12 @@
       </c>
       <c r="D9">
         <f>SUM(D2:D8)</f>
-        <v>7062</v>
+        <v>5152</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="7">
-        <v>44676.46707175926</v>
+        <v>44678.37976851852</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
@@ -2000,7 +2000,16 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1">
-      <c r="A18" s="1"/>
+      <c r="A18" s="7">
+        <v>44678.379895833335</v>
+      </c>
+      <c r="C18">
+        <f>D18-D17</f>
+        <v>-1910</v>
+      </c>
+      <c r="D18">
+        <v>5152</v>
+      </c>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1">
       <c r="A19" s="1"/>
@@ -2083,7 +2092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D06DC-D0D3-DC41-8495-1A009DF45D20}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3703A036-B556-B44B-BA16-EAEE72986B86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C66044-A66B-1047-B363-33D1301223AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8期" sheetId="9" r:id="rId1"/>
@@ -1627,7 +1627,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1673,18 +1673,18 @@
         <v>107</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>20</v>
       </c>
       <c r="D2">
         <f>C2-B2</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="5">
         <f>D2/(D9)</f>
-        <v>1.7468944099378882E-3</v>
+        <v>1.7539463793535455E-3</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>20</v>
@@ -1702,18 +1702,18 @@
         <v>105</v>
       </c>
       <c r="B3">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="C3">
         <v>600</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="E3" s="5">
         <f>D3/(D9)</f>
-        <v>2.9309006211180124E-2</v>
+        <v>2.7562014532698572E-2</v>
       </c>
       <c r="F3">
         <v>30555</v>
@@ -1737,18 +1737,18 @@
         <v>106</v>
       </c>
       <c r="B4">
-        <v>691</v>
+        <v>726</v>
       </c>
       <c r="C4">
         <v>900</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D8" si="0">C4-B4</f>
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="E4" s="5">
         <f>D4/(D9)</f>
-        <v>4.05667701863354E-2</v>
+        <v>4.359809571535956E-2</v>
       </c>
       <c r="F4">
         <v>5400</v>
@@ -1772,18 +1772,18 @@
         <v>108</v>
       </c>
       <c r="B5">
-        <v>700</v>
+        <v>742</v>
       </c>
       <c r="C5">
         <v>900</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="E5" s="5">
         <f>D5/(D9)</f>
-        <v>3.8819875776397512E-2</v>
+        <v>3.9589075419694315E-2</v>
       </c>
       <c r="F5">
         <v>5750</v>
@@ -1807,18 +1807,18 @@
         <v>109</v>
       </c>
       <c r="B6">
-        <v>5147</v>
+        <v>5512</v>
       </c>
       <c r="C6">
         <v>6673</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>1526</v>
+        <v>1161</v>
       </c>
       <c r="E6" s="5">
         <f>D6/(D9)</f>
-        <v>0.29619565217391303</v>
+        <v>0.29090453520420945</v>
       </c>
       <c r="F6">
         <v>1100</v>
@@ -1842,18 +1842,18 @@
         <v>110</v>
       </c>
       <c r="B7">
-        <v>5169</v>
+        <v>5505</v>
       </c>
       <c r="C7">
         <v>6673</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>1504</v>
+        <v>1168</v>
       </c>
       <c r="E7" s="5">
         <f>D7/(D9)</f>
-        <v>0.29192546583850931</v>
+        <v>0.292658481583563</v>
       </c>
       <c r="F7">
         <v>1050</v>
@@ -1877,18 +1877,18 @@
         <v>111</v>
       </c>
       <c r="B8">
-        <v>5120</v>
+        <v>5460</v>
       </c>
       <c r="C8">
         <v>6673</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>1553</v>
+        <v>1213</v>
       </c>
       <c r="E8" s="5">
         <f>D8/(D9)</f>
-        <v>0.30143633540372672</v>
+        <v>0.3039338511651215</v>
       </c>
       <c r="F8">
         <v>1048</v>
@@ -1911,7 +1911,7 @@
       <c r="A9" s="1"/>
       <c r="B9">
         <f>SUM(B2:B8)</f>
-        <v>17287</v>
+        <v>18448</v>
       </c>
       <c r="C9">
         <f>SUM(C2:C8)</f>
@@ -1919,12 +1919,12 @@
       </c>
       <c r="D9">
         <f>SUM(D2:D8)</f>
-        <v>5152</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="7">
-        <v>44678.37976851852</v>
+        <v>44679.959189814814</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
@@ -1944,7 +1944,7 @@
         <v>44670.543634259258</v>
       </c>
       <c r="C13">
-        <f>D13-D12</f>
+        <f t="shared" ref="C13:C19" si="2">D13-D12</f>
         <v>-432</v>
       </c>
       <c r="D13">
@@ -1956,7 +1956,7 @@
         <v>44671.423993055556</v>
       </c>
       <c r="C14">
-        <f>D14-D13</f>
+        <f t="shared" si="2"/>
         <v>-1123</v>
       </c>
       <c r="D14">
@@ -1968,7 +1968,7 @@
         <v>44672.407280092593</v>
       </c>
       <c r="C15">
-        <f>D15-D14</f>
+        <f t="shared" si="2"/>
         <v>-739</v>
       </c>
       <c r="D15">
@@ -1980,7 +1980,7 @@
         <v>44674.50371527778</v>
       </c>
       <c r="C16">
-        <f>D16-D15</f>
+        <f t="shared" si="2"/>
         <v>-1207</v>
       </c>
       <c r="D16">
@@ -1992,7 +1992,7 @@
         <v>44676.46707175926</v>
       </c>
       <c r="C17">
-        <f>D17-D16</f>
+        <f t="shared" si="2"/>
         <v>-2359</v>
       </c>
       <c r="D17">
@@ -2004,7 +2004,7 @@
         <v>44678.379895833335</v>
       </c>
       <c r="C18">
-        <f>D18-D17</f>
+        <f t="shared" si="2"/>
         <v>-1910</v>
       </c>
       <c r="D18">
@@ -2012,7 +2012,16 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1">
-      <c r="A19" s="1"/>
+      <c r="A19" s="7">
+        <v>44679.959155092591</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>-1161</v>
+      </c>
+      <c r="D19">
+        <v>3991</v>
+      </c>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="N20" s="11"/>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C66044-A66B-1047-B363-33D1301223AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B37FA9-57DD-514B-AD1F-D620F8D38314}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8期" sheetId="9" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="112">
   <si>
     <t>已开</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1626,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62339BF-82AB-134D-8EFD-921FB55AD5F0}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2099,10 +2099,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D06DC-D0D3-DC41-8495-1A009DF45D20}">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="E2" s="5">
         <f>D2/(D15)</f>
-        <v>3.0395136778115501E-3</v>
+        <v>3.787878787878788E-3</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>20</v>
@@ -2175,18 +2175,18 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="C3">
         <v>700</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E3" s="5">
         <f>D3/(D15)</f>
-        <v>3.8753799392097263E-2</v>
+        <v>3.8825757575757576E-2</v>
       </c>
       <c r="F3">
         <v>30555</v>
@@ -2213,31 +2213,31 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="C4">
         <v>750</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D14" si="0">C4-B4</f>
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E4" s="5">
         <f>D4/(D15)</f>
-        <v>2.5835866261398176E-2</v>
+        <v>2.462121212121212E-2</v>
       </c>
       <c r="F4">
-        <v>5400</v>
+        <v>5088</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G14" si="1">I4-H4</f>
-        <v>401</v>
+        <f>I4-H4</f>
+        <v>89</v>
       </c>
       <c r="H4">
         <v>4999</v>
       </c>
       <c r="I4">
-        <v>5400</v>
+        <v>5088</v>
       </c>
       <c r="J4" s="8">
         <v>100513761</v>
@@ -2248,31 +2248,31 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="C5">
         <v>750</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E5" s="5">
         <f>D5/(D15)</f>
-        <v>3.8753799392097263E-2</v>
+        <v>4.0719696969696968E-2</v>
       </c>
       <c r="F5">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
-        <v>462</v>
+        <f>I5-H5</f>
+        <v>-38</v>
       </c>
       <c r="H5">
         <v>5288</v>
       </c>
       <c r="I5">
-        <v>5750</v>
+        <v>5250</v>
       </c>
       <c r="J5" s="8">
         <v>100513762</v>
@@ -2283,31 +2283,31 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1920</v>
+        <v>1952</v>
       </c>
       <c r="C6">
         <v>2056</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="E6" s="5">
         <f>D6/(D15)</f>
-        <v>0.10334346504559271</v>
+        <v>9.8484848484848481E-2</v>
       </c>
       <c r="F6">
-        <v>1100</v>
+        <v>1355</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>I6-H6</f>
+        <v>255</v>
       </c>
       <c r="H6">
         <v>1100</v>
       </c>
       <c r="I6">
-        <v>1100</v>
+        <v>1355</v>
       </c>
       <c r="J6">
         <v>100513763</v>
@@ -2318,31 +2318,31 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>1932</v>
+        <v>1952</v>
       </c>
       <c r="C7">
         <v>2056</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="E7" s="5">
         <f>D7/(D15)</f>
-        <v>9.4224924012158054E-2</v>
+        <v>9.8484848484848481E-2</v>
       </c>
       <c r="F7">
-        <v>1050</v>
+        <v>1314</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
-        <v>-50</v>
+        <f>I7-H7</f>
+        <v>214</v>
       </c>
       <c r="H7">
         <v>1100</v>
       </c>
       <c r="I7">
-        <v>1050</v>
+        <v>1314</v>
       </c>
       <c r="J7">
         <v>100513764</v>
@@ -2353,31 +2353,31 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>1910</v>
+        <v>1946</v>
       </c>
       <c r="C8">
         <v>2056</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="E8" s="5">
         <f>D8/(D15)</f>
-        <v>0.11094224924012158</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="F8">
-        <v>1048</v>
+        <v>1350</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
-        <v>-12</v>
+        <f>I8-H8</f>
+        <v>290</v>
       </c>
       <c r="H8">
         <v>1060</v>
       </c>
       <c r="I8">
-        <v>1048</v>
+        <v>1350</v>
       </c>
       <c r="J8">
         <v>100513765</v>
@@ -2391,31 +2391,31 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>1929</v>
+        <v>1951</v>
       </c>
       <c r="C9">
         <v>2056</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E9" s="5">
         <f>D9/(D15)</f>
-        <v>9.6504559270516724E-2</v>
+        <v>9.9431818181818177E-2</v>
       </c>
       <c r="F9">
-        <v>1048</v>
+        <v>1435</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
-        <v>-92</v>
+        <f>I9-H9</f>
+        <v>295</v>
       </c>
       <c r="H9">
         <v>1140</v>
       </c>
       <c r="I9">
-        <v>1048</v>
+        <v>1435</v>
       </c>
       <c r="J9">
         <v>100513766</v>
@@ -2429,31 +2429,31 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>1910</v>
+        <v>1945</v>
       </c>
       <c r="C10">
         <v>2056</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="E10" s="5">
         <f>D10/(D15)</f>
-        <v>0.11094224924012158</v>
+        <v>0.10511363636363637</v>
       </c>
       <c r="F10">
-        <v>1040</v>
+        <v>1343</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
-        <v>-59</v>
+        <f>I10-H10</f>
+        <v>244</v>
       </c>
       <c r="H10">
         <v>1099</v>
       </c>
       <c r="I10">
-        <v>1040</v>
+        <v>1343</v>
       </c>
       <c r="J10">
         <v>100513767</v>
@@ -2467,31 +2467,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1933</v>
+        <v>1951</v>
       </c>
       <c r="C11">
         <v>2056</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="E11" s="5">
         <f>D11/(D15)</f>
-        <v>9.3465045592705173E-2</v>
+        <v>9.9431818181818177E-2</v>
       </c>
       <c r="F11">
-        <v>1088</v>
+        <v>1390</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
-        <v>-10</v>
+        <f>I11-H11</f>
+        <v>292</v>
       </c>
       <c r="H11">
         <v>1098</v>
       </c>
       <c r="I11">
-        <v>1088</v>
+        <v>1390</v>
       </c>
       <c r="J11">
         <v>100513768</v>
@@ -2505,31 +2505,31 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>1924</v>
+        <v>1945</v>
       </c>
       <c r="C12">
         <v>2056</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E12" s="5">
         <f>D12/(D15)</f>
-        <v>0.10030395136778116</v>
+        <v>0.10511363636363637</v>
       </c>
       <c r="F12">
-        <v>1039</v>
+        <v>1247</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
-        <v>-61</v>
+        <f>I12-H12</f>
+        <v>147</v>
       </c>
       <c r="H12">
         <v>1100</v>
       </c>
       <c r="I12">
-        <v>1039</v>
+        <v>1247</v>
       </c>
       <c r="J12">
         <v>100513769</v>
@@ -2543,31 +2543,31 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>1937</v>
+        <v>1958</v>
       </c>
       <c r="C13">
         <v>2056</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="E13" s="5">
         <f>D13/(D15)</f>
-        <v>9.0425531914893623E-2</v>
+        <v>9.2803030303030304E-2</v>
       </c>
       <c r="F13">
-        <v>1095</v>
+        <v>1238</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
-        <v>-5</v>
+        <f>I13-H13</f>
+        <v>138</v>
       </c>
       <c r="H13">
         <v>1100</v>
       </c>
       <c r="I13">
-        <v>1095</v>
+        <v>1238</v>
       </c>
       <c r="J13">
         <v>100513770</v>
@@ -2581,31 +2581,31 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>1933</v>
+        <v>1962</v>
       </c>
       <c r="C14">
         <v>2056</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="E14" s="5">
         <f>D14/(D15)</f>
-        <v>9.3465045592705173E-2</v>
+        <v>8.9015151515151519E-2</v>
       </c>
       <c r="F14">
-        <v>1039</v>
+        <v>1239</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
-        <v>-61</v>
+        <f>I14-H14</f>
+        <v>139</v>
       </c>
       <c r="H14">
         <v>1100</v>
       </c>
       <c r="I14">
-        <v>1039</v>
+        <v>1239</v>
       </c>
       <c r="J14">
         <v>100513771</v>
@@ -2618,7 +2618,7 @@
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B2:B14)</f>
-        <v>19408</v>
+        <v>19668</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C14)</f>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="D15">
         <f>SUM(D2:D14)</f>
-        <v>1316</v>
+        <v>1056</v>
       </c>
       <c r="N15">
         <v>1834</v>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="11">
-        <v>44676.603229166663</v>
+        <v>44679.96234953704</v>
       </c>
       <c r="N16">
         <v>1815</v>
@@ -2702,7 +2702,7 @@
         <v>4131</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31:E43" si="2">D31-D30</f>
+        <f t="shared" ref="E31:E44" si="1">D31-D30</f>
         <v>-293</v>
       </c>
       <c r="J31" s="11">
@@ -2714,7 +2714,7 @@
         <v>3911</v>
       </c>
       <c r="E32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-220</v>
       </c>
       <c r="J32" s="11">
@@ -2726,7 +2726,7 @@
         <v>3845</v>
       </c>
       <c r="E33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-66</v>
       </c>
       <c r="J33" s="11">
@@ -2738,7 +2738,7 @@
         <v>3610</v>
       </c>
       <c r="E34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-235</v>
       </c>
       <c r="J34" s="11">
@@ -2750,7 +2750,7 @@
         <v>3424</v>
       </c>
       <c r="E35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-186</v>
       </c>
       <c r="J35" s="11">
@@ -2762,7 +2762,7 @@
         <v>3027</v>
       </c>
       <c r="E36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-397</v>
       </c>
       <c r="J36" s="11">
@@ -2774,7 +2774,7 @@
         <v>2686</v>
       </c>
       <c r="E37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-341</v>
       </c>
       <c r="J37" s="11">
@@ -2786,7 +2786,7 @@
         <v>2333</v>
       </c>
       <c r="E38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-353</v>
       </c>
       <c r="J38" s="11">
@@ -2798,7 +2798,7 @@
         <v>2163</v>
       </c>
       <c r="E39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-170</v>
       </c>
       <c r="J39" s="11">
@@ -2810,7 +2810,7 @@
         <v>1927</v>
       </c>
       <c r="E40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-236</v>
       </c>
       <c r="J40" s="11">
@@ -2822,7 +2822,7 @@
         <v>1621</v>
       </c>
       <c r="E41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-306</v>
       </c>
       <c r="J41" s="11">
@@ -2834,7 +2834,7 @@
         <v>1440</v>
       </c>
       <c r="E42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-181</v>
       </c>
       <c r="J42" s="11">
@@ -2846,11 +2846,23 @@
         <v>1317</v>
       </c>
       <c r="E43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-123</v>
       </c>
       <c r="J43" s="11">
         <v>44676.603344907409</v>
+      </c>
+    </row>
+    <row r="44" spans="4:10">
+      <c r="D44">
+        <v>1056</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>-261</v>
+      </c>
+      <c r="J44" s="11">
+        <v>44679.965648148151</v>
       </c>
     </row>
   </sheetData>
@@ -2866,22 +2878,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23834F0F-0918-B64F-9000-1ED84B75F029}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="G2" sqref="G2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" customWidth="1"/>
-    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="22.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2898,19 +2910,10 @@
         <v>19</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
+    <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -2932,21 +2935,11 @@
         <v>13333</v>
       </c>
       <c r="G2">
-        <f>I2-H2</f>
-        <v>-333</v>
-      </c>
-      <c r="H2">
-        <v>30888</v>
-      </c>
-      <c r="I2">
-        <v>30555</v>
-      </c>
-      <c r="J2">
         <v>100513712</v>
       </c>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
@@ -2968,20 +2961,10 @@
         <v>4488</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G13" si="1">I3-H3</f>
-        <v>401</v>
-      </c>
-      <c r="H3">
-        <v>4999</v>
-      </c>
-      <c r="I3">
-        <v>5400</v>
-      </c>
-      <c r="J3">
         <v>100513713</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
+    <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
@@ -3003,20 +2986,10 @@
         <v>4350</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
-        <v>462</v>
-      </c>
-      <c r="H4">
-        <v>5288</v>
-      </c>
-      <c r="I4">
-        <v>5750</v>
-      </c>
-      <c r="J4">
         <v>100513714</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
+    <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
@@ -3038,20 +3011,10 @@
         <v>950</v>
       </c>
       <c r="G5">
-        <f>I5-H5</f>
-        <v>-61</v>
-      </c>
-      <c r="H5">
-        <v>1100</v>
-      </c>
-      <c r="I5">
-        <v>1039</v>
-      </c>
-      <c r="J5">
         <v>100513715</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -3073,20 +3036,10 @@
         <v>1280</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1100</v>
-      </c>
-      <c r="I6">
-        <v>1100</v>
-      </c>
-      <c r="J6">
         <v>100513716</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
+    <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
@@ -3108,20 +3061,10 @@
         <v>999</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
-        <v>-50</v>
-      </c>
-      <c r="H7">
-        <v>1100</v>
-      </c>
-      <c r="I7">
-        <v>1050</v>
-      </c>
-      <c r="J7">
         <v>100513717</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1">
+    <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -3143,20 +3086,10 @@
         <v>1008</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
-        <v>-12</v>
-      </c>
-      <c r="H8">
-        <v>1060</v>
-      </c>
-      <c r="I8">
-        <v>1048</v>
-      </c>
-      <c r="J8">
         <v>100513718</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1">
+    <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>31</v>
       </c>
@@ -3178,20 +3111,10 @@
         <v>970</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
-        <v>-92</v>
-      </c>
-      <c r="H9">
-        <v>1140</v>
-      </c>
-      <c r="I9">
-        <v>1048</v>
-      </c>
-      <c r="J9">
         <v>100513719</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1">
+    <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -3213,20 +3136,10 @@
         <v>999</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
-        <v>-59</v>
-      </c>
-      <c r="H10">
-        <v>1099</v>
-      </c>
-      <c r="I10">
-        <v>1040</v>
-      </c>
-      <c r="J10">
         <v>100513720</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
+    <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
@@ -3248,20 +3161,10 @@
         <v>989</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
-        <v>-10</v>
-      </c>
-      <c r="H11">
-        <v>1098</v>
-      </c>
-      <c r="I11">
-        <v>1088</v>
-      </c>
-      <c r="J11">
         <v>100513721</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
+    <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>34</v>
       </c>
@@ -3283,20 +3186,10 @@
         <v>940</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
-        <v>-61</v>
-      </c>
-      <c r="H12">
-        <v>1100</v>
-      </c>
-      <c r="I12">
-        <v>1039</v>
-      </c>
-      <c r="J12">
         <v>100513722</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
+    <row r="13" spans="1:8" ht="15" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>35</v>
       </c>
@@ -3318,20 +3211,10 @@
         <v>960</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="H13">
-        <v>1100</v>
-      </c>
-      <c r="I13">
-        <v>1095</v>
-      </c>
-      <c r="J13">
         <v>100513723</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
+    <row r="14" spans="1:8" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14">
         <f>SUM(B2:B13)</f>
@@ -3346,90 +3229,90 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1">
+    <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="A15" s="7">
         <v>44676.495370370372</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1">
+    <row r="16" spans="1:8" ht="15" customHeight="1">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1">
+    <row r="17" spans="1:11" ht="15" customHeight="1">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1">
+    <row r="18" spans="1:11" ht="15" customHeight="1">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1">
+    <row r="19" spans="1:11" ht="15" customHeight="1">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1">
+    <row r="20" spans="1:11" ht="15" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1">
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1">
+    <row r="22" spans="1:11" ht="15" customHeight="1">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:14" ht="15" customHeight="1">
+    <row r="23" spans="1:11" ht="15" customHeight="1">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="15" customHeight="1">
+    <row r="24" spans="1:11" ht="15" customHeight="1">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:14" ht="15" customHeight="1">
+    <row r="25" spans="1:11" ht="15" customHeight="1">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:14" ht="15" customHeight="1">
+    <row r="26" spans="1:11" ht="15" customHeight="1">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1">
+    <row r="27" spans="1:11" ht="15" customHeight="1">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1">
-      <c r="N28" s="11"/>
-    </row>
-    <row r="29" spans="1:14" ht="15" customHeight="1">
-      <c r="J29" s="11"/>
+    <row r="28" spans="1:11" ht="15" customHeight="1">
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1">
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
       <c r="K29" s="11"/>
-      <c r="N29" s="11"/>
-    </row>
-    <row r="30" spans="1:14" ht="15" customHeight="1">
-      <c r="J30" s="11"/>
-      <c r="N30" s="11"/>
-    </row>
-    <row r="31" spans="1:14" ht="15" customHeight="1">
-      <c r="J31" s="11"/>
-      <c r="N31" s="11"/>
-    </row>
-    <row r="32" spans="1:14" ht="15" customHeight="1">
-      <c r="J32" s="11"/>
-      <c r="N32" s="11"/>
-    </row>
-    <row r="33" spans="10:14" ht="15" customHeight="1">
-      <c r="J33" s="11"/>
-      <c r="N33" s="11"/>
-    </row>
-    <row r="34" spans="10:14" ht="15" customHeight="1">
-      <c r="J34" s="11"/>
-      <c r="N34" s="11"/>
-    </row>
-    <row r="35" spans="10:14" ht="15" customHeight="1">
-      <c r="J35" s="11"/>
-      <c r="N35" s="11"/>
-    </row>
-    <row r="36" spans="10:14" ht="15" customHeight="1">
-      <c r="J36" s="11"/>
-      <c r="N36" s="11"/>
-    </row>
-    <row r="37" spans="10:14" ht="15" customHeight="1">
-      <c r="J37" s="11"/>
-      <c r="N37" s="11"/>
-    </row>
-    <row r="38" spans="10:14" ht="15" customHeight="1">
-      <c r="J38" s="11"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1">
+      <c r="G30" s="11"/>
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1">
+      <c r="G31" s="11"/>
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1">
+      <c r="G32" s="11"/>
+      <c r="K32" s="11"/>
+    </row>
+    <row r="33" spans="7:11" ht="15" customHeight="1">
+      <c r="G33" s="11"/>
+      <c r="K33" s="11"/>
+    </row>
+    <row r="34" spans="7:11" ht="15" customHeight="1">
+      <c r="G34" s="11"/>
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="7:11" ht="15" customHeight="1">
+      <c r="G35" s="11"/>
+      <c r="K35" s="11"/>
+    </row>
+    <row r="36" spans="7:11" ht="15" customHeight="1">
+      <c r="G36" s="11"/>
+      <c r="K36" s="11"/>
+    </row>
+    <row r="37" spans="7:11" ht="15" customHeight="1">
+      <c r="G37" s="11"/>
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" spans="7:11" ht="15" customHeight="1">
+      <c r="G38" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3444,7 +3327,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="J2" sqref="J2:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3516,8 +3399,8 @@
       <c r="I2">
         <v>30555</v>
       </c>
-      <c r="J2" s="8">
-        <v>100513759</v>
+      <c r="J2">
+        <v>100092612</v>
       </c>
       <c r="K2" s="10"/>
     </row>
@@ -3552,8 +3435,8 @@
       <c r="I3">
         <v>5400</v>
       </c>
-      <c r="J3" s="8">
-        <v>100513761</v>
+      <c r="J3">
+        <v>100092613</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
@@ -3587,8 +3470,8 @@
       <c r="I4">
         <v>5750</v>
       </c>
-      <c r="J4" s="8">
-        <v>100513762</v>
+      <c r="J4">
+        <v>100092614</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
@@ -3623,7 +3506,7 @@
         <v>1039</v>
       </c>
       <c r="J5">
-        <v>100513771</v>
+        <v>100092616</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
@@ -3658,7 +3541,7 @@
         <v>1100</v>
       </c>
       <c r="J6">
-        <v>100513763</v>
+        <v>100092617</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
@@ -3693,7 +3576,7 @@
         <v>1050</v>
       </c>
       <c r="J7">
-        <v>100513764</v>
+        <v>100092618</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
@@ -3728,7 +3611,7 @@
         <v>1048</v>
       </c>
       <c r="J8">
-        <v>100513765</v>
+        <v>100092619</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
@@ -3763,7 +3646,7 @@
         <v>1048</v>
       </c>
       <c r="J9">
-        <v>100513766</v>
+        <v>100092620</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
@@ -3798,7 +3681,7 @@
         <v>1040</v>
       </c>
       <c r="J10">
-        <v>100513767</v>
+        <v>100092622</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
@@ -3833,7 +3716,7 @@
         <v>1088</v>
       </c>
       <c r="J11">
-        <v>100513768</v>
+        <v>100092624</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
@@ -3868,7 +3751,7 @@
         <v>1039</v>
       </c>
       <c r="J12">
-        <v>100513769</v>
+        <v>100092625</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
@@ -3903,7 +3786,7 @@
         <v>1095</v>
       </c>
       <c r="J13">
-        <v>100513770</v>
+        <v>100092627</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
@@ -3938,7 +3821,7 @@
         <v>1095</v>
       </c>
       <c r="J14">
-        <v>100513770</v>
+        <v>100092628</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
@@ -4054,7 +3937,7 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="J2" sqref="J2:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4733,7 +4616,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="J2" sqref="J2:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5486,8 +5369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0660C9D-E02C-D446-977A-9E47C695C27D}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I14" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5559,8 +5442,8 @@
       <c r="I2">
         <v>30555</v>
       </c>
-      <c r="J2" s="8">
-        <v>100513759</v>
+      <c r="J2">
+        <v>100000180</v>
       </c>
       <c r="K2" s="10"/>
     </row>
@@ -5595,8 +5478,8 @@
       <c r="I3">
         <v>5400</v>
       </c>
-      <c r="J3" s="8">
-        <v>100513761</v>
+      <c r="J3">
+        <v>100000179</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
@@ -5630,8 +5513,8 @@
       <c r="I4">
         <v>5750</v>
       </c>
-      <c r="J4" s="8">
-        <v>100513762</v>
+      <c r="J4">
+        <v>100000178</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
@@ -5666,7 +5549,7 @@
         <v>1039</v>
       </c>
       <c r="J5">
-        <v>100513771</v>
+        <v>100000171</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
@@ -5701,7 +5584,7 @@
         <v>1100</v>
       </c>
       <c r="J6">
-        <v>100513763</v>
+        <v>100000172</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
@@ -5736,7 +5619,7 @@
         <v>1050</v>
       </c>
       <c r="J7">
-        <v>100513764</v>
+        <v>100000173</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
@@ -5771,7 +5654,7 @@
         <v>1048</v>
       </c>
       <c r="J8">
-        <v>100513765</v>
+        <v>100000174</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
@@ -5806,7 +5689,7 @@
         <v>1048</v>
       </c>
       <c r="J9">
-        <v>100513766</v>
+        <v>100000175</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
@@ -5841,7 +5724,7 @@
         <v>1040</v>
       </c>
       <c r="J10">
-        <v>100513767</v>
+        <v>100000176</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
@@ -5876,7 +5759,7 @@
         <v>1088</v>
       </c>
       <c r="J11">
-        <v>100513768</v>
+        <v>100000177</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
@@ -5991,8 +5874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7221D8-E6B2-6A47-92D2-13357EC161D5}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView zoomScale="83" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6065,7 +5948,7 @@
         <v>30555</v>
       </c>
       <c r="J2" s="8">
-        <v>100513759</v>
+        <v>100000153</v>
       </c>
       <c r="K2" s="10"/>
     </row>
@@ -6101,7 +5984,7 @@
         <v>5400</v>
       </c>
       <c r="J3" s="8">
-        <v>100513761</v>
+        <v>100000154</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
@@ -6136,7 +6019,7 @@
         <v>5750</v>
       </c>
       <c r="J4" s="8">
-        <v>100513762</v>
+        <v>100000155</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
@@ -6171,7 +6054,7 @@
         <v>1039</v>
       </c>
       <c r="J5">
-        <v>100513771</v>
+        <v>100000156</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
@@ -6206,7 +6089,7 @@
         <v>1100</v>
       </c>
       <c r="J6">
-        <v>100513763</v>
+        <v>100000157</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1">
@@ -6241,7 +6124,7 @@
         <v>1050</v>
       </c>
       <c r="J7">
-        <v>100513764</v>
+        <v>100000158</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
@@ -6276,7 +6159,7 @@
         <v>1048</v>
       </c>
       <c r="J8">
-        <v>100513765</v>
+        <v>100000159</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
@@ -6311,7 +6194,7 @@
         <v>1048</v>
       </c>
       <c r="J9">
-        <v>100513766</v>
+        <v>100000160</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
@@ -6346,7 +6229,7 @@
         <v>1040</v>
       </c>
       <c r="J10">
-        <v>100513767</v>
+        <v>100000161</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
@@ -6381,7 +6264,7 @@
         <v>1088</v>
       </c>
       <c r="J11">
-        <v>100513768</v>
+        <v>100000162</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
@@ -6416,7 +6299,7 @@
         <v>1039</v>
       </c>
       <c r="J12">
-        <v>100513769</v>
+        <v>100000163</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
@@ -6451,7 +6334,7 @@
         <v>1095</v>
       </c>
       <c r="J13">
-        <v>100513770</v>
+        <v>100000164</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
@@ -6486,7 +6369,7 @@
         <v>1095</v>
       </c>
       <c r="J14">
-        <v>100513770</v>
+        <v>100000165</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B37FA9-57DD-514B-AD1F-D620F8D38314}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FB2510-5E7A-4B42-8924-42F48BA154E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="460" windowWidth="33600" windowHeight="19600" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8期" sheetId="9" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="1期" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2192,7 +2193,7 @@
         <v>30555</v>
       </c>
       <c r="G3">
-        <f>I3-H3</f>
+        <f t="shared" ref="G3:G14" si="0">I3-H3</f>
         <v>-333</v>
       </c>
       <c r="H3">
@@ -2219,7 +2220,7 @@
         <v>750</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D14" si="0">C4-B4</f>
+        <f t="shared" ref="D4:D14" si="1">C4-B4</f>
         <v>26</v>
       </c>
       <c r="E4" s="5">
@@ -2230,7 +2231,7 @@
         <v>5088</v>
       </c>
       <c r="G4">
-        <f>I4-H4</f>
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
       <c r="H4">
@@ -2254,7 +2255,7 @@
         <v>750</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="E5" s="5">
@@ -2265,7 +2266,7 @@
         <v>5250</v>
       </c>
       <c r="G5">
-        <f>I5-H5</f>
+        <f t="shared" si="0"/>
         <v>-38</v>
       </c>
       <c r="H5">
@@ -2289,7 +2290,7 @@
         <v>2056</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="E6" s="5">
@@ -2300,7 +2301,7 @@
         <v>1355</v>
       </c>
       <c r="G6">
-        <f>I6-H6</f>
+        <f t="shared" si="0"/>
         <v>255</v>
       </c>
       <c r="H6">
@@ -2324,7 +2325,7 @@
         <v>2056</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="E7" s="5">
@@ -2335,7 +2336,7 @@
         <v>1314</v>
       </c>
       <c r="G7">
-        <f>I7-H7</f>
+        <f t="shared" si="0"/>
         <v>214</v>
       </c>
       <c r="H7">
@@ -2359,7 +2360,7 @@
         <v>2056</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="E8" s="5">
@@ -2370,7 +2371,7 @@
         <v>1350</v>
       </c>
       <c r="G8">
-        <f>I8-H8</f>
+        <f t="shared" si="0"/>
         <v>290</v>
       </c>
       <c r="H8">
@@ -2397,7 +2398,7 @@
         <v>2056</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="E9" s="5">
@@ -2408,7 +2409,7 @@
         <v>1435</v>
       </c>
       <c r="G9">
-        <f>I9-H9</f>
+        <f t="shared" si="0"/>
         <v>295</v>
       </c>
       <c r="H9">
@@ -2435,7 +2436,7 @@
         <v>2056</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="E10" s="5">
@@ -2446,7 +2447,7 @@
         <v>1343</v>
       </c>
       <c r="G10">
-        <f>I10-H10</f>
+        <f t="shared" si="0"/>
         <v>244</v>
       </c>
       <c r="H10">
@@ -2473,7 +2474,7 @@
         <v>2056</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="E11" s="5">
@@ -2484,7 +2485,7 @@
         <v>1390</v>
       </c>
       <c r="G11">
-        <f>I11-H11</f>
+        <f t="shared" si="0"/>
         <v>292</v>
       </c>
       <c r="H11">
@@ -2511,7 +2512,7 @@
         <v>2056</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="E12" s="5">
@@ -2522,7 +2523,7 @@
         <v>1247</v>
       </c>
       <c r="G12">
-        <f>I12-H12</f>
+        <f t="shared" si="0"/>
         <v>147</v>
       </c>
       <c r="H12">
@@ -2549,7 +2550,7 @@
         <v>2056</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="E13" s="5">
@@ -2560,7 +2561,7 @@
         <v>1238</v>
       </c>
       <c r="G13">
-        <f>I13-H13</f>
+        <f t="shared" si="0"/>
         <v>138</v>
       </c>
       <c r="H13">
@@ -2587,7 +2588,7 @@
         <v>2056</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="E14" s="5">
@@ -2598,7 +2599,7 @@
         <v>1239</v>
       </c>
       <c r="G14">
-        <f>I14-H14</f>
+        <f t="shared" si="0"/>
         <v>139</v>
       </c>
       <c r="H14">
@@ -2702,7 +2703,7 @@
         <v>4131</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31:E44" si="1">D31-D30</f>
+        <f t="shared" ref="E31:E44" si="2">D31-D30</f>
         <v>-293</v>
       </c>
       <c r="J31" s="11">
@@ -2714,7 +2715,7 @@
         <v>3911</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-220</v>
       </c>
       <c r="J32" s="11">
@@ -2726,7 +2727,7 @@
         <v>3845</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-66</v>
       </c>
       <c r="J33" s="11">
@@ -2738,7 +2739,7 @@
         <v>3610</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-235</v>
       </c>
       <c r="J34" s="11">
@@ -2750,7 +2751,7 @@
         <v>3424</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-186</v>
       </c>
       <c r="J35" s="11">
@@ -2762,7 +2763,7 @@
         <v>3027</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-397</v>
       </c>
       <c r="J36" s="11">
@@ -2774,7 +2775,7 @@
         <v>2686</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-341</v>
       </c>
       <c r="J37" s="11">
@@ -2786,7 +2787,7 @@
         <v>2333</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-353</v>
       </c>
       <c r="J38" s="11">
@@ -2798,7 +2799,7 @@
         <v>2163</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-170</v>
       </c>
       <c r="J39" s="11">
@@ -2810,7 +2811,7 @@
         <v>1927</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-236</v>
       </c>
       <c r="J40" s="11">
@@ -2822,7 +2823,7 @@
         <v>1621</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-306</v>
       </c>
       <c r="J41" s="11">
@@ -2834,7 +2835,7 @@
         <v>1440</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-181</v>
       </c>
       <c r="J42" s="11">
@@ -2846,7 +2847,7 @@
         <v>1317</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-123</v>
       </c>
       <c r="J43" s="11">
@@ -2858,7 +2859,7 @@
         <v>1056</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-261</v>
       </c>
       <c r="J44" s="11">
@@ -5875,7 +5876,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J14"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FB2510-5E7A-4B42-8924-42F48BA154E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7CD630-83B6-3740-9584-66CB565E4725}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="460" windowWidth="33600" windowHeight="19600" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8期" sheetId="9" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="1期" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1627,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62339BF-82AB-134D-8EFD-921FB55AD5F0}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J8"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1674,18 +1673,18 @@
         <v>107</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>20</v>
       </c>
       <c r="D2">
         <f>C2-B2</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E2" s="5">
         <f>D2/(D9)</f>
-        <v>1.7539463793535455E-3</v>
+        <v>1.2615643397813289E-3</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>20</v>
@@ -1703,18 +1702,18 @@
         <v>105</v>
       </c>
       <c r="B3">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="C3">
         <v>600</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E3" s="5">
         <f>D3/(D9)</f>
-        <v>2.7562014532698572E-2</v>
+        <v>3.2380151387720775E-2</v>
       </c>
       <c r="F3">
         <v>30555</v>
@@ -1738,18 +1737,18 @@
         <v>106</v>
       </c>
       <c r="B4">
-        <v>726</v>
+        <v>797</v>
       </c>
       <c r="C4">
         <v>900</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D8" si="0">C4-B4</f>
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="E4" s="5">
         <f>D4/(D9)</f>
-        <v>4.359809571535956E-2</v>
+        <v>4.3313708999158956E-2</v>
       </c>
       <c r="F4">
         <v>5400</v>
@@ -1773,18 +1772,18 @@
         <v>108</v>
       </c>
       <c r="B5">
-        <v>742</v>
+        <v>819</v>
       </c>
       <c r="C5">
         <v>900</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="E5" s="5">
         <f>D5/(D9)</f>
-        <v>3.9589075419694315E-2</v>
+        <v>3.4062237174095879E-2</v>
       </c>
       <c r="F5">
         <v>5750</v>
@@ -1808,18 +1807,18 @@
         <v>109</v>
       </c>
       <c r="B6">
-        <v>5512</v>
+        <v>5990</v>
       </c>
       <c r="C6">
         <v>6673</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>1161</v>
+        <v>683</v>
       </c>
       <c r="E6" s="5">
         <f>D6/(D9)</f>
-        <v>0.29090453520420945</v>
+        <v>0.28721614802354922</v>
       </c>
       <c r="F6">
         <v>1100</v>
@@ -1843,18 +1842,18 @@
         <v>110</v>
       </c>
       <c r="B7">
-        <v>5505</v>
+        <v>5963</v>
       </c>
       <c r="C7">
         <v>6673</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>1168</v>
+        <v>710</v>
       </c>
       <c r="E7" s="5">
         <f>D7/(D9)</f>
-        <v>0.292658481583563</v>
+        <v>0.29857022708158115</v>
       </c>
       <c r="F7">
         <v>1050</v>
@@ -1878,18 +1877,18 @@
         <v>111</v>
       </c>
       <c r="B8">
-        <v>5460</v>
+        <v>5952</v>
       </c>
       <c r="C8">
         <v>6673</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>1213</v>
+        <v>721</v>
       </c>
       <c r="E8" s="5">
         <f>D8/(D9)</f>
-        <v>0.3039338511651215</v>
+        <v>0.30319596299411272</v>
       </c>
       <c r="F8">
         <v>1048</v>
@@ -1912,7 +1911,7 @@
       <c r="A9" s="1"/>
       <c r="B9">
         <f>SUM(B2:B8)</f>
-        <v>18448</v>
+        <v>20061</v>
       </c>
       <c r="C9">
         <f>SUM(C2:C8)</f>
@@ -1920,7 +1919,7 @@
       </c>
       <c r="D9">
         <f>SUM(D2:D8)</f>
-        <v>3991</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
@@ -1945,7 +1944,7 @@
         <v>44670.543634259258</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:C19" si="2">D13-D12</f>
+        <f t="shared" ref="C13:C20" si="2">D13-D12</f>
         <v>-432</v>
       </c>
       <c r="D13">
@@ -2025,6 +2024,16 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1">
+      <c r="A20" s="11">
+        <v>44682.769270833334</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>-1613</v>
+      </c>
+      <c r="D20">
+        <v>2378</v>
+      </c>
       <c r="N20" s="11"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1">
@@ -2882,7 +2891,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G13"/>
+      <selection activeCell="A5" sqref="A5:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
@@ -3328,7 +3337,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J14"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3938,7 +3947,7 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J16"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3950,7 +3959,7 @@
     <col min="14" max="14" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1">
+    <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3979,7 +3988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1">
+    <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
@@ -4014,7 +4023,7 @@
         <v>100000317</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1">
+    <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>51</v>
       </c>
@@ -4049,7 +4058,7 @@
         <v>100000316</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1">
+    <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>52</v>
       </c>
@@ -4084,7 +4093,7 @@
         <v>100000315</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1">
+    <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>53</v>
       </c>
@@ -4118,8 +4127,11 @@
       <c r="J5" s="8">
         <v>100000303</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1">
+      <c r="K5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>54</v>
       </c>
@@ -4153,8 +4165,11 @@
       <c r="J6" s="8">
         <v>100000318</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1">
+      <c r="K6">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>55</v>
       </c>
@@ -4188,8 +4203,11 @@
       <c r="J7" s="8">
         <v>100000319</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1">
+      <c r="K7">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>56</v>
       </c>
@@ -4223,8 +4241,11 @@
       <c r="J8">
         <v>100000306</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1">
+      <c r="K8">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>57</v>
       </c>
@@ -4258,8 +4279,11 @@
       <c r="J9">
         <v>100000307</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1">
+      <c r="K9">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>58</v>
       </c>
@@ -4293,8 +4317,11 @@
       <c r="J10">
         <v>100000308</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1">
+      <c r="K10">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>59</v>
       </c>
@@ -4328,8 +4355,11 @@
       <c r="J11">
         <v>100000309</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1">
+      <c r="K11">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>60</v>
       </c>
@@ -4363,8 +4393,11 @@
       <c r="J12">
         <v>100000310</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1">
+      <c r="K12">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>61</v>
       </c>
@@ -4398,8 +4431,11 @@
       <c r="J13">
         <v>100000311</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1">
+      <c r="K13">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>62</v>
       </c>
@@ -4433,8 +4469,11 @@
       <c r="J14">
         <v>100000312</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1">
+      <c r="K14">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>63</v>
       </c>
@@ -4468,8 +4507,11 @@
       <c r="J15">
         <v>100000313</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1">
+      <c r="K15">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>64</v>
       </c>
@@ -4502,6 +4544,9 @@
       </c>
       <c r="J16">
         <v>100000314</v>
+      </c>
+      <c r="K16">
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1">
@@ -4517,6 +4562,10 @@
       <c r="D17">
         <f>SUM(D2:D16)</f>
         <v>365</v>
+      </c>
+      <c r="K17">
+        <f>SUM(K5:K16)</f>
+        <v>2522</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1">
@@ -5875,7 +5924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7221D8-E6B2-6A47-92D2-13357EC161D5}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="83" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7CD630-83B6-3740-9584-66CB565E4725}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8DA2FC-F34B-824F-9FB2-D6B1F3A4B8CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1400" yWindow="460" windowWidth="33600" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8期" sheetId="9" r:id="rId1"/>
@@ -1627,7 +1627,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="7">
-        <v>44679.959189814814</v>
+        <v>44682.792430555557</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
@@ -2109,10 +2109,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D06DC-D0D3-DC41-8495-1A009DF45D20}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J14"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="E2" s="5">
         <f>D2/(D15)</f>
-        <v>3.787878787878788E-3</v>
+        <v>9.5923261390887284E-3</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>20</v>
@@ -2185,18 +2185,18 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>659</v>
+        <v>681</v>
       </c>
       <c r="C3">
         <v>700</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E3" s="5">
         <f>D3/(D15)</f>
-        <v>3.8825757575757576E-2</v>
+        <v>4.5563549160671464E-2</v>
       </c>
       <c r="F3">
         <v>30555</v>
@@ -2223,18 +2223,18 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>724</v>
+        <v>737</v>
       </c>
       <c r="C4">
         <v>750</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D14" si="1">C4-B4</f>
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E4" s="5">
         <f>D4/(D15)</f>
-        <v>2.462121212121212E-2</v>
+        <v>3.117505995203837E-2</v>
       </c>
       <c r="F4">
         <v>5088</v>
@@ -2258,18 +2258,18 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>707</v>
+        <v>734</v>
       </c>
       <c r="C5">
         <v>750</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E5" s="5">
         <f>D5/(D15)</f>
-        <v>4.0719696969696968E-2</v>
+        <v>3.8369304556354913E-2</v>
       </c>
       <c r="F5">
         <v>5250</v>
@@ -2293,18 +2293,18 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1952</v>
+        <v>2011</v>
       </c>
       <c r="C6">
         <v>2056</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="E6" s="5">
         <f>D6/(D15)</f>
-        <v>9.8484848484848481E-2</v>
+        <v>0.1079136690647482</v>
       </c>
       <c r="F6">
         <v>1355</v>
@@ -2328,18 +2328,18 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>1952</v>
+        <v>2026</v>
       </c>
       <c r="C7">
         <v>2056</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="E7" s="5">
         <f>D7/(D15)</f>
-        <v>9.8484848484848481E-2</v>
+        <v>7.1942446043165464E-2</v>
       </c>
       <c r="F7">
         <v>1314</v>
@@ -2363,18 +2363,18 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>1946</v>
+        <v>2012</v>
       </c>
       <c r="C8">
         <v>2056</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="E8" s="5">
         <f>D8/(D15)</f>
-        <v>0.10416666666666667</v>
+        <v>0.10551558752997602</v>
       </c>
       <c r="F8">
         <v>1350</v>
@@ -2401,18 +2401,18 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>1951</v>
+        <v>2018</v>
       </c>
       <c r="C9">
         <v>2056</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="E9" s="5">
         <f>D9/(D15)</f>
-        <v>9.9431818181818177E-2</v>
+        <v>9.1127098321342928E-2</v>
       </c>
       <c r="F9">
         <v>1435</v>
@@ -2439,18 +2439,18 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>1945</v>
+        <v>2004</v>
       </c>
       <c r="C10">
         <v>2056</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="E10" s="5">
         <f>D10/(D15)</f>
-        <v>0.10511363636363637</v>
+        <v>0.12470023980815348</v>
       </c>
       <c r="F10">
         <v>1343</v>
@@ -2477,18 +2477,18 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1951</v>
+        <v>2007</v>
       </c>
       <c r="C11">
         <v>2056</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="E11" s="5">
         <f>D11/(D15)</f>
-        <v>9.9431818181818177E-2</v>
+        <v>0.11750599520383694</v>
       </c>
       <c r="F11">
         <v>1390</v>
@@ -2515,18 +2515,18 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>1945</v>
+        <v>2014</v>
       </c>
       <c r="C12">
         <v>2056</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="E12" s="5">
         <f>D12/(D15)</f>
-        <v>0.10511363636363637</v>
+        <v>0.10071942446043165</v>
       </c>
       <c r="F12">
         <v>1247</v>
@@ -2553,18 +2553,18 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>1958</v>
+        <v>2026</v>
       </c>
       <c r="C13">
         <v>2056</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="E13" s="5">
         <f>D13/(D15)</f>
-        <v>9.2803030303030304E-2</v>
+        <v>7.1942446043165464E-2</v>
       </c>
       <c r="F13">
         <v>1238</v>
@@ -2591,18 +2591,18 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>1962</v>
+        <v>2021</v>
       </c>
       <c r="C14">
         <v>2056</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="E14" s="5">
         <f>D14/(D15)</f>
-        <v>8.9015151515151519E-2</v>
+        <v>8.3932853717026384E-2</v>
       </c>
       <c r="F14">
         <v>1239</v>
@@ -2628,7 +2628,7 @@
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B2:B14)</f>
-        <v>19668</v>
+        <v>20307</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C14)</f>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="D15">
         <f>SUM(D2:D14)</f>
-        <v>1056</v>
+        <v>417</v>
       </c>
       <c r="N15">
         <v>1834</v>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="11">
-        <v>44679.96234953704</v>
+        <v>44682.772465277776</v>
       </c>
       <c r="N16">
         <v>1815</v>
@@ -2712,7 +2712,7 @@
         <v>4131</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31:E44" si="2">D31-D30</f>
+        <f t="shared" ref="E31:E45" si="2">D31-D30</f>
         <v>-293</v>
       </c>
       <c r="J31" s="11">
@@ -2873,6 +2873,18 @@
       </c>
       <c r="J44" s="11">
         <v>44679.965648148151</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10">
+      <c r="D45">
+        <v>417</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>-639</v>
+      </c>
+      <c r="J45" s="11">
+        <v>44682.772407407407</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8DA2FC-F34B-824F-9FB2-D6B1F3A4B8CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860AABB2-3B88-F548-BB61-285BFD9DC86C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="460" windowWidth="33600" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10500" yWindow="2040" windowWidth="33600" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8期" sheetId="9" r:id="rId1"/>
@@ -1627,7 +1627,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="E2" s="5">
         <f>D2/(D9)</f>
-        <v>1.2615643397813289E-3</v>
+        <v>1.7783046828689982E-3</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>20</v>
@@ -1702,18 +1702,18 @@
         <v>105</v>
       </c>
       <c r="B3">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="C3">
         <v>600</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E3" s="5">
         <f>D3/(D9)</f>
-        <v>3.2380151387720775E-2</v>
+        <v>3.7344398340248962E-2</v>
       </c>
       <c r="F3">
         <v>30555</v>
@@ -1737,18 +1737,18 @@
         <v>106</v>
       </c>
       <c r="B4">
-        <v>797</v>
+        <v>825</v>
       </c>
       <c r="C4">
         <v>900</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D8" si="0">C4-B4</f>
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="E4" s="5">
         <f>D4/(D9)</f>
-        <v>4.3313708999158956E-2</v>
+        <v>4.4457617071724957E-2</v>
       </c>
       <c r="F4">
         <v>5400</v>
@@ -1772,18 +1772,18 @@
         <v>108</v>
       </c>
       <c r="B5">
-        <v>819</v>
+        <v>844</v>
       </c>
       <c r="C5">
         <v>900</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E5" s="5">
         <f>D5/(D9)</f>
-        <v>3.4062237174095879E-2</v>
+        <v>3.3195020746887967E-2</v>
       </c>
       <c r="F5">
         <v>5750</v>
@@ -1807,18 +1807,18 @@
         <v>109</v>
       </c>
       <c r="B6">
-        <v>5990</v>
+        <v>6185</v>
       </c>
       <c r="C6">
         <v>6673</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>683</v>
+        <v>488</v>
       </c>
       <c r="E6" s="5">
         <f>D6/(D9)</f>
-        <v>0.28721614802354922</v>
+        <v>0.28927089508002374</v>
       </c>
       <c r="F6">
         <v>1100</v>
@@ -1842,18 +1842,18 @@
         <v>110</v>
       </c>
       <c r="B7">
-        <v>5963</v>
+        <v>6182</v>
       </c>
       <c r="C7">
         <v>6673</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>710</v>
+        <v>491</v>
       </c>
       <c r="E7" s="5">
         <f>D7/(D9)</f>
-        <v>0.29857022708158115</v>
+        <v>0.29104919976289273</v>
       </c>
       <c r="F7">
         <v>1050</v>
@@ -1877,18 +1877,18 @@
         <v>111</v>
       </c>
       <c r="B8">
-        <v>5952</v>
+        <v>6162</v>
       </c>
       <c r="C8">
         <v>6673</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>721</v>
+        <v>511</v>
       </c>
       <c r="E8" s="5">
         <f>D8/(D9)</f>
-        <v>0.30319596299411272</v>
+        <v>0.30290456431535268</v>
       </c>
       <c r="F8">
         <v>1048</v>
@@ -1911,7 +1911,7 @@
       <c r="A9" s="1"/>
       <c r="B9">
         <f>SUM(B2:B8)</f>
-        <v>20061</v>
+        <v>20752</v>
       </c>
       <c r="C9">
         <f>SUM(C2:C8)</f>
@@ -1919,12 +1919,12 @@
       </c>
       <c r="D9">
         <f>SUM(D2:D8)</f>
-        <v>2378</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="7">
-        <v>44682.792430555557</v>
+        <v>44686.557824074072</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
@@ -1944,7 +1944,7 @@
         <v>44670.543634259258</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:C20" si="2">D13-D12</f>
+        <f t="shared" ref="C13:C21" si="2">D13-D12</f>
         <v>-432</v>
       </c>
       <c r="D13">
@@ -2037,6 +2037,16 @@
       <c r="N20" s="11"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1">
+      <c r="A21" s="11">
+        <v>44686.557928240742</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>-691</v>
+      </c>
+      <c r="D21">
+        <v>1687</v>
+      </c>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21">
@@ -2103,6 +2113,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860AABB2-3B88-F548-BB61-285BFD9DC86C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A7E427-5AEE-DF40-9114-2A2E3ADEB4E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="2040" windowWidth="33600" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3440" yWindow="1120" windowWidth="33600" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8期" sheetId="9" r:id="rId1"/>
@@ -1627,7 +1627,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2120,10 +2120,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D06DC-D0D3-DC41-8495-1A009DF45D20}">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="E2" s="5">
         <f>D2/(D15)</f>
-        <v>9.5923261390887284E-3</v>
+        <v>1.0230179028132993E-2</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>20</v>
@@ -2196,18 +2196,18 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="C3">
         <v>700</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3" s="5">
         <f>D3/(D15)</f>
-        <v>4.5563549160671464E-2</v>
+        <v>4.0920716112531973E-2</v>
       </c>
       <c r="F3">
         <v>30555</v>
@@ -2234,18 +2234,18 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C4">
         <v>750</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D14" si="1">C4-B4</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5">
         <f>D4/(D15)</f>
-        <v>3.117505995203837E-2</v>
+        <v>2.557544757033248E-2</v>
       </c>
       <c r="F4">
         <v>5088</v>
@@ -2269,18 +2269,18 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C5">
         <v>750</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="5">
         <f>D5/(D15)</f>
-        <v>3.8369304556354913E-2</v>
+        <v>3.8363171355498722E-2</v>
       </c>
       <c r="F5">
         <v>5250</v>
@@ -2304,18 +2304,18 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="C6">
         <v>2056</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E6" s="5">
         <f>D6/(D15)</f>
-        <v>0.1079136690647482</v>
+        <v>0.10741687979539642</v>
       </c>
       <c r="F6">
         <v>1355</v>
@@ -2339,18 +2339,18 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="C7">
         <v>2056</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="5">
         <f>D7/(D15)</f>
-        <v>7.1942446043165464E-2</v>
+        <v>7.1611253196930943E-2</v>
       </c>
       <c r="F7">
         <v>1314</v>
@@ -2374,18 +2374,18 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C8">
         <v>2056</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E8" s="5">
         <f>D8/(D15)</f>
-        <v>0.10551558752997602</v>
+        <v>0.10230179028132992</v>
       </c>
       <c r="F8">
         <v>1350</v>
@@ -2412,18 +2412,18 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C9">
         <v>2056</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" s="5">
         <f>D9/(D15)</f>
-        <v>9.1127098321342928E-2</v>
+        <v>9.2071611253196933E-2</v>
       </c>
       <c r="F9">
         <v>1435</v>
@@ -2450,18 +2450,18 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="C10">
         <v>2056</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E10" s="5">
         <f>D10/(D15)</f>
-        <v>0.12470023980815348</v>
+        <v>0.12531969309462915</v>
       </c>
       <c r="F10">
         <v>1343</v>
@@ -2488,18 +2488,18 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="C11">
         <v>2056</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E11" s="5">
         <f>D11/(D15)</f>
-        <v>0.11750599520383694</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="F11">
         <v>1390</v>
@@ -2526,18 +2526,18 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C12">
         <v>2056</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="5">
         <f>D12/(D15)</f>
-        <v>0.10071942446043165</v>
+        <v>0.10485933503836317</v>
       </c>
       <c r="F12">
         <v>1247</v>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="E13" s="5">
         <f>D13/(D15)</f>
-        <v>7.1942446043165464E-2</v>
+        <v>7.6726342710997444E-2</v>
       </c>
       <c r="F13">
         <v>1238</v>
@@ -2602,18 +2602,18 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C14">
         <v>2056</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="5">
         <f>D14/(D15)</f>
-        <v>8.3932853717026384E-2</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="F14">
         <v>1239</v>
@@ -2639,7 +2639,7 @@
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B2:B14)</f>
-        <v>20307</v>
+        <v>20333</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C14)</f>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="D15">
         <f>SUM(D2:D14)</f>
-        <v>417</v>
+        <v>391</v>
       </c>
       <c r="N15">
         <v>1834</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="11">
-        <v>44682.772465277776</v>
+        <v>44686.560150462959</v>
       </c>
       <c r="N16">
         <v>1815</v>
@@ -2723,7 +2723,7 @@
         <v>4131</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31:E45" si="2">D31-D30</f>
+        <f t="shared" ref="E31:E46" si="2">D31-D30</f>
         <v>-293</v>
       </c>
       <c r="J31" s="11">
@@ -2896,6 +2896,18 @@
       </c>
       <c r="J45" s="11">
         <v>44682.772407407407</v>
+      </c>
+    </row>
+    <row r="46" spans="4:10">
+      <c r="D46">
+        <v>391</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>-26</v>
+      </c>
+      <c r="J46" s="11">
+        <v>44686.560300925928</v>
       </c>
     </row>
   </sheetData>
@@ -2905,6 +2917,7 @@
     <hyperlink ref="K3" r:id="rId2" xr:uid="{1C020035-B25F-F547-9F40-CA3D97BA6B45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A7E427-5AEE-DF40-9114-2A2E3ADEB4E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018F0AEA-3A25-B04B-8C86-D1B98F46BD0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="1120" windowWidth="33600" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="1260" windowWidth="33600" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8期" sheetId="9" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="113">
   <si>
     <t>已开</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,6 +395,10 @@
   </si>
   <si>
     <t>蔷薇处处开</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1627,7 +1631,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1684,7 +1688,7 @@
       </c>
       <c r="E2" s="5">
         <f>D2/(D9)</f>
-        <v>1.7783046828689982E-3</v>
+        <v>2.0689655172413794E-3</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>20</v>
@@ -1702,18 +1706,18 @@
         <v>105</v>
       </c>
       <c r="B3">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="C3">
         <v>600</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E3" s="5">
         <f>D3/(D9)</f>
-        <v>3.7344398340248962E-2</v>
+        <v>3.8620689655172416E-2</v>
       </c>
       <c r="F3">
         <v>30555</v>
@@ -1737,18 +1741,18 @@
         <v>106</v>
       </c>
       <c r="B4">
-        <v>825</v>
+        <v>835</v>
       </c>
       <c r="C4">
         <v>900</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D8" si="0">C4-B4</f>
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E4" s="5">
         <f>D4/(D9)</f>
-        <v>4.4457617071724957E-2</v>
+        <v>4.4827586206896551E-2</v>
       </c>
       <c r="F4">
         <v>5400</v>
@@ -1772,18 +1776,18 @@
         <v>108</v>
       </c>
       <c r="B5">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="C5">
         <v>900</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E5" s="5">
         <f>D5/(D9)</f>
-        <v>3.3195020746887967E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="F5">
         <v>5750</v>
@@ -1807,18 +1811,18 @@
         <v>109</v>
       </c>
       <c r="B6">
-        <v>6185</v>
+        <v>6251</v>
       </c>
       <c r="C6">
         <v>6673</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>488</v>
+        <v>422</v>
       </c>
       <c r="E6" s="5">
         <f>D6/(D9)</f>
-        <v>0.28927089508002374</v>
+        <v>0.29103448275862071</v>
       </c>
       <c r="F6">
         <v>1100</v>
@@ -1842,18 +1846,18 @@
         <v>110</v>
       </c>
       <c r="B7">
-        <v>6182</v>
+        <v>6256</v>
       </c>
       <c r="C7">
         <v>6673</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>491</v>
+        <v>417</v>
       </c>
       <c r="E7" s="5">
         <f>D7/(D9)</f>
-        <v>0.29104919976289273</v>
+        <v>0.28758620689655173</v>
       </c>
       <c r="F7">
         <v>1050</v>
@@ -1877,18 +1881,18 @@
         <v>111</v>
       </c>
       <c r="B8">
-        <v>6162</v>
+        <v>6236</v>
       </c>
       <c r="C8">
         <v>6673</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>511</v>
+        <v>437</v>
       </c>
       <c r="E8" s="5">
         <f>D8/(D9)</f>
-        <v>0.30290456431535268</v>
+        <v>0.30137931034482757</v>
       </c>
       <c r="F8">
         <v>1048</v>
@@ -1911,7 +1915,7 @@
       <c r="A9" s="1"/>
       <c r="B9">
         <f>SUM(B2:B8)</f>
-        <v>20752</v>
+        <v>20989</v>
       </c>
       <c r="C9">
         <f>SUM(C2:C8)</f>
@@ -1919,7 +1923,7 @@
       </c>
       <c r="D9">
         <f>SUM(D2:D8)</f>
-        <v>1687</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
@@ -1944,7 +1948,7 @@
         <v>44670.543634259258</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:C21" si="2">D13-D12</f>
+        <f t="shared" ref="C13:C22" si="2">D13-D12</f>
         <v>-432</v>
       </c>
       <c r="D13">
@@ -1961,6 +1965,9 @@
       </c>
       <c r="D14">
         <v>11367</v>
+      </c>
+      <c r="G14" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
@@ -2057,6 +2064,16 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1">
+      <c r="A22" s="11">
+        <v>44689.000833333332</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>-237</v>
+      </c>
+      <c r="D22">
+        <v>1450</v>
+      </c>
       <c r="J22" s="11"/>
       <c r="L22">
         <v>12490</v>
@@ -2120,10 +2137,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D06DC-D0D3-DC41-8495-1A009DF45D20}">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2168,18 +2185,18 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>20</v>
       </c>
       <c r="D2">
         <f>C2-B2</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="5">
         <f>D2/(D15)</f>
-        <v>1.0230179028132993E-2</v>
+        <v>8.130081300813009E-3</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>20</v>
@@ -2196,18 +2213,18 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C3">
         <v>700</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3" s="5">
         <f>D3/(D15)</f>
-        <v>4.0920716112531973E-2</v>
+        <v>3.5230352303523033E-2</v>
       </c>
       <c r="F3">
         <v>30555</v>
@@ -2234,18 +2251,18 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C4">
         <v>750</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D14" si="1">C4-B4</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="5">
         <f>D4/(D15)</f>
-        <v>2.557544757033248E-2</v>
+        <v>2.4390243902439025E-2</v>
       </c>
       <c r="F4">
         <v>5088</v>
@@ -2269,18 +2286,18 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C5">
         <v>750</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="5">
         <f>D5/(D15)</f>
-        <v>3.8363171355498722E-2</v>
+        <v>3.7940379403794036E-2</v>
       </c>
       <c r="F5">
         <v>5250</v>
@@ -2304,18 +2321,18 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C6">
         <v>2056</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="5">
         <f>D6/(D15)</f>
-        <v>0.10741687979539642</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F6">
         <v>1355</v>
@@ -2339,18 +2356,18 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="C7">
         <v>2056</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="5">
         <f>D7/(D15)</f>
-        <v>7.1611253196930943E-2</v>
+        <v>7.3170731707317069E-2</v>
       </c>
       <c r="F7">
         <v>1314</v>
@@ -2374,18 +2391,18 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C8">
         <v>2056</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8" s="5">
         <f>D8/(D15)</f>
-        <v>0.10230179028132992</v>
+        <v>0.10298102981029811</v>
       </c>
       <c r="F8">
         <v>1350</v>
@@ -2412,18 +2429,18 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C9">
         <v>2056</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9" s="5">
         <f>D9/(D15)</f>
-        <v>9.2071611253196933E-2</v>
+        <v>9.2140921409214094E-2</v>
       </c>
       <c r="F9">
         <v>1435</v>
@@ -2450,18 +2467,18 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="C10">
         <v>2056</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E10" s="5">
         <f>D10/(D15)</f>
-        <v>0.12531969309462915</v>
+        <v>0.12466124661246612</v>
       </c>
       <c r="F10">
         <v>1343</v>
@@ -2488,18 +2505,18 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="C11">
         <v>2056</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E11" s="5">
         <f>D11/(D15)</f>
-        <v>0.11764705882352941</v>
+        <v>0.11924119241192412</v>
       </c>
       <c r="F11">
         <v>1390</v>
@@ -2526,18 +2543,18 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C12">
         <v>2056</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E12" s="5">
         <f>D12/(D15)</f>
-        <v>0.10485933503836317</v>
+        <v>0.10569105691056911</v>
       </c>
       <c r="F12">
         <v>1247</v>
@@ -2564,18 +2581,18 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="C13">
         <v>2056</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="5">
         <f>D13/(D15)</f>
-        <v>7.6726342710997444E-2</v>
+        <v>7.8590785907859076E-2</v>
       </c>
       <c r="F13">
         <v>1238</v>
@@ -2602,18 +2619,18 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C14">
         <v>2056</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14" s="5">
         <f>D14/(D15)</f>
-        <v>8.6956521739130432E-2</v>
+        <v>8.6720867208672087E-2</v>
       </c>
       <c r="F14">
         <v>1239</v>
@@ -2639,7 +2656,7 @@
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B2:B14)</f>
-        <v>20333</v>
+        <v>20355</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C14)</f>
@@ -2647,7 +2664,7 @@
       </c>
       <c r="D15">
         <f>SUM(D2:D14)</f>
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="N15">
         <v>1834</v>
@@ -2723,7 +2740,7 @@
         <v>4131</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31:E46" si="2">D31-D30</f>
+        <f t="shared" ref="E31:E47" si="2">D31-D30</f>
         <v>-293</v>
       </c>
       <c r="J31" s="11">
@@ -2908,6 +2925,18 @@
       </c>
       <c r="J46" s="11">
         <v>44686.560300925928</v>
+      </c>
+    </row>
+    <row r="47" spans="4:10">
+      <c r="D47">
+        <v>370</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>-21</v>
+      </c>
+      <c r="J47" s="11">
+        <v>44689.003310185188</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/盲盒.xlsx
+++ b/xlsx/盲盒.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz/myfile/test/ibox/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018F0AEA-3A25-B04B-8C86-D1B98F46BD0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12655EE-1023-544E-AB51-FBEDE76FD7C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1260" windowWidth="33600" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="1440" windowWidth="33600" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8期" sheetId="9" r:id="rId1"/>
@@ -1631,7 +1631,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1677,18 +1677,18 @@
         <v>107</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>20</v>
       </c>
       <c r="D2">
         <f>C2-B2</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="5">
         <f>D2/(D9)</f>
-        <v>2.0689655172413794E-3</v>
+        <v>3.937007874015748E-3</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>20</v>
@@ -1706,18 +1706,18 @@
         <v>105</v>
       </c>
       <c r="B3">
-        <v>544</v>
+        <v>579</v>
       </c>
       <c r="C3">
         <v>600</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="E3" s="5">
         <f>D3/(D9)</f>
-        <v>3.8620689655172416E-2</v>
+        <v>4.1338582677165357E-2</v>
       </c>
       <c r="F3">
         <v>30555</v>
@@ -1741,18 +1741,18 @@
         <v>106</v>
       </c>
       <c r="B4">
-        <v>835</v>
+        <v>866</v>
       </c>
       <c r="C4">
         <v>900</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D8" si="0">C4-B4</f>
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="E4" s="5">
         <f>D4/(D9)</f>
-        <v>4.4827586206896551E-2</v>
+        <v>6.6929133858267723E-2</v>
       </c>
       <c r="F4">
         <v>5400</v>
@@ -1776,18 +1776,18 @@
         <v>108</v>
       </c>
       <c r="B5">
-        <v>850</v>
+        <v>872</v>
       </c>
       <c r="C5">
         <v>900</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E5" s="5">
         <f>D5/(D9)</f>
-        <v>3.4482758620689655E-2</v>
+        <v>5.5118110236220472E-2</v>
       </c>
       <c r="F5">
         <v>5750</v>
@@ -1811,18 +1811,18 @@
         <v>109</v>
       </c>
       <c r="B6">
-        <v>6251</v>
+        <v>6468</v>
       </c>
       <c r="C6">
         <v>6673</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>422</v>
+        <v>205</v>
       </c>
       <c r="E6" s="5">
         <f>D6/(D9)</f>
-        <v>0.29103448275862071</v>
+        <v>0.40354330708661418</v>
       </c>
       <c r="F6">
         <v>1100</v>
@@ -1846,18 +1846,18 @@
         <v>110</v>
       </c>
       <c r="B7">
-        <v>6256</v>
+        <v>6455</v>
       </c>
       <c r="C7">
         <v>6673</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>417</v>
+        <v>218</v>
       </c>
       <c r="E7" s="5">
         <f>D7/(D9)</f>
-        <v>0.28758620689655173</v>
+        <v>0.42913385826771655</v>
       </c>
       <c r="F7">
         <v>1050</v>
@@ -1881,18 +1881,18 @@
         <v>111</v>
       </c>
       <c r="B8">
-        <v>6236</v>
+        <v>6673</v>
       </c>
       <c r="C8">
         <v>6673</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>437</v>
+        <v>0</v>
       </c>
       <c r="E8" s="5">
         <f>D8/(D9)</f>
-        <v>0.30137931034482757</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>1048</v>
@@ -1915,7 +1915,7 @@
       <c r="A9" s="1"/>
       <c r="B9">
         <f>SUM(B2:B8)</f>
-        <v>20989</v>
+        <v>21931</v>
       </c>
       <c r="C9">
         <f>SUM(C2:C8)</f>
@@ -1923,12 +1923,12 @@
       </c>
       <c r="D9">
         <f>SUM(D2:D8)</f>
-        <v>1450</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="7">
-        <v>44686.557824074072</v>
+        <v>44692.916435185187</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
@@ -1948,7 +1948,7 @@
         <v>44670.543634259258</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:C22" si="2">D13-D12</f>
+        <f t="shared" ref="C13:C23" si="2">D13-D12</f>
         <v>-432</v>
       </c>
       <c r="D13">
@@ -2087,6 +2087,16 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1">
+      <c r="A23" s="11">
+        <v>44692.916388888887</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>-941</v>
+      </c>
+      <c r="D23">
+        <v>509</v>
+      </c>
       <c r="J23" s="11"/>
       <c r="L23">
         <v>11367</v>
@@ -2137,10 +2147,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D06DC-D0D3-DC41-8495-1A009DF45D20}">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2185,18 +2195,18 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>20</v>
       </c>
       <c r="D2">
         <f>C2-B2</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="5">
         <f>D2/(D15)</f>
-        <v>8.130081300813009E-3</v>
+        <v>6.4308681672025723E-3</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>20</v>
@@ -2224,7 +2234,7 @@
       </c>
       <c r="E3" s="5">
         <f>D3/(D15)</f>
-        <v>3.5230352303523033E-2</v>
+        <v>4.1800643086816719E-2</v>
       </c>
       <c r="F3">
         <v>30555</v>
@@ -2251,18 +2261,18 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C4">
         <v>750</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D14" si="1">C4-B4</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="5">
         <f>D4/(D15)</f>
-        <v>2.4390243902439025E-2</v>
+        <v>2.2508038585209004E-2</v>
       </c>
       <c r="F4">
         <v>5088</v>
@@ -2286,18 +2296,18 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C5">
         <v>750</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="5">
         <f>D5/(D15)</f>
-        <v>3.7940379403794036E-2</v>
+        <v>3.8585209003215437E-2</v>
       </c>
       <c r="F5">
         <v>5250</v>
@@ -2321,18 +2331,18 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="C6">
         <v>2056</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E6" s="5">
         <f>D6/(D15)</f>
-        <v>0.1111111111111111</v>
+        <v>0.10610932475884244</v>
       </c>
       <c r="F6">
         <v>1355</v>
@@ -2356,18 +2366,18 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>2029</v>
+        <v>2033</v>
       </c>
       <c r="C7">
         <v>2056</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7" s="5">
         <f>D7/(D15)</f>
-        <v>7.3170731707317069E-2</v>
+        <v>7.3954983922829579E-2</v>
       </c>
       <c r="F7">
         <v>1314</v>
@@ -2391,18 +2401,18 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="C8">
         <v>2056</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E8" s="5">
         <f>D8/(D15)</f>
-        <v>0.10298102981029811</v>
+        <v>0.10610932475884244</v>
       </c>
       <c r="F8">
         <v>1350</v>
@@ -2429,18 +2439,18 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>2022</v>
+        <v>2027</v>
       </c>
       <c r="C9">
         <v>2056</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E9" s="5">
         <f>D9/(D15)</f>
-        <v>9.2140921409214094E-2</v>
+        <v>9.3247588424437297E-2</v>
       </c>
       <c r="F9">
         <v>1435</v>
@@ -2467,18 +2477,18 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="C10">
         <v>2056</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E10" s="5">
         <f>D10/(D15)</f>
-        <v>0.12466124661246612</v>
+        <v>0.12861736334405144</v>
       </c>
       <c r="F10">
         <v>1343</v>
@@ -2505,18 +2515,18 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="C11">
         <v>2056</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E11" s="5">
         <f>D11/(D15)</f>
-        <v>0.11924119241192412</v>
+        <v>0.1157556270096463</v>
       </c>
       <c r="F11">
         <v>1390</v>
@@ -2543,18 +2553,18 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>2017</v>
+        <v>2025</v>
       </c>
       <c r="C12">
         <v>2056</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E12" s="5">
         <f>D12/(D15)</f>
-        <v>0.10569105691056911</v>
+        <v>9.9678456591639875E-2</v>
       </c>
       <c r="F12">
         <v>1247</v>
@@ -2581,18 +2591,18 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>2027</v>
+        <v>2029</v>
       </c>
       <c r="C13">
         <v>2056</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" s="5">
         <f>D13/(D15)</f>
-        <v>7.8590785907859076E-2</v>
+        <v>8.6816720257234734E-2</v>
       </c>
       <c r="F13">
         <v>1238</v>
@@ -2619,18 +2629,18 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>2024</v>
+        <v>2031</v>
       </c>
       <c r="C14">
         <v>2056</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E14" s="5">
         <f>D14/(D15)</f>
-        <v>8.6720867208672087E-2</v>
+        <v>8.0385852090032156E-2</v>
       </c>
       <c r="F14">
         <v>1239</v>
@@ -2656,7 +2666,7 @@
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B2:B14)</f>
-        <v>20355</v>
+        <v>20413</v>
       </c>
       <c r="C15">
         <f>SUM(C2:C14)</f>
@@ -2664,7 +2674,7 @@
       </c>
       <c r="D15">
         <f>SUM(D2:D14)</f>
-        <v>369</v>
+        <v>311</v>
       </c>
       <c r="N15">
         <v>1834</v>
@@ -2672,7 +2682,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="11">
-        <v>44686.560150462959</v>
+        <v>44692.919016203705</v>
       </c>
       <c r="N16">
         <v>1815</v>
@@ -2740,7 +2750,7 @@
         <v>4131</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31:E47" si="2">D31-D30</f>
+        <f t="shared" ref="E31:E48" si="2">D31-D30</f>
         <v>-293</v>
       </c>
       <c r="J31" s="11">
@@ -2937,6 +2947,18 @@
       </c>
       <c r="J47" s="11">
         <v>44689.003310185188</v>
+      </c>
+    </row>
+    <row r="48" spans="4:10">
+      <c r="D48">
+        <v>311</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>-59</v>
+      </c>
+      <c r="J48" s="11">
+        <v>44692.918946759259</v>
       </c>
     </row>
   </sheetData>
